--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,71 +74,345 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>180401010000066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门卡出入库登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门卡编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaa5643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaa5bb3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa9d253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京航瑞核心科技有限公司</t>
+  </si>
+  <si>
+    <t>faabe9c3</t>
+  </si>
+  <si>
+    <t>180601010000008</t>
+  </si>
+  <si>
+    <t>180601010000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C007583D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000011</t>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAAC7E53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000012</t>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2315f96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正峰电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ab3f26f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faae00f3</t>
+  </si>
+  <si>
     <t>180601010000010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180401010000066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门卡出入库登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门卡编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaa5643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000003</t>
+    <t>100000061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁(套)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示门锁带锁架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180401010000063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180401010000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa9d0a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa87363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faab5273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa9b393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa9a993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac0ab3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa896c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa8dce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad7da3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faab7b83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad27d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad4903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaa08d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad4f93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaccdd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa8de33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabbd03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaaeab3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad8ed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac5e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabd4e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac8d33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹从军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易腾辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,273 +424,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faaa5bb3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa9d253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京航瑞核心科技有限公司</t>
-  </si>
-  <si>
-    <t>faabe9c3</t>
-  </si>
-  <si>
-    <t>180601010000008</t>
-  </si>
-  <si>
-    <t>180601010000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C007583D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000011</t>
-  </si>
-  <si>
-    <t>再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAAC7E53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000012</t>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2315f96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正峰电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ab3f26f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faae00f3</t>
-  </si>
-  <si>
-    <t>100000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>faad8273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门磁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁(套)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示门锁带锁架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+10+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180401010000063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180401010000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa9d0a3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa87363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faab5273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa9b393</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa9a993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac0ab3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa896c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa8dce3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad7da3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faab7b83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad27d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad4903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaa08d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad4f93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaccdd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa8de33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabbd03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaaeab3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad8ed3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac5e23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabd4e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac8d33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹从军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易腾辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,9 +605,6 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -615,140 +620,113 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1053,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1062,97 +1040,97 @@
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="22" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="4.25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="4.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="7" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="21" customWidth="1"/>
     <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
     <col min="17" max="21" width="4.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="6.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="4.75" style="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="5.5" style="39" customWidth="1"/>
+    <col min="25" max="25" width="5.5" style="21" customWidth="1"/>
     <col min="26" max="26" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="18" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1160,111 +1138,111 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>73</v>
+      <c r="N3" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="18"/>
+      <c r="Y3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="30">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16">
         <v>868744030870087</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="30" t="s">
+      <c r="E4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="30"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1">
@@ -1273,16 +1251,16 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
         <v>868744030885911</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1293,205 +1271,216 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
         <v>868744030898922</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="30">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="16">
         <v>863703032301108</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="26">
+      <c r="E7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="16">
         <v>1</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="35">
+      <c r="M7" s="17"/>
+      <c r="N7" s="20">
         <v>1</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="30"/>
+      <c r="O7" s="26">
+        <v>43302</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="30">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16">
         <v>868744030885796</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="26">
+      <c r="E8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="35">
+      <c r="M8" s="17"/>
+      <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="26">
         <v>43298</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="26">
+      <c r="P8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="16">
         <v>1</v>
       </c>
-      <c r="X8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="35">
+      <c r="X8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" s="20">
         <v>1</v>
       </c>
-      <c r="Z8" s="30"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="30">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="16">
         <v>868744030897866</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="26">
+      <c r="E9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="16">
         <v>1</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="35">
+      <c r="M9" s="17"/>
+      <c r="N9" s="20">
         <v>1</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="26">
         <v>43298</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="26">
+      <c r="P9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="16">
         <v>1</v>
       </c>
-      <c r="X9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y9" s="35">
+      <c r="X9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" s="20">
         <v>1</v>
       </c>
-      <c r="Z9" s="30"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="1">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="16">
         <v>868744030870145</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="M10" s="17"/>
+      <c r="N10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="21">
-        <v>2</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="39">
-        <v>1</v>
-      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1">
@@ -1501,18 +1490,18 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
         <v>863703032882602</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2247,7 +2236,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Y2"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E8:K8"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="P8:V8"/>
@@ -2256,15 +2253,9 @@
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="P7:V7"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Y2"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N1:N2 N4:N1048576 Y1:Y2 Y4:Y1048576">
+  <conditionalFormatting sqref="N1:N2 Y1:Y2 N4:N1048576 Y4:Y1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2278,17 +2269,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13" style="39" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -2299,586 +2290,588 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>26</v>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="B4" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C4" s="25">
         <v>10000002</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C5" s="45">
+      <c r="B5" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C5" s="25">
         <v>10000003</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>101</v>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C6" s="25">
         <v>10000004</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="D6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C7" s="25">
         <v>10000005</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>29</v>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C8" s="25">
         <v>10000007</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>37</v>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="B9" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C9" s="25">
         <v>10000008</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>37</v>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="42" t="s">
+      <c r="B11" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>44</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="B13" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
+      <c r="B14" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>100</v>
+      <c r="B15" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C16" s="12">
         <v>100000051</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>78</v>
+      <c r="D16" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C17" s="22">
+      <c r="B17" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C17" s="12">
         <v>100000071</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>79</v>
+      <c r="D17" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="B18" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C18" s="12">
         <v>100000081</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>80</v>
+      <c r="D18" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C19" s="22">
+      <c r="B19" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C19" s="12">
         <v>100000091</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>81</v>
+      <c r="D19" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C20" s="22">
+      <c r="B20" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C20" s="12">
         <v>100000101</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>82</v>
+      <c r="D20" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C21" s="12">
         <v>100000111</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>83</v>
+      <c r="D21" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C22" s="22">
+      <c r="B22" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C22" s="12">
         <v>100000121</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>84</v>
+      <c r="D22" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C23" s="22">
+      <c r="B23" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C23" s="12">
         <v>100000131</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>85</v>
+      <c r="D23" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="B24" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C24" s="12">
         <v>100000141</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>86</v>
+      <c r="D24" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="B25" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C25" s="12">
         <v>100000151</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>87</v>
+      <c r="D25" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C26" s="22">
+      <c r="B26" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C26" s="12">
         <v>100000161</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>88</v>
+      <c r="D26" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="B27" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C27" s="12">
         <v>100000171</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>89</v>
+      <c r="D27" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C28" s="22">
+      <c r="B28" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C28" s="12">
         <v>100000181</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>90</v>
+      <c r="D28" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C29" s="22">
+      <c r="B29" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C29" s="12">
         <v>100000191</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>91</v>
+      <c r="D29" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C30" s="22">
+      <c r="B30" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C30" s="12">
         <v>100000201</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>92</v>
+      <c r="D30" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C31" s="22">
+      <c r="B31" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C31" s="12">
         <v>100000211</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>93</v>
+      <c r="D31" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C32" s="22">
+      <c r="B32" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C32" s="12">
         <v>100000221</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>94</v>
+      <c r="D32" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C33" s="22">
+      <c r="B33" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C33" s="12">
         <v>100000231</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>95</v>
+      <c r="D33" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C34" s="22">
+      <c r="B34" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C34" s="12">
         <v>100000241</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>96</v>
+      <c r="D34" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="B35" s="11">
+        <v>43297</v>
+      </c>
+      <c r="C35" s="12">
         <v>100000251</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>97</v>
+      <c r="D35" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>43297</v>
       </c>
     </row>
@@ -2886,7 +2879,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>43297</v>
       </c>
     </row>
@@ -2894,20 +2887,20 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="12">
-        <v>43297</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="B38" s="11">
+        <v>43297</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180401010000066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180601010000067</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180601010000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岳友兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +155,6 @@
     <t>180601010000008</t>
   </si>
   <si>
-    <t>180601010000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +413,86 @@
   </si>
   <si>
     <t>faad8273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad3e43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试万能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试万能卡）再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架板子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +551,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -504,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -577,13 +652,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +756,45 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,12 +848,111 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1029,1235 +1255,2175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="4.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="7" customWidth="1"/>
+    <col min="9" max="10" width="4.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="7" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
-    <col min="17" max="21" width="4.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.75" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="5.5" style="21" customWidth="1"/>
-    <col min="26" max="26" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="4.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="5.5" style="21" customWidth="1"/>
+    <col min="29" max="29" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:29" ht="28.5" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="31" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="36" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:29">
+      <c r="A3" s="49"/>
+      <c r="B3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="49"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <f>P4-AB4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="E4" s="16">
+        <v>868744030870087</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="36"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="16">
-        <v>868744030870087</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="20">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="20"/>
+      <c r="P4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="17"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="37">
+        <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="D5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7">
         <v>868744030885911</v>
       </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16">
+        <v>863703032301108</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>43302</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="17"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="16">
+        <v>868744030885796</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>43298</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="17"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="16">
+        <v>868744030897866</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>43298</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16">
+        <v>868744030870145</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="16">
+        <v>1</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="D10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="7">
         <v>868744030898922</v>
       </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="17">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16">
-        <v>863703032301108</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="20">
-        <v>1</v>
-      </c>
-      <c r="O7" s="26">
-        <v>43302</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="16">
-        <v>1</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="17"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="17">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="16">
-        <v>868744030885796</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="20">
-        <v>1</v>
-      </c>
-      <c r="O8" s="26">
-        <v>43298</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="16">
-        <v>1</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="17">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="16">
-        <v>868744030897866</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="16">
-        <v>1</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20">
-        <v>1</v>
-      </c>
-      <c r="O9" s="26">
-        <v>43298</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="16">
-        <v>1</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="17">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="16">
-        <v>868744030870145</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="20">
-        <v>1</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="17"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
         <v>863703032882602</v>
       </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="B12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="7">
+        <v>863703032882750</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="P12" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="AA12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="B13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="7">
+        <v>868744030870970</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="P13" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="AA13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="B14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="7">
+        <v>863703033726113</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="P14" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="AA14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="B15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="7">
+        <v>863703033732442</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="P15" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="AA15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="7">
+        <v>863703033725131</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="AA16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="7">
+        <v>868744030870194</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="P17" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>43308</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="63"/>
+      <c r="AA17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="37">
+        <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="37">
+        <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>154</v>
       </c>
+      <c r="B157" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Y2"/>
-    <mergeCell ref="A1:Z1"/>
+  <mergeCells count="28">
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N1:N2 Y1:Y2 N4:N1048576 Y4:Y1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2270,7 +3436,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2290,69 +3456,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="A1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -2365,13 +3523,16 @@
         <v>10000002</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2385,13 +3546,16 @@
         <v>10000003</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2405,13 +3569,16 @@
         <v>10000004</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2425,13 +3592,16 @@
         <v>10000005</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2445,13 +3615,16 @@
         <v>10000007</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2465,13 +3638,16 @@
         <v>10000008</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2482,16 +3658,22 @@
         <v>43297</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43284</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2502,16 +3684,22 @@
         <v>43297</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43284</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2522,16 +3710,22 @@
         <v>43297</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="59">
+        <v>43283</v>
+      </c>
+      <c r="I12" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2542,13 +3736,17 @@
         <v>43297</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="I13" s="45"/>
+        <v>47</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -2558,13 +3756,13 @@
         <v>43297</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2575,16 +3773,22 @@
         <v>43297</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43294</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2598,10 +3802,13 @@
         <v>100000051</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2612,24 +3819,39 @@
         <v>100000071</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>43297</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>100000081</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43308</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2640,10 +3862,10 @@
         <v>100000091</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2654,10 +3876,10 @@
         <v>100000101</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2668,10 +3890,10 @@
         <v>100000111</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2682,10 +3904,10 @@
         <v>100000121</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2696,10 +3918,10 @@
         <v>100000131</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2710,10 +3932,10 @@
         <v>100000141</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2724,10 +3946,10 @@
         <v>100000151</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2738,10 +3960,10 @@
         <v>100000161</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2752,10 +3974,10 @@
         <v>100000171</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2766,10 +3988,10 @@
         <v>100000181</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2780,10 +4002,10 @@
         <v>100000191</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2794,10 +4016,10 @@
         <v>100000201</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2808,10 +4030,10 @@
         <v>100000211</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2822,7 +4044,7 @@
         <v>100000221</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2836,7 +4058,7 @@
         <v>100000231</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2850,7 +4072,7 @@
         <v>100000241</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2864,7 +4086,7 @@
         <v>100000251</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2874,6 +4096,12 @@
       <c r="B36" s="11">
         <v>43297</v>
       </c>
+      <c r="C36" s="12">
+        <v>100000261</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
@@ -2908,10 +4136,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,14 @@
   </si>
   <si>
     <t>测试架板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁国辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,6 +803,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,93 +871,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1261,119 +1197,121 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="7" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="7" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="12" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="7" customWidth="1"/>
     <col min="9" max="10" width="4.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="12" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="7" customWidth="1"/>
     <col min="13" max="13" width="6.125" style="12" customWidth="1"/>
     <col min="14" max="14" width="4.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.625" style="1" customWidth="1"/>
-    <col min="20" max="24" width="4.75" style="1" customWidth="1"/>
+    <col min="20" max="21" width="4.75" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.75" style="21" customWidth="1"/>
+    <col min="24" max="24" width="4.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="6.5" style="1" customWidth="1"/>
     <col min="26" max="26" width="4.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
+    <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="5.5" style="21" customWidth="1"/>
     <col min="29" max="29" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="49"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1387,7 @@
       <c r="AB3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="49"/>
+      <c r="AC3" s="52"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="17">
@@ -1469,16 +1407,18 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="16"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
       <c r="O4" s="17" t="s">
         <v>12</v>
       </c>
@@ -1487,13 +1427,13 @@
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="33"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="58"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="20"/>
@@ -1505,7 +1445,7 @@
       </c>
       <c r="B5" s="37">
         <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1523,12 +1463,63 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="P5" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>43308</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="21">
+        <v>1</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1550,15 +1541,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="16">
         <v>1</v>
       </c>
@@ -1570,15 +1561,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="46"/>
       <c r="Z6" s="16">
         <v>1</v>
       </c>
@@ -1608,15 +1599,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="16">
         <v>1</v>
       </c>
@@ -1628,15 +1619,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46"/>
       <c r="Z7" s="16">
         <v>1</v>
       </c>
@@ -1666,15 +1657,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="31"/>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="16">
         <v>1</v>
       </c>
@@ -1686,15 +1677,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="34"/>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
       <c r="Z8" s="16">
         <v>1</v>
       </c>
@@ -1724,15 +1715,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="31"/>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="16">
         <v>1</v>
       </c>
@@ -1742,13 +1733,13 @@
       </c>
       <c r="Q9" s="26"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="20"/>
@@ -2105,15 +2096,15 @@
       <c r="Q17" s="11">
         <v>43308</v>
       </c>
-      <c r="S17" s="61" t="s">
+      <c r="S17" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="63"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3386,24 +3377,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="S6:Y6"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="S17:Y17"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
     <mergeCell ref="G8:M8"/>
-    <mergeCell ref="S7:Y7"/>
     <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="S6:Y6"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="G14:M14"/>
@@ -3412,17 +3405,15 @@
     <mergeCell ref="S12:Y12"/>
     <mergeCell ref="S13:Y13"/>
     <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3456,17 +3447,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3715,16 +3706,16 @@
       <c r="D12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="60" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="62">
         <v>43283</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3741,12 +3732,12 @@
       <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="I13" s="58"/>
+      <c r="G13" s="63"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岳友兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +497,58 @@
   </si>
   <si>
     <t>袁国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09063b60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090633e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090509b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090512f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090676d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908f8e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09065210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090450f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090887f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090865d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁磊（测试用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,15 +851,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,6 +910,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,7 +1239,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1231,87 +1273,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="49"/>
+      <c r="B3" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="52"/>
-      <c r="B3" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>60</v>
@@ -1355,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>60</v>
@@ -1387,7 +1429,7 @@
       <c r="AB3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="52"/>
+      <c r="AC3" s="49"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="17">
@@ -1407,15 +1449,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="16">
         <v>0</v>
       </c>
@@ -1427,13 +1469,13 @@
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="33"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="58"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="20"/>
@@ -1472,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -1505,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X5" s="1">
         <v>1</v>
@@ -1517,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB5" s="21">
         <v>1</v>
@@ -1541,15 +1583,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="16">
         <v>1</v>
       </c>
@@ -1561,15 +1603,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="46"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
       <c r="Z6" s="16">
         <v>1</v>
       </c>
@@ -1599,15 +1641,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="16">
         <v>1</v>
       </c>
@@ -1619,15 +1661,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="16">
         <v>1</v>
       </c>
@@ -1657,15 +1699,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="31"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="16">
         <v>1</v>
       </c>
@@ -1677,15 +1719,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="34"/>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="16">
         <v>1</v>
       </c>
@@ -1715,15 +1757,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="31"/>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="16">
         <v>1</v>
       </c>
@@ -1733,13 +1775,13 @@
       </c>
       <c r="Q9" s="26"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="46"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="20"/>
@@ -1757,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="7">
         <v>868744030898922</v>
@@ -1821,7 +1863,7 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -1837,7 +1879,7 @@
       </c>
       <c r="R12" s="35"/>
       <c r="S12" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
@@ -1846,13 +1888,13 @@
       <c r="X12" s="39"/>
       <c r="Y12" s="40"/>
       <c r="AA12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1916,7 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -1890,7 +1932,7 @@
       </c>
       <c r="R13" s="35"/>
       <c r="S13" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="39"/>
@@ -1899,13 +1941,13 @@
       <c r="X13" s="39"/>
       <c r="Y13" s="40"/>
       <c r="AA13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1920,14 +1962,14 @@
         <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="7">
         <v>863703033726113</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -1943,7 +1985,7 @@
       </c>
       <c r="R14" s="35"/>
       <c r="S14" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T14" s="39"/>
       <c r="U14" s="39"/>
@@ -1952,13 +1994,13 @@
       <c r="X14" s="39"/>
       <c r="Y14" s="40"/>
       <c r="AA14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1980,7 +2022,7 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
@@ -1996,7 +2038,7 @@
       </c>
       <c r="R15" s="35"/>
       <c r="S15" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
@@ -2005,13 +2047,13 @@
       <c r="X15" s="39"/>
       <c r="Y15" s="40"/>
       <c r="AA15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AB15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2033,7 +2075,7 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -2049,7 +2091,7 @@
       </c>
       <c r="R16" s="35"/>
       <c r="S16" s="38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="T16" s="39"/>
       <c r="U16" s="39"/>
@@ -2058,13 +2100,13 @@
       <c r="X16" s="39"/>
       <c r="Y16" s="40"/>
       <c r="AA16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2078,11 +2120,14 @@
       <c r="C17" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E17" s="7">
         <v>868744030870194</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -2096,15 +2141,15 @@
       <c r="Q17" s="11">
         <v>43308</v>
       </c>
-      <c r="S17" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="43"/>
+      <c r="S17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -3424,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3447,17 +3492,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3520,7 +3565,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>26</v>
@@ -3543,7 +3588,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>92</v>
@@ -3566,7 +3611,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>97</v>
@@ -3589,7 +3634,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>26</v>
@@ -3612,7 +3657,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
@@ -3635,7 +3680,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>32</v>
@@ -3658,7 +3703,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="11">
         <v>43284</v>
@@ -3684,7 +3729,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="11">
         <v>43284</v>
@@ -3706,16 +3751,16 @@
       <c r="D12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="62">
+        <v>116</v>
+      </c>
+      <c r="G12" s="59">
         <v>43283</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3732,12 +3777,12 @@
       <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="I13" s="61"/>
+        <v>116</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -3773,7 +3818,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="11">
         <v>43294</v>
@@ -3812,6 +3857,9 @@
       <c r="D17" s="21" t="s">
         <v>70</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
@@ -3830,16 +3878,16 @@
         <v>103</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="11">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3855,6 +3903,9 @@
       <c r="D19" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
@@ -4099,7 +4150,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="11">
-        <v>43297</v>
+        <v>43311</v>
+      </c>
+      <c r="C37" s="12">
+        <v>100100001</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4107,7 +4164,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>43297</v>
+        <v>43311</v>
+      </c>
+      <c r="C38" s="12">
+        <v>100100002</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -4117,6 +4180,15 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C39" s="12">
+        <v>100100003</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>126</v>
+      </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -4125,6 +4197,108 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C40" s="12">
+        <v>100100004</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C41" s="12">
+        <v>100100005</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C42" s="12">
+        <v>100100006</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C43" s="12">
+        <v>100100007</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C44" s="12">
+        <v>100100008</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C45" s="12">
+        <v>100100009</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C46" s="12">
+        <v>100100010</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,267 +288,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>faa9b393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa9a993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac0ab3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa896c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa8dce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad7da3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faab7b83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad27d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad4903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaa08d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad4f93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaccdd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa8de33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabbd03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaaeab3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad8ed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac5e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabd4e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac8d33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹从军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易腾辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabd6f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad8273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad3e43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试万能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试万能卡）再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09063b60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090633e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090509b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090512f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090676d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908f8e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09065210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090450f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090887f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090865d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁磊（测试用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>faab5273</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faa9b393</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa9a993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac0ab3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa896c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa8dce3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad7da3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faab7b83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad27d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad4903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaa08d3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad4f93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaccdd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa8de33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabbd03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaaeab3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad8ed3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac5e23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabd4e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac8d33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
+    <t>拆下，周总测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙换模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙模块换成0013测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180401010000053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台带logo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹从军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易腾辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/07/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabd6f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad8273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad3e43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试万能卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/07/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何继红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（测试万能卡）再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试架板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁国辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09063b60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090633e0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090509b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090512f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090676d0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0908f8e0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09065210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090450f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090887f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090865d0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁磊（测试用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,15 +797,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,21 +827,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,12 +881,39 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,13 +923,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,33 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,7 +974,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1302,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1247,288 +1310,290 @@
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="4.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="4.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="10" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="5" customWidth="1"/>
     <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="16" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.625" style="1" customWidth="1"/>
     <col min="20" max="21" width="4.75" style="1" customWidth="1"/>
-    <col min="22" max="23" width="4.75" style="21" customWidth="1"/>
+    <col min="22" max="23" width="4.75" style="16" customWidth="1"/>
     <col min="24" max="24" width="4.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="6.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="16" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="21" customWidth="1"/>
-    <col min="29" max="29" width="17.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="16" customWidth="1"/>
+    <col min="29" max="29" width="21.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="50"/>
+      <c r="B3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="49"/>
-      <c r="B3" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="49"/>
+      <c r="AC3" s="50"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
         <f>P4-AB4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>868744030870087</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="17"/>
+      <c r="P4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="31">
         <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>868744030885911</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
         <v>43308</v>
       </c>
       <c r="R5" s="1">
@@ -1543,11 +1608,11 @@
       <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" s="21">
-        <v>1</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>120</v>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="X5" s="1">
         <v>1</v>
@@ -1555,243 +1620,245 @@
       <c r="Y5" s="1">
         <v>2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="16">
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB5" s="21">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>863703032301108</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="26">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="21">
         <v>43302</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="41" t="s">
+      <c r="R6" s="29"/>
+      <c r="S6" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="17" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13">
+        <v>868744030885796</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>43298</v>
+      </c>
+      <c r="R7" s="29"/>
+      <c r="S7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13">
+        <v>868744030897866</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>43298</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="14"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AB6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="17"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="16">
-        <v>868744030885796</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="41" t="s">
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="13">
+        <v>868744030870145</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>43298</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="17"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="16">
-        <v>868744030897866</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="16">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>43298</v>
-      </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="16">
-        <v>868744030870145</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="16">
-        <v>1</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="17"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="13">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="14" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1799,18 +1866,18 @@
         <v>11</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="7">
+        <v>111</v>
+      </c>
+      <c r="E10" s="5">
         <v>868744030898922</v>
       </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="21">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1818,29 +1885,29 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>863703032882602</v>
       </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="21">
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1848,341 +1915,449 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="P12" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="F12" s="27"/>
+      <c r="G12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
         <v>43308</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
       <c r="AA12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="7">
+        <v>103</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="P13" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="F13" s="27"/>
+      <c r="G13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="P13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
         <v>43308</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
       <c r="AA13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="7">
+        <v>103</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="P14" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="F14" s="27"/>
+      <c r="G14" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="P14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9">
         <v>43308</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44"/>
       <c r="AA14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="7">
+        <v>103</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="P15" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="F15" s="27"/>
+      <c r="G15" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="P15" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
         <v>43308</v>
       </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="44"/>
       <c r="AA15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="5">
+        <v>863703033725131</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="P16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>43308</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="44"/>
+      <c r="AA16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="7">
-        <v>863703033725131</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="P16" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>43308</v>
-      </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="40"/>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="7">
+        <v>103</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="P17" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="G17" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="P17" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
         <v>43308</v>
       </c>
-      <c r="S17" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
+      <c r="S17" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB17" s="21">
+      <c r="AB17" s="16">
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B18" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="38">
+        <v>180801020000001</v>
+      </c>
+      <c r="E18" s="38">
+        <v>868744033103981</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="38">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B19" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="5">
+        <v>868744030885937</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>43320</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="16">
+        <v>1</v>
+      </c>
+      <c r="W19" s="16">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2191,7 +2366,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2200,7 +2375,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2209,7 +2384,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2218,7 +2393,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2227,7 +2402,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2236,7 +2411,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2245,7 +2420,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2254,7 +2429,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2263,7 +2438,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2272,7 +2447,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2281,7 +2456,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2290,7 +2465,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2299,7 +2474,7 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2308,7 +2483,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2317,7 +2492,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2326,7 +2501,7 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2335,7 +2510,7 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2344,7 +2519,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2353,7 +2528,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2362,7 +2537,7 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2371,7 +2546,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2380,7 +2555,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2389,7 +2564,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2398,7 +2573,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2407,7 +2582,7 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2416,7 +2591,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2425,7 +2600,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2434,7 +2609,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2443,7 +2618,7 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2452,7 +2627,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2461,7 +2636,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2470,7 +2645,7 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2479,7 +2654,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2488,7 +2663,7 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2497,7 +2672,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2506,7 +2681,7 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2515,7 +2690,7 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2524,7 +2699,7 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2533,7 +2708,7 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2542,7 +2717,7 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2551,7 +2726,7 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2560,7 +2735,7 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2569,7 +2744,7 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2578,7 +2753,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2587,7 +2762,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2596,7 +2771,7 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2605,7 +2780,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2614,7 +2789,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2623,7 +2798,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="31">
         <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
         <v>0</v>
       </c>
@@ -2632,7 +2807,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2641,7 +2816,7 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2650,7 +2825,7 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2659,7 +2834,7 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2668,7 +2843,7 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2677,7 +2852,7 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2686,7 +2861,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2695,7 +2870,7 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2704,7 +2879,7 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B78" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2713,7 +2888,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2722,7 +2897,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="37">
+      <c r="B80" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2731,7 +2906,7 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="37">
+      <c r="B81" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2740,7 +2915,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="37">
+      <c r="B82" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2749,7 +2924,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="37">
+      <c r="B83" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2758,7 +2933,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="37">
+      <c r="B84" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2767,7 +2942,7 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2776,7 +2951,7 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="37">
+      <c r="B86" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2785,7 +2960,7 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2794,7 +2969,7 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="37">
+      <c r="B88" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2803,7 +2978,7 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2812,7 +2987,7 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="37">
+      <c r="B90" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2821,7 +2996,7 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="37">
+      <c r="B91" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2830,7 +3005,7 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="37">
+      <c r="B92" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2839,7 +3014,7 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="37">
+      <c r="B93" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2848,7 +3023,7 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="37">
+      <c r="B94" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2857,7 +3032,7 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="37">
+      <c r="B95" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2866,7 +3041,7 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="37">
+      <c r="B96" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2875,7 +3050,7 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="37">
+      <c r="B97" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2884,7 +3059,7 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="37">
+      <c r="B98" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2893,7 +3068,7 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2902,7 +3077,7 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="37">
+      <c r="B100" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2911,7 +3086,7 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="37">
+      <c r="B101" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2920,7 +3095,7 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="37">
+      <c r="B102" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2929,7 +3104,7 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="37">
+      <c r="B103" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2938,7 +3113,7 @@
       <c r="A104" s="1">
         <v>101</v>
       </c>
-      <c r="B104" s="37">
+      <c r="B104" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2947,7 +3122,7 @@
       <c r="A105" s="1">
         <v>102</v>
       </c>
-      <c r="B105" s="37">
+      <c r="B105" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2956,7 +3131,7 @@
       <c r="A106" s="1">
         <v>103</v>
       </c>
-      <c r="B106" s="37">
+      <c r="B106" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2965,7 +3140,7 @@
       <c r="A107" s="1">
         <v>104</v>
       </c>
-      <c r="B107" s="37">
+      <c r="B107" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2974,7 +3149,7 @@
       <c r="A108" s="1">
         <v>105</v>
       </c>
-      <c r="B108" s="37">
+      <c r="B108" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2983,7 +3158,7 @@
       <c r="A109" s="1">
         <v>106</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B109" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2992,7 +3167,7 @@
       <c r="A110" s="1">
         <v>107</v>
       </c>
-      <c r="B110" s="37">
+      <c r="B110" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3001,7 +3176,7 @@
       <c r="A111" s="1">
         <v>108</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3010,7 +3185,7 @@
       <c r="A112" s="1">
         <v>109</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B112" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3019,7 +3194,7 @@
       <c r="A113" s="1">
         <v>110</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B113" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3028,7 +3203,7 @@
       <c r="A114" s="1">
         <v>111</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B114" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3037,7 +3212,7 @@
       <c r="A115" s="1">
         <v>112</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B115" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3046,7 +3221,7 @@
       <c r="A116" s="1">
         <v>113</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B116" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3055,7 +3230,7 @@
       <c r="A117" s="1">
         <v>114</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B117" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3064,7 +3239,7 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3073,7 +3248,7 @@
       <c r="A119" s="1">
         <v>116</v>
       </c>
-      <c r="B119" s="37">
+      <c r="B119" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3082,7 +3257,7 @@
       <c r="A120" s="1">
         <v>117</v>
       </c>
-      <c r="B120" s="37">
+      <c r="B120" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3091,7 +3266,7 @@
       <c r="A121" s="1">
         <v>118</v>
       </c>
-      <c r="B121" s="37">
+      <c r="B121" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3100,7 +3275,7 @@
       <c r="A122" s="1">
         <v>119</v>
       </c>
-      <c r="B122" s="37">
+      <c r="B122" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3109,7 +3284,7 @@
       <c r="A123" s="1">
         <v>120</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B123" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3118,7 +3293,7 @@
       <c r="A124" s="1">
         <v>121</v>
       </c>
-      <c r="B124" s="37">
+      <c r="B124" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3127,7 +3302,7 @@
       <c r="A125" s="1">
         <v>122</v>
       </c>
-      <c r="B125" s="37">
+      <c r="B125" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3136,7 +3311,7 @@
       <c r="A126" s="1">
         <v>123</v>
       </c>
-      <c r="B126" s="37">
+      <c r="B126" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3145,7 +3320,7 @@
       <c r="A127" s="1">
         <v>124</v>
       </c>
-      <c r="B127" s="37">
+      <c r="B127" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3154,7 +3329,7 @@
       <c r="A128" s="1">
         <v>125</v>
       </c>
-      <c r="B128" s="37">
+      <c r="B128" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3163,7 +3338,7 @@
       <c r="A129" s="1">
         <v>126</v>
       </c>
-      <c r="B129" s="37">
+      <c r="B129" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3172,7 +3347,7 @@
       <c r="A130" s="1">
         <v>127</v>
       </c>
-      <c r="B130" s="37">
+      <c r="B130" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3181,7 +3356,7 @@
       <c r="A131" s="1">
         <v>128</v>
       </c>
-      <c r="B131" s="37">
+      <c r="B131" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3190,7 +3365,7 @@
       <c r="A132" s="1">
         <v>129</v>
       </c>
-      <c r="B132" s="37">
+      <c r="B132" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3199,7 +3374,7 @@
       <c r="A133" s="1">
         <v>130</v>
       </c>
-      <c r="B133" s="37">
+      <c r="B133" s="31">
         <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
         <v>0</v>
       </c>
@@ -3208,7 +3383,7 @@
       <c r="A134" s="1">
         <v>131</v>
       </c>
-      <c r="B134" s="37">
+      <c r="B134" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3217,7 +3392,7 @@
       <c r="A135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="37">
+      <c r="B135" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3226,7 +3401,7 @@
       <c r="A136" s="1">
         <v>133</v>
       </c>
-      <c r="B136" s="37">
+      <c r="B136" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3235,7 +3410,7 @@
       <c r="A137" s="1">
         <v>134</v>
       </c>
-      <c r="B137" s="37">
+      <c r="B137" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3244,7 +3419,7 @@
       <c r="A138" s="1">
         <v>135</v>
       </c>
-      <c r="B138" s="37">
+      <c r="B138" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3253,7 +3428,7 @@
       <c r="A139" s="1">
         <v>136</v>
       </c>
-      <c r="B139" s="37">
+      <c r="B139" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3262,7 +3437,7 @@
       <c r="A140" s="1">
         <v>137</v>
       </c>
-      <c r="B140" s="37">
+      <c r="B140" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3271,7 +3446,7 @@
       <c r="A141" s="1">
         <v>138</v>
       </c>
-      <c r="B141" s="37">
+      <c r="B141" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3280,7 +3455,7 @@
       <c r="A142" s="1">
         <v>139</v>
       </c>
-      <c r="B142" s="37">
+      <c r="B142" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3289,7 +3464,7 @@
       <c r="A143" s="1">
         <v>140</v>
       </c>
-      <c r="B143" s="37">
+      <c r="B143" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3298,7 +3473,7 @@
       <c r="A144" s="1">
         <v>141</v>
       </c>
-      <c r="B144" s="37">
+      <c r="B144" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3307,7 +3482,7 @@
       <c r="A145" s="1">
         <v>142</v>
       </c>
-      <c r="B145" s="37">
+      <c r="B145" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3316,7 +3491,7 @@
       <c r="A146" s="1">
         <v>143</v>
       </c>
-      <c r="B146" s="37">
+      <c r="B146" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3325,7 +3500,7 @@
       <c r="A147" s="1">
         <v>144</v>
       </c>
-      <c r="B147" s="37">
+      <c r="B147" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3334,7 +3509,7 @@
       <c r="A148" s="1">
         <v>145</v>
       </c>
-      <c r="B148" s="37">
+      <c r="B148" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3343,7 +3518,7 @@
       <c r="A149" s="1">
         <v>146</v>
       </c>
-      <c r="B149" s="37">
+      <c r="B149" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3352,7 +3527,7 @@
       <c r="A150" s="1">
         <v>147</v>
       </c>
-      <c r="B150" s="37">
+      <c r="B150" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3361,7 +3536,7 @@
       <c r="A151" s="1">
         <v>148</v>
       </c>
-      <c r="B151" s="37">
+      <c r="B151" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3370,7 +3545,7 @@
       <c r="A152" s="1">
         <v>149</v>
       </c>
-      <c r="B152" s="37">
+      <c r="B152" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3379,7 +3554,7 @@
       <c r="A153" s="1">
         <v>150</v>
       </c>
-      <c r="B153" s="37">
+      <c r="B153" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3388,7 +3563,7 @@
       <c r="A154" s="1">
         <v>151</v>
       </c>
-      <c r="B154" s="37">
+      <c r="B154" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3397,7 +3572,7 @@
       <c r="A155" s="1">
         <v>152</v>
       </c>
-      <c r="B155" s="37">
+      <c r="B155" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3406,7 +3581,7 @@
       <c r="A156" s="1">
         <v>153</v>
       </c>
-      <c r="B156" s="37">
+      <c r="B156" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3415,13 +3590,13 @@
       <c r="A157" s="1">
         <v>154</v>
       </c>
-      <c r="B157" s="37">
+      <c r="B157" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="S15:Y15"/>
     <mergeCell ref="S16:Y16"/>
     <mergeCell ref="A1:AC1"/>
@@ -3434,20 +3609,22 @@
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="S4:Y4"/>
     <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S9:Y9"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S9:Y9"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G15:M15"/>
     <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S12:Y12"/>
     <mergeCell ref="S13:Y13"/>
     <mergeCell ref="S14:Y14"/>
   </mergeCells>
@@ -3471,17 +3648,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="16" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -3492,17 +3669,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3511,13 +3688,13 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3532,42 +3709,42 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>43297</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="20">
         <v>10000002</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3575,68 +3752,68 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>43297</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <v>10000003</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>92</v>
+        <v>115</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>43297</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>10000004</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>97</v>
+        <v>115</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>43297</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="20">
         <v>10000005</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3644,22 +3821,22 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>43297</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="20">
         <v>10000007</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3667,22 +3844,22 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>43297</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="20">
         <v>10000008</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3690,25 +3867,25 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>43297</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="11">
+        <v>115</v>
+      </c>
+      <c r="G10" s="9">
         <v>43284</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3716,25 +3893,25 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>43297</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="11">
+        <v>115</v>
+      </c>
+      <c r="G11" s="9">
         <v>43284</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3742,25 +3919,25 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>43297</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="58" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="59">
+        <v>115</v>
+      </c>
+      <c r="G12" s="60">
         <v>43283</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="59" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3768,537 +3945,600 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>43297</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="I13" s="58"/>
+        <v>115</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>43297</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>43297</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="11">
+        <v>115</v>
+      </c>
+      <c r="G15" s="9">
         <v>43294</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>91</v>
+      <c r="I15" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>43297</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>100000051</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>102</v>
+      <c r="D16" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>43297</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>100000071</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>70</v>
+      <c r="D17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>43297</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>100000081</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>103</v>
+      <c r="D18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="9">
+        <v>43308</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="11">
-        <v>43308</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>43297</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>100000091</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>72</v>
+      <c r="D19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>43297</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>100000101</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>73</v>
+      <c r="D20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="9">
+        <v>43313</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>43297</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>100000111</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>74</v>
+      <c r="D21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="9">
+        <v>43313</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>43297</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>100000121</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>75</v>
+      <c r="D22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="9">
+        <v>43313</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>43297</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>100000131</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>76</v>
+      <c r="D23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="9">
+        <v>43313</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>43297</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>100000141</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>77</v>
+      <c r="D24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>43297</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>100000151</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>78</v>
+      <c r="D25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>43297</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>100000161</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>79</v>
+      <c r="D26" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>43297</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>100000171</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>80</v>
+      <c r="D27" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>43297</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>100000181</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>81</v>
+      <c r="D28" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>43297</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>100000191</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>82</v>
+      <c r="D29" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>43297</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>100000201</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>83</v>
+      <c r="D30" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>43297</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>100000211</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>84</v>
+      <c r="D31" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>43297</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>100000221</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>85</v>
+      <c r="D32" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>43297</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>100000231</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>86</v>
+      <c r="D33" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>43297</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>100000241</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>87</v>
+      <c r="D34" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>43297</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>100000251</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>88</v>
+      <c r="D35" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>43297</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>100000261</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>101</v>
+      <c r="D36" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>43311</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>100100001</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>124</v>
+      <c r="D37" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>43311</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>100100002</v>
       </c>
-      <c r="D38" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="D38" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>43311</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>100100003</v>
       </c>
-      <c r="D39" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="D39" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>43311</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>100100004</v>
       </c>
-      <c r="D40" s="61" t="s">
-        <v>127</v>
+      <c r="D40" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>43311</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>100100005</v>
       </c>
-      <c r="D41" s="61" t="s">
-        <v>128</v>
+      <c r="D41" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>43311</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>100100006</v>
       </c>
-      <c r="D42" s="61" t="s">
-        <v>129</v>
+      <c r="D42" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>43311</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>100100007</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>130</v>
+      <c r="D43" s="32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>43311</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>100100008</v>
       </c>
-      <c r="D44" s="61" t="s">
-        <v>131</v>
+      <c r="D44" s="32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>43311</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>100100009</v>
       </c>
-      <c r="D45" s="61" t="s">
-        <v>132</v>
+      <c r="D45" s="32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>43311</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>100100010</v>
       </c>
-      <c r="D46" s="61" t="s">
-        <v>133</v>
+      <c r="D46" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="B47" s="11"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="B48" s="11"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="11"/>
+      <c r="B49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带去展会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达新模具新外观</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,6 +917,9 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,9 +988,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,7 +1314,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1336,87 +1348,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="54" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="50" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1504,7 @@
       <c r="AB3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="50"/>
+      <c r="AC3" s="51"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="14">
@@ -1512,15 +1524,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="13">
         <v>0</v>
       </c>
@@ -1532,13 +1544,13 @@
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="28"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="47"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="48"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="15"/>
@@ -1648,15 +1660,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="13">
         <v>1</v>
       </c>
@@ -1668,16 +1680,16 @@
         <v>43302</v>
       </c>
       <c r="R6" s="29"/>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="62">
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="39">
         <v>1</v>
       </c>
       <c r="AA6" s="14" t="s">
@@ -1706,15 +1718,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="13">
         <v>1</v>
       </c>
@@ -1726,16 +1738,16 @@
         <v>43298</v>
       </c>
       <c r="R7" s="29"/>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="62">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="39">
         <v>1</v>
       </c>
       <c r="AA7" s="14" t="s">
@@ -1764,15 +1776,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="13">
         <v>1</v>
       </c>
@@ -1784,16 +1796,16 @@
         <v>43298</v>
       </c>
       <c r="R8" s="29"/>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="62">
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="39">
         <v>1</v>
       </c>
       <c r="AA8" s="14" t="s">
@@ -1822,15 +1834,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="13">
         <v>1</v>
       </c>
@@ -1840,14 +1852,14 @@
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="62"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="14" t="s">
@@ -1929,15 +1941,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
       <c r="P12" s="16">
         <v>1</v>
       </c>
@@ -1945,15 +1957,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="30"/>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="45"/>
       <c r="AA12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1982,15 +1994,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
       <c r="P13" s="16">
         <v>1</v>
       </c>
@@ -1998,15 +2010,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="30"/>
-      <c r="S13" s="42" t="s">
+      <c r="S13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
       <c r="AA13" s="1" t="s">
         <v>108</v>
       </c>
@@ -2035,15 +2047,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
       <c r="P14" s="16">
         <v>1</v>
       </c>
@@ -2051,15 +2063,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="30"/>
-      <c r="S14" s="42" t="s">
+      <c r="S14" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="45"/>
       <c r="AA14" s="1" t="s">
         <v>108</v>
       </c>
@@ -2088,15 +2100,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
       <c r="P15" s="16">
         <v>1</v>
       </c>
@@ -2104,15 +2116,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="30"/>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="45"/>
       <c r="AA15" s="1" t="s">
         <v>108</v>
       </c>
@@ -2141,15 +2153,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
       <c r="P16" s="16">
         <v>1</v>
       </c>
@@ -2157,15 +2169,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="30"/>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="45"/>
       <c r="AA16" s="1" t="s">
         <v>108</v>
       </c>
@@ -2193,30 +2205,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
       <c r="P17" s="16">
         <v>1</v>
       </c>
       <c r="Q17" s="9">
         <v>43308</v>
       </c>
-      <c r="S17" s="42" t="s">
+      <c r="S17" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2245,15 +2257,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="38">
         <v>1</v>
       </c>
@@ -2263,13 +2275,13 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="48"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
@@ -2361,6 +2373,54 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="5">
+        <v>180401010000061</v>
+      </c>
+      <c r="E20" s="5">
+        <v>863703033732483</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>43325</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
@@ -2368,7 +2428,22 @@
       </c>
       <c r="B21" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>868744033209242</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="P21" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2377,7 +2452,22 @@
       </c>
       <c r="B22" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>868744033316013</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="P22" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2386,7 +2476,22 @@
       </c>
       <c r="B23" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>868744033316112</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="P23" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2395,7 +2500,22 @@
       </c>
       <c r="B24" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>868744033210133</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="P24" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2404,7 +2524,22 @@
       </c>
       <c r="B25" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>868744033101183</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="P25" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3596,7 +3731,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="37">
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G25:M25"/>
     <mergeCell ref="S15:Y15"/>
     <mergeCell ref="S16:Y16"/>
     <mergeCell ref="A1:AC1"/>
@@ -3613,20 +3753,22 @@
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="S12:Y12"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="S18:Y18"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
     <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
@@ -3669,17 +3811,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3928,16 +4070,16 @@
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="59" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="61">
         <v>43283</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3954,12 +4096,12 @@
       <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="I13" s="59"/>
+      <c r="G13" s="62"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="156">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门磁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,10 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袁国辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆下，周总测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180601010000013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,6 +609,30 @@
   </si>
   <si>
     <t>再丰达新模具新外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下，周总测试.出货至北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝(套)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货至北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,49 +887,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,13 +953,10 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,24 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,6 +991,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,10 +1323,10 @@
   <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1328,118 +1340,118 @@
     <col min="7" max="7" width="7.875" style="10" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="5" customWidth="1"/>
     <col min="9" max="10" width="4.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="10" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="6.125" style="10" customWidth="1"/>
     <col min="14" max="14" width="4.625" style="5" customWidth="1"/>
     <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.625" style="16" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="4.75" style="1" customWidth="1"/>
-    <col min="22" max="23" width="4.75" style="16" customWidth="1"/>
-    <col min="24" max="24" width="4.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="16" customWidth="1"/>
+    <col min="20" max="22" width="4.75" style="16" customWidth="1"/>
+    <col min="23" max="23" width="7.875" style="16" customWidth="1"/>
+    <col min="24" max="24" width="4.75" style="16" customWidth="1"/>
+    <col min="25" max="25" width="6.5" style="16" customWidth="1"/>
     <col min="26" max="26" width="4.75" style="16" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="5.5" style="16" customWidth="1"/>
-    <col min="29" max="29" width="21.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="42"/>
+      <c r="B3" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="51"/>
-      <c r="B3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>53</v>
@@ -1451,31 +1463,31 @@
         <v>55</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>110</v>
+      <c r="R3" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>53</v>
@@ -1487,24 +1499,24 @@
         <v>55</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="51"/>
+        <v>64</v>
+      </c>
+      <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="14">
@@ -1512,27 +1524,27 @@
       </c>
       <c r="B4" s="14">
         <f>P4-AB4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>62</v>
+      <c r="D4" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="E4" s="13">
         <v>868744030870087</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="13">
         <v>0</v>
       </c>
@@ -1542,35 +1554,59 @@
       <c r="P4" s="15">
         <v>1</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="15"/>
+      <c r="Q4" s="21">
+        <v>43328</v>
+      </c>
+      <c r="R4" s="35">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15">
+        <v>2</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15">
+        <v>1</v>
+      </c>
+      <c r="X4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>1</v>
+      </c>
       <c r="AC4" s="14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="27">
         <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>63</v>
+      <c r="D5" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="5">
         <v>868744030885911</v>
@@ -1590,8 +1626,8 @@
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>119</v>
+      <c r="K5" s="10">
+        <v>1</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -1608,35 +1644,35 @@
       <c r="Q5" s="9">
         <v>43308</v>
       </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="R5" s="16">
+        <v>1</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
+      <c r="T5" s="16">
         <v>2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="16">
         <v>1</v>
       </c>
       <c r="V5" s="16">
         <v>1</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="16">
         <v>2</v>
       </c>
       <c r="Z5" s="16">
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB5" s="16">
         <v>1</v>
@@ -1659,16 +1695,16 @@
       <c r="E6" s="13">
         <v>863703032301108</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="13">
         <v>1</v>
       </c>
@@ -1679,21 +1715,21 @@
       <c r="Q6" s="21">
         <v>43302</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="39">
+      <c r="R6" s="60"/>
+      <c r="S6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="34">
         <v>1</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="15">
         <v>1</v>
@@ -1717,16 +1753,16 @@
       <c r="E7" s="13">
         <v>868744030885796</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="13">
         <v>1</v>
       </c>
@@ -1737,21 +1773,21 @@
       <c r="Q7" s="21">
         <v>43298</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="39">
+      <c r="R7" s="60"/>
+      <c r="S7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="34">
         <v>1</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB7" s="15">
         <v>1</v>
@@ -1775,16 +1811,16 @@
       <c r="E8" s="13">
         <v>868744030897866</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="13">
         <v>1</v>
       </c>
@@ -1795,21 +1831,21 @@
       <c r="Q8" s="21">
         <v>43298</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="39">
+      <c r="R8" s="60"/>
+      <c r="S8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="34">
         <v>1</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB8" s="15">
         <v>1</v>
@@ -1825,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -1833,16 +1869,16 @@
       <c r="E9" s="13">
         <v>868744030870145</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="13">
         <v>1</v>
       </c>
@@ -1851,60 +1887,81 @@
         <v>1</v>
       </c>
       <c r="Q9" s="21"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="39"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="33">
         <v>868744030898922</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="16">
-        <v>1</v>
-      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="33">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="5">
@@ -1919,316 +1976,370 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
       <c r="P11" s="16">
         <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>43328</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1</v>
+      </c>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
+      <c r="T11" s="16">
+        <v>2</v>
+      </c>
+      <c r="U11" s="16">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>104</v>
       </c>
       <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
       <c r="P12" s="16">
         <v>1</v>
       </c>
       <c r="Q12" s="9">
         <v>43308</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="45"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="39"/>
       <c r="AA12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
       <c r="P13" s="16">
         <v>1</v>
       </c>
       <c r="Q13" s="9">
         <v>43308</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="45"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="39"/>
       <c r="AA13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
       <c r="P14" s="16">
         <v>1</v>
       </c>
       <c r="Q14" s="9">
         <v>43308</v>
       </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="45"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="39"/>
       <c r="AA14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
       <c r="P15" s="16">
         <v>1</v>
       </c>
       <c r="Q15" s="9">
         <v>43308</v>
       </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="45"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="39"/>
       <c r="AA15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="E16" s="5">
         <v>863703033725131</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
       <c r="P16" s="16">
         <v>1</v>
       </c>
       <c r="Q16" s="9">
         <v>43308</v>
       </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="45"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="39"/>
       <c r="AA16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="G17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
       <c r="P17" s="16">
         <v>1</v>
       </c>
       <c r="Q17" s="9">
         <v>43308</v>
       </c>
-      <c r="S17" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="45"/>
+      <c r="S17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,37 +2347,37 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="38">
+        <v>138</v>
+      </c>
+      <c r="D18" s="33">
         <v>180801020000001</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="33">
         <v>868744033103981</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="38">
+      <c r="F18" s="33"/>
+      <c r="G18" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="33">
         <v>1</v>
       </c>
       <c r="O18" s="14"/>
@@ -2274,14 +2385,14 @@
         <v>1</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="48"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
@@ -2291,15 +2402,15 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
@@ -2334,13 +2445,13 @@
       <c r="Q19" s="9">
         <v>43320</v>
       </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="S19" s="16">
+        <v>1</v>
+      </c>
+      <c r="T19" s="16">
         <v>2</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="16">
         <v>1</v>
       </c>
       <c r="V19" s="16">
@@ -2349,32 +2460,32 @@
       <c r="W19" s="16">
         <v>1</v>
       </c>
-      <c r="X19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="X19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="16">
         <v>2</v>
       </c>
       <c r="Z19" s="16">
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" s="5">
         <v>180401010000061</v>
@@ -2382,15 +2493,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
+      <c r="G20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="13">
         <v>1</v>
       </c>
@@ -2400,48 +2511,54 @@
       <c r="Q20" s="9">
         <v>43325</v>
       </c>
-      <c r="S20" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="39">
+      <c r="S20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="34">
         <v>1</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB20" s="16">
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B21" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="5">
+        <v>180801020000002</v>
       </c>
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
+      <c r="G21" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
       <c r="P21" s="16">
         <v>1</v>
       </c>
@@ -2450,22 +2567,28 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B22" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="5">
+        <v>180801020000003</v>
       </c>
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="G22" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
       <c r="P22" s="16">
         <v>1</v>
       </c>
@@ -2474,22 +2597,28 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B23" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="5">
+        <v>180801020000004</v>
       </c>
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="G23" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
       <c r="P23" s="16">
         <v>1</v>
       </c>
@@ -2498,22 +2627,28 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B24" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="5">
+        <v>180801020000005</v>
       </c>
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="G24" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
       <c r="P24" s="16">
         <v>1</v>
       </c>
@@ -2522,22 +2657,28 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B25" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="5">
+        <v>180801020000006</v>
       </c>
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
+      <c r="G25" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
       <c r="P25" s="16">
         <v>1</v>
       </c>
@@ -2546,16 +2687,37 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B26" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="5">
+        <v>180801020000007</v>
+      </c>
+      <c r="E26" s="5">
+        <v>868744033316203</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="P26" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2564,7 +2726,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2573,7 +2735,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2582,7 +2744,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2591,7 +2753,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2600,7 +2762,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2609,7 +2771,7 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2618,7 +2780,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2627,7 +2789,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2636,7 +2798,7 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2645,7 +2807,7 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2654,7 +2816,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2663,7 +2825,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2672,7 +2834,7 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2681,7 +2843,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2690,7 +2852,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2699,7 +2861,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2708,7 +2870,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2717,7 +2879,7 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2726,7 +2888,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2735,7 +2897,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2744,7 +2906,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2753,7 +2915,7 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2762,7 +2924,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2771,7 +2933,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2780,7 +2942,7 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2789,7 +2951,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2798,7 +2960,7 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2807,7 +2969,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2816,7 +2978,7 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2825,7 +2987,7 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2834,7 +2996,7 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2843,7 +3005,7 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2852,7 +3014,7 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2861,7 +3023,7 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2870,7 +3032,7 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2879,7 +3041,7 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2888,7 +3050,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2897,7 +3059,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2906,7 +3068,7 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2915,7 +3077,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2924,7 +3086,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2933,7 +3095,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="27">
         <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
         <v>0</v>
       </c>
@@ -2942,7 +3104,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2951,7 +3113,7 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2960,7 +3122,7 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2969,7 +3131,7 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2978,7 +3140,7 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2987,7 +3149,7 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2996,7 +3158,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3005,7 +3167,7 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3014,7 +3176,7 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3023,7 +3185,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3032,7 +3194,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3041,7 +3203,7 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3050,7 +3212,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3059,7 +3221,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="31">
+      <c r="B83" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3068,7 +3230,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3077,7 +3239,7 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="31">
+      <c r="B85" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3086,7 +3248,7 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3095,7 +3257,7 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3104,7 +3266,7 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3113,7 +3275,7 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3122,7 +3284,7 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3131,7 +3293,7 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3140,7 +3302,7 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B92" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3149,7 +3311,7 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3158,7 +3320,7 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B94" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3167,7 +3329,7 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3176,7 +3338,7 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3185,7 +3347,7 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3194,7 +3356,7 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3203,7 +3365,7 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3212,7 +3374,7 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3221,7 +3383,7 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3230,7 +3392,7 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3239,7 +3401,7 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3248,7 +3410,7 @@
       <c r="A104" s="1">
         <v>101</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3257,7 +3419,7 @@
       <c r="A105" s="1">
         <v>102</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3266,7 +3428,7 @@
       <c r="A106" s="1">
         <v>103</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3275,7 +3437,7 @@
       <c r="A107" s="1">
         <v>104</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3284,7 +3446,7 @@
       <c r="A108" s="1">
         <v>105</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3293,7 +3455,7 @@
       <c r="A109" s="1">
         <v>106</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3302,7 +3464,7 @@
       <c r="A110" s="1">
         <v>107</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3311,7 +3473,7 @@
       <c r="A111" s="1">
         <v>108</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3320,7 +3482,7 @@
       <c r="A112" s="1">
         <v>109</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3329,7 +3491,7 @@
       <c r="A113" s="1">
         <v>110</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3338,7 +3500,7 @@
       <c r="A114" s="1">
         <v>111</v>
       </c>
-      <c r="B114" s="31">
+      <c r="B114" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3347,7 +3509,7 @@
       <c r="A115" s="1">
         <v>112</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3356,7 +3518,7 @@
       <c r="A116" s="1">
         <v>113</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3365,7 +3527,7 @@
       <c r="A117" s="1">
         <v>114</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3374,7 +3536,7 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="31">
+      <c r="B118" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3383,7 +3545,7 @@
       <c r="A119" s="1">
         <v>116</v>
       </c>
-      <c r="B119" s="31">
+      <c r="B119" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3392,7 +3554,7 @@
       <c r="A120" s="1">
         <v>117</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3401,7 +3563,7 @@
       <c r="A121" s="1">
         <v>118</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3410,7 +3572,7 @@
       <c r="A122" s="1">
         <v>119</v>
       </c>
-      <c r="B122" s="31">
+      <c r="B122" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3419,7 +3581,7 @@
       <c r="A123" s="1">
         <v>120</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3428,7 +3590,7 @@
       <c r="A124" s="1">
         <v>121</v>
       </c>
-      <c r="B124" s="31">
+      <c r="B124" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3437,7 +3599,7 @@
       <c r="A125" s="1">
         <v>122</v>
       </c>
-      <c r="B125" s="31">
+      <c r="B125" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3446,7 +3608,7 @@
       <c r="A126" s="1">
         <v>123</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B126" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3455,7 +3617,7 @@
       <c r="A127" s="1">
         <v>124</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3464,7 +3626,7 @@
       <c r="A128" s="1">
         <v>125</v>
       </c>
-      <c r="B128" s="31">
+      <c r="B128" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3473,7 +3635,7 @@
       <c r="A129" s="1">
         <v>126</v>
       </c>
-      <c r="B129" s="31">
+      <c r="B129" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3482,7 +3644,7 @@
       <c r="A130" s="1">
         <v>127</v>
       </c>
-      <c r="B130" s="31">
+      <c r="B130" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3491,7 +3653,7 @@
       <c r="A131" s="1">
         <v>128</v>
       </c>
-      <c r="B131" s="31">
+      <c r="B131" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3500,7 +3662,7 @@
       <c r="A132" s="1">
         <v>129</v>
       </c>
-      <c r="B132" s="31">
+      <c r="B132" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3509,7 +3671,7 @@
       <c r="A133" s="1">
         <v>130</v>
       </c>
-      <c r="B133" s="31">
+      <c r="B133" s="27">
         <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
         <v>0</v>
       </c>
@@ -3518,7 +3680,7 @@
       <c r="A134" s="1">
         <v>131</v>
       </c>
-      <c r="B134" s="31">
+      <c r="B134" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3527,7 +3689,7 @@
       <c r="A135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="31">
+      <c r="B135" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3536,7 +3698,7 @@
       <c r="A136" s="1">
         <v>133</v>
       </c>
-      <c r="B136" s="31">
+      <c r="B136" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3545,7 +3707,7 @@
       <c r="A137" s="1">
         <v>134</v>
       </c>
-      <c r="B137" s="31">
+      <c r="B137" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3554,7 +3716,7 @@
       <c r="A138" s="1">
         <v>135</v>
       </c>
-      <c r="B138" s="31">
+      <c r="B138" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3563,7 +3725,7 @@
       <c r="A139" s="1">
         <v>136</v>
       </c>
-      <c r="B139" s="31">
+      <c r="B139" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3572,7 +3734,7 @@
       <c r="A140" s="1">
         <v>137</v>
       </c>
-      <c r="B140" s="31">
+      <c r="B140" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3581,7 +3743,7 @@
       <c r="A141" s="1">
         <v>138</v>
       </c>
-      <c r="B141" s="31">
+      <c r="B141" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3590,7 +3752,7 @@
       <c r="A142" s="1">
         <v>139</v>
       </c>
-      <c r="B142" s="31">
+      <c r="B142" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3599,7 +3761,7 @@
       <c r="A143" s="1">
         <v>140</v>
       </c>
-      <c r="B143" s="31">
+      <c r="B143" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3608,7 +3770,7 @@
       <c r="A144" s="1">
         <v>141</v>
       </c>
-      <c r="B144" s="31">
+      <c r="B144" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3617,7 +3779,7 @@
       <c r="A145" s="1">
         <v>142</v>
       </c>
-      <c r="B145" s="31">
+      <c r="B145" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3626,7 +3788,7 @@
       <c r="A146" s="1">
         <v>143</v>
       </c>
-      <c r="B146" s="31">
+      <c r="B146" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3635,7 +3797,7 @@
       <c r="A147" s="1">
         <v>144</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3644,7 +3806,7 @@
       <c r="A148" s="1">
         <v>145</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3653,7 +3815,7 @@
       <c r="A149" s="1">
         <v>146</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B149" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3662,7 +3824,7 @@
       <c r="A150" s="1">
         <v>147</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B150" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3671,7 +3833,7 @@
       <c r="A151" s="1">
         <v>148</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B151" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3680,7 +3842,7 @@
       <c r="A152" s="1">
         <v>149</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3689,7 +3851,7 @@
       <c r="A153" s="1">
         <v>150</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3698,7 +3860,7 @@
       <c r="A154" s="1">
         <v>151</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B154" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3707,7 +3869,7 @@
       <c r="A155" s="1">
         <v>152</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B155" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3716,7 +3878,7 @@
       <c r="A156" s="1">
         <v>153</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B156" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3725,34 +3887,15 @@
       <c r="A157" s="1">
         <v>154</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B157" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="S8:Y8"/>
+  <mergeCells count="38">
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G10:M10"/>
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="S20:Y20"/>
     <mergeCell ref="G9:M9"/>
@@ -3769,6 +3912,26 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="S17:Y17"/>
     <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
@@ -3811,17 +3974,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3831,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -3884,7 +4047,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>26</v>
@@ -3901,16 +4064,16 @@
         <v>10000003</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3924,16 +4087,16 @@
         <v>10000004</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3953,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>26</v>
@@ -3976,7 +4139,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>32</v>
@@ -3999,7 +4162,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>32</v>
@@ -4022,7 +4185,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9">
         <v>43284</v>
@@ -4048,7 +4211,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="9">
         <v>43284</v>
@@ -4070,16 +4233,16 @@
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="56" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="61">
+        <v>114</v>
+      </c>
+      <c r="G12" s="58">
         <v>43283</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="57" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4096,12 +4259,12 @@
       <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="I13" s="60"/>
+        <v>114</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -4111,13 +4274,13 @@
         <v>43297</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4131,19 +4294,19 @@
         <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="9">
         <v>43294</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4157,10 +4320,10 @@
         <v>100000051</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4174,13 +4337,13 @@
         <v>100000071</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4193,23 +4356,23 @@
       <c r="C18" s="4">
         <v>100000081</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>102</v>
+      <c r="D18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="9">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4223,13 +4386,13 @@
         <v>100000091</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4243,19 +4406,19 @@
         <v>100000101</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G20" s="9">
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4269,19 +4432,19 @@
         <v>100000111</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G21" s="9">
         <v>43313</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4295,19 +4458,19 @@
         <v>100000121</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G22" s="9">
         <v>43313</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4321,19 +4484,19 @@
         <v>100000131</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G23" s="9">
         <v>43313</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4347,10 +4510,10 @@
         <v>100000141</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4364,13 +4527,13 @@
         <v>100000151</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4384,7 +4547,7 @@
         <v>100000161</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4398,7 +4561,7 @@
         <v>100000171</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4412,7 +4575,7 @@
         <v>100000181</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4426,7 +4589,7 @@
         <v>100000191</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4440,7 +4603,7 @@
         <v>100000201</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4454,7 +4617,7 @@
         <v>100000211</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4468,7 +4631,7 @@
         <v>100000221</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4482,7 +4645,7 @@
         <v>100000231</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4496,7 +4659,7 @@
         <v>100000241</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4510,7 +4673,7 @@
         <v>100000251</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4524,7 +4687,7 @@
         <v>100000261</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4538,7 +4701,7 @@
         <v>100100001</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4551,8 +4714,8 @@
       <c r="C38" s="10">
         <v>100100002</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>124</v>
+      <c r="D38" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -4568,8 +4731,8 @@
       <c r="C39" s="10">
         <v>100100003</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>125</v>
+      <c r="D39" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4585,8 +4748,8 @@
       <c r="C40" s="10">
         <v>100100004</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>126</v>
+      <c r="D40" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4599,8 +4762,8 @@
       <c r="C41" s="10">
         <v>100100005</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>127</v>
+      <c r="D41" s="28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4613,8 +4776,8 @@
       <c r="C42" s="10">
         <v>100100006</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>128</v>
+      <c r="D42" s="28" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4627,8 +4790,8 @@
       <c r="C43" s="10">
         <v>100100007</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>129</v>
+      <c r="D43" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4641,8 +4804,8 @@
       <c r="C44" s="10">
         <v>100100008</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>130</v>
+      <c r="D44" s="28" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4655,8 +4818,8 @@
       <c r="C45" s="10">
         <v>100100009</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>131</v>
+      <c r="D45" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4669,8 +4832,8 @@
       <c r="C46" s="10">
         <v>100100010</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>132</v>
+      <c r="D46" s="28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:15">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180601010000003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180601010000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>faa9d253</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丁磊（测试用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展会使用00161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>展会使用00191</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,14 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180601010000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝牙换模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝牙模块换成0013测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,15 +600,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆下，周总测试.出货至北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>螺丝(套)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出货至北京</t>
+    <t>陈侃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下，周总测试.出货至北京 燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望(能投)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投于2018/08/20归还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投归还005门锁，未归还门卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00161  （再丰达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试用万能卡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示门锁带锁架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙市芙蓉区荷花路铁通小区1501室  周生 18942560167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09041ff0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905c2f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09090ed0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906f530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907fb00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09040af0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906af30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907b290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905dae0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906bc70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908b460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904f8f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904ccd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903eee0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1019,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +1073,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,19 +1100,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,15 +1118,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,15 +1132,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,11 +1454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1360,87 +1492,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="52" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="42" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="42"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="43"/>
+        <v>111</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
@@ -1448,75 +1580,75 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="42"/>
+        <v>62</v>
+      </c>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="14">
@@ -1530,21 +1662,21 @@
         <v>11</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="13">
         <v>868744030870087</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="G4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="13">
         <v>0</v>
       </c>
@@ -1585,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="AA4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1606,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5">
         <v>868744030885911</v>
@@ -1672,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AB5" s="16">
         <v>1</v>
@@ -1696,15 +1828,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
+      <c r="G6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="13">
         <v>1</v>
       </c>
@@ -1715,21 +1847,21 @@
       <c r="Q6" s="21">
         <v>43302</v>
       </c>
-      <c r="R6" s="60"/>
-      <c r="S6" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="46"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="59"/>
       <c r="Z6" s="34">
         <v>1</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB6" s="15">
         <v>1</v>
@@ -1748,21 +1880,21 @@
         <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="13">
         <v>868744030885796</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
+      <c r="G7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="13">
         <v>1</v>
       </c>
@@ -1773,21 +1905,21 @@
       <c r="Q7" s="21">
         <v>43298</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="59"/>
       <c r="Z7" s="34">
         <v>1</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="15">
         <v>1</v>
@@ -1806,21 +1938,21 @@
         <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13">
         <v>868744030897866</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="G8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="13">
         <v>1</v>
       </c>
@@ -1831,21 +1963,21 @@
       <c r="Q8" s="21">
         <v>43298</v>
       </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="59"/>
       <c r="Z8" s="34">
         <v>1</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB8" s="15">
         <v>1</v>
@@ -1861,24 +1993,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13">
         <v>868744030870145</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="13">
         <v>1</v>
       </c>
@@ -1887,19 +2017,19 @@
         <v>1</v>
       </c>
       <c r="Q9" s="21"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="46"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="59"/>
       <c r="Z9" s="34"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1913,22 +2043,22 @@
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>110</v>
+      <c r="D10" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="E10" s="33">
         <v>868744030898922</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="G10" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
+      <c r="G10" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="33">
         <v>1</v>
       </c>
@@ -2025,13 +2155,13 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AB11" s="16">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2043,48 +2173,48 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="G12" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
       <c r="P12" s="16">
         <v>1</v>
       </c>
       <c r="Q12" s="9">
         <v>43308</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="39"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="54"/>
       <c r="AA12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB12" s="16">
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2096,48 +2226,48 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
+      <c r="G13" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
       <c r="P13" s="16">
         <v>1</v>
       </c>
       <c r="Q13" s="9">
         <v>43308</v>
       </c>
-      <c r="R13" s="61"/>
-      <c r="S13" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="39"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="54"/>
       <c r="AA13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB13" s="16">
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2149,48 +2279,48 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="G14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
       <c r="P14" s="16">
         <v>1</v>
       </c>
       <c r="Q14" s="9">
         <v>43308</v>
       </c>
-      <c r="R14" s="61"/>
-      <c r="S14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="39"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="54"/>
       <c r="AA14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB14" s="16">
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2202,48 +2332,48 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
+      <c r="G15" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
       <c r="P15" s="16">
         <v>1</v>
       </c>
       <c r="Q15" s="9">
         <v>43308</v>
       </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="39"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
       <c r="AA15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB15" s="16">
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2255,48 +2385,48 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="5">
         <v>863703033725131</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
+      <c r="G16" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
       <c r="P16" s="16">
         <v>1</v>
       </c>
       <c r="Q16" s="9">
         <v>43308</v>
       </c>
-      <c r="R16" s="61"/>
-      <c r="S16" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="39"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="54"/>
       <c r="AA16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB16" s="16">
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2308,38 +2438,38 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
+      <c r="G17" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
       <c r="P17" s="16">
         <v>1</v>
       </c>
       <c r="Q17" s="9">
         <v>43308</v>
       </c>
-      <c r="S17" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="39"/>
+      <c r="S17" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="54"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2359,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="33">
         <v>180801020000001</v>
@@ -2368,15 +2498,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46"/>
+      <c r="G18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="33">
         <v>1</v>
       </c>
@@ -2386,13 +2516,13 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="51"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="69"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
@@ -2404,13 +2534,13 @@
       </c>
       <c r="B19" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
@@ -2470,10 +2600,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2485,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5">
         <v>180401010000061</v>
@@ -2493,15 +2626,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="G20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="13">
         <v>1</v>
       </c>
@@ -2511,26 +2644,26 @@
       <c r="Q20" s="9">
         <v>43325</v>
       </c>
-      <c r="S20" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="46"/>
+      <c r="S20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="59"/>
       <c r="Z20" s="34">
         <v>1</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB20" s="16">
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2539,10 +2672,10 @@
       </c>
       <c r="B21" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D21" s="5">
         <v>180801020000002</v>
@@ -2550,16 +2683,28 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
+      <c r="G21" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
       <c r="P21" s="16">
+        <v>1</v>
+      </c>
+      <c r="S21" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="54"/>
+      <c r="AB21" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2569,10 +2714,10 @@
       </c>
       <c r="B22" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D22" s="5">
         <v>180801020000003</v>
@@ -2580,16 +2725,28 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
+      <c r="G22" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
       <c r="P22" s="16">
+        <v>1</v>
+      </c>
+      <c r="S22" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="54"/>
+      <c r="AB22" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2599,10 +2756,10 @@
       </c>
       <c r="B23" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5">
         <v>180801020000004</v>
@@ -2610,16 +2767,28 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
+      <c r="G23" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
       <c r="P23" s="16">
+        <v>1</v>
+      </c>
+      <c r="S23" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="54"/>
+      <c r="AB23" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2629,10 +2798,10 @@
       </c>
       <c r="B24" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D24" s="5">
         <v>180801020000005</v>
@@ -2640,16 +2809,28 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
+      <c r="G24" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
       <c r="P24" s="16">
+        <v>1</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="54"/>
+      <c r="AB24" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2659,10 +2840,10 @@
       </c>
       <c r="B25" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D25" s="5">
         <v>180801020000006</v>
@@ -2670,16 +2851,28 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
+      <c r="G25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
       <c r="P25" s="16">
+        <v>1</v>
+      </c>
+      <c r="S25" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="54"/>
+      <c r="AB25" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2689,10 +2882,10 @@
       </c>
       <c r="B26" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D26" s="5">
         <v>180801020000007</v>
@@ -2700,26 +2893,87 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
+      <c r="G26" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
       <c r="P26" s="16">
         <v>1</v>
       </c>
+      <c r="S26" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="54"/>
+      <c r="AB26" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="1">
+      <c r="A27" s="14">
         <v>24</v>
       </c>
-      <c r="B27" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="33">
+        <v>180401010000059</v>
+      </c>
+      <c r="E27" s="33">
+        <v>868744030870889</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2728,7 +2982,43 @@
       </c>
       <c r="B28" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="5">
+        <v>180601010000002</v>
+      </c>
+      <c r="E28" s="5">
+        <v>863703030143866</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <v>2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2737,7 +3027,43 @@
       </c>
       <c r="B29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="5">
+        <v>180601010000005</v>
+      </c>
+      <c r="E29" s="5">
+        <v>868744030899110</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -2748,6 +3074,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="5">
+        <v>180801020000008</v>
+      </c>
+      <c r="E30" s="5">
+        <v>867900040032925</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="51"/>
+      <c r="P30" s="16">
+        <v>1</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="54"/>
+      <c r="AB30" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1">
@@ -2757,6 +3117,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="5">
+        <v>180801020000009</v>
+      </c>
+      <c r="E31" s="5">
+        <v>867900040032602</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="51"/>
+      <c r="P31" s="16">
+        <v>1</v>
+      </c>
+      <c r="S31" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="54"/>
+      <c r="AB31" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1">
@@ -2766,8 +3160,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="5">
+        <v>180801020000010</v>
+      </c>
+      <c r="E32" s="5">
+        <v>867900040033311</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="51"/>
+      <c r="P32" s="16">
+        <v>1</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="54"/>
+      <c r="AB32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2775,8 +3203,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="5">
+        <v>180801020000011</v>
+      </c>
+      <c r="E33" s="5">
+        <v>867900040032552</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="51"/>
+      <c r="P33" s="16">
+        <v>1</v>
+      </c>
+      <c r="S33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="54"/>
+      <c r="AB33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2784,8 +3246,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="5">
+        <v>180801020000012</v>
+      </c>
+      <c r="E34" s="5">
+        <v>867900040032412</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="51"/>
+      <c r="P34" s="16">
+        <v>1</v>
+      </c>
+      <c r="S34" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="54"/>
+      <c r="AB34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2794,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2803,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2812,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2821,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2830,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2839,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2848,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2857,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2866,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2875,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2884,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2893,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2902,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3893,27 +4389,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G17:M17"/>
+  <mergeCells count="55">
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
     <mergeCell ref="S17:Y17"/>
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="S15:Y15"/>
     <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G20:M20"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -3925,16 +4413,41 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
     <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S34:Y34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
+  <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3951,10 +4464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3967,24 +4480,24 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="11.125" customWidth="1"/>
     <col min="15" max="15" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3994,13 +4507,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4025,32 +4538,34 @@
         <v>23</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" s="49" customFormat="1">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="44">
         <v>43297</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="45">
         <v>10000002</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>26</v>
+      <c r="F4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="48" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4064,16 +4579,16 @@
         <v>10000003</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4087,39 +4602,39 @@
         <v>10000004</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="49" customFormat="1">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="44">
         <v>43297</v>
       </c>
       <c r="C7" s="20">
         <v>10000005</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>26</v>
+      <c r="D7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="48" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4133,16 +4648,16 @@
         <v>10000007</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4156,16 +4671,16 @@
         <v>10000008</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4176,22 +4691,22 @@
         <v>43297</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="9">
         <v>43284</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4202,22 +4717,22 @@
         <v>43297</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11" s="9">
         <v>43284</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4228,22 +4743,22 @@
         <v>43297</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="73">
+        <v>43283</v>
+      </c>
+      <c r="I12" s="72" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="58">
-        <v>43283</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4254,17 +4769,17 @@
         <v>43297</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="56"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="71"/>
       <c r="F13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="I13" s="57"/>
+        <v>112</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -4274,13 +4789,13 @@
         <v>43297</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4291,22 +4806,22 @@
         <v>43297</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" s="9">
         <v>43294</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4320,10 +4835,10 @@
         <v>100000051</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4333,17 +4848,20 @@
       <c r="B17" s="9">
         <v>43297</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="4">
         <v>100000071</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>131</v>
+      <c r="D17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4357,22 +4875,22 @@
         <v>100000081</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="9">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4386,13 +4904,13 @@
         <v>100000091</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4402,23 +4920,23 @@
       <c r="B20" s="9">
         <v>43297</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="4">
         <v>100000101</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>103</v>
+      <c r="D20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" s="9">
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4428,23 +4946,23 @@
       <c r="B21" s="9">
         <v>43297</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="4">
         <v>100000111</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>105</v>
+      <c r="D21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G21" s="9">
         <v>43313</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4454,23 +4972,23 @@
       <c r="B22" s="9">
         <v>43297</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="4">
         <v>100000121</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>105</v>
+      <c r="D22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G22" s="9">
         <v>43313</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4480,23 +4998,23 @@
       <c r="B23" s="9">
         <v>43297</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="4">
         <v>100000131</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>103</v>
+      <c r="D23" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G23" s="9">
         <v>43313</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4510,10 +5028,10 @@
         <v>100000141</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4523,17 +5041,26 @@
       <c r="B25" s="9">
         <v>43297</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="4">
         <v>100000151</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>140</v>
+      <c r="D25" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="9">
+        <v>43328</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4547,7 +5074,13 @@
         <v>100000161</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4561,7 +5094,7 @@
         <v>100000171</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4575,7 +5108,7 @@
         <v>100000181</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4589,7 +5122,7 @@
         <v>100000191</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4603,7 +5136,7 @@
         <v>100000201</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4617,7 +5150,7 @@
         <v>100000211</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4631,7 +5164,7 @@
         <v>100000221</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4645,7 +5178,7 @@
         <v>100000231</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4659,7 +5192,7 @@
         <v>100000241</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4673,7 +5206,7 @@
         <v>100000251</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4687,7 +5220,7 @@
         <v>100000261</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4701,7 +5234,7 @@
         <v>100100001</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4715,7 +5248,7 @@
         <v>100100002</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -4732,7 +5265,7 @@
         <v>100100003</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4749,7 +5282,7 @@
         <v>100100004</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4763,7 +5296,7 @@
         <v>100100005</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4777,7 +5310,7 @@
         <v>100100006</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4791,7 +5324,7 @@
         <v>100100007</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4805,7 +5338,7 @@
         <v>100100008</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4819,7 +5352,7 @@
         <v>100100009</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4833,17 +5366,288 @@
         <v>100100010</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="B47" s="9"/>
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C47" s="10">
+        <v>100100011</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="9"/>
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C48" s="10">
+        <v>100100012</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C49" s="10">
+        <v>100100013</v>
+      </c>
+      <c r="D49" s="16">
+        <v>9040140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C50" s="10">
+        <v>100100014</v>
+      </c>
+      <c r="D50" s="16">
+        <v>9096520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C51" s="10">
+        <v>100100015</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C52" s="10">
+        <v>100100016</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C53" s="10">
+        <v>100100017</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C54" s="10">
+        <v>100100018</v>
+      </c>
+      <c r="D54" s="16">
+        <v>9098290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C55" s="10">
+        <v>100100019</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C56" s="10">
+        <v>100100020</v>
+      </c>
+      <c r="D56" s="16">
+        <v>9043680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C57" s="10">
+        <v>100100021</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C58" s="10">
+        <v>100100022</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C59" s="10">
+        <v>100100023</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C60" s="10">
+        <v>100100024</v>
+      </c>
+      <c r="D60" s="16">
+        <v>9041020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C61" s="10">
+        <v>100100025</v>
+      </c>
+      <c r="D61" s="16">
+        <v>9050780</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C62" s="10">
+        <v>100100026</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C63" s="10">
+        <v>100100027</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C64" s="10">
+        <v>100100028</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C65" s="10">
+        <v>100100029</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C66" s="10">
+        <v>100100030</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="190">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,6 +729,46 @@
   </si>
   <si>
     <t>0903eee0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,6 +1128,15 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,15 +1156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1492,87 +1532,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="64" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="62" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="62"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1688,7 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="62"/>
+      <c r="AC3" s="65"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="14">
@@ -2516,13 +2556,13 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="69"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
@@ -2695,6 +2735,9 @@
       <c r="P21" s="16">
         <v>1</v>
       </c>
+      <c r="Q21" s="9">
+        <v>43325</v>
+      </c>
       <c r="S21" s="52" t="s">
         <v>143</v>
       </c>
@@ -2737,6 +2780,9 @@
       <c r="P22" s="16">
         <v>1</v>
       </c>
+      <c r="Q22" s="9">
+        <v>43325</v>
+      </c>
       <c r="S22" s="52" t="s">
         <v>143</v>
       </c>
@@ -2779,6 +2825,9 @@
       <c r="P23" s="16">
         <v>1</v>
       </c>
+      <c r="Q23" s="9">
+        <v>43325</v>
+      </c>
       <c r="S23" s="52" t="s">
         <v>143</v>
       </c>
@@ -2821,6 +2870,9 @@
       <c r="P24" s="16">
         <v>1</v>
       </c>
+      <c r="Q24" s="9">
+        <v>43325</v>
+      </c>
       <c r="S24" s="52" t="s">
         <v>143</v>
       </c>
@@ -2863,6 +2915,9 @@
       <c r="P25" s="16">
         <v>1</v>
       </c>
+      <c r="Q25" s="9">
+        <v>43325</v>
+      </c>
       <c r="S25" s="52" t="s">
         <v>143</v>
       </c>
@@ -2905,6 +2960,9 @@
       <c r="P26" s="16">
         <v>1</v>
       </c>
+      <c r="Q26" s="9">
+        <v>43325</v>
+      </c>
       <c r="S26" s="52" t="s">
         <v>143</v>
       </c>
@@ -2952,7 +3010,9 @@
       <c r="P27" s="15">
         <v>1</v>
       </c>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="21">
+        <v>43329</v>
+      </c>
       <c r="R27" s="15"/>
       <c r="S27" s="55" t="s">
         <v>58</v>
@@ -3096,6 +3156,9 @@
       <c r="P30" s="16">
         <v>1</v>
       </c>
+      <c r="Q30" s="9">
+        <v>43333</v>
+      </c>
       <c r="S30" s="52" t="s">
         <v>143</v>
       </c>
@@ -3139,6 +3202,9 @@
       <c r="P31" s="16">
         <v>1</v>
       </c>
+      <c r="Q31" s="9">
+        <v>43333</v>
+      </c>
       <c r="S31" s="52" t="s">
         <v>143</v>
       </c>
@@ -3182,6 +3248,9 @@
       <c r="P32" s="16">
         <v>1</v>
       </c>
+      <c r="Q32" s="9">
+        <v>43333</v>
+      </c>
       <c r="S32" s="52" t="s">
         <v>143</v>
       </c>
@@ -3225,6 +3294,9 @@
       <c r="P33" s="16">
         <v>1</v>
       </c>
+      <c r="Q33" s="9">
+        <v>43333</v>
+      </c>
       <c r="S33" s="52" t="s">
         <v>143</v>
       </c>
@@ -3268,6 +3340,9 @@
       <c r="P34" s="16">
         <v>1</v>
       </c>
+      <c r="Q34" s="9">
+        <v>43333</v>
+      </c>
       <c r="S34" s="52" t="s">
         <v>143</v>
       </c>
@@ -3289,6 +3364,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="5">
+        <v>180701010000001</v>
+      </c>
+      <c r="E35" s="5">
+        <v>867900040029590</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2</v>
+      </c>
+      <c r="M35" s="10">
+        <v>2</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>43353</v>
+      </c>
+      <c r="R35" s="5">
+        <v>2</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1</v>
+      </c>
+      <c r="T35" s="5">
+        <v>2</v>
+      </c>
+      <c r="U35" s="5">
+        <v>1</v>
+      </c>
+      <c r="V35" s="5">
+        <v>1</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="X35" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
@@ -3298,6 +3448,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="5">
+        <v>180701010001381</v>
+      </c>
+      <c r="E36" s="5">
+        <v>867900040032503</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>43353</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5">
+        <v>2</v>
+      </c>
+      <c r="U36" s="5">
+        <v>1</v>
+      </c>
+      <c r="V36" s="5">
+        <v>1</v>
+      </c>
+      <c r="W36" s="10">
+        <v>1</v>
+      </c>
+      <c r="X36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
@@ -3307,6 +3532,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="5">
+        <v>180701010001382</v>
+      </c>
+      <c r="E37" s="5">
+        <v>867900040208186</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>43353</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1</v>
+      </c>
+      <c r="S37" s="10">
+        <v>1</v>
+      </c>
+      <c r="T37" s="5">
+        <v>2</v>
+      </c>
+      <c r="U37" s="5">
+        <v>1</v>
+      </c>
+      <c r="V37" s="5">
+        <v>1</v>
+      </c>
+      <c r="W37" s="10">
+        <v>1</v>
+      </c>
+      <c r="X37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
@@ -3316,6 +3616,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="5">
+        <v>180701010001064</v>
+      </c>
+      <c r="E38" s="5">
+        <v>867900040223953</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="10">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="P38" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>43353</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1</v>
+      </c>
+      <c r="S38" s="10">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5">
+        <v>2</v>
+      </c>
+      <c r="U38" s="5">
+        <v>1</v>
+      </c>
+      <c r="V38" s="5">
+        <v>1</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
@@ -3325,6 +3700,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="5">
+        <v>180701010000245</v>
+      </c>
+      <c r="E39" s="5">
+        <v>867900040094578</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10">
+        <v>2</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
@@ -3334,6 +3754,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
@@ -3343,6 +3766,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
@@ -3352,6 +3778,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
@@ -3360,6 +3789,9 @@
       <c r="B43" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4402,6 +4834,10 @@
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G10:M10"/>
     <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -4413,10 +4849,6 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
     <mergeCell ref="S13:Y13"/>
     <mergeCell ref="S14:Y14"/>
     <mergeCell ref="G12:M12"/>
@@ -4466,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5096,6 +5528,12 @@
       <c r="D27" s="16" t="s">
         <v>76</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
@@ -5110,6 +5548,12 @@
       <c r="D28" s="16" t="s">
         <v>77</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
@@ -5124,6 +5568,21 @@
       <c r="D29" s="16" t="s">
         <v>78</v>
       </c>
+      <c r="E29" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
@@ -5138,6 +5597,21 @@
       <c r="D30" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="E30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
@@ -5152,6 +5626,21 @@
       <c r="D31" s="16" t="s">
         <v>80</v>
       </c>
+      <c r="E31" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
@@ -5166,6 +5655,18 @@
       <c r="D32" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="E32" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
@@ -5180,6 +5681,18 @@
       <c r="D33" s="16" t="s">
         <v>82</v>
       </c>
+      <c r="E33" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
@@ -5193,6 +5706,18 @@
       </c>
       <c r="D34" s="16" t="s">
         <v>83</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="9">
+        <v>43353</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:15">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,30 @@
   </si>
   <si>
     <t>2018/09/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903ec70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907b230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09055f90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09051ce0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906bb60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09090e60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,193 +993,187 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1509,111 +1527,111 @@
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="9" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="5" customWidth="1"/>
     <col min="9" max="10" width="4.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="9" customWidth="1"/>
     <col min="14" max="14" width="4.625" style="5" customWidth="1"/>
     <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="15" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="7.625" style="16" customWidth="1"/>
-    <col min="20" max="22" width="4.75" style="16" customWidth="1"/>
-    <col min="23" max="23" width="7.875" style="16" customWidth="1"/>
-    <col min="24" max="24" width="4.75" style="16" customWidth="1"/>
-    <col min="25" max="25" width="6.5" style="16" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="16" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="15" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="15" customWidth="1"/>
+    <col min="20" max="22" width="4.75" style="15" customWidth="1"/>
+    <col min="23" max="23" width="7.875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="4.75" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.5" style="15" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="15" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="16" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="15" customWidth="1"/>
     <col min="29" max="29" width="48.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="67" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="65" t="s">
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="65"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1655,7 +1673,7 @@
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="34" t="s">
         <v>107</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -1688,81 +1706,81 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="65"/>
+      <c r="AC3" s="58"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
         <f>P4-AB4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>868744030870087</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="20">
         <v>43328</v>
       </c>
-      <c r="R4" s="35">
-        <v>1</v>
-      </c>
-      <c r="S4" s="15">
-        <v>1</v>
-      </c>
-      <c r="T4" s="15">
+      <c r="R4" s="33">
+        <v>1</v>
+      </c>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
         <v>2</v>
       </c>
-      <c r="U4" s="15">
-        <v>1</v>
-      </c>
-      <c r="V4" s="15">
-        <v>1</v>
-      </c>
-      <c r="W4" s="15">
-        <v>1</v>
-      </c>
-      <c r="X4" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="15">
+      <c r="U4" s="14">
+        <v>1</v>
+      </c>
+      <c r="V4" s="14">
+        <v>1</v>
+      </c>
+      <c r="W4" s="14">
+        <v>1</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="14">
         <v>2</v>
       </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="14" t="s">
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AB4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1770,14 +1788,14 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="5">
@@ -1786,7 +1804,7 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="5">
@@ -1798,346 +1816,346 @@
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>2</v>
       </c>
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
         <v>43308</v>
       </c>
-      <c r="R5" s="16">
-        <v>1</v>
-      </c>
-      <c r="S5" s="16">
-        <v>1</v>
-      </c>
-      <c r="T5" s="16">
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15">
         <v>2</v>
       </c>
-      <c r="U5" s="16">
-        <v>1</v>
-      </c>
-      <c r="V5" s="16">
-        <v>1</v>
-      </c>
-      <c r="W5" s="16">
-        <v>1</v>
-      </c>
-      <c r="X5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="16">
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1</v>
+      </c>
+      <c r="W5" s="15">
+        <v>1</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15">
         <v>2</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="15">
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>863703032301108</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="13">
-        <v>1</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="21">
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="20">
         <v>43302</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="55" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="14" t="s">
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="14"/>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="13"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>868744030885796</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="21">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="20">
         <v>43298</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="55" t="s">
+      <c r="R7" s="35"/>
+      <c r="S7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="14" t="s">
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="14"/>
+      <c r="AB7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="13"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>868744030897866</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20">
         <v>43298</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="55" t="s">
+      <c r="R8" s="35"/>
+      <c r="S8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="14" t="s">
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="14"/>
+      <c r="AB8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>868744030870145</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="13">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="14" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>868744030898922</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="55" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="33">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="14"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="5">
         <v>863703032882602</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="5">
@@ -2149,55 +2167,55 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>2</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="P11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8">
         <v>43328</v>
       </c>
-      <c r="R11" s="16">
-        <v>1</v>
-      </c>
-      <c r="S11" s="16">
-        <v>1</v>
-      </c>
-      <c r="T11" s="16">
+      <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
         <v>2</v>
       </c>
-      <c r="U11" s="16">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16">
-        <v>1</v>
-      </c>
-      <c r="W11" s="16">
-        <v>1</v>
-      </c>
-      <c r="X11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="16">
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <v>1</v>
+      </c>
+      <c r="W11" s="15">
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
         <v>2</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="15">
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="15">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
@@ -2208,49 +2226,49 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
-      <c r="P12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="9">
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="P12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
         <v>43308</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="52" t="s">
+      <c r="R12" s="36"/>
+      <c r="S12" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="15">
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
@@ -2261,49 +2279,49 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="52" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="P13" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="9">
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
         <v>43308</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="52" t="s">
+      <c r="R13" s="36"/>
+      <c r="S13" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13" s="15">
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
@@ -2314,49 +2332,49 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
-      <c r="P14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="9">
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="P14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
         <v>43308</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="52" t="s">
+      <c r="R14" s="36"/>
+      <c r="S14" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="55"/>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="15">
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
@@ -2367,49 +2385,49 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="52" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
-      <c r="P15" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
         <v>43308</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="52" t="s">
+      <c r="R15" s="36"/>
+      <c r="S15" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AB15" s="15">
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
@@ -2420,49 +2438,49 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="5">
         <v>863703033725131</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="P16" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="9">
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="P16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
         <v>43308</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="52" t="s">
+      <c r="R16" s="36"/>
+      <c r="S16" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="55"/>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AB16" s="15">
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
@@ -2473,47 +2491,47 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="P17" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="9">
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="P17" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AB17" s="15">
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
@@ -2524,68 +2542,68 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>180801020000001</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>868744033103981</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="55" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="33">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="14"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
       <c r="H19" s="5">
@@ -2597,52 +2615,52 @@
       <c r="J19" s="5">
         <v>1</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5">
         <v>1</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>2</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
-      <c r="P19" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="P19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
         <v>43320</v>
       </c>
-      <c r="S19" s="16">
-        <v>1</v>
-      </c>
-      <c r="T19" s="16">
+      <c r="S19" s="15">
+        <v>1</v>
+      </c>
+      <c r="T19" s="15">
         <v>2</v>
       </c>
-      <c r="U19" s="16">
-        <v>1</v>
-      </c>
-      <c r="V19" s="16">
-        <v>1</v>
-      </c>
-      <c r="W19" s="16">
-        <v>1</v>
-      </c>
-      <c r="X19" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="16">
+      <c r="U19" s="15">
+        <v>1</v>
+      </c>
+      <c r="V19" s="15">
+        <v>1</v>
+      </c>
+      <c r="W19" s="15">
+        <v>1</v>
+      </c>
+      <c r="X19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="15">
         <v>2</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z19" s="15">
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB19" s="16">
+      <c r="AB19" s="15">
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
@@ -2653,7 +2671,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2666,40 +2684,40 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="13">
-        <v>1</v>
-      </c>
-      <c r="P20" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="9">
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="55" t="s">
+      <c r="S20" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="14" t="s">
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AB20" s="16">
+      <c r="AB20" s="15">
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
@@ -2710,7 +2728,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2723,31 +2741,31 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="P21" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="9">
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="P21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="54"/>
-      <c r="AB21" s="16">
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="AB21" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2755,7 +2773,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2768,31 +2786,31 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-      <c r="P22" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="9">
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="52" t="s">
+      <c r="S22" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="54"/>
-      <c r="AB22" s="16">
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="55"/>
+      <c r="AB22" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2800,7 +2818,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2813,31 +2831,31 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="P23" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="9">
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="P23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="AB23" s="16">
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
+      <c r="AB23" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2845,7 +2863,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2858,31 +2876,31 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
-      <c r="P24" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="9">
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
+      <c r="P24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="52" t="s">
+      <c r="S24" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="54"/>
-      <c r="AB24" s="16">
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
+      <c r="AB24" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2890,7 +2908,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2903,31 +2921,31 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
-      <c r="P25" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="9">
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="P25" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="52" t="s">
+      <c r="S25" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="54"/>
-      <c r="AB25" s="16">
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="AB25" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2935,7 +2953,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2948,91 +2966,91 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
-      <c r="P26" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="9">
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="P26" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="52" t="s">
+      <c r="S26" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="54"/>
-      <c r="AB26" s="16">
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="55"/>
+      <c r="AB26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>180401010000059</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>868744030870889</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="55" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="33">
-        <v>0</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="21">
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="20">
         <v>43329</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="55" t="s">
+      <c r="R27" s="14"/>
+      <c r="S27" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="14" t="s">
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AB27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="14" t="s">
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3040,7 +3058,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3062,13 +3080,13 @@
       <c r="J28" s="5">
         <v>1</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>1</v>
       </c>
       <c r="L28" s="5">
         <v>1</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>2</v>
       </c>
       <c r="N28" s="5">
@@ -3077,7 +3095,7 @@
       <c r="O28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3085,7 +3103,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3107,13 +3125,13 @@
       <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>0</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>2</v>
       </c>
       <c r="N29" s="5">
@@ -3122,7 +3140,7 @@
       <c r="O29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3130,7 +3148,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3143,32 +3161,32 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="51"/>
-      <c r="P30" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="9">
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="48"/>
+      <c r="P30" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="52" t="s">
+      <c r="S30" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="54"/>
-      <c r="AB30" s="16">
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="55"/>
+      <c r="AB30" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3176,7 +3194,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3189,32 +3207,32 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="51"/>
-      <c r="P31" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="9">
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="48"/>
+      <c r="P31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="52" t="s">
+      <c r="S31" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="54"/>
-      <c r="AB31" s="16">
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="55"/>
+      <c r="AB31" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3222,7 +3240,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3235,32 +3253,32 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="51"/>
-      <c r="P32" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="9">
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="48"/>
+      <c r="P32" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="52" t="s">
+      <c r="S32" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="54"/>
-      <c r="AB32" s="16">
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="55"/>
+      <c r="AB32" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3268,7 +3286,7 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3281,32 +3299,32 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="51"/>
-      <c r="P33" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="9">
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="48"/>
+      <c r="P33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="52" t="s">
+      <c r="S33" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="54"/>
-      <c r="AB33" s="16">
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="55"/>
+      <c r="AB33" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3314,7 +3332,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3327,32 +3345,32 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="51"/>
-      <c r="P34" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="9">
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="48"/>
+      <c r="P34" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="52" t="s">
+      <c r="S34" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="54"/>
-      <c r="AB34" s="16">
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="55"/>
+      <c r="AB34" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3360,7 +3378,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3376,7 +3394,7 @@
       <c r="F35" s="5">
         <v>2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>1</v>
       </c>
       <c r="H35" s="5">
@@ -3388,28 +3406,28 @@
       <c r="J35" s="5">
         <v>1</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>1</v>
       </c>
       <c r="L35" s="5">
         <v>2</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <v>2</v>
       </c>
       <c r="N35" s="5">
         <v>0</v>
       </c>
-      <c r="P35" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="9">
+      <c r="P35" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
         <v>43353</v>
       </c>
       <c r="R35" s="5">
         <v>2</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="9">
         <v>1</v>
       </c>
       <c r="T35" s="5">
@@ -3421,22 +3439,22 @@
       <c r="V35" s="5">
         <v>1</v>
       </c>
-      <c r="W35" s="10">
+      <c r="W35" s="9">
         <v>1</v>
       </c>
       <c r="X35" s="5">
         <v>2</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y35" s="9">
         <v>2</v>
       </c>
       <c r="Z35" s="5">
         <v>0</v>
       </c>
-      <c r="AA35" s="27" t="s">
+      <c r="AA35" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB35" s="16">
+      <c r="AB35" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3444,7 +3462,7 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3460,7 +3478,7 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
       <c r="H36" s="5">
@@ -3472,28 +3490,28 @@
       <c r="J36" s="5">
         <v>1</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>1</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>2</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
       </c>
-      <c r="P36" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="9">
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="8">
         <v>43353</v>
       </c>
       <c r="R36" s="5">
         <v>1</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="9">
         <v>1</v>
       </c>
       <c r="T36" s="5">
@@ -3505,22 +3523,22 @@
       <c r="V36" s="5">
         <v>1</v>
       </c>
-      <c r="W36" s="10">
+      <c r="W36" s="9">
         <v>1</v>
       </c>
       <c r="X36" s="5">
         <v>1</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Y36" s="9">
         <v>2</v>
       </c>
       <c r="Z36" s="5">
         <v>1</v>
       </c>
-      <c r="AA36" s="27" t="s">
+      <c r="AA36" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB36" s="16">
+      <c r="AB36" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3528,7 +3546,7 @@
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3544,7 +3562,7 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="5">
@@ -3556,28 +3574,28 @@
       <c r="J37" s="5">
         <v>1</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>1</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="9">
         <v>2</v>
       </c>
       <c r="N37" s="5">
         <v>1</v>
       </c>
-      <c r="P37" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="9">
+      <c r="P37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="8">
         <v>43353</v>
       </c>
       <c r="R37" s="5">
         <v>1</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="9">
         <v>1</v>
       </c>
       <c r="T37" s="5">
@@ -3589,22 +3607,22 @@
       <c r="V37" s="5">
         <v>1</v>
       </c>
-      <c r="W37" s="10">
+      <c r="W37" s="9">
         <v>1</v>
       </c>
       <c r="X37" s="5">
         <v>1</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Y37" s="9">
         <v>2</v>
       </c>
       <c r="Z37" s="5">
         <v>1</v>
       </c>
-      <c r="AA37" s="27" t="s">
+      <c r="AA37" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB37" s="16">
+      <c r="AB37" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3612,7 +3630,7 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3628,7 +3646,7 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>1</v>
       </c>
       <c r="H38" s="5">
@@ -3640,28 +3658,28 @@
       <c r="J38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>1</v>
       </c>
       <c r="L38" s="5">
         <v>1</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="9">
         <v>2</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="9">
+      <c r="P38" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
         <v>43353</v>
       </c>
       <c r="R38" s="5">
         <v>1</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="9">
         <v>1</v>
       </c>
       <c r="T38" s="5">
@@ -3673,22 +3691,22 @@
       <c r="V38" s="5">
         <v>1</v>
       </c>
-      <c r="W38" s="10">
+      <c r="W38" s="9">
         <v>1</v>
       </c>
       <c r="X38" s="5">
         <v>1</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Y38" s="9">
         <v>2</v>
       </c>
       <c r="Z38" s="5">
         <v>1</v>
       </c>
-      <c r="AA38" s="27" t="s">
+      <c r="AA38" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB38" s="16">
+      <c r="AB38" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3696,7 +3714,7 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3712,7 +3730,7 @@
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>1</v>
       </c>
       <c r="H39" s="5">
@@ -3724,33 +3742,33 @@
       <c r="J39" s="5">
         <v>1</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>1</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="9">
         <v>2</v>
       </c>
       <c r="N39" s="5">
         <v>1</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="9"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="10"/>
+      <c r="W39" s="9"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="10"/>
+      <c r="Y39" s="9"/>
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3762,7 +3780,7 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3774,7 +3792,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3786,7 +3804,7 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3798,7 +3816,7 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3807,7 +3825,7 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3816,7 +3834,7 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3825,7 +3843,7 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3834,7 +3852,7 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3843,7 +3861,7 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3852,7 +3870,7 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3861,7 +3879,7 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3870,7 +3888,7 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3879,7 +3897,7 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3888,7 +3906,7 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3897,7 +3915,7 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3906,7 +3924,7 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3915,7 +3933,7 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3924,7 +3942,7 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3933,7 +3951,7 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3942,7 +3960,7 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3951,7 +3969,7 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3960,7 +3978,7 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3969,7 +3987,7 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3978,7 +3996,7 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3987,7 +4005,7 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3996,7 +4014,7 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4005,7 +4023,7 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4014,7 +4032,7 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4023,7 +4041,7 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="25">
         <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
         <v>0</v>
       </c>
@@ -4032,7 +4050,7 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4041,7 +4059,7 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4050,7 +4068,7 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4059,7 +4077,7 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4068,7 +4086,7 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4077,7 +4095,7 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4086,7 +4104,7 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4095,7 +4113,7 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4104,7 +4122,7 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4113,7 +4131,7 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4122,7 +4140,7 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4131,7 +4149,7 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4140,7 +4158,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4149,7 +4167,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4158,7 +4176,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4167,7 +4185,7 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4176,7 +4194,7 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4185,7 +4203,7 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4194,7 +4212,7 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4203,7 +4221,7 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4212,7 +4230,7 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4221,7 +4239,7 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4230,7 +4248,7 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4239,7 +4257,7 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4248,7 +4266,7 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4257,7 +4275,7 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4266,7 +4284,7 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4275,7 +4293,7 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4284,7 +4302,7 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4293,7 +4311,7 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4302,7 +4320,7 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4311,7 +4329,7 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4320,7 +4338,7 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4329,7 +4347,7 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4338,7 +4356,7 @@
       <c r="A104" s="1">
         <v>101</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4347,7 +4365,7 @@
       <c r="A105" s="1">
         <v>102</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4356,7 +4374,7 @@
       <c r="A106" s="1">
         <v>103</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4365,7 +4383,7 @@
       <c r="A107" s="1">
         <v>104</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4374,7 +4392,7 @@
       <c r="A108" s="1">
         <v>105</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4383,7 +4401,7 @@
       <c r="A109" s="1">
         <v>106</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4392,7 +4410,7 @@
       <c r="A110" s="1">
         <v>107</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4401,7 +4419,7 @@
       <c r="A111" s="1">
         <v>108</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4410,7 +4428,7 @@
       <c r="A112" s="1">
         <v>109</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4419,7 +4437,7 @@
       <c r="A113" s="1">
         <v>110</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B113" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4428,7 +4446,7 @@
       <c r="A114" s="1">
         <v>111</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4437,7 +4455,7 @@
       <c r="A115" s="1">
         <v>112</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4446,7 +4464,7 @@
       <c r="A116" s="1">
         <v>113</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4455,7 +4473,7 @@
       <c r="A117" s="1">
         <v>114</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B117" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4464,7 +4482,7 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4473,7 +4491,7 @@
       <c r="A119" s="1">
         <v>116</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B119" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4482,7 +4500,7 @@
       <c r="A120" s="1">
         <v>117</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4491,7 +4509,7 @@
       <c r="A121" s="1">
         <v>118</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B121" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4500,7 +4518,7 @@
       <c r="A122" s="1">
         <v>119</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4509,7 +4527,7 @@
       <c r="A123" s="1">
         <v>120</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4518,7 +4536,7 @@
       <c r="A124" s="1">
         <v>121</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4527,7 +4545,7 @@
       <c r="A125" s="1">
         <v>122</v>
       </c>
-      <c r="B125" s="27">
+      <c r="B125" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4536,7 +4554,7 @@
       <c r="A126" s="1">
         <v>123</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4545,7 +4563,7 @@
       <c r="A127" s="1">
         <v>124</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B127" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4554,7 +4572,7 @@
       <c r="A128" s="1">
         <v>125</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4563,7 +4581,7 @@
       <c r="A129" s="1">
         <v>126</v>
       </c>
-      <c r="B129" s="27">
+      <c r="B129" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4572,7 +4590,7 @@
       <c r="A130" s="1">
         <v>127</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B130" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4581,7 +4599,7 @@
       <c r="A131" s="1">
         <v>128</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B131" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4590,7 +4608,7 @@
       <c r="A132" s="1">
         <v>129</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4599,7 +4617,7 @@
       <c r="A133" s="1">
         <v>130</v>
       </c>
-      <c r="B133" s="27">
+      <c r="B133" s="25">
         <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
         <v>0</v>
       </c>
@@ -4608,7 +4626,7 @@
       <c r="A134" s="1">
         <v>131</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B134" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4617,7 +4635,7 @@
       <c r="A135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="27">
+      <c r="B135" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4626,7 +4644,7 @@
       <c r="A136" s="1">
         <v>133</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B136" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4635,7 +4653,7 @@
       <c r="A137" s="1">
         <v>134</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B137" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4644,7 +4662,7 @@
       <c r="A138" s="1">
         <v>135</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4653,7 +4671,7 @@
       <c r="A139" s="1">
         <v>136</v>
       </c>
-      <c r="B139" s="27">
+      <c r="B139" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4662,7 +4680,7 @@
       <c r="A140" s="1">
         <v>137</v>
       </c>
-      <c r="B140" s="27">
+      <c r="B140" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4671,7 +4689,7 @@
       <c r="A141" s="1">
         <v>138</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B141" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4680,7 +4698,7 @@
       <c r="A142" s="1">
         <v>139</v>
       </c>
-      <c r="B142" s="27">
+      <c r="B142" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4689,7 +4707,7 @@
       <c r="A143" s="1">
         <v>140</v>
       </c>
-      <c r="B143" s="27">
+      <c r="B143" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4698,7 +4716,7 @@
       <c r="A144" s="1">
         <v>141</v>
       </c>
-      <c r="B144" s="27">
+      <c r="B144" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4707,7 +4725,7 @@
       <c r="A145" s="1">
         <v>142</v>
       </c>
-      <c r="B145" s="27">
+      <c r="B145" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4716,7 +4734,7 @@
       <c r="A146" s="1">
         <v>143</v>
       </c>
-      <c r="B146" s="27">
+      <c r="B146" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4725,7 +4743,7 @@
       <c r="A147" s="1">
         <v>144</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B147" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4734,7 +4752,7 @@
       <c r="A148" s="1">
         <v>145</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4743,7 +4761,7 @@
       <c r="A149" s="1">
         <v>146</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4752,7 +4770,7 @@
       <c r="A150" s="1">
         <v>147</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B150" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4761,7 +4779,7 @@
       <c r="A151" s="1">
         <v>148</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B151" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4770,7 +4788,7 @@
       <c r="A152" s="1">
         <v>149</v>
       </c>
-      <c r="B152" s="27">
+      <c r="B152" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4779,7 +4797,7 @@
       <c r="A153" s="1">
         <v>150</v>
       </c>
-      <c r="B153" s="27">
+      <c r="B153" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4788,7 +4806,7 @@
       <c r="A154" s="1">
         <v>151</v>
       </c>
-      <c r="B154" s="27">
+      <c r="B154" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4797,7 +4815,7 @@
       <c r="A155" s="1">
         <v>152</v>
       </c>
-      <c r="B155" s="27">
+      <c r="B155" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4806,7 +4824,7 @@
       <c r="A156" s="1">
         <v>153</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B156" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4815,13 +4833,52 @@
       <c r="A157" s="1">
         <v>154</v>
       </c>
-      <c r="B157" s="27">
+      <c r="B157" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="G22:M22"/>
@@ -4838,45 +4895,6 @@
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S33:Y33"/>
-    <mergeCell ref="S34:Y34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -4896,19 +4914,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="15" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -4919,17 +4937,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -4938,13 +4956,13 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4959,8 +4977,8 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
@@ -4969,34 +4987,34 @@
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" s="49" customFormat="1">
-      <c r="A4" s="27">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" s="46" customFormat="1">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="41">
         <v>43297</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <v>10000002</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="48" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="45" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5004,22 +5022,22 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>43297</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>10000003</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5027,45 +5045,45 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>43297</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>10000004</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="49" customFormat="1">
-      <c r="A7" s="27">
+    <row r="7" spans="1:12" s="46" customFormat="1">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="41">
         <v>43297</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>10000005</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="48" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="45" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5073,22 +5091,22 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>43297</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>10000007</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5096,22 +5114,22 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>43297</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>10000008</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5119,25 +5137,25 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>43297</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>43284</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5145,25 +5163,25 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>43297</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>43284</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5171,25 +5189,25 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>43297</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="69" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="71">
         <v>43283</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5197,36 +5215,36 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>43297</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="I13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>43297</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5234,25 +5252,25 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>43297</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>43294</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5260,16 +5278,16 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>43297</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>100000051</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5277,22 +5295,22 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>43297</v>
       </c>
       <c r="C17" s="4">
         <v>100000071</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5300,28 +5318,28 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>43297</v>
       </c>
       <c r="C18" s="4">
         <v>100000081</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5329,13 +5347,13 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>43297</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>100000091</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -5349,22 +5367,22 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>43297</v>
       </c>
       <c r="C20" s="4">
         <v>100000101</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="47" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -5375,22 +5393,22 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>43297</v>
       </c>
       <c r="C21" s="4">
         <v>100000111</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="47" t="s">
         <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>43313</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -5401,22 +5419,22 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>43297</v>
       </c>
       <c r="C22" s="4">
         <v>100000121</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="47" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>43313</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -5427,22 +5445,22 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>43297</v>
       </c>
       <c r="C23" s="4">
         <v>100000131</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="47" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>43313</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -5453,16 +5471,16 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>43297</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>100000141</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5470,22 +5488,22 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>43297</v>
       </c>
       <c r="C25" s="4">
         <v>100000151</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>43328</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -5499,13 +5517,13 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>43297</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>100000161</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="26" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5519,13 +5537,13 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>43297</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>100000171</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -5539,13 +5557,13 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>43297</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>100000181</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="26" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -5559,22 +5577,22 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>43297</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>100000191</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="21" t="s">
         <v>180</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>43353</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -5588,22 +5606,22 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>43297</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>100000201</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>183</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>43353</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -5617,22 +5635,22 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>43297</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>100000211</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>43353</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -5646,22 +5664,22 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>43297</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>100000221</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>43353</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -5672,22 +5690,22 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>43297</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>100000231</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>187</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>43353</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -5698,22 +5716,22 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>43297</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>100000241</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="21" t="s">
         <v>188</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>43353</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -5724,13 +5742,13 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>43297</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>100000251</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5738,13 +5756,13 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>43297</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>100000261</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="26" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5752,13 +5770,13 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>43311</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>100100001</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="26" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5766,47 +5784,47 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>43311</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>100100002</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>43311</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>100100003</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>43311</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>100100004</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5814,13 +5832,13 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>43311</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>100100005</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="26" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5828,13 +5846,13 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>43311</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>100100006</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5842,13 +5860,13 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>43311</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>100100007</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5856,13 +5874,13 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>43311</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>100100008</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5870,13 +5888,13 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>43311</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>100100009</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5884,13 +5902,13 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>43311</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>100100010</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5898,13 +5916,13 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>43347</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>100100011</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5912,13 +5930,13 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>43347</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>100100012</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="26" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5926,13 +5944,13 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>43347</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>100100013</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="26">
         <v>9040140</v>
       </c>
     </row>
@@ -5940,13 +5958,13 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>43347</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>100100014</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="26">
         <v>9096520</v>
       </c>
     </row>
@@ -5954,13 +5972,13 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>43347</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>100100015</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="26" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5968,13 +5986,13 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>43347</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>100100016</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5982,13 +6000,13 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>43347</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>100100017</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="26" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5996,13 +6014,13 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>43347</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>100100018</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="26">
         <v>9098290</v>
       </c>
     </row>
@@ -6010,13 +6028,13 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>43347</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>100100019</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="26" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6024,13 +6042,13 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>43347</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>100100020</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="26">
         <v>9043680</v>
       </c>
     </row>
@@ -6038,13 +6056,13 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>43347</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>100100021</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="26" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6052,13 +6070,13 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>43347</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>100100022</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="26" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6066,13 +6084,13 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>43347</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>100100023</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="26" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6080,13 +6098,13 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>43347</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>100100024</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="26">
         <v>9041020</v>
       </c>
     </row>
@@ -6094,13 +6112,13 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>43347</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>100100025</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="26">
         <v>9050780</v>
       </c>
     </row>
@@ -6108,13 +6126,13 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>43347</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>100100026</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="26" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6122,13 +6140,13 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>43347</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>100100027</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="26" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6136,13 +6154,13 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>43347</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>100100028</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="26" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6150,13 +6168,13 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>43347</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>100100029</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="26" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6164,14 +6182,154 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>43347</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>100100030</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="26" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C67" s="9">
+        <v>100100031</v>
+      </c>
+      <c r="D67" s="26">
+        <v>9097220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C68" s="9">
+        <v>100100032</v>
+      </c>
+      <c r="D68" s="26">
+        <v>9046550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C69" s="9">
+        <v>100100033</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C70" s="9">
+        <v>100100034</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C71" s="9">
+        <v>100100035</v>
+      </c>
+      <c r="D71" s="26">
+        <v>9047490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C72" s="9">
+        <v>100100036</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C73" s="9">
+        <v>100100037</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C74" s="9">
+        <v>100100038</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C75" s="9">
+        <v>100100039</v>
+      </c>
+      <c r="D75" s="26">
+        <v>9068740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8">
+        <v>43354</v>
+      </c>
+      <c r="C76" s="9">
+        <v>100100040</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="209">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,58 @@
   </si>
   <si>
     <t>09090e60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘毅云佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州索菲卡（再丰达客户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹志华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,6 +1180,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1207,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,12 +1225,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,15 +1232,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,11 +1570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1550,87 +1608,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="62" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="58" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="58"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -1706,7 +1764,7 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="58"/>
+      <c r="AC3" s="63"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -1726,15 +1784,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -1886,15 +1944,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -1906,15 +1964,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="35"/>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="52"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="55"/>
       <c r="Z6" s="32">
         <v>1</v>
       </c>
@@ -1944,15 +2002,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -1964,15 +2022,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="35"/>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
       <c r="Z7" s="32">
         <v>1</v>
       </c>
@@ -2002,15 +2060,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2022,15 +2080,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="35"/>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="52"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="55"/>
       <c r="Z8" s="32">
         <v>1</v>
       </c>
@@ -2076,13 +2134,13 @@
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
       <c r="Z9" s="32"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="14"/>
@@ -2108,15 +2166,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="31">
         <v>1</v>
       </c>
@@ -2240,15 +2298,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -2256,15 +2314,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="36"/>
-      <c r="S12" s="53" t="s">
+      <c r="S12" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
@@ -2293,15 +2351,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -2309,15 +2367,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="36"/>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
@@ -2346,15 +2404,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -2362,15 +2420,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="36"/>
-      <c r="S14" s="53" t="s">
+      <c r="S14" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="55"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2399,15 +2457,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -2415,15 +2473,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="36"/>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="58"/>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2452,15 +2510,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -2468,15 +2526,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="36"/>
-      <c r="S16" s="53" t="s">
+      <c r="S16" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="55"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="58"/>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
@@ -2504,30 +2562,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="58"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2544,7 +2602,7 @@
       </c>
       <c r="B18" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>134</v>
@@ -2556,15 +2614,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="31"/>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="31">
         <v>1</v>
       </c>
@@ -2574,17 +2632,25 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="14"/>
+      <c r="S18" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="31">
+        <v>1</v>
+      </c>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="13"/>
+      <c r="AB18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
@@ -2684,15 +2750,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -2702,15 +2768,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="50" t="s">
+      <c r="S20" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="55"/>
       <c r="Z20" s="32">
         <v>1</v>
       </c>
@@ -2741,30 +2807,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="53" t="s">
+      <c r="S21" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -2786,30 +2852,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="53" t="s">
+      <c r="S22" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="55"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -2831,30 +2897,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="53" t="s">
+      <c r="S23" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -2876,30 +2942,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="55"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="53" t="s">
+      <c r="S24" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="55"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="58"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -2921,30 +2987,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="53" t="s">
+      <c r="S25" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="58"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -2966,30 +3032,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="53" t="s">
+      <c r="S26" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="55"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="58"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3012,15 +3078,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="31">
         <v>0</v>
       </c>
@@ -3032,15 +3098,15 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="52"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
@@ -3161,15 +3227,15 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
       <c r="N30" s="48"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -3177,15 +3243,15 @@
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="53" t="s">
+      <c r="S30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="55"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="58"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3207,15 +3273,15 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="48"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -3223,15 +3289,15 @@
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="53" t="s">
+      <c r="S31" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="58"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3253,15 +3319,15 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
       <c r="N32" s="48"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -3269,20 +3335,20 @@
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="53" t="s">
+      <c r="S32" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="55"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="58"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3299,15 +3365,15 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
       <c r="N33" s="48"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -3315,20 +3381,20 @@
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="53" t="s">
+      <c r="S33" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="58"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3345,15 +3411,15 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
       <c r="N34" s="48"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -3361,20 +3427,20 @@
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="53" t="s">
+      <c r="S34" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="55"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="58"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:29">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3458,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:29">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3541,8 +3607,11 @@
       <c r="AB36" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3625,8 +3694,11 @@
       <c r="AB37" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3709,8 +3781,11 @@
       <c r="AB38" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3727,44 +3802,48 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2</v>
-      </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="9">
-        <v>2</v>
-      </c>
-      <c r="N39" s="5">
-        <v>1</v>
+      <c r="G39" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="31">
+        <v>1</v>
+      </c>
+      <c r="P39" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="S39" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3775,44 +3854,176 @@
       <c r="C40" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="D40" s="5">
+        <v>180701010000674</v>
+      </c>
+      <c r="E40" s="5">
+        <v>867900040228457</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="31">
+        <v>1</v>
+      </c>
+      <c r="P40" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>43362</v>
+      </c>
+      <c r="S40" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="D41" s="5">
+        <v>180701010000225</v>
+      </c>
+      <c r="E41" s="5">
+        <v>867900040177456</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>2</v>
+      </c>
+      <c r="P41" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="D42" s="5">
+        <v>180701010000315</v>
+      </c>
+      <c r="E42" s="5">
+        <v>867900040078159</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>2</v>
+      </c>
+      <c r="P42" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="D43" s="5">
+        <v>180701010000288</v>
+      </c>
+      <c r="E43" s="5">
+        <v>867900040070081</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>2</v>
+      </c>
+      <c r="P43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3820,8 +4031,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="C44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="5">
+        <v>180701010000552</v>
+      </c>
+      <c r="E44" s="5">
+        <v>867900040206867</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>2</v>
+      </c>
+      <c r="M44" s="9">
+        <v>2</v>
+      </c>
+      <c r="P44" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>43358</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="9">
+        <v>1</v>
+      </c>
+      <c r="T44" s="5">
+        <v>2</v>
+      </c>
+      <c r="U44" s="5">
+        <v>1</v>
+      </c>
+      <c r="V44" s="5">
+        <v>1</v>
+      </c>
+      <c r="W44" s="9">
+        <v>1</v>
+      </c>
+      <c r="X44" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3829,8 +4104,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="C45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="5">
+        <v>180701010000994</v>
+      </c>
+      <c r="E45" s="5">
+        <v>867900040238944</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2</v>
+      </c>
+      <c r="M45" s="9">
+        <v>2</v>
+      </c>
+      <c r="P45" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>43358</v>
+      </c>
+      <c r="R45" s="5"/>
+      <c r="S45" s="9">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5">
+        <v>2</v>
+      </c>
+      <c r="U45" s="5">
+        <v>1</v>
+      </c>
+      <c r="V45" s="5">
+        <v>1</v>
+      </c>
+      <c r="W45" s="9">
+        <v>1</v>
+      </c>
+      <c r="X45" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3838,8 +4177,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="C46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="5">
+        <v>180701010000123</v>
+      </c>
+      <c r="E46" s="5">
+        <v>867900040238555</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>2</v>
+      </c>
+      <c r="M46" s="9">
+        <v>2</v>
+      </c>
+      <c r="P46" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>43358</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="9">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5">
+        <v>2</v>
+      </c>
+      <c r="U46" s="5">
+        <v>1</v>
+      </c>
+      <c r="V46" s="5">
+        <v>1</v>
+      </c>
+      <c r="W46" s="9">
+        <v>1</v>
+      </c>
+      <c r="X46" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3847,14 +4250,144 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="C47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="5">
+        <v>180701010001383</v>
+      </c>
+      <c r="E47" s="5">
+        <v>867900040226162</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>2</v>
+      </c>
+      <c r="M47" s="9">
+        <v>2</v>
+      </c>
+      <c r="P47" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>43358</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" s="9">
+        <v>1</v>
+      </c>
+      <c r="T47" s="5">
+        <v>2</v>
+      </c>
+      <c r="U47" s="5">
+        <v>1</v>
+      </c>
+      <c r="V47" s="5">
+        <v>1</v>
+      </c>
+      <c r="W47" s="9">
+        <v>1</v>
+      </c>
+      <c r="X47" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="5">
+        <v>180701010001373</v>
+      </c>
+      <c r="E48" s="5">
+        <v>867900040142310</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <v>2</v>
+      </c>
+      <c r="M48" s="9">
+        <v>2</v>
+      </c>
+      <c r="P48" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>43364</v>
+      </c>
+      <c r="S48" s="9">
+        <v>1</v>
+      </c>
+      <c r="T48" s="5">
+        <v>2</v>
+      </c>
+      <c r="U48" s="5">
+        <v>1</v>
+      </c>
+      <c r="V48" s="5">
+        <v>1</v>
+      </c>
+      <c r="W48" s="9">
+        <v>1</v>
+      </c>
+      <c r="X48" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4839,7 +5372,54 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="59">
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
     <mergeCell ref="G32:M32"/>
     <mergeCell ref="G33:M33"/>
     <mergeCell ref="G34:M34"/>
@@ -4852,49 +5432,6 @@
     <mergeCell ref="S32:Y32"/>
     <mergeCell ref="S33:Y33"/>
     <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -4916,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5779,6 +6316,17 @@
       <c r="D37" s="26" t="s">
         <v>119</v>
       </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52">
+        <v>43361</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
@@ -5793,6 +6341,17 @@
       <c r="D38" s="26" t="s">
         <v>120</v>
       </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52">
+        <v>43361</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>202</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -5809,6 +6368,18 @@
       </c>
       <c r="D39" s="26" t="s">
         <v>121</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="8">
+        <v>43362</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝牙模块换成0013测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180401010000053</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -804,10 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁国辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弘毅云佳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,6 +837,62 @@
   </si>
   <si>
     <t>詹志华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德睿博（赵总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180910020000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动测试机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801010000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801010000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁已交给岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总拿去移动演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,12 +1192,6 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,22 +1249,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,10 +1613,10 @@
   <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1608,87 +1650,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="65" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="63" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="63"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1753,7 @@
         <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>54</v>
@@ -1747,7 +1789,7 @@
         <v>53</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>54</v>
@@ -1764,7 +1806,7 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="63"/>
+      <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -1784,15 +1826,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -1833,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB4" s="14">
         <v>1</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1944,15 +1986,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -1964,15 +2006,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="35"/>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="55"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="53"/>
       <c r="Z6" s="32">
         <v>1</v>
       </c>
@@ -2002,15 +2044,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -2022,15 +2064,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="35"/>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
       <c r="Z7" s="32">
         <v>1</v>
       </c>
@@ -2060,15 +2102,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2080,15 +2122,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="35"/>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="55"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
       <c r="Z8" s="32">
         <v>1</v>
       </c>
@@ -2106,7 +2148,7 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>90</v>
@@ -2118,13 +2160,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="23"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="G9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -2132,20 +2176,30 @@
       <c r="P9" s="14">
         <v>1</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="20">
+        <v>43368</v>
+      </c>
       <c r="R9" s="35"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="14"/>
+      <c r="S9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>1</v>
+      </c>
       <c r="AC9" s="13" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2154,7 +2208,7 @@
       </c>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>11</v>
@@ -2166,15 +2220,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="31">
         <v>1</v>
       </c>
@@ -2184,17 +2238,27 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="13"/>
+      <c r="S10" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
@@ -2271,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB11" s="15">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2298,15 +2362,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -2314,15 +2378,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="36"/>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="58"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
@@ -2351,15 +2415,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -2367,15 +2431,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="36"/>
-      <c r="S13" s="56" t="s">
+      <c r="S13" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
@@ -2404,15 +2468,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -2420,15 +2484,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="36"/>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2457,15 +2521,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -2473,15 +2537,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="36"/>
-      <c r="S15" s="56" t="s">
+      <c r="S15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="58"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="56"/>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2510,15 +2574,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -2526,15 +2590,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="36"/>
-      <c r="S16" s="56" t="s">
+      <c r="S16" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="58"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
@@ -2562,30 +2626,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="58"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="56"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2602,7 +2666,7 @@
       </c>
       <c r="B18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>134</v>
@@ -2614,15 +2678,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="31"/>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
       <c r="N18" s="31">
         <v>1</v>
       </c>
@@ -2632,25 +2696,17 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="31">
-        <v>1</v>
-      </c>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="31"/>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
@@ -2661,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
@@ -2724,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB19" s="15">
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2742,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="5">
         <v>180401010000061</v>
@@ -2750,15 +2806,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -2768,15 +2824,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="53" t="s">
+      <c r="S20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
       <c r="Z20" s="32">
         <v>1</v>
       </c>
@@ -2787,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2799,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="5">
         <v>180801020000002</v>
@@ -2807,30 +2863,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
+      <c r="G21" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="58"/>
+      <c r="S21" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -2844,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="5">
         <v>180801020000003</v>
@@ -2852,30 +2908,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
+      <c r="G22" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="58"/>
+      <c r="S22" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="56"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -2889,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="5">
         <v>180801020000004</v>
@@ -2897,30 +2953,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
+      <c r="G23" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="58"/>
+      <c r="S23" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="56"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -2934,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="5">
         <v>180801020000005</v>
@@ -2942,30 +2998,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
+      <c r="G24" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="58"/>
+      <c r="S24" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="56"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -2979,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="5">
         <v>180801020000006</v>
@@ -2987,30 +3043,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
+      <c r="G25" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="58"/>
+      <c r="S25" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="56"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -3024,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="5">
         <v>180801020000007</v>
@@ -3032,30 +3088,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
+      <c r="G26" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="58"/>
+      <c r="S26" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="56"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3069,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="31">
         <v>180401010000059</v>
@@ -3078,15 +3134,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="60"/>
+      <c r="G27" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="31">
         <v>0</v>
       </c>
@@ -3098,26 +3154,26 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="53" t="s">
+      <c r="S27" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="53"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
       <c r="AA27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="AB27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3129,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="5">
         <v>180601010000002</v>
@@ -3159,10 +3215,13 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3174,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="5">
         <v>180601010000005</v>
@@ -3204,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P29" s="15">
         <v>1</v>
@@ -3219,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="5">
         <v>180801020000008</v>
@@ -3227,31 +3286,31 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="48"/>
+      <c r="G30" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="46"/>
       <c r="P30" s="15">
         <v>1</v>
       </c>
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="58"/>
+      <c r="S30" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="56"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3265,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="5">
         <v>180801020000009</v>
@@ -3273,31 +3332,31 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="48"/>
+      <c r="G31" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="46"/>
       <c r="P31" s="15">
         <v>1</v>
       </c>
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="58"/>
+      <c r="S31" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="56"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3311,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="5">
         <v>180801020000010</v>
@@ -3319,31 +3378,31 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="48"/>
+      <c r="G32" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="46"/>
       <c r="P32" s="15">
         <v>1</v>
       </c>
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="58"/>
+      <c r="S32" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="56"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -3357,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="5">
         <v>180801020000011</v>
@@ -3365,31 +3424,31 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="48"/>
+      <c r="G33" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="46"/>
       <c r="P33" s="15">
         <v>1</v>
       </c>
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="58"/>
+      <c r="S33" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="56"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -3403,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="5">
         <v>180801020000012</v>
@@ -3411,31 +3470,31 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="48"/>
+      <c r="G34" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="46"/>
       <c r="P34" s="15">
         <v>1</v>
       </c>
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="58"/>
+      <c r="S34" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="56"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -3449,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="5">
         <v>180701010000001</v>
@@ -3533,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="5">
         <v>180701010001381</v>
@@ -3608,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3620,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="5">
         <v>180701010001382</v>
@@ -3695,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3707,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="5">
         <v>180701010001064</v>
@@ -3782,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3794,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="5">
         <v>180701010000245</v>
@@ -3802,15 +3861,15 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="31">
         <v>1</v>
       </c>
@@ -3821,26 +3880,26 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="53" t="s">
+      <c r="S39" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="55"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="53"/>
       <c r="Z39" s="31">
         <v>1</v>
       </c>
       <c r="AA39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3849,10 +3908,10 @@
       </c>
       <c r="B40" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="5">
         <v>180701010000674</v>
@@ -3860,42 +3919,30 @@
       <c r="E40" s="5">
         <v>867900040228457</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
       <c r="N40" s="31">
         <v>1</v>
       </c>
       <c r="P40" s="15">
         <v>1</v>
       </c>
-      <c r="Q40" s="8">
-        <v>43362</v>
-      </c>
-      <c r="S40" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="31">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>1</v>
-      </c>
+      <c r="Q40" s="8"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="1">
@@ -3906,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="5">
         <v>180701010000225</v>
@@ -3948,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="5">
         <v>180701010000315</v>
@@ -3990,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="5">
         <v>180701010000288</v>
@@ -4032,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D44" s="5">
         <v>180701010000552</v>
@@ -4093,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4105,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D45" s="5">
         <v>180701010000994</v>
@@ -4166,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4178,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D46" s="5">
         <v>180701010000123</v>
@@ -4239,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4251,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D47" s="5">
         <v>180701010001383</v>
@@ -4312,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4324,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D48" s="5">
         <v>180701010001373</v>
@@ -4381,25 +4428,49 @@
         <v>2</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AB48" s="15">
         <v>1</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="5">
+        <v>180910020000001</v>
+      </c>
+      <c r="E49" s="5">
+        <v>865820030036318</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="31">
+        <v>1</v>
+      </c>
+      <c r="P49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -4408,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -4417,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -4426,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4435,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -4444,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4453,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4462,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4471,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4480,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4489,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4498,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4507,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4516,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4525,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5372,50 +5443,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
+  <mergeCells count="62">
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="S10:Y10"/>
     <mergeCell ref="G40:M40"/>
     <mergeCell ref="S40:Y40"/>
     <mergeCell ref="G15:M15"/>
@@ -5431,7 +5462,50 @@
     <mergeCell ref="S31:Y31"/>
     <mergeCell ref="S32:Y32"/>
     <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
     <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -5453,8 +5527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5474,17 +5548,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -5530,20 +5604,20 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" s="46" customFormat="1">
+    <row r="4" spans="1:12" s="44" customFormat="1">
       <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>43297</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <v>10000002</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="25" t="s">
@@ -5551,8 +5625,8 @@
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="45" t="s">
-        <v>157</v>
+      <c r="I4" s="43" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5565,7 +5639,7 @@
       <c r="C5" s="19">
         <v>10000003</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -5588,7 +5662,7 @@
       <c r="C6" s="19">
         <v>10000004</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -5601,27 +5675,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="46" customFormat="1">
+    <row r="7" spans="1:12" s="44" customFormat="1">
       <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>43297</v>
       </c>
       <c r="C7" s="19">
         <v>10000005</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="25" t="s">
         <v>112</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="45" t="s">
-        <v>158</v>
+      <c r="I7" s="43" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5634,7 +5708,7 @@
       <c r="C8" s="19">
         <v>10000007</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="47" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -5657,7 +5731,7 @@
       <c r="C9" s="19">
         <v>10000008</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -5680,7 +5754,7 @@
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -5706,7 +5780,7 @@
       <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -5732,19 +5806,19 @@
       <c r="C12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="67" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="69">
         <v>43283</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="68" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5758,15 +5832,15 @@
       <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="I13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -5795,7 +5869,7 @@
       <c r="C15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="47" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -5838,10 +5912,10 @@
       <c r="C17" s="4">
         <v>100000071</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="38" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -5861,7 +5935,7 @@
       <c r="C18" s="4">
         <v>100000081</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -5894,10 +5968,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5910,10 +5984,10 @@
       <c r="C20" s="4">
         <v>100000101</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -5923,7 +5997,7 @@
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5936,10 +6010,10 @@
       <c r="C21" s="4">
         <v>100000111</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="45" t="s">
         <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -5962,10 +6036,10 @@
       <c r="C22" s="4">
         <v>100000121</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="45" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -5988,10 +6062,10 @@
       <c r="C23" s="4">
         <v>100000131</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="45" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -6031,23 +6105,23 @@
       <c r="C25" s="4">
         <v>100000151</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="8">
         <v>43328</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6064,10 +6138,10 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6084,10 +6158,10 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6104,10 +6178,10 @@
         <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6124,7 +6198,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>112</v>
@@ -6133,10 +6207,10 @@
         <v>43353</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6153,7 +6227,7 @@
         <v>79</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>112</v>
@@ -6162,10 +6236,10 @@
         <v>43353</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6182,7 +6256,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>112</v>
@@ -6191,10 +6265,10 @@
         <v>43353</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6211,7 +6285,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>112</v>
@@ -6220,7 +6294,7 @@
         <v>43353</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6237,7 +6311,7 @@
         <v>82</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>112</v>
@@ -6246,7 +6320,7 @@
         <v>43353</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6263,7 +6337,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>112</v>
@@ -6272,7 +6346,7 @@
         <v>43353</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6316,16 +6390,16 @@
       <c r="D37" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52">
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50">
         <v>43361</v>
       </c>
-      <c r="H37" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>202</v>
+      <c r="H37" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6341,16 +6415,16 @@
       <c r="D38" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52">
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50">
         <v>43361</v>
       </c>
-      <c r="H38" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="51" t="s">
-        <v>202</v>
+      <c r="H38" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -6370,16 +6444,16 @@
         <v>121</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G39" s="8">
         <v>43362</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -6398,6 +6472,12 @@
       <c r="D40" s="26" t="s">
         <v>122</v>
       </c>
+      <c r="E40" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
@@ -6412,6 +6492,9 @@
       <c r="D41" s="26" t="s">
         <v>123</v>
       </c>
+      <c r="E41" s="21" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
@@ -6426,6 +6509,9 @@
       <c r="D42" s="26" t="s">
         <v>124</v>
       </c>
+      <c r="E42" s="21" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
@@ -6440,6 +6526,12 @@
       <c r="D43" s="26" t="s">
         <v>125</v>
       </c>
+      <c r="E43" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
@@ -6454,6 +6546,12 @@
       <c r="D44" s="26" t="s">
         <v>126</v>
       </c>
+      <c r="E44" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
@@ -6494,7 +6592,7 @@
         <v>100100011</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6508,7 +6606,7 @@
         <v>100100012</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6550,7 +6648,7 @@
         <v>100100015</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6564,7 +6662,7 @@
         <v>100100016</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6578,7 +6676,7 @@
         <v>100100017</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6606,7 +6704,7 @@
         <v>100100019</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6634,7 +6732,7 @@
         <v>100100021</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6648,7 +6746,7 @@
         <v>100100022</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6662,7 +6760,7 @@
         <v>100100023</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6704,7 +6802,7 @@
         <v>100100026</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6718,7 +6816,7 @@
         <v>100100027</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6732,7 +6830,7 @@
         <v>100100028</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6746,7 +6844,7 @@
         <v>100100029</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6760,7 +6858,7 @@
         <v>100100030</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6802,7 +6900,7 @@
         <v>100100033</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6816,7 +6914,7 @@
         <v>100100034</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6844,7 +6942,7 @@
         <v>100100036</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6858,7 +6956,7 @@
         <v>100100037</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6872,7 +6970,7 @@
         <v>100100038</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6900,7 +6998,7 @@
         <v>100100040</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -1249,6 +1249,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,12 +1265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,46 +1650,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="63" t="s">
@@ -1721,16 +1721,16 @@
       <c r="Z2" s="64"/>
       <c r="AA2" s="64"/>
       <c r="AB2" s="65"/>
-      <c r="AC2" s="59" t="s">
+      <c r="AC2" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="59"/>
+      <c r="AC3" s="61"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -1829,12 +1829,12 @@
       <c r="G4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -3137,12 +3137,12 @@
       <c r="G27" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="31">
         <v>0</v>
       </c>
@@ -5444,6 +5444,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S24:Y24"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G49:M49"/>
     <mergeCell ref="S10:Y10"/>
@@ -5460,52 +5506,6 @@
     <mergeCell ref="G31:M31"/>
     <mergeCell ref="S30:Y30"/>
     <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S33:Y33"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -5527,8 +5527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="227">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈侃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何继红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,7 +888,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴涛</t>
+    <t>180701010000315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海筝际信息技术有限公司 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由原能投样机180601010000002修改。发往能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄海18681048575,嫌外观不好看退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功耗高，小岳维修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,15 +1255,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,10 +1264,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,6 +1283,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,10 +1637,10 @@
   <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC35" sqref="AC35"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1650,46 +1674,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="63" t="s">
@@ -1721,16 +1745,16 @@
       <c r="Z2" s="64"/>
       <c r="AA2" s="64"/>
       <c r="AB2" s="65"/>
-      <c r="AC2" s="61" t="s">
+      <c r="AC2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1830,7 @@
       <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -1826,15 +1850,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -1881,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1986,15 +2010,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -2006,15 +2030,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="35"/>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="53"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
       <c r="Z6" s="32">
         <v>1</v>
       </c>
@@ -2044,15 +2068,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -2064,15 +2088,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="35"/>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
       <c r="Z7" s="32">
         <v>1</v>
       </c>
@@ -2102,15 +2126,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2122,15 +2146,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="35"/>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
       <c r="Z8" s="32">
         <v>1</v>
       </c>
@@ -2160,15 +2184,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="23"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -2180,26 +2204,26 @@
         <v>43368</v>
       </c>
       <c r="R9" s="35"/>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
       <c r="Z9" s="12">
         <v>1</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB9" s="14">
         <v>1</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2220,15 +2244,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="31">
         <v>1</v>
       </c>
@@ -2238,26 +2262,26 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="51" t="s">
+      <c r="S10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
       <c r="Z10" s="31">
         <v>1</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2341,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2362,15 +2386,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -2378,15 +2402,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="36"/>
-      <c r="S12" s="54" t="s">
+      <c r="S12" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
       <c r="AA12" s="1" t="s">
         <v>105</v>
       </c>
@@ -2415,15 +2439,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -2431,15 +2455,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="36"/>
-      <c r="S13" s="54" t="s">
+      <c r="S13" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="56"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
       <c r="AA13" s="1" t="s">
         <v>105</v>
       </c>
@@ -2468,15 +2492,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -2484,15 +2508,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="36"/>
-      <c r="S14" s="54" t="s">
+      <c r="S14" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
       <c r="AA14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2521,15 +2545,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -2537,15 +2561,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="36"/>
-      <c r="S15" s="54" t="s">
+      <c r="S15" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="56"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="53"/>
       <c r="AA15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2574,15 +2598,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -2590,15 +2614,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="36"/>
-      <c r="S16" s="54" t="s">
+      <c r="S16" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="56"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="53"/>
       <c r="AA16" s="1" t="s">
         <v>105</v>
       </c>
@@ -2626,30 +2650,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="54" t="s">
+      <c r="S17" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="56"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="53"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2678,15 +2702,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="31"/>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="31">
         <v>1</v>
       </c>
@@ -2696,13 +2720,13 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="53"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="56"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="14"/>
@@ -2806,15 +2830,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -2824,15 +2848,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="51" t="s">
+      <c r="S20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="53"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="56"/>
       <c r="Z20" s="32">
         <v>1</v>
       </c>
@@ -2863,30 +2887,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="54" t="s">
+      <c r="S21" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="53"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -2908,30 +2932,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="56"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="53"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -2953,30 +2977,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="56"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="53"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -2998,30 +3022,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="54" t="s">
+      <c r="S24" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="56"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="53"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -3043,30 +3067,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="56"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="53"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -3088,30 +3112,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="54" t="s">
+      <c r="S26" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="53"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3125,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="31">
         <v>180401010000059</v>
@@ -3134,15 +3158,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="G27" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="31">
         <v>0</v>
       </c>
@@ -3154,26 +3178,26 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="51" t="s">
+      <c r="S27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="53"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="56"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
       <c r="AA27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="AB27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3182,13 +3206,13 @@
       </c>
       <c r="B28" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="5">
-        <v>180601010000002</v>
+        <v>180701010000099</v>
       </c>
       <c r="E28" s="5">
         <v>863703030143866</v>
@@ -3215,13 +3239,43 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
       </c>
+      <c r="Q28" s="8">
+        <v>43382</v>
+      </c>
+      <c r="T28" s="5">
+        <v>2</v>
+      </c>
+      <c r="U28" s="5">
+        <v>1</v>
+      </c>
+      <c r="V28" s="5">
+        <v>1</v>
+      </c>
+      <c r="W28" s="9">
+        <v>1</v>
+      </c>
+      <c r="X28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>1</v>
+      </c>
       <c r="AC28" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3233,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="5">
         <v>180601010000005</v>
@@ -3263,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P29" s="15">
         <v>1</v>
@@ -3278,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="5">
         <v>180801020000008</v>
@@ -3286,15 +3340,15 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="46"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -3302,15 +3356,15 @@
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="53"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3324,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="5">
         <v>180801020000009</v>
@@ -3332,15 +3386,15 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="46"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -3348,15 +3402,15 @@
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="56"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="53"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3370,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="5">
         <v>180801020000010</v>
@@ -3378,15 +3432,15 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
       <c r="N32" s="46"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -3394,15 +3448,15 @@
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="54" t="s">
+      <c r="S32" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="56"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="53"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -3416,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="5">
         <v>180801020000011</v>
@@ -3424,15 +3478,15 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
       <c r="N33" s="46"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -3440,15 +3494,15 @@
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="54" t="s">
+      <c r="S33" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="53"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -3462,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="5">
         <v>180801020000012</v>
@@ -3470,15 +3524,15 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="56"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="46"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -3486,15 +3540,15 @@
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="56"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="53"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -3508,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="5">
         <v>180701010000001</v>
@@ -3592,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" s="5">
         <v>180701010001381</v>
@@ -3667,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3679,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="5">
         <v>180701010001382</v>
@@ -3754,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3766,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" s="5">
         <v>180701010001064</v>
@@ -3841,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3853,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" s="5">
         <v>180701010000245</v>
@@ -3861,15 +3915,15 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="56"/>
       <c r="N39" s="31">
         <v>1</v>
       </c>
@@ -3880,26 +3934,26 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="51" t="s">
+      <c r="S39" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="53"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="56"/>
       <c r="Z39" s="31">
         <v>1</v>
       </c>
       <c r="AA39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3911,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="5">
         <v>180701010000674</v>
@@ -3919,15 +3973,15 @@
       <c r="E40" s="5">
         <v>867900040228457</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="53"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="56"/>
       <c r="N40" s="31">
         <v>1</v>
       </c>
@@ -3935,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="56"/>
       <c r="Z40" s="31"/>
     </row>
     <row r="41" spans="1:29">
@@ -3953,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="5">
         <v>180701010000225</v>
@@ -3982,8 +4036,26 @@
       <c r="M41" s="9">
         <v>2</v>
       </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P41" s="15">
         <v>1</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="5"/>
+      <c r="AC41" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -3992,10 +4064,10 @@
       </c>
       <c r="B42" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" s="5">
         <v>180701010000315</v>
@@ -4024,8 +4096,47 @@
       <c r="M42" s="9">
         <v>2</v>
       </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="P42" s="15">
         <v>1</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>43381</v>
+      </c>
+      <c r="S42" s="9">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5">
+        <v>2</v>
+      </c>
+      <c r="U42" s="5">
+        <v>1</v>
+      </c>
+      <c r="V42" s="5">
+        <v>1</v>
+      </c>
+      <c r="W42" s="9">
+        <v>1</v>
+      </c>
+      <c r="X42" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4037,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D43" s="5">
         <v>180701010000288</v>
@@ -4068,6 +4179,9 @@
       </c>
       <c r="P43" s="15">
         <v>1</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4079,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="5">
         <v>180701010000552</v>
@@ -4140,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4152,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="5">
         <v>180701010000994</v>
@@ -4213,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4225,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="5">
         <v>180701010000123</v>
@@ -4286,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4298,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="5">
         <v>180701010001383</v>
@@ -4359,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4371,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="5">
         <v>180701010001373</v>
@@ -4428,13 +4542,13 @@
         <v>2</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB48" s="15">
         <v>1</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4446,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="5">
         <v>180910020000001</v>
@@ -4454,15 +4568,15 @@
       <c r="E49" s="5">
         <v>865820030036318</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="53"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
       <c r="N49" s="31">
         <v>1</v>
       </c>
@@ -5444,6 +5558,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="S40:Y40"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G10:M10"/>
     <mergeCell ref="G24:M24"/>
     <mergeCell ref="S17:Y17"/>
     <mergeCell ref="G16:M16"/>
@@ -5459,53 +5619,7 @@
     <mergeCell ref="S26:Y26"/>
     <mergeCell ref="G22:M22"/>
     <mergeCell ref="G23:M23"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S33:Y33"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -5527,8 +5641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5626,7 +5740,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5695,7 +5809,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5968,10 +6082,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5997,7 +6111,7 @@
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6112,16 +6226,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="8">
         <v>43328</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6138,9 +6252,6 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6158,10 +6269,10 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6178,10 +6289,10 @@
         <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6198,7 +6309,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>112</v>
@@ -6207,10 +6318,10 @@
         <v>43353</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6227,7 +6338,7 @@
         <v>79</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>112</v>
@@ -6236,10 +6347,10 @@
         <v>43353</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6256,7 +6367,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>112</v>
@@ -6265,10 +6376,10 @@
         <v>43353</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6285,7 +6396,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>112</v>
@@ -6294,7 +6405,7 @@
         <v>43353</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6311,7 +6422,7 @@
         <v>82</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>112</v>
@@ -6320,7 +6431,7 @@
         <v>43353</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6337,7 +6448,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>112</v>
@@ -6346,7 +6457,7 @@
         <v>43353</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6396,10 +6507,10 @@
         <v>43361</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6421,10 +6532,10 @@
         <v>43361</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -6444,16 +6555,16 @@
         <v>121</v>
       </c>
       <c r="E39" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G39" s="8">
         <v>43362</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -6473,10 +6584,10 @@
         <v>122</v>
       </c>
       <c r="E40" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -6493,7 +6604,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -6510,7 +6621,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -6527,10 +6638,10 @@
         <v>125</v>
       </c>
       <c r="E43" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -6547,10 +6658,10 @@
         <v>126</v>
       </c>
       <c r="E44" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -6566,6 +6677,9 @@
       <c r="D45" s="26" t="s">
         <v>127</v>
       </c>
+      <c r="E45" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
@@ -6580,6 +6694,9 @@
       <c r="D46" s="26" t="s">
         <v>128</v>
       </c>
+      <c r="E46" s="21" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
@@ -6592,7 +6709,7 @@
         <v>100100011</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6606,7 +6723,7 @@
         <v>100100012</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6648,7 +6765,7 @@
         <v>100100015</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6662,7 +6779,7 @@
         <v>100100016</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6676,7 +6793,7 @@
         <v>100100017</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6704,7 +6821,7 @@
         <v>100100019</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6732,7 +6849,7 @@
         <v>100100021</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6746,7 +6863,7 @@
         <v>100100022</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6760,7 +6877,7 @@
         <v>100100023</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6802,7 +6919,7 @@
         <v>100100026</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6816,7 +6933,7 @@
         <v>100100027</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6830,7 +6947,7 @@
         <v>100100028</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6844,7 +6961,7 @@
         <v>100100029</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6858,7 +6975,7 @@
         <v>100100030</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6900,7 +7017,7 @@
         <v>100100033</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6914,7 +7031,7 @@
         <v>100100034</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6942,7 +7059,7 @@
         <v>100100036</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6956,7 +7073,7 @@
         <v>100100037</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6970,7 +7087,7 @@
         <v>100100038</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6998,7 +7115,7 @@
         <v>100100040</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180601010000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180601010000003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>门磁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,43 +304,647 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>faad4f93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaccdd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa8de33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabbd03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faaaeab3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad8ed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac5e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabd4e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faac8d33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹从军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易腾辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faabd6f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad8273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faad3e43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试万能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/07/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试万能卡）再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09063b60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090633e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090509b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090512f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090676d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908f8e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09065210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090450f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090887f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090865d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faab5273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180401010000053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台带logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带去展会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达新模具新外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝(套)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下，周总测试.出货至北京 燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望(能投)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投归还005门锁，未归还门卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会使用00161  （再丰达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试用万能卡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测试用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示门锁带锁架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙市芙蓉区荷花路铁通小区1501室  周生 18942560167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09041ff0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905c2f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09090ed0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906f530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907fb00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09040af0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906af30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907b290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905dae0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906bc70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908b460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904f8f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904ccd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903eee0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801020000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何继红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010001064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903ec70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907b230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09055f90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09051ce0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906bb60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09090e60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘毅云佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州索菲卡（再丰达客户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹志华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德睿博（赵总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180910020000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动测试机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801010000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180601010000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180801010000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁已交给岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/09/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海筝际信息技术有限公司 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由原能投样机180601010000002修改。发往能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功耗高，小岳维修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面板配钥匙，两个橡胶垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄海18681048575,嫌外观不好看退回。修改把手方向发往能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181004020000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181004020000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181004020000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181001020000033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>faaa08d3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faad4f93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaccdd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faa8de33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabbd03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faaaeab3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad8ed3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac5e23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabd4e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faac8d33</t>
+    <t>周总拿去移动演示，11月19日已拿回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000674</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,15 +952,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹从军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易腾辉</t>
+    <t>181001020000032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,551 +964,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/07/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faabd6f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad8273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faad3e43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试万能卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/07/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何继红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（测试万能卡）再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试架板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁国辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09063b60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090633e0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090509b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090512f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090676d0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0908f8e0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09065210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090450f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090887f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090865d0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展会使用00162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展会使用00191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展会使用00192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801020000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faab5273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180401010000053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台带logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带去展会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再丰达新模具新外观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝(套)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何继红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆下，周总测试.出货至北京 燕南科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望(能投)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能投于2018/08/20归还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能投归还005门锁，未归还门卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展会使用00161  （再丰达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（测试用万能卡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（测试用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/08/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示门锁带锁架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙市芙蓉区荷花路铁通小区1501室  周生 18942560167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09041ff0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0905c2f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09090ed0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0906f530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0907fb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09040af0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0906af30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0907b290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0905dae0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0906bc70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0908b460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0904f8f0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0904ccd0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0903eee0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801020000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801020000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801020000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何继红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010001381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010001382</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010001064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/09/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0903ec70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0907b230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09055f90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09051ce0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0906bb60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09090e60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘毅云佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/09/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州索菲卡（再丰达客户）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南能投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010000674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何继红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/09/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再丰达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹志华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德睿博（赵总）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180910020000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动测试机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801010000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周总测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010000288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180801010000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁已交给岳友兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周总拿去移动演示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/09/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010000315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180701010000225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海筝际信息技术有限公司 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由原能投样机180601010000002修改。发往能投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄海18681048575,嫌外观不好看退回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功耗高，小岳维修</t>
+    <t>2018/10/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙，正式环境撤销注册，移至测试环境调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT0002</t>
+  </si>
+  <si>
+    <t>NT0003</t>
+  </si>
+  <si>
+    <t>NT0004</t>
+  </si>
+  <si>
+    <t>NT0005</t>
+  </si>
+  <si>
+    <t>NT0006</t>
+  </si>
+  <si>
+    <t>NT0007</t>
+  </si>
+  <si>
+    <t>NT0008</t>
+  </si>
+  <si>
+    <t>NT0009</t>
+  </si>
+  <si>
+    <t>NT0010</t>
+  </si>
+  <si>
+    <t>2aba8460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a073930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a0909b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2abae720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2abcc9e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a0858b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a095500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a098160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a0612d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a067e00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投万能卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1095,13 +1222,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,6 +1452,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,11 +1783,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1670,7 +1817,7 @@
     <col min="26" max="26" width="4.75" style="15" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="5.5" style="15" customWidth="1"/>
-    <col min="29" max="29" width="48.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="52.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
@@ -1711,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>1</v>
@@ -1752,7 +1899,7 @@
     <row r="3" spans="1:29">
       <c r="A3" s="59"/>
       <c r="B3" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="27" t="s">
@@ -1762,73 +1909,73 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="59"/>
     </row>
@@ -1844,14 +1991,14 @@
         <v>11</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12">
         <v>868744030870087</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -1899,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AB4" s="14">
         <v>1</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1920,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5">
         <v>868744030885911</v>
@@ -1986,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AB5" s="15">
         <v>1</v>
@@ -2011,7 +2158,7 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
@@ -2031,7 +2178,7 @@
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
@@ -2043,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AB6" s="14">
         <v>1</v>
@@ -2062,14 +2209,14 @@
         <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12">
         <v>868744030885796</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -2089,7 +2236,7 @@
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T7" s="55"/>
       <c r="U7" s="55"/>
@@ -2101,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB7" s="14">
         <v>1</v>
@@ -2120,14 +2267,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="12">
         <v>868744030897866</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -2147,7 +2294,7 @@
       </c>
       <c r="R8" s="35"/>
       <c r="S8" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
@@ -2159,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB8" s="14">
         <v>1</v>
@@ -2172,20 +2319,20 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12">
         <v>868744030870145</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
@@ -2205,7 +2352,7 @@
       </c>
       <c r="R9" s="35"/>
       <c r="S9" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
@@ -2217,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2238,14 +2385,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="31">
         <v>868744030898922</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
@@ -2263,7 +2410,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
       <c r="S10" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T10" s="55"/>
       <c r="U10" s="55"/>
@@ -2275,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AB10" s="14">
         <v>1</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2359,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AB11" s="15">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2377,17 +2524,17 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
@@ -2403,7 +2550,7 @@
       </c>
       <c r="R12" s="36"/>
       <c r="S12" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
@@ -2412,13 +2559,13 @@
       <c r="X12" s="52"/>
       <c r="Y12" s="53"/>
       <c r="AA12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB12" s="15">
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2430,17 +2577,17 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
@@ -2456,7 +2603,7 @@
       </c>
       <c r="R13" s="36"/>
       <c r="S13" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
@@ -2465,13 +2612,13 @@
       <c r="X13" s="52"/>
       <c r="Y13" s="53"/>
       <c r="AA13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="15">
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2483,17 +2630,17 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -2509,7 +2656,7 @@
       </c>
       <c r="R14" s="36"/>
       <c r="S14" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -2518,13 +2665,13 @@
       <c r="X14" s="52"/>
       <c r="Y14" s="53"/>
       <c r="AA14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="15">
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2536,17 +2683,17 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -2562,7 +2709,7 @@
       </c>
       <c r="R15" s="36"/>
       <c r="S15" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
@@ -2571,13 +2718,13 @@
       <c r="X15" s="52"/>
       <c r="Y15" s="53"/>
       <c r="AA15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB15" s="15">
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2589,17 +2736,17 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5">
         <v>863703033725131</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -2615,7 +2762,7 @@
       </c>
       <c r="R16" s="36"/>
       <c r="S16" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
@@ -2624,13 +2771,13 @@
       <c r="X16" s="52"/>
       <c r="Y16" s="53"/>
       <c r="AA16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB16" s="15">
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2642,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -2666,7 +2813,7 @@
         <v>43308</v>
       </c>
       <c r="S17" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
@@ -2681,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2693,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="31">
         <v>180801020000001</v>
@@ -2703,7 +2850,7 @@
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -2741,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
@@ -2804,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AB19" s="15">
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2822,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="5">
         <v>180401010000061</v>
@@ -2831,7 +2978,7 @@
         <v>863703033732483</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
@@ -2849,7 +2996,7 @@
         <v>43325</v>
       </c>
       <c r="S20" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
@@ -2861,13 +3008,13 @@
         <v>1</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB20" s="15">
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2879,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="5">
         <v>180801020000002</v>
@@ -2888,7 +3035,7 @@
         <v>868744033209242</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
@@ -2903,7 +3050,7 @@
         <v>43325</v>
       </c>
       <c r="S21" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T21" s="52"/>
       <c r="U21" s="52"/>
@@ -2924,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" s="5">
         <v>180801020000003</v>
@@ -2933,7 +3080,7 @@
         <v>868744033316013</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
@@ -2948,7 +3095,7 @@
         <v>43325</v>
       </c>
       <c r="S22" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
@@ -2969,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" s="5">
         <v>180801020000004</v>
@@ -2978,7 +3125,7 @@
         <v>868744033316112</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
@@ -2993,7 +3140,7 @@
         <v>43325</v>
       </c>
       <c r="S23" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T23" s="52"/>
       <c r="U23" s="52"/>
@@ -3014,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="5">
         <v>180801020000005</v>
@@ -3023,7 +3170,7 @@
         <v>868744033210133</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
@@ -3038,7 +3185,7 @@
         <v>43325</v>
       </c>
       <c r="S24" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
@@ -3059,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="5">
         <v>180801020000006</v>
@@ -3068,7 +3215,7 @@
         <v>868744033101183</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
@@ -3083,7 +3230,7 @@
         <v>43325</v>
       </c>
       <c r="S25" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T25" s="52"/>
       <c r="U25" s="52"/>
@@ -3104,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="5">
         <v>180801020000007</v>
@@ -3113,7 +3260,7 @@
         <v>868744033316203</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
@@ -3128,7 +3275,7 @@
         <v>43325</v>
       </c>
       <c r="S26" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
@@ -3149,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="31">
         <v>180401010000059</v>
@@ -3159,7 +3306,7 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="54" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H27" s="61"/>
       <c r="I27" s="61"/>
@@ -3179,7 +3326,7 @@
       </c>
       <c r="R27" s="14"/>
       <c r="S27" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
@@ -3191,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AB27" s="14">
         <v>1</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3209,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="5">
         <v>180701010000099</v>
@@ -3239,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
@@ -3269,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AB28" s="15">
         <v>1</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3287,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D29" s="5">
         <v>180601010000005</v>
@@ -3317,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P29" s="15">
         <v>1</v>
@@ -3332,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D30" s="5">
         <v>180801020000008</v>
@@ -3341,7 +3488,7 @@
         <v>867900040032925</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -3357,7 +3504,7 @@
         <v>43333</v>
       </c>
       <c r="S30" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T30" s="52"/>
       <c r="U30" s="52"/>
@@ -3378,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D31" s="5">
         <v>180801020000009</v>
@@ -3387,7 +3534,7 @@
         <v>867900040032602</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
@@ -3403,7 +3550,7 @@
         <v>43333</v>
       </c>
       <c r="S31" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
@@ -3424,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5">
         <v>180801020000010</v>
@@ -3433,7 +3580,7 @@
         <v>867900040033311</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
@@ -3449,7 +3596,7 @@
         <v>43333</v>
       </c>
       <c r="S32" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T32" s="52"/>
       <c r="U32" s="52"/>
@@ -3470,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D33" s="5">
         <v>180801020000011</v>
@@ -3479,7 +3626,7 @@
         <v>867900040032552</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
@@ -3495,7 +3642,7 @@
         <v>43333</v>
       </c>
       <c r="S33" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T33" s="52"/>
       <c r="U33" s="52"/>
@@ -3516,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D34" s="5">
         <v>180801020000012</v>
@@ -3525,7 +3672,7 @@
         <v>867900040032412</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
@@ -3541,7 +3688,7 @@
         <v>43333</v>
       </c>
       <c r="S34" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
@@ -3562,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D35" s="5">
         <v>180701010000001</v>
@@ -3631,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB35" s="15">
         <v>1</v>
@@ -3646,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D36" s="5">
         <v>180701010001381</v>
@@ -3715,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="AA36" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB36" s="15">
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3733,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37" s="5">
         <v>180701010001382</v>
@@ -3802,13 +3949,13 @@
         <v>1</v>
       </c>
       <c r="AA37" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB37" s="15">
         <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38" s="5">
         <v>180701010001064</v>
@@ -3889,13 +4036,13 @@
         <v>1</v>
       </c>
       <c r="AA38" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB38" s="15">
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3907,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D39" s="5">
         <v>180701010000245</v>
@@ -3916,7 +4063,7 @@
         <v>867900040094578</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="55"/>
@@ -3935,7 +4082,7 @@
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T39" s="55"/>
       <c r="U39" s="55"/>
@@ -3947,13 +4094,13 @@
         <v>1</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AB39" s="15">
         <v>1</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3962,10 +4109,10 @@
       </c>
       <c r="B40" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D40" s="5">
         <v>180701010000674</v>
@@ -3974,7 +4121,7 @@
         <v>867900040228457</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
@@ -3988,15 +4135,27 @@
       <c r="P40" s="15">
         <v>1</v>
       </c>
-      <c r="Q40" s="8"/>
-      <c r="S40" s="54"/>
+      <c r="Q40" s="8">
+        <v>43396</v>
+      </c>
+      <c r="S40" s="54" t="s">
+        <v>56</v>
+      </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
       <c r="V40" s="55"/>
       <c r="W40" s="55"/>
       <c r="X40" s="55"/>
       <c r="Y40" s="56"/>
-      <c r="Z40" s="31"/>
+      <c r="Z40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="1">
@@ -4004,10 +4163,10 @@
       </c>
       <c r="B41" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D41" s="5">
         <v>180701010000225</v>
@@ -4015,47 +4174,38 @@
       <c r="E41" s="5">
         <v>867900040177456</v>
       </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5">
-        <v>2</v>
-      </c>
-      <c r="M41" s="9">
-        <v>2</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1</v>
-      </c>
+      <c r="G41" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
       <c r="O41" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P41" s="15">
         <v>1</v>
       </c>
       <c r="Q41" s="8"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="5"/>
+      <c r="S41" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="53"/>
+      <c r="AB41" s="15">
+        <v>1</v>
+      </c>
       <c r="AC41" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4067,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D42" s="5">
         <v>180701010000315</v>
@@ -4091,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="9">
         <v>2</v>
@@ -4100,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P42" s="15">
         <v>1</v>
@@ -4136,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4148,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D43" s="5">
         <v>180701010000288</v>
@@ -4172,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="9">
         <v>2</v>
@@ -4181,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4193,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D44" s="5">
         <v>180701010000552</v>
@@ -4217,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" s="9">
         <v>2</v>
@@ -4245,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="X44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="9">
         <v>2</v>
@@ -4254,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4266,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D45" s="5">
         <v>180701010000994</v>
@@ -4290,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="9">
         <v>2</v>
@@ -4318,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="X45" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="9">
         <v>2</v>
@@ -4327,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4339,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D46" s="5">
         <v>180701010000123</v>
@@ -4363,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="9">
         <v>2</v>
@@ -4391,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="X46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="9">
         <v>2</v>
@@ -4400,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4412,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D47" s="5">
         <v>180701010001383</v>
@@ -4436,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="9">
         <v>2</v>
@@ -4464,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="X47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="9">
         <v>2</v>
@@ -4473,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4485,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D48" s="5">
         <v>180701010001373</v>
@@ -4509,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="9">
         <v>2</v>
@@ -4536,22 +4686,22 @@
         <v>1</v>
       </c>
       <c r="X48" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="9">
         <v>2</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AB48" s="15">
         <v>1</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -4560,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D49" s="5">
         <v>180910020000001</v>
@@ -4569,7 +4719,7 @@
         <v>865820030036318</v>
       </c>
       <c r="G49" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
@@ -4584,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:29">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -4592,8 +4742,80 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="5">
+        <v>181001020000033</v>
+      </c>
+      <c r="E50" s="5">
+        <v>867900040032909</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>2</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="P50" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>43388</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="5">
+        <v>2</v>
+      </c>
+      <c r="U50" s="5">
+        <v>1</v>
+      </c>
+      <c r="V50" s="5">
+        <v>1</v>
+      </c>
+      <c r="W50" s="9">
+        <v>1</v>
+      </c>
+      <c r="X50" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -4601,8 +4823,80 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="C51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="5">
+        <v>181004020000001</v>
+      </c>
+      <c r="E51" s="5">
+        <v>869976030152715</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <v>2</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="P51" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>43388</v>
+      </c>
+      <c r="S51" s="9">
+        <v>1</v>
+      </c>
+      <c r="T51" s="5">
+        <v>2</v>
+      </c>
+      <c r="U51" s="5">
+        <v>1</v>
+      </c>
+      <c r="V51" s="5">
+        <v>1</v>
+      </c>
+      <c r="W51" s="9">
+        <v>1</v>
+      </c>
+      <c r="X51" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB51" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -4610,8 +4904,80 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="C52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="5">
+        <v>181004020000004</v>
+      </c>
+      <c r="E52" s="5">
+        <v>869976030095708</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9">
+        <v>2</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="P52" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>43388</v>
+      </c>
+      <c r="S52" s="9">
+        <v>1</v>
+      </c>
+      <c r="T52" s="5">
+        <v>2</v>
+      </c>
+      <c r="U52" s="5">
+        <v>1</v>
+      </c>
+      <c r="V52" s="5">
+        <v>1</v>
+      </c>
+      <c r="W52" s="9">
+        <v>1</v>
+      </c>
+      <c r="X52" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4619,17 +4985,125 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="C53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="5">
+        <v>181001020000032</v>
+      </c>
+      <c r="E53" s="5">
+        <v>867900040068200</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>43396</v>
+      </c>
+      <c r="S53" s="9">
+        <v>1</v>
+      </c>
+      <c r="T53" s="5">
+        <v>2</v>
+      </c>
+      <c r="U53" s="5">
+        <v>1</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53" s="9">
+        <v>1</v>
+      </c>
+      <c r="X53" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB53" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="5">
+        <v>180701010000140</v>
+      </c>
+      <c r="E54" s="5">
+        <v>867900040237326</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="9">
+        <v>2</v>
+      </c>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="P54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4638,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4647,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4656,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4665,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4674,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4683,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4692,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4701,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4710,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5557,7 +6031,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="G8:M8"/>
@@ -5585,15 +6059,6 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S33:Y33"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="S14:Y14"/>
@@ -5604,22 +6069,33 @@
     <mergeCell ref="S15:Y15"/>
     <mergeCell ref="S16:Y16"/>
     <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G24:M24"/>
     <mergeCell ref="S17:Y17"/>
     <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
     <mergeCell ref="G25:M25"/>
     <mergeCell ref="S20:Y20"/>
     <mergeCell ref="S21:Y21"/>
     <mergeCell ref="S22:Y22"/>
     <mergeCell ref="S23:Y23"/>
     <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="S26:Y26"/>
     <mergeCell ref="G22:M22"/>
     <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S26:Y26"/>
     <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -5639,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5682,13 +6158,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -5713,7 +6189,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -5732,16 +6208,14 @@
         <v>24</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="43" t="s">
-        <v>155</v>
-      </c>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5754,16 +6228,16 @@
         <v>10000003</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5777,16 +6251,16 @@
         <v>10000004</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="44" customFormat="1">
@@ -5800,16 +6274,16 @@
         <v>10000005</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5823,16 +6297,16 @@
         <v>10000007</v>
       </c>
       <c r="D8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5846,16 +6320,16 @@
         <v>10000008</v>
       </c>
       <c r="D9" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5866,22 +6340,22 @@
         <v>43297</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8">
         <v>43284</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5892,22 +6366,22 @@
         <v>43297</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G11" s="8">
         <v>43284</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5918,22 +6392,22 @@
         <v>43297</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="E12" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="67" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G12" s="69">
         <v>43283</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5944,14 +6418,14 @@
         <v>43297</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="70"/>
       <c r="I13" s="68"/>
@@ -5964,13 +6438,13 @@
         <v>43297</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5981,22 +6455,22 @@
         <v>43297</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" s="8">
         <v>43294</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6010,10 +6484,10 @@
         <v>100000051</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6027,16 +6501,16 @@
         <v>100000071</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6050,22 +6524,22 @@
         <v>100000081</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G18" s="8">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6079,13 +6553,13 @@
         <v>100000091</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6099,19 +6573,19 @@
         <v>100000101</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="8">
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6125,19 +6599,19 @@
         <v>100000111</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G21" s="8">
         <v>43313</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6151,19 +6625,19 @@
         <v>100000121</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G22" s="8">
         <v>43313</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6177,19 +6651,19 @@
         <v>100000131</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" s="8">
         <v>43313</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6203,10 +6677,10 @@
         <v>100000141</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6220,22 +6694,22 @@
         <v>100000151</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G25" s="8">
         <v>43328</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6249,10 +6723,13 @@
         <v>100000161</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>75</v>
+        <v>231</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6266,13 +6743,13 @@
         <v>100000171</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6286,13 +6763,13 @@
         <v>100000181</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6306,22 +6783,22 @@
         <v>100000191</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G29" s="8">
         <v>43353</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6335,22 +6812,22 @@
         <v>100000201</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G30" s="8">
         <v>43353</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6364,22 +6841,22 @@
         <v>100000211</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G31" s="8">
         <v>43353</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6393,19 +6870,19 @@
         <v>100000221</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32" s="8">
         <v>43353</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6419,19 +6896,19 @@
         <v>100000231</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G33" s="8">
         <v>43353</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6445,19 +6922,19 @@
         <v>100000241</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G34" s="8">
         <v>43353</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6471,7 +6948,7 @@
         <v>100000251</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6485,7 +6962,7 @@
         <v>100000261</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6499,7 +6976,7 @@
         <v>100100001</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="49"/>
@@ -6507,10 +6984,10 @@
         <v>43361</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6524,7 +7001,7 @@
         <v>100100002</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
@@ -6532,10 +7009,10 @@
         <v>43361</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -6552,20 +7029,10 @@
         <v>100100003</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="8">
-        <v>43362</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="G39" s="8"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -6581,13 +7048,13 @@
         <v>100100004</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -6601,10 +7068,10 @@
         <v>100100005</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -6618,10 +7085,10 @@
         <v>100100006</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -6635,13 +7102,13 @@
         <v>100100007</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -6655,13 +7122,13 @@
         <v>100100008</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -6675,10 +7142,10 @@
         <v>100100009</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -6692,10 +7159,10 @@
         <v>100100010</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -6709,7 +7176,10 @@
         <v>100100011</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6723,10 +7193,16 @@
         <v>100100012</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>161</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6740,7 +7216,7 @@
         <v>9040140</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6753,8 +7229,17 @@
       <c r="D50" s="26">
         <v>9096520</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6765,10 +7250,19 @@
         <v>100100015</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="8">
+        <v>43396</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6779,10 +7273,10 @@
         <v>100100016</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6793,10 +7287,10 @@
         <v>100100017</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6810,7 +7304,7 @@
         <v>9098290</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6821,10 +7315,10 @@
         <v>100100019</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6838,7 +7332,7 @@
         <v>9043680</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6849,10 +7343,10 @@
         <v>100100021</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6863,10 +7357,10 @@
         <v>100100022</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6877,10 +7371,10 @@
         <v>100100023</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6894,7 +7388,7 @@
         <v>9041020</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6908,7 +7402,7 @@
         <v>9050780</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6919,10 +7413,10 @@
         <v>100100026</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6933,10 +7427,10 @@
         <v>100100027</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6947,10 +7441,10 @@
         <v>100100028</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6961,10 +7455,10 @@
         <v>100100029</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6975,10 +7469,10 @@
         <v>100100030</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6992,7 +7486,7 @@
         <v>9097220</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7006,7 +7500,7 @@
         <v>9046550</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7017,10 +7511,10 @@
         <v>100100033</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7031,10 +7525,10 @@
         <v>100100034</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7048,7 +7542,7 @@
         <v>9047490</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7059,10 +7553,10 @@
         <v>100100036</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7073,10 +7567,10 @@
         <v>100100037</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7087,10 +7581,10 @@
         <v>100100038</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7104,7 +7598,7 @@
         <v>9068740</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7115,15 +7609,168 @@
         <v>100100040</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I77" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" s="72"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="I79" s="72"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I80" s="72"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="I81" s="72"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I82" s="72"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I83" s="72"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I84" s="72"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I85" s="72"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8">
+        <v>43399</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I77:I86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="289">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燕南科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,14 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180701010000288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180601010000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180801010000006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1032,130 @@
   </si>
   <si>
     <t>能投万能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大换锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大深圳研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新外观指纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹志华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/31</t>
+  </si>
+  <si>
+    <t>北大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李先生  广州市天河区中山大道西89号办公楼C栋603 电话 13903012789 (移动锁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李先生 广州市天河区中山大道西89号办公楼C栋603 电话 13903012789 (移动锁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡总 （周总朋友） 九江明阳科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市西青区华天道2号新技术产业园区国际创业中心4012，赵坚，18602200029  账号：liantong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">河北省石家庄市桥西区休门街3号，滨江优谷1306室，李刚，15100170866绑定的电话是13315188778  账号：0186
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经汇科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜总   中山市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜总  中山市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘总  全球候鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球候鸟   账号：quanqiuhouniao 密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,9 +1401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,9 +1463,6 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1366,17 +1472,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1384,14 +1484,35 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,13 +1523,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,12 +1541,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,10 +1550,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1783,11 +1913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC56" sqref="AC56"/>
+      <selection pane="bottomRight" activeCell="AC77" sqref="AC77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1821,46 +1951,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="63" t="s">
@@ -1892,24 +2022,24 @@
       <c r="Z2" s="64"/>
       <c r="AA2" s="64"/>
       <c r="AB2" s="65"/>
-      <c r="AC2" s="59" t="s">
+      <c r="AC2" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="59"/>
-      <c r="B3" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>55</v>
@@ -1921,10 +2051,10 @@
         <v>51</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>52</v>
@@ -1944,8 +2074,8 @@
       <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="34" t="s">
-        <v>104</v>
+      <c r="R3" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>55</v>
@@ -1957,10 +2087,10 @@
         <v>51</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>52</v>
@@ -1977,7 +2107,7 @@
       <c r="AB3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="59"/>
+      <c r="AC3" s="61"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -1990,22 +2120,22 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="12">
         <v>868744030870087</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -2015,10 +2145,10 @@
       <c r="P4" s="14">
         <v>1</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="19">
         <v>43328</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="32">
         <v>1</v>
       </c>
       <c r="S4" s="14">
@@ -2046,27 +2176,27 @@
         <v>0</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB4" s="14">
         <v>1</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="5">
@@ -2133,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="15">
         <v>1</v>
@@ -2156,16 +2286,16 @@
       <c r="E6" s="12">
         <v>863703032301108</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -2173,20 +2303,20 @@
       <c r="P6" s="14">
         <v>1</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <v>43302</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="54" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="32">
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="31">
         <v>1</v>
       </c>
       <c r="AA6" s="13" t="s">
@@ -2214,16 +2344,16 @@
       <c r="E7" s="12">
         <v>868744030885796</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -2231,20 +2361,20 @@
       <c r="P7" s="14">
         <v>1</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>43298</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="54" t="s">
+      <c r="R7" s="34"/>
+      <c r="S7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="32">
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="31">
         <v>1</v>
       </c>
       <c r="AA7" s="13" t="s">
@@ -2272,16 +2402,16 @@
       <c r="E8" s="12">
         <v>868744030897866</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2289,20 +2419,20 @@
       <c r="P8" s="14">
         <v>1</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>43298</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="54" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="32">
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="31">
         <v>1</v>
       </c>
       <c r="AA8" s="13" t="s">
@@ -2330,16 +2460,16 @@
       <c r="E9" s="12">
         <v>868744030870145</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="54" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -2347,30 +2477,30 @@
       <c r="P9" s="14">
         <v>1</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>43368</v>
       </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="54" t="s">
+      <c r="R9" s="34"/>
+      <c r="S9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
       <c r="Z9" s="12">
         <v>1</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AB9" s="14">
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2384,23 +2514,23 @@
       <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="30">
         <v>868744030898922</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="31">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="30">
         <v>1</v>
       </c>
       <c r="O10" s="13"/>
@@ -2409,40 +2539,40 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="31">
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="30">
         <v>1</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="5">
@@ -2506,321 +2636,321 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB11" s="15">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="E12" s="5">
         <v>863703032882750</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
       <c r="Q12" s="8">
         <v>43308</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
       <c r="AA12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="E13" s="5">
         <v>868744030870970</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
       <c r="Q13" s="8">
         <v>43308</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
       <c r="AA13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="5">
         <v>863703033726113</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
       <c r="Q14" s="8">
         <v>43308</v>
       </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
       <c r="AA14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="5">
         <v>863703033732442</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
       <c r="Q15" s="8">
         <v>43308</v>
       </c>
-      <c r="R15" s="36"/>
-      <c r="S15" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="53"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="56"/>
       <c r="AA15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="E16" s="5">
         <v>863703033725131</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
       <c r="Q16" s="8">
         <v>43308</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="53"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="G17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="53"/>
+      <c r="S17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="56"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2828,37 +2958,37 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="31">
+        <v>130</v>
+      </c>
+      <c r="D18" s="30">
         <v>180801020000001</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>868744033103981</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="54" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="31">
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="30">
         <v>1</v>
       </c>
       <c r="O18" s="13"/>
@@ -2867,14 +2997,14 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="31"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="30"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="13"/>
@@ -2883,15 +3013,15 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="21" t="s">
         <v>133</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E19" s="5">
         <v>868744030885937</v>
@@ -2951,25 +3081,25 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB19" s="15">
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="5">
         <v>180401010000061</v>
@@ -2977,15 +3107,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -2995,16 +3125,16 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="54" t="s">
+      <c r="S20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="32">
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="31">
         <v>1</v>
       </c>
       <c r="AA20" s="13" t="s">
@@ -3014,19 +3144,19 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="5">
         <v>180801020000002</v>
@@ -3034,30 +3164,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
+      <c r="G21" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="53"/>
+      <c r="S21" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -3066,12 +3196,12 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5">
         <v>180801020000003</v>
@@ -3079,30 +3209,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
+      <c r="G22" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="53"/>
+      <c r="S22" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="56"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -3111,12 +3241,12 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="5">
         <v>180801020000004</v>
@@ -3124,30 +3254,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
+      <c r="G23" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="53"/>
+      <c r="S23" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="56"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -3156,12 +3286,12 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="5">
         <v>180801020000005</v>
@@ -3169,30 +3299,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="53"/>
+      <c r="G24" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="53"/>
+      <c r="S24" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="56"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -3201,12 +3331,12 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="5">
         <v>180801020000006</v>
@@ -3214,30 +3344,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
+      <c r="G25" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="53"/>
+      <c r="S25" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="56"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -3246,12 +3376,12 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="5">
         <v>180801020000007</v>
@@ -3259,30 +3389,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
+      <c r="G26" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="53"/>
+      <c r="S26" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="56"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3296,67 +3426,67 @@
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="31">
+        <v>147</v>
+      </c>
+      <c r="D27" s="30">
         <v>180401010000059</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <v>868744030870889</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="31">
+      <c r="F27" s="30"/>
+      <c r="G27" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="30">
         <v>0</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="14">
         <v>1</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="19">
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="54" t="s">
+      <c r="S27" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="53"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
       <c r="AA27" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="AB27" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="5">
         <v>180701010000099</v>
@@ -3386,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
@@ -3416,25 +3546,25 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AB28" s="15">
         <v>1</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="5">
         <v>180601010000005</v>
@@ -3464,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P29" s="15">
         <v>1</v>
@@ -3474,12 +3604,12 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="5">
         <v>180801020000008</v>
@@ -3487,31 +3617,31 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="46"/>
+      <c r="G30" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="42"/>
       <c r="P30" s="15">
         <v>1</v>
       </c>
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="53"/>
+      <c r="S30" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="56"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3520,12 +3650,12 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="5">
         <v>180801020000009</v>
@@ -3533,31 +3663,31 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="46"/>
+      <c r="G31" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="42"/>
       <c r="P31" s="15">
         <v>1</v>
       </c>
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="53"/>
+      <c r="S31" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="56"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3566,12 +3696,12 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5">
         <v>180801020000010</v>
@@ -3579,31 +3709,31 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="46"/>
+      <c r="G32" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="42"/>
       <c r="P32" s="15">
         <v>1</v>
       </c>
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="53"/>
+      <c r="S32" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="56"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -3612,12 +3742,12 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="5">
         <v>180801020000011</v>
@@ -3625,31 +3755,31 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="46"/>
+      <c r="G33" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="42"/>
       <c r="P33" s="15">
         <v>1</v>
       </c>
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="53"/>
+      <c r="S33" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="56"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -3658,12 +3788,12 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="5">
         <v>180801020000012</v>
@@ -3671,31 +3801,31 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="46"/>
+      <c r="G34" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="42"/>
       <c r="P34" s="15">
         <v>1</v>
       </c>
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="53"/>
+      <c r="S34" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="56"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -3704,12 +3834,12 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="5">
         <v>180701010000001</v>
@@ -3777,7 +3907,7 @@
       <c r="Z35" s="5">
         <v>0</v>
       </c>
-      <c r="AA35" s="25" t="s">
+      <c r="AA35" s="24" t="s">
         <v>82</v>
       </c>
       <c r="AB35" s="15">
@@ -3788,12 +3918,12 @@
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="5">
         <v>180701010001381</v>
@@ -3861,26 +3991,26 @@
       <c r="Z36" s="5">
         <v>1</v>
       </c>
-      <c r="AA36" s="25" t="s">
+      <c r="AA36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="AB36" s="15">
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="5">
         <v>180701010001382</v>
@@ -3948,26 +4078,26 @@
       <c r="Z37" s="5">
         <v>1</v>
       </c>
-      <c r="AA37" s="25" t="s">
+      <c r="AA37" s="24" t="s">
         <v>82</v>
       </c>
       <c r="AB37" s="15">
         <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="5">
         <v>180701010001064</v>
@@ -4035,26 +4165,26 @@
       <c r="Z38" s="5">
         <v>1</v>
       </c>
-      <c r="AA38" s="25" t="s">
+      <c r="AA38" s="24" t="s">
         <v>82</v>
       </c>
       <c r="AB38" s="15">
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="5">
         <v>180701010000245</v>
@@ -4062,16 +4192,16 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="31">
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="30">
         <v>1</v>
       </c>
       <c r="P39" s="15">
@@ -4081,38 +4211,38 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="54" t="s">
+      <c r="S39" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="31">
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="30">
         <v>1</v>
       </c>
       <c r="AA39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="5">
         <v>180701010000674</v>
@@ -4120,16 +4250,16 @@
       <c r="E40" s="5">
         <v>867900040228457</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="31">
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="30">
         <v>1</v>
       </c>
       <c r="P40" s="15">
@@ -4138,20 +4268,20 @@
       <c r="Q40" s="8">
         <v>43396</v>
       </c>
-      <c r="S40" s="54" t="s">
+      <c r="S40" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="31">
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="30">
         <v>1</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB40" s="15">
         <v>1</v>
@@ -4161,12 +4291,12 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="5">
         <v>180701010000225</v>
@@ -4174,16 +4304,16 @@
       <c r="E41" s="5">
         <v>867900040177456</v>
       </c>
-      <c r="G41" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="53"/>
+      <c r="G41" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="1" t="s">
         <v>86</v>
       </c>
@@ -4191,33 +4321,33 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8"/>
-      <c r="S41" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="53"/>
+      <c r="S41" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="56"/>
       <c r="AB41" s="15">
         <v>1</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42" s="5">
         <v>180701010000315</v>
@@ -4250,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P42" s="15">
         <v>1</v>
@@ -4286,19 +4416,19 @@
         <v>1</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43" s="5">
         <v>180701010000288</v>
@@ -4331,19 +4461,19 @@
         <v>1</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="5">
         <v>180701010000552</v>
@@ -4404,19 +4534,19 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D45" s="5">
         <v>180701010000994</v>
@@ -4477,19 +4607,19 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="5">
         <v>180701010000123</v>
@@ -4550,19 +4680,19 @@
         <v>1</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="5">
         <v>180701010001383</v>
@@ -4623,19 +4753,19 @@
         <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="5">
         <v>180701010001373</v>
@@ -4692,25 +4822,25 @@
         <v>2</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB48" s="15">
         <v>1</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" s="5">
         <v>180910020000001</v>
@@ -4718,16 +4848,16 @@
       <c r="E49" s="5">
         <v>865820030036318</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="31">
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="30">
         <v>1</v>
       </c>
       <c r="P49" s="15">
@@ -4738,12 +4868,12 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D50" s="5">
         <v>181001020000033</v>
@@ -4806,25 +4936,25 @@
         <v>1</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AB50" s="15">
         <v>1</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D51" s="5">
         <v>181004020000001</v>
@@ -4887,25 +5017,25 @@
         <v>1</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB51" s="15">
         <v>1</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D52" s="5">
         <v>181004020000004</v>
@@ -4968,25 +5098,25 @@
         <v>1</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB52" s="15">
         <v>1</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D53" s="5">
         <v>181001020000032</v>
@@ -5049,25 +5179,25 @@
         <v>1</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AB53" s="15">
         <v>1</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D54" s="5">
         <v>180701010000140</v>
@@ -5107,232 +5237,1319 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="5">
+        <v>180701010000288</v>
+      </c>
+      <c r="E55" s="5">
+        <v>867900040070081</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P55" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>43402</v>
+      </c>
+      <c r="S55" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB55" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="5">
+        <v>180701010000120</v>
+      </c>
+      <c r="E56" s="5">
+        <v>867900040225354</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P56" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S56" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB56" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="5">
+        <v>180601010000010</v>
+      </c>
+      <c r="E57" s="5">
+        <v>868744030870145</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="9">
+        <v>2</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P57" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S57" s="9">
+        <v>1</v>
+      </c>
+      <c r="T57" s="5">
+        <v>2</v>
+      </c>
+      <c r="U57" s="5">
+        <v>1</v>
+      </c>
+      <c r="V57" s="5">
+        <v>1</v>
+      </c>
+      <c r="W57" s="9">
+        <v>1</v>
+      </c>
+      <c r="X57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB57" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="46">
+        <v>180601010009465</v>
+      </c>
+      <c r="E58" s="5">
+        <v>867900040032701</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P58" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S58" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB58" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="5">
+        <v>181001020000014</v>
+      </c>
+      <c r="E59" s="5">
+        <v>867900040032164</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="9">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="9">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P59" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S59" s="9">
+        <v>1</v>
+      </c>
+      <c r="T59" s="5">
+        <v>2</v>
+      </c>
+      <c r="U59" s="5">
+        <v>1</v>
+      </c>
+      <c r="V59" s="5">
+        <v>1</v>
+      </c>
+      <c r="W59" s="9">
+        <v>1</v>
+      </c>
+      <c r="X59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB59" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="46">
+        <v>180601010008010</v>
+      </c>
+      <c r="E60" s="5">
+        <v>867900040228010</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P60" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S60" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB60" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="46">
+        <v>180601010009078</v>
+      </c>
+      <c r="E61" s="5">
+        <v>868744030899078</v>
+      </c>
+      <c r="G61" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P61" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S61" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB61" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="46">
+        <v>180601010008730</v>
+      </c>
+      <c r="E62" s="5">
+        <v>863703030588730</v>
+      </c>
+      <c r="G62" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P62" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S62" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB62" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="46">
+        <v>181001020000079</v>
+      </c>
+      <c r="E63" s="5">
+        <v>867900040032800</v>
+      </c>
+      <c r="G63" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P63" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S63" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="56"/>
+      <c r="AA63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB63" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="5">
+        <v>181004020000001</v>
+      </c>
+      <c r="E64" s="5">
+        <v>869976030152715</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
+      <c r="M64" s="9">
+        <v>2</v>
+      </c>
+      <c r="N64" s="5">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P64" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1</v>
+      </c>
+      <c r="T64" s="5">
+        <v>2</v>
+      </c>
+      <c r="U64" s="5">
+        <v>1</v>
+      </c>
+      <c r="V64" s="5">
+        <v>1</v>
+      </c>
+      <c r="W64" s="9">
+        <v>1</v>
+      </c>
+      <c r="X64" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="5">
+        <v>180701010000674</v>
+      </c>
+      <c r="E65" s="5">
+        <v>867900040228457</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5">
+        <v>1</v>
+      </c>
+      <c r="M65" s="9">
+        <v>2</v>
+      </c>
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P65" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S65" s="9">
+        <v>1</v>
+      </c>
+      <c r="T65" s="5">
+        <v>2</v>
+      </c>
+      <c r="U65" s="5">
+        <v>1</v>
+      </c>
+      <c r="V65" s="5">
+        <v>1</v>
+      </c>
+      <c r="W65" s="9">
+        <v>1</v>
+      </c>
+      <c r="X65" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="5">
+        <v>181001020000071</v>
+      </c>
+      <c r="E66" s="5">
+        <v>867900040032354</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="9">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="9">
+        <v>2</v>
+      </c>
+      <c r="N66" s="5">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P66" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S66" s="9">
+        <v>1</v>
+      </c>
+      <c r="T66" s="5">
+        <v>2</v>
+      </c>
+      <c r="U66" s="5">
+        <v>1</v>
+      </c>
+      <c r="V66" s="5">
+        <v>1</v>
+      </c>
+      <c r="W66" s="9">
+        <v>1</v>
+      </c>
+      <c r="X66" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="16.5" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="5">
+        <v>180701010000186</v>
+      </c>
+      <c r="E67" s="5">
+        <v>867900040201256</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1</v>
+      </c>
+      <c r="M67" s="9">
+        <v>2</v>
+      </c>
+      <c r="N67" s="5">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P67" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S67" s="9">
+        <v>1</v>
+      </c>
+      <c r="T67" s="5">
+        <v>2</v>
+      </c>
+      <c r="U67" s="5">
+        <v>1</v>
+      </c>
+      <c r="V67" s="5">
+        <v>1</v>
+      </c>
+      <c r="W67" s="9">
+        <v>1</v>
+      </c>
+      <c r="X67" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB67" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="5">
+        <v>181004020000021</v>
+      </c>
+      <c r="E68" s="5">
+        <v>869976030152798</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="9">
+        <v>1</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9">
+        <v>2</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P68" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S68" s="9">
+        <v>1</v>
+      </c>
+      <c r="T68" s="5">
+        <v>2</v>
+      </c>
+      <c r="U68" s="5">
+        <v>1</v>
+      </c>
+      <c r="V68" s="5">
+        <v>1</v>
+      </c>
+      <c r="W68" s="9">
+        <v>1</v>
+      </c>
+      <c r="X68" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB68" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="24">
         <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="5">
+        <v>181001020000100</v>
+      </c>
+      <c r="E69" s="5">
+        <v>867900040031943</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="9">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="9">
+        <v>2</v>
+      </c>
+      <c r="N69" s="5">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P69" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S69" s="9">
+        <v>1</v>
+      </c>
+      <c r="T69" s="5">
+        <v>2</v>
+      </c>
+      <c r="U69" s="5">
+        <v>1</v>
+      </c>
+      <c r="V69" s="5">
+        <v>1</v>
+      </c>
+      <c r="W69" s="9">
+        <v>1</v>
+      </c>
+      <c r="X69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB69" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" s="5">
+        <v>180701010001343</v>
+      </c>
+      <c r="E70" s="5">
+        <v>867900040218276</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9">
+        <v>2</v>
+      </c>
+      <c r="N70" s="5">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P70" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S70" s="9">
+        <v>1</v>
+      </c>
+      <c r="T70" s="5">
+        <v>2</v>
+      </c>
+      <c r="U70" s="5">
+        <v>1</v>
+      </c>
+      <c r="V70" s="5">
+        <v>1</v>
+      </c>
+      <c r="W70" s="9">
+        <v>1</v>
+      </c>
+      <c r="X70" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="5">
+        <v>181004020000033</v>
+      </c>
+      <c r="E71" s="5">
+        <v>869976030148580</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+      <c r="P71" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>43440</v>
+      </c>
+      <c r="S71" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="53"/>
+      <c r="AA71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB71" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="5">
+        <v>181004020000044</v>
+      </c>
+      <c r="E72" s="5">
+        <v>869976030126792</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+      <c r="P72" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>43440</v>
+      </c>
+      <c r="S72" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="53"/>
+      <c r="AA72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB72" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:29">
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:29">
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:29">
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:29">
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B77" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:29">
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="25">
+      <c r="B78" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:29">
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:29">
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="25">
+      <c r="B80" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5341,7 +6558,7 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5350,7 +6567,7 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="25">
+      <c r="B82" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5359,7 +6576,7 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5368,7 +6585,7 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="25">
+      <c r="B84" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5377,7 +6594,7 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5386,7 +6603,7 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="25">
+      <c r="B86" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5395,7 +6612,7 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5404,7 +6621,7 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="25">
+      <c r="B88" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5413,7 +6630,7 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="25">
+      <c r="B89" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5422,7 +6639,7 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="25">
+      <c r="B90" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5431,7 +6648,7 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="25">
+      <c r="B91" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5440,7 +6657,7 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="25">
+      <c r="B92" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5449,7 +6666,7 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="25">
+      <c r="B93" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5458,7 +6675,7 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="25">
+      <c r="B94" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5467,7 +6684,7 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="25">
+      <c r="B95" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5476,7 +6693,7 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="25">
+      <c r="B96" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5485,7 +6702,7 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5494,7 +6711,7 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5503,7 +6720,7 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="25">
+      <c r="B99" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5512,7 +6729,7 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="25">
+      <c r="B100" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5521,7 +6738,7 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="25">
+      <c r="B101" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5530,7 +6747,7 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="25">
+      <c r="B102" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5539,7 +6756,7 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="25">
+      <c r="B103" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5548,7 +6765,7 @@
       <c r="A104" s="1">
         <v>101</v>
       </c>
-      <c r="B104" s="25">
+      <c r="B104" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5557,7 +6774,7 @@
       <c r="A105" s="1">
         <v>102</v>
       </c>
-      <c r="B105" s="25">
+      <c r="B105" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5566,7 +6783,7 @@
       <c r="A106" s="1">
         <v>103</v>
       </c>
-      <c r="B106" s="25">
+      <c r="B106" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5575,7 +6792,7 @@
       <c r="A107" s="1">
         <v>104</v>
       </c>
-      <c r="B107" s="25">
+      <c r="B107" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5584,7 +6801,7 @@
       <c r="A108" s="1">
         <v>105</v>
       </c>
-      <c r="B108" s="25">
+      <c r="B108" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5593,7 +6810,7 @@
       <c r="A109" s="1">
         <v>106</v>
       </c>
-      <c r="B109" s="25">
+      <c r="B109" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5602,7 +6819,7 @@
       <c r="A110" s="1">
         <v>107</v>
       </c>
-      <c r="B110" s="25">
+      <c r="B110" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5611,7 +6828,7 @@
       <c r="A111" s="1">
         <v>108</v>
       </c>
-      <c r="B111" s="25">
+      <c r="B111" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5620,7 +6837,7 @@
       <c r="A112" s="1">
         <v>109</v>
       </c>
-      <c r="B112" s="25">
+      <c r="B112" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5629,7 +6846,7 @@
       <c r="A113" s="1">
         <v>110</v>
       </c>
-      <c r="B113" s="25">
+      <c r="B113" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5638,7 +6855,7 @@
       <c r="A114" s="1">
         <v>111</v>
       </c>
-      <c r="B114" s="25">
+      <c r="B114" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5647,7 +6864,7 @@
       <c r="A115" s="1">
         <v>112</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B115" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5656,7 +6873,7 @@
       <c r="A116" s="1">
         <v>113</v>
       </c>
-      <c r="B116" s="25">
+      <c r="B116" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5665,7 +6882,7 @@
       <c r="A117" s="1">
         <v>114</v>
       </c>
-      <c r="B117" s="25">
+      <c r="B117" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5674,7 +6891,7 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="25">
+      <c r="B118" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5683,7 +6900,7 @@
       <c r="A119" s="1">
         <v>116</v>
       </c>
-      <c r="B119" s="25">
+      <c r="B119" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5692,7 +6909,7 @@
       <c r="A120" s="1">
         <v>117</v>
       </c>
-      <c r="B120" s="25">
+      <c r="B120" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5701,7 +6918,7 @@
       <c r="A121" s="1">
         <v>118</v>
       </c>
-      <c r="B121" s="25">
+      <c r="B121" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5710,7 +6927,7 @@
       <c r="A122" s="1">
         <v>119</v>
       </c>
-      <c r="B122" s="25">
+      <c r="B122" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5719,7 +6936,7 @@
       <c r="A123" s="1">
         <v>120</v>
       </c>
-      <c r="B123" s="25">
+      <c r="B123" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5728,7 +6945,7 @@
       <c r="A124" s="1">
         <v>121</v>
       </c>
-      <c r="B124" s="25">
+      <c r="B124" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5737,7 +6954,7 @@
       <c r="A125" s="1">
         <v>122</v>
       </c>
-      <c r="B125" s="25">
+      <c r="B125" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5746,7 +6963,7 @@
       <c r="A126" s="1">
         <v>123</v>
       </c>
-      <c r="B126" s="25">
+      <c r="B126" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5755,7 +6972,7 @@
       <c r="A127" s="1">
         <v>124</v>
       </c>
-      <c r="B127" s="25">
+      <c r="B127" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5764,7 +6981,7 @@
       <c r="A128" s="1">
         <v>125</v>
       </c>
-      <c r="B128" s="25">
+      <c r="B128" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5773,7 +6990,7 @@
       <c r="A129" s="1">
         <v>126</v>
       </c>
-      <c r="B129" s="25">
+      <c r="B129" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5782,7 +6999,7 @@
       <c r="A130" s="1">
         <v>127</v>
       </c>
-      <c r="B130" s="25">
+      <c r="B130" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5791,7 +7008,7 @@
       <c r="A131" s="1">
         <v>128</v>
       </c>
-      <c r="B131" s="25">
+      <c r="B131" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5800,7 +7017,7 @@
       <c r="A132" s="1">
         <v>129</v>
       </c>
-      <c r="B132" s="25">
+      <c r="B132" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5809,7 +7026,7 @@
       <c r="A133" s="1">
         <v>130</v>
       </c>
-      <c r="B133" s="25">
+      <c r="B133" s="24">
         <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
         <v>0</v>
       </c>
@@ -5818,7 +7035,7 @@
       <c r="A134" s="1">
         <v>131</v>
       </c>
-      <c r="B134" s="25">
+      <c r="B134" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5827,7 +7044,7 @@
       <c r="A135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="25">
+      <c r="B135" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5836,7 +7053,7 @@
       <c r="A136" s="1">
         <v>133</v>
       </c>
-      <c r="B136" s="25">
+      <c r="B136" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5845,7 +7062,7 @@
       <c r="A137" s="1">
         <v>134</v>
       </c>
-      <c r="B137" s="25">
+      <c r="B137" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5854,7 +7071,7 @@
       <c r="A138" s="1">
         <v>135</v>
       </c>
-      <c r="B138" s="25">
+      <c r="B138" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5863,7 +7080,7 @@
       <c r="A139" s="1">
         <v>136</v>
       </c>
-      <c r="B139" s="25">
+      <c r="B139" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5872,7 +7089,7 @@
       <c r="A140" s="1">
         <v>137</v>
       </c>
-      <c r="B140" s="25">
+      <c r="B140" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5881,7 +7098,7 @@
       <c r="A141" s="1">
         <v>138</v>
       </c>
-      <c r="B141" s="25">
+      <c r="B141" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5890,7 +7107,7 @@
       <c r="A142" s="1">
         <v>139</v>
       </c>
-      <c r="B142" s="25">
+      <c r="B142" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5899,7 +7116,7 @@
       <c r="A143" s="1">
         <v>140</v>
       </c>
-      <c r="B143" s="25">
+      <c r="B143" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5908,7 +7125,7 @@
       <c r="A144" s="1">
         <v>141</v>
       </c>
-      <c r="B144" s="25">
+      <c r="B144" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5917,7 +7134,7 @@
       <c r="A145" s="1">
         <v>142</v>
       </c>
-      <c r="B145" s="25">
+      <c r="B145" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5926,7 +7143,7 @@
       <c r="A146" s="1">
         <v>143</v>
       </c>
-      <c r="B146" s="25">
+      <c r="B146" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5935,7 +7152,7 @@
       <c r="A147" s="1">
         <v>144</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B147" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5944,7 +7161,7 @@
       <c r="A148" s="1">
         <v>145</v>
       </c>
-      <c r="B148" s="25">
+      <c r="B148" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5953,7 +7170,7 @@
       <c r="A149" s="1">
         <v>146</v>
       </c>
-      <c r="B149" s="25">
+      <c r="B149" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5962,7 +7179,7 @@
       <c r="A150" s="1">
         <v>147</v>
       </c>
-      <c r="B150" s="25">
+      <c r="B150" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5971,7 +7188,7 @@
       <c r="A151" s="1">
         <v>148</v>
       </c>
-      <c r="B151" s="25">
+      <c r="B151" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5980,7 +7197,7 @@
       <c r="A152" s="1">
         <v>149</v>
       </c>
-      <c r="B152" s="25">
+      <c r="B152" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5989,7 +7206,7 @@
       <c r="A153" s="1">
         <v>150</v>
       </c>
-      <c r="B153" s="25">
+      <c r="B153" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5998,7 +7215,7 @@
       <c r="A154" s="1">
         <v>151</v>
       </c>
-      <c r="B154" s="25">
+      <c r="B154" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6007,7 +7224,7 @@
       <c r="A155" s="1">
         <v>152</v>
       </c>
-      <c r="B155" s="25">
+      <c r="B155" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6016,7 +7233,7 @@
       <c r="A156" s="1">
         <v>153</v>
       </c>
-      <c r="B156" s="25">
+      <c r="B156" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6025,13 +7242,79 @@
       <c r="A157" s="1">
         <v>154</v>
       </c>
-      <c r="B157" s="25">
+      <c r="B157" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="82">
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="S71:Y71"/>
+    <mergeCell ref="S72:Y72"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G62:N62"/>
+    <mergeCell ref="G63:N63"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S62:Z62"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="H55:N55"/>
+    <mergeCell ref="S55:Z55"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="S56:Z56"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="S58:Z58"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="G8:M8"/>
@@ -6048,57 +7331,9 @@
     <mergeCell ref="S27:Y27"/>
     <mergeCell ref="G30:M30"/>
     <mergeCell ref="G31:M31"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
+  <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6117,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6126,8 +7361,8 @@
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13" style="26" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -6138,17 +7373,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -6160,10 +7395,10 @@
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6188,34 +7423,34 @@
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" s="44" customFormat="1">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39">
+    <row r="4" spans="1:12" s="41" customFormat="1">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37">
         <v>43297</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>10000002</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="43"/>
+      <c r="E4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6224,19 +7459,19 @@
       <c r="B5" s="8">
         <v>43297</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>10000003</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6247,43 +7482,43 @@
       <c r="B6" s="8">
         <v>43297</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>10000004</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="44" customFormat="1">
-      <c r="A7" s="25">
+        <v>108</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="41" customFormat="1">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="37">
         <v>43297</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>10000005</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="43" t="s">
-        <v>152</v>
+      <c r="E7" s="38"/>
+      <c r="F7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6293,17 +7528,17 @@
       <c r="B8" s="8">
         <v>43297</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>10000007</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>29</v>
@@ -6316,17 +7551,17 @@
       <c r="B9" s="8">
         <v>43297</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>10000008</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>29</v>
@@ -6342,19 +7577,19 @@
       <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="8">
         <v>43284</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6365,22 +7600,22 @@
       <c r="B11" s="8">
         <v>43297</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="8">
         <v>43284</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6391,22 +7626,22 @@
       <c r="B12" s="8">
         <v>43297</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="69">
+        <v>108</v>
+      </c>
+      <c r="G12" s="75">
         <v>43283</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="74" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6417,18 +7652,18 @@
       <c r="B13" s="8">
         <v>43297</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="70"/>
-      <c r="I13" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -6440,11 +7675,17 @@
       <c r="C14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>89</v>
+      <c r="D14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="9">
+        <v>180601010001341</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43433</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6454,22 +7695,22 @@
       <c r="B15" s="8">
         <v>43297</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="8">
         <v>43294</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6483,11 +7724,11 @@
       <c r="C16" s="9">
         <v>100000051</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>95</v>
+      <c r="D16" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6500,17 +7741,17 @@
       <c r="C17" s="4">
         <v>100000071</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>96</v>
+      <c r="E17" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6523,23 +7764,23 @@
       <c r="C18" s="4">
         <v>100000081</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>96</v>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="8">
         <v>43308</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6552,14 +7793,14 @@
       <c r="C19" s="9">
         <v>100000091</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>155</v>
+      <c r="E19" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6572,20 +7813,20 @@
       <c r="C20" s="4">
         <v>100000101</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="45" t="s">
-        <v>98</v>
+      <c r="E20" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="8">
         <v>43313</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6598,20 +7839,20 @@
       <c r="C21" s="4">
         <v>100000111</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>100</v>
+      <c r="E21" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="8">
         <v>43313</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6624,20 +7865,20 @@
       <c r="C22" s="4">
         <v>100000121</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>100</v>
+      <c r="E22" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="8">
         <v>43313</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6650,20 +7891,20 @@
       <c r="C23" s="4">
         <v>100000131</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>98</v>
+      <c r="E23" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="8">
         <v>43313</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6676,11 +7917,11 @@
       <c r="C24" s="9">
         <v>100000141</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>130</v>
+      <c r="E24" s="47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6693,23 +7934,23 @@
       <c r="C25" s="4">
         <v>100000151</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="8">
         <v>43328</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6722,14 +7963,17 @@
       <c r="C26" s="9">
         <v>100000161</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>222</v>
+      <c r="D26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6742,14 +7986,14 @@
       <c r="C27" s="9">
         <v>100000171</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6762,14 +8006,14 @@
       <c r="C28" s="9">
         <v>100000181</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6782,23 +8026,23 @@
       <c r="C29" s="9">
         <v>100000191</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>174</v>
+      <c r="E29" s="47" t="s">
+        <v>173</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" s="8">
         <v>43353</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6811,23 +8055,23 @@
       <c r="C30" s="9">
         <v>100000201</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>177</v>
+      <c r="E30" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="8">
         <v>43353</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6840,23 +8084,23 @@
       <c r="C31" s="9">
         <v>100000211</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>178</v>
+      <c r="E31" s="47" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="8">
         <v>43353</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6869,20 +8113,20 @@
       <c r="C32" s="9">
         <v>100000221</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>180</v>
+      <c r="E32" s="47" t="s">
+        <v>179</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="8">
         <v>43353</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6895,20 +8139,20 @@
       <c r="C33" s="9">
         <v>100000231</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>181</v>
+      <c r="E33" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="8">
         <v>43353</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6921,20 +8165,20 @@
       <c r="C34" s="9">
         <v>100000241</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>182</v>
+      <c r="E34" s="47" t="s">
+        <v>181</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="8">
         <v>43353</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6947,7 +8191,7 @@
       <c r="C35" s="9">
         <v>100000251</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6961,8 +8205,8 @@
       <c r="C36" s="9">
         <v>100000261</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>94</v>
+      <c r="D36" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6975,19 +8219,19 @@
       <c r="C37" s="9">
         <v>100100001</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50">
+      <c r="D37" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45">
         <v>43361</v>
       </c>
-      <c r="H37" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="49" t="s">
+      <c r="H37" s="44" t="s">
         <v>195</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -7000,19 +8244,19 @@
       <c r="C38" s="9">
         <v>100100002</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50">
+      <c r="D38" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45">
         <v>43361</v>
       </c>
-      <c r="H38" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="49" t="s">
+      <c r="H38" s="44" t="s">
         <v>195</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -7028,10 +8272,10 @@
       <c r="C39" s="9">
         <v>100100003</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="21"/>
+      <c r="D39" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="47"/>
       <c r="G39" s="8"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -7047,14 +8291,14 @@
       <c r="C40" s="9">
         <v>100100004</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>208</v>
+      <c r="D40" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -7067,11 +8311,14 @@
       <c r="C41" s="9">
         <v>100100005</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>207</v>
+      <c r="D41" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="47">
+        <v>181001020000071</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -7084,11 +8331,14 @@
       <c r="C42" s="9">
         <v>100100006</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>206</v>
+      <c r="D42" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="47">
+        <v>181001020000014</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -7101,14 +8351,14 @@
       <c r="C43" s="9">
         <v>100100007</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -7121,14 +8371,14 @@
       <c r="C44" s="9">
         <v>100100008</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -7141,11 +8391,11 @@
       <c r="C45" s="9">
         <v>100100009</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>212</v>
+      <c r="D45" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -7158,11 +8408,11 @@
       <c r="C46" s="9">
         <v>100100010</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>213</v>
+      <c r="D46" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -7175,11 +8425,11 @@
       <c r="C47" s="9">
         <v>100100011</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>224</v>
+      <c r="D47" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -7192,17 +8442,17 @@
       <c r="C48" s="9">
         <v>100100012</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>227</v>
+      <c r="D48" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>224</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7212,11 +8462,11 @@
       <c r="C49" s="9">
         <v>100100013</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="25">
         <v>9040140</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7226,20 +8476,23 @@
       <c r="C50" s="9">
         <v>100100014</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>9096520</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>233</v>
+      <c r="E50" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="G50" s="8">
         <v>43396</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7249,20 +8502,20 @@
       <c r="C51" s="9">
         <v>100100015</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>235</v>
+      <c r="D51" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>232</v>
       </c>
       <c r="G51" s="8">
         <v>43396</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7272,11 +8525,11 @@
       <c r="C52" s="9">
         <v>100100016</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="D52" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7286,11 +8539,17 @@
       <c r="C53" s="9">
         <v>100100017</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="D53" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="9">
+        <v>180601010009465</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7300,11 +8559,11 @@
       <c r="C54" s="9">
         <v>100100018</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="25">
         <v>9098290</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7314,11 +8573,17 @@
       <c r="C55" s="9">
         <v>100100019</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="D55" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="9">
+        <v>180701010000288</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7328,11 +8593,11 @@
       <c r="C56" s="9">
         <v>100100020</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="25">
         <v>9043680</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7342,11 +8607,11 @@
       <c r="C57" s="9">
         <v>100100021</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="D57" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7356,11 +8621,11 @@
       <c r="C58" s="9">
         <v>100100022</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="D58" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7370,11 +8635,11 @@
       <c r="C59" s="9">
         <v>100100023</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="D59" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7384,11 +8649,11 @@
       <c r="C60" s="9">
         <v>100100024</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>9041020</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7398,11 +8663,11 @@
       <c r="C61" s="9">
         <v>100100025</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>9050780</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7412,11 +8677,11 @@
       <c r="C62" s="9">
         <v>100100026</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="D62" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7426,11 +8691,11 @@
       <c r="C63" s="9">
         <v>100100027</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="D63" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7440,8 +8705,8 @@
       <c r="C64" s="9">
         <v>100100028</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>171</v>
+      <c r="D64" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7454,8 +8719,8 @@
       <c r="C65" s="9">
         <v>100100029</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>172</v>
+      <c r="D65" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7468,8 +8733,8 @@
       <c r="C66" s="9">
         <v>100100030</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>173</v>
+      <c r="D66" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7482,7 +8747,7 @@
       <c r="C67" s="9">
         <v>100100031</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="25">
         <v>9097220</v>
       </c>
     </row>
@@ -7496,7 +8761,7 @@
       <c r="C68" s="9">
         <v>100100032</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="25">
         <v>9046550</v>
       </c>
     </row>
@@ -7510,8 +8775,8 @@
       <c r="C69" s="9">
         <v>100100033</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>184</v>
+      <c r="D69" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7524,8 +8789,8 @@
       <c r="C70" s="9">
         <v>100100034</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>185</v>
+      <c r="D70" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7538,7 +8803,7 @@
       <c r="C71" s="9">
         <v>100100035</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="25">
         <v>9047490</v>
       </c>
     </row>
@@ -7552,8 +8817,8 @@
       <c r="C72" s="9">
         <v>100100036</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>186</v>
+      <c r="D72" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -7566,8 +8831,8 @@
       <c r="C73" s="9">
         <v>100100037</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>187</v>
+      <c r="D73" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -7580,8 +8845,8 @@
       <c r="C74" s="9">
         <v>100100038</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>189</v>
+      <c r="D74" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7594,7 +8859,7 @@
       <c r="C75" s="9">
         <v>100100039</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="25">
         <v>9068740</v>
       </c>
     </row>
@@ -7608,8 +8873,8 @@
       <c r="C76" s="9">
         <v>100100040</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>188</v>
+      <c r="D76" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7620,13 +8885,13 @@
         <v>43399</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>260</v>
+        <v>237</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I77" s="77" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7637,12 +8902,12 @@
         <v>43399</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="I78" s="72"/>
+        <v>238</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78" s="78"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
@@ -7652,12 +8917,12 @@
         <v>43399</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="I79" s="72"/>
+        <v>239</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I79" s="78"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
@@ -7667,12 +8932,12 @@
         <v>43399</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="I80" s="72"/>
+        <v>240</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I80" s="78"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
@@ -7682,12 +8947,12 @@
         <v>43399</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="I81" s="72"/>
+        <v>241</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="78"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
@@ -7697,12 +8962,12 @@
         <v>43399</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="I82" s="72"/>
+        <v>242</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="I82" s="78"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
@@ -7712,12 +8977,12 @@
         <v>43399</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="I83" s="72"/>
+        <v>243</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I83" s="78"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -7727,12 +8992,12 @@
         <v>43399</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I84" s="72"/>
+        <v>244</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I84" s="78"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
@@ -7742,12 +9007,12 @@
         <v>43399</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I85" s="72"/>
+        <v>245</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I85" s="78"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
@@ -7757,12 +9022,12 @@
         <v>43399</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="I86" s="73"/>
+        <v>246</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I86" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="303">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,6 +1156,62 @@
   </si>
   <si>
     <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球候鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西，电信新外观新模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆超常悦电子科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇经科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇经科技   huijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动杭州测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动北京测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1505,6 +1561,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,15 +1656,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,10 +1979,10 @@
   <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC77" sqref="AC77"/>
+      <selection pane="bottomRight" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1951,87 +2016,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="63" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="61" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="61"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2172,7 @@
       <c r="AB3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -2127,15 +2192,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -2287,15 +2352,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -2307,15 +2372,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="53"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="59"/>
       <c r="Z6" s="31">
         <v>1</v>
       </c>
@@ -2345,15 +2410,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -2365,15 +2430,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="59"/>
       <c r="Z7" s="31">
         <v>1</v>
       </c>
@@ -2403,15 +2468,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2423,15 +2488,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="34"/>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="59"/>
       <c r="Z8" s="31">
         <v>1</v>
       </c>
@@ -2461,15 +2526,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -2481,15 +2546,15 @@
         <v>43368</v>
       </c>
       <c r="R9" s="34"/>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="59"/>
       <c r="Z9" s="12">
         <v>1</v>
       </c>
@@ -2521,15 +2586,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="30"/>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="30">
         <v>1</v>
       </c>
@@ -2539,15 +2604,15 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="51" t="s">
+      <c r="S10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="59"/>
       <c r="Z10" s="30">
         <v>1</v>
       </c>
@@ -2663,15 +2728,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -2679,15 +2744,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="35"/>
-      <c r="S12" s="54" t="s">
+      <c r="S12" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
       <c r="AA12" s="1" t="s">
         <v>101</v>
       </c>
@@ -2716,15 +2781,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -2732,15 +2797,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="35"/>
-      <c r="S13" s="54" t="s">
+      <c r="S13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="56"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="62"/>
       <c r="AA13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2769,15 +2834,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -2785,15 +2850,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="35"/>
-      <c r="S14" s="54" t="s">
+      <c r="S14" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="62"/>
       <c r="AA14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2822,15 +2887,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -2838,15 +2903,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="35"/>
-      <c r="S15" s="54" t="s">
+      <c r="S15" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="56"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="62"/>
       <c r="AA15" s="1" t="s">
         <v>101</v>
       </c>
@@ -2875,15 +2940,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -2891,15 +2956,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="35"/>
-      <c r="S16" s="54" t="s">
+      <c r="S16" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="56"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="62"/>
       <c r="AA16" s="1" t="s">
         <v>101</v>
       </c>
@@ -2927,30 +2992,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="54" t="s">
+      <c r="S17" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="56"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="62"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2979,15 +3044,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="30">
         <v>1</v>
       </c>
@@ -2997,13 +3062,13 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="53"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="59"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="14"/>
@@ -3107,15 +3172,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -3125,15 +3190,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="51" t="s">
+      <c r="S20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="53"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="59"/>
       <c r="Z20" s="31">
         <v>1</v>
       </c>
@@ -3164,30 +3229,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="54" t="s">
+      <c r="S21" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="62"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -3209,30 +3274,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="56"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="62"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -3254,30 +3319,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="56"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="62"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -3299,30 +3364,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="54" t="s">
+      <c r="S24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="56"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="62"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -3344,30 +3409,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="56"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="62"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -3389,30 +3454,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="54" t="s">
+      <c r="S26" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="62"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3435,15 +3500,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="30">
         <v>0</v>
       </c>
@@ -3455,15 +3520,15 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="51" t="s">
+      <c r="S27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="53"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="59"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
@@ -3617,15 +3682,15 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="42"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -3633,15 +3698,15 @@
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="62"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3663,15 +3728,15 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="42"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -3679,15 +3744,15 @@
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="56"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="62"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3709,15 +3774,15 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="42"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -3725,15 +3790,15 @@
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="54" t="s">
+      <c r="S32" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="56"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="62"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -3755,15 +3820,15 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
       <c r="N33" s="42"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -3771,15 +3836,15 @@
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="54" t="s">
+      <c r="S33" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="62"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -3801,15 +3866,15 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="56"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="42"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -3817,15 +3882,15 @@
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="56"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="62"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -4192,15 +4257,15 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="30">
         <v>1</v>
       </c>
@@ -4211,15 +4276,15 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="51" t="s">
+      <c r="S39" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="53"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="59"/>
       <c r="Z39" s="30">
         <v>1</v>
       </c>
@@ -4250,15 +4315,15 @@
       <c r="E40" s="5">
         <v>867900040228457</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="53"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="30">
         <v>1</v>
       </c>
@@ -4268,15 +4333,15 @@
       <c r="Q40" s="8">
         <v>43396</v>
       </c>
-      <c r="S40" s="51" t="s">
+      <c r="S40" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="53"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="59"/>
       <c r="Z40" s="30">
         <v>1</v>
       </c>
@@ -4304,16 +4369,16 @@
       <c r="E41" s="5">
         <v>867900040177456</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
       <c r="O41" s="1" t="s">
         <v>86</v>
       </c>
@@ -4321,16 +4386,16 @@
         <v>1</v>
       </c>
       <c r="Q41" s="8"/>
-      <c r="S41" s="54" t="s">
+      <c r="S41" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="56"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="62"/>
       <c r="AB41" s="15">
         <v>1</v>
       </c>
@@ -4848,15 +4913,15 @@
       <c r="E49" s="5">
         <v>865820030036318</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="53"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="30">
         <v>1</v>
       </c>
@@ -5250,15 +5315,15 @@
       <c r="E55" s="5">
         <v>867900040070081</v>
       </c>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="56"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="62"/>
       <c r="O55" s="1" t="s">
         <v>259</v>
       </c>
@@ -5268,16 +5333,16 @@
       <c r="Q55" s="8">
         <v>43402</v>
       </c>
-      <c r="S55" s="66" t="s">
+      <c r="S55" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
-      <c r="Z55" s="68"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="74"/>
       <c r="AA55" s="1" t="s">
         <v>259</v>
       </c>
@@ -5305,16 +5370,16 @@
       <c r="E56" s="5">
         <v>867900040225354</v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G56" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="56"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="62"/>
       <c r="O56" s="1" t="s">
         <v>259</v>
       </c>
@@ -5324,16 +5389,16 @@
       <c r="Q56" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="S56" s="54" t="s">
+      <c r="S56" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="56"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="62"/>
       <c r="AA56" s="1" t="s">
         <v>259</v>
       </c>
@@ -5445,16 +5510,16 @@
       <c r="E58" s="5">
         <v>867900040032701</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="71"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="77"/>
       <c r="O58" s="1" t="s">
         <v>259</v>
       </c>
@@ -5464,16 +5529,16 @@
       <c r="Q58" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S58" s="54" t="s">
+      <c r="S58" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="56"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="61"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="61"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="62"/>
       <c r="AA58" s="1" t="s">
         <v>259</v>
       </c>
@@ -5585,16 +5650,16 @@
       <c r="E60" s="5">
         <v>867900040228010</v>
       </c>
-      <c r="G60" s="69" t="s">
+      <c r="G60" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="71"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="77"/>
       <c r="O60" s="1" t="s">
         <v>259</v>
       </c>
@@ -5604,16 +5669,16 @@
       <c r="Q60" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S60" s="54" t="s">
+      <c r="S60" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="56"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="62"/>
       <c r="AA60" s="1" t="s">
         <v>259</v>
       </c>
@@ -5641,16 +5706,16 @@
       <c r="E61" s="5">
         <v>868744030899078</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="71"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="77"/>
       <c r="O61" s="1" t="s">
         <v>259</v>
       </c>
@@ -5660,16 +5725,16 @@
       <c r="Q61" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S61" s="54" t="s">
+      <c r="S61" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="56"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="62"/>
       <c r="AA61" s="1" t="s">
         <v>259</v>
       </c>
@@ -5697,16 +5762,16 @@
       <c r="E62" s="5">
         <v>863703030588730</v>
       </c>
-      <c r="G62" s="69" t="s">
+      <c r="G62" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="71"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="77"/>
       <c r="O62" s="1" t="s">
         <v>259</v>
       </c>
@@ -5716,16 +5781,16 @@
       <c r="Q62" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S62" s="54" t="s">
+      <c r="S62" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="56"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="62"/>
       <c r="AA62" s="1" t="s">
         <v>259</v>
       </c>
@@ -5753,16 +5818,16 @@
       <c r="E63" s="5">
         <v>867900040032800</v>
       </c>
-      <c r="G63" s="69" t="s">
+      <c r="G63" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="71"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="77"/>
       <c r="O63" s="1" t="s">
         <v>259</v>
       </c>
@@ -5772,16 +5837,16 @@
       <c r="Q63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S63" s="54" t="s">
+      <c r="S63" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="56"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="62"/>
       <c r="AA63" s="1" t="s">
         <v>259</v>
       </c>
@@ -6397,30 +6462,30 @@
       <c r="E71" s="5">
         <v>869976030148580</v>
       </c>
-      <c r="G71" s="51" t="s">
+      <c r="G71" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="53"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="59"/>
       <c r="P71" s="15">
         <v>1</v>
       </c>
       <c r="Q71" s="8">
         <v>43440</v>
       </c>
-      <c r="S71" s="51" t="s">
+      <c r="S71" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="53"/>
+      <c r="T71" s="58"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="58"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="59"/>
       <c r="AA71" s="1" t="s">
         <v>259</v>
       </c>
@@ -6448,30 +6513,30 @@
       <c r="E72" s="5">
         <v>869976030126792</v>
       </c>
-      <c r="G72" s="51" t="s">
+      <c r="G72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="53"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="59"/>
       <c r="P72" s="15">
         <v>1</v>
       </c>
       <c r="Q72" s="8">
         <v>43440</v>
       </c>
-      <c r="S72" s="51" t="s">
+      <c r="S72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="53"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="58"/>
+      <c r="Y72" s="59"/>
       <c r="AA72" s="1" t="s">
         <v>259</v>
       </c>
@@ -6490,6 +6555,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="5">
+        <v>180701010000386</v>
+      </c>
+      <c r="E73" s="5">
+        <v>867900040204748</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="9">
+        <v>1</v>
+      </c>
+      <c r="L73" s="5">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9">
+        <v>2</v>
+      </c>
+      <c r="N73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S73" s="9">
+        <v>1</v>
+      </c>
+      <c r="T73" s="5">
+        <v>2</v>
+      </c>
+      <c r="U73" s="5">
+        <v>1</v>
+      </c>
+      <c r="V73" s="5">
+        <v>1</v>
+      </c>
+      <c r="W73" s="9">
+        <v>1</v>
+      </c>
+      <c r="X73" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="1">
@@ -6499,6 +6633,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="5">
+        <v>180701010001070</v>
+      </c>
+      <c r="E74" s="5">
+        <v>867900040226014</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1</v>
+      </c>
+      <c r="M74" s="9">
+        <v>2</v>
+      </c>
+      <c r="N74" s="5">
+        <v>1</v>
+      </c>
+      <c r="P74" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S74" s="9">
+        <v>1</v>
+      </c>
+      <c r="T74" s="5">
+        <v>2</v>
+      </c>
+      <c r="U74" s="5">
+        <v>1</v>
+      </c>
+      <c r="V74" s="5">
+        <v>1</v>
+      </c>
+      <c r="W74" s="9">
+        <v>1</v>
+      </c>
+      <c r="X74" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="1">
@@ -6508,6 +6711,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="5">
+        <v>180701010001159</v>
+      </c>
+      <c r="E75" s="5">
+        <v>867900040198460</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5">
+        <v>1</v>
+      </c>
+      <c r="M75" s="9">
+        <v>2</v>
+      </c>
+      <c r="N75" s="5">
+        <v>1</v>
+      </c>
+      <c r="P75" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S75" s="9">
+        <v>1</v>
+      </c>
+      <c r="T75" s="5">
+        <v>2</v>
+      </c>
+      <c r="U75" s="5">
+        <v>1</v>
+      </c>
+      <c r="V75" s="5">
+        <v>1</v>
+      </c>
+      <c r="W75" s="9">
+        <v>1</v>
+      </c>
+      <c r="X75" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="1">
@@ -6517,6 +6789,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="5">
+        <v>180701010001280</v>
+      </c>
+      <c r="E76" s="5">
+        <v>867900040218532</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" s="5">
+        <v>1</v>
+      </c>
+      <c r="M76" s="9">
+        <v>2</v>
+      </c>
+      <c r="N76" s="5">
+        <v>1</v>
+      </c>
+      <c r="P76" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S76" s="9">
+        <v>1</v>
+      </c>
+      <c r="T76" s="5">
+        <v>2</v>
+      </c>
+      <c r="U76" s="5">
+        <v>1</v>
+      </c>
+      <c r="V76" s="5">
+        <v>1</v>
+      </c>
+      <c r="W76" s="9">
+        <v>1</v>
+      </c>
+      <c r="X76" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="1">
@@ -6526,6 +6867,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" s="5">
+        <v>181201021000001</v>
+      </c>
+      <c r="E77" s="5">
+        <v>868744030870772</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1</v>
+      </c>
+      <c r="J77" s="5">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5">
+        <v>1</v>
+      </c>
+      <c r="M77" s="9">
+        <v>2</v>
+      </c>
+      <c r="N77" s="5">
+        <v>1</v>
+      </c>
+      <c r="P77" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S77" s="9">
+        <v>1</v>
+      </c>
+      <c r="T77" s="5">
+        <v>2</v>
+      </c>
+      <c r="U77" s="5">
+        <v>1</v>
+      </c>
+      <c r="V77" s="5">
+        <v>1</v>
+      </c>
+      <c r="W77" s="9">
+        <v>1</v>
+      </c>
+      <c r="X77" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="1">
@@ -6535,6 +6945,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="5">
+        <v>180701010001194</v>
+      </c>
+      <c r="E78" s="5">
+        <v>867900040228077</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="5">
+        <v>1</v>
+      </c>
+      <c r="M78" s="9">
+        <v>2</v>
+      </c>
+      <c r="N78" s="5">
+        <v>1</v>
+      </c>
+      <c r="P78" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S78" s="9">
+        <v>1</v>
+      </c>
+      <c r="T78" s="5">
+        <v>2</v>
+      </c>
+      <c r="U78" s="5">
+        <v>1</v>
+      </c>
+      <c r="V78" s="5">
+        <v>1</v>
+      </c>
+      <c r="W78" s="9">
+        <v>1</v>
+      </c>
+      <c r="X78" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1">
@@ -6544,6 +7023,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="5">
+        <v>181004010000001</v>
+      </c>
+      <c r="E79" s="5">
+        <v>869976030154539</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1</v>
+      </c>
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5">
+        <v>1</v>
+      </c>
+      <c r="M79" s="9">
+        <v>2</v>
+      </c>
+      <c r="N79" s="5">
+        <v>1</v>
+      </c>
+      <c r="P79" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>43448</v>
+      </c>
+      <c r="S79" s="9">
+        <v>1</v>
+      </c>
+      <c r="T79" s="5">
+        <v>1</v>
+      </c>
+      <c r="U79" s="5">
+        <v>1</v>
+      </c>
+      <c r="V79" s="5">
+        <v>1</v>
+      </c>
+      <c r="W79" s="9">
+        <v>1</v>
+      </c>
+      <c r="X79" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="1">
@@ -6553,8 +7101,71 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="9">
+        <v>181004020000110</v>
+      </c>
+      <c r="E80" s="5">
+        <v>869976033784688</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1</v>
+      </c>
+      <c r="K80" s="9">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5">
+        <v>1</v>
+      </c>
+      <c r="M80" s="9">
+        <v>2</v>
+      </c>
+      <c r="P80" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S80" s="9">
+        <v>1</v>
+      </c>
+      <c r="T80" s="5">
+        <v>2</v>
+      </c>
+      <c r="U80" s="5">
+        <v>1</v>
+      </c>
+      <c r="V80" s="5">
+        <v>1</v>
+      </c>
+      <c r="W80" s="9">
+        <v>1</v>
+      </c>
+      <c r="X80" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB80" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -6562,8 +7173,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="9">
+        <v>181004020000111</v>
+      </c>
+      <c r="E81" s="5">
+        <v>869976033796856</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1</v>
+      </c>
+      <c r="J81" s="5">
+        <v>1</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="5">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9">
+        <v>2</v>
+      </c>
+      <c r="P81" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S81" s="9">
+        <v>1</v>
+      </c>
+      <c r="T81" s="5">
+        <v>2</v>
+      </c>
+      <c r="U81" s="5">
+        <v>1</v>
+      </c>
+      <c r="V81" s="5">
+        <v>1</v>
+      </c>
+      <c r="W81" s="9">
+        <v>1</v>
+      </c>
+      <c r="X81" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB81" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="55"/>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -6571,8 +7243,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="9">
+        <v>181004020000112</v>
+      </c>
+      <c r="E82" s="5">
+        <v>869976033719460</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5">
+        <v>2</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="5">
+        <v>1</v>
+      </c>
+      <c r="M82" s="9">
+        <v>2</v>
+      </c>
+      <c r="P82" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S82" s="9">
+        <v>1</v>
+      </c>
+      <c r="T82" s="5">
+        <v>2</v>
+      </c>
+      <c r="U82" s="5">
+        <v>1</v>
+      </c>
+      <c r="V82" s="5">
+        <v>1</v>
+      </c>
+      <c r="W82" s="9">
+        <v>1</v>
+      </c>
+      <c r="X82" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB82" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="55"/>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -6580,8 +7313,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="9">
+        <v>181004020000109</v>
+      </c>
+      <c r="E83" s="5">
+        <v>869976033720146</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="K83" s="9">
+        <v>1</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+      <c r="M83" s="9">
+        <v>2</v>
+      </c>
+      <c r="P83" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S83" s="9">
+        <v>1</v>
+      </c>
+      <c r="T83" s="5">
+        <v>2</v>
+      </c>
+      <c r="U83" s="5">
+        <v>1</v>
+      </c>
+      <c r="V83" s="5">
+        <v>1</v>
+      </c>
+      <c r="W83" s="9">
+        <v>1</v>
+      </c>
+      <c r="X83" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB83" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="55"/>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -6589,8 +7383,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" s="9">
+        <v>181004020000103</v>
+      </c>
+      <c r="E84" s="5">
+        <v>869976033883159</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>1</v>
+      </c>
+      <c r="K84" s="9">
+        <v>1</v>
+      </c>
+      <c r="L84" s="5">
+        <v>1</v>
+      </c>
+      <c r="M84" s="9">
+        <v>2</v>
+      </c>
+      <c r="P84" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S84" s="9">
+        <v>1</v>
+      </c>
+      <c r="T84" s="5">
+        <v>2</v>
+      </c>
+      <c r="U84" s="5">
+        <v>1</v>
+      </c>
+      <c r="V84" s="5">
+        <v>1</v>
+      </c>
+      <c r="W84" s="9">
+        <v>1</v>
+      </c>
+      <c r="X84" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB84" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="55"/>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="1">
         <v>82</v>
       </c>
@@ -6598,8 +7453,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="9">
+        <v>181004020000117</v>
+      </c>
+      <c r="E85" s="5">
+        <v>869976033880668</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1</v>
+      </c>
+      <c r="M85" s="9">
+        <v>2</v>
+      </c>
+      <c r="P85" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S85" s="9">
+        <v>1</v>
+      </c>
+      <c r="T85" s="5">
+        <v>2</v>
+      </c>
+      <c r="U85" s="5">
+        <v>1</v>
+      </c>
+      <c r="V85" s="5">
+        <v>1</v>
+      </c>
+      <c r="W85" s="9">
+        <v>1</v>
+      </c>
+      <c r="X85" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB85" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="55"/>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -6607,8 +7523,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="9">
+        <v>181004020000124</v>
+      </c>
+      <c r="E86" s="5">
+        <v>869976033788325</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
+      <c r="M86" s="9">
+        <v>2</v>
+      </c>
+      <c r="P86" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S86" s="9">
+        <v>1</v>
+      </c>
+      <c r="T86" s="5">
+        <v>2</v>
+      </c>
+      <c r="U86" s="5">
+        <v>1</v>
+      </c>
+      <c r="V86" s="5">
+        <v>1</v>
+      </c>
+      <c r="W86" s="9">
+        <v>1</v>
+      </c>
+      <c r="X86" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB86" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="55"/>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -6616,8 +7593,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" s="9">
+        <v>181004020000121</v>
+      </c>
+      <c r="E87" s="5">
+        <v>869976033878290</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+      <c r="K87" s="9">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9">
+        <v>2</v>
+      </c>
+      <c r="P87" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S87" s="9">
+        <v>1</v>
+      </c>
+      <c r="T87" s="5">
+        <v>2</v>
+      </c>
+      <c r="U87" s="5">
+        <v>1</v>
+      </c>
+      <c r="V87" s="5">
+        <v>1</v>
+      </c>
+      <c r="W87" s="9">
+        <v>1</v>
+      </c>
+      <c r="X87" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="55"/>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -6625,8 +7663,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="9">
+        <v>181004020000119</v>
+      </c>
+      <c r="E88" s="5">
+        <v>869976030852405</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9">
+        <v>1</v>
+      </c>
+      <c r="L88" s="5">
+        <v>1</v>
+      </c>
+      <c r="M88" s="9">
+        <v>2</v>
+      </c>
+      <c r="P88" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S88" s="9">
+        <v>1</v>
+      </c>
+      <c r="T88" s="5">
+        <v>2</v>
+      </c>
+      <c r="U88" s="5">
+        <v>1</v>
+      </c>
+      <c r="V88" s="5">
+        <v>1</v>
+      </c>
+      <c r="W88" s="9">
+        <v>1</v>
+      </c>
+      <c r="X88" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB88" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="56"/>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -6634,8 +7733,71 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" s="9">
+        <v>181004020000104</v>
+      </c>
+      <c r="E89" s="5">
+        <v>869976033789711</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9">
+        <v>1</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+      <c r="M89" s="9">
+        <v>2</v>
+      </c>
+      <c r="P89" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S89" s="9">
+        <v>1</v>
+      </c>
+      <c r="T89" s="5">
+        <v>2</v>
+      </c>
+      <c r="U89" s="5">
+        <v>1</v>
+      </c>
+      <c r="V89" s="5">
+        <v>1</v>
+      </c>
+      <c r="W89" s="9">
+        <v>1</v>
+      </c>
+      <c r="X89" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB89" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="54" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -6643,8 +7805,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="9">
+        <v>181004020000118</v>
+      </c>
+      <c r="E90" s="5">
+        <v>869976033878191</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9">
+        <v>1</v>
+      </c>
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+      <c r="M90" s="9">
+        <v>2</v>
+      </c>
+      <c r="P90" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S90" s="9">
+        <v>1</v>
+      </c>
+      <c r="T90" s="5">
+        <v>2</v>
+      </c>
+      <c r="U90" s="5">
+        <v>1</v>
+      </c>
+      <c r="V90" s="5">
+        <v>1</v>
+      </c>
+      <c r="W90" s="9">
+        <v>1</v>
+      </c>
+      <c r="X90" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="55"/>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -6652,8 +7875,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="9">
+        <v>181004020000106</v>
+      </c>
+      <c r="E91" s="5">
+        <v>869976032982358</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9">
+        <v>1</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1</v>
+      </c>
+      <c r="M91" s="9">
+        <v>2</v>
+      </c>
+      <c r="P91" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S91" s="9">
+        <v>1</v>
+      </c>
+      <c r="T91" s="5">
+        <v>2</v>
+      </c>
+      <c r="U91" s="5">
+        <v>1</v>
+      </c>
+      <c r="V91" s="5">
+        <v>1</v>
+      </c>
+      <c r="W91" s="9">
+        <v>1</v>
+      </c>
+      <c r="X91" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB91" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="55"/>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -6661,8 +7945,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" s="9">
+        <v>181004020000102</v>
+      </c>
+      <c r="E92" s="5">
+        <v>869976032988645</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9">
+        <v>1</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1</v>
+      </c>
+      <c r="M92" s="9">
+        <v>2</v>
+      </c>
+      <c r="P92" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S92" s="9">
+        <v>1</v>
+      </c>
+      <c r="T92" s="5">
+        <v>2</v>
+      </c>
+      <c r="U92" s="5">
+        <v>1</v>
+      </c>
+      <c r="V92" s="5">
+        <v>1</v>
+      </c>
+      <c r="W92" s="9">
+        <v>1</v>
+      </c>
+      <c r="X92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB92" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="55"/>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -6670,8 +8015,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="9">
+        <v>181004020000105</v>
+      </c>
+      <c r="E93" s="5">
+        <v>869976033720104</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="9">
+        <v>1</v>
+      </c>
+      <c r="L93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9">
+        <v>2</v>
+      </c>
+      <c r="P93" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S93" s="9">
+        <v>1</v>
+      </c>
+      <c r="T93" s="5">
+        <v>2</v>
+      </c>
+      <c r="U93" s="5">
+        <v>1</v>
+      </c>
+      <c r="V93" s="5">
+        <v>1</v>
+      </c>
+      <c r="W93" s="9">
+        <v>1</v>
+      </c>
+      <c r="X93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB93" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="55"/>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -6679,8 +8085,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="9">
+        <v>181004020000115</v>
+      </c>
+      <c r="E94" s="5">
+        <v>869976033801706</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>2</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9">
+        <v>1</v>
+      </c>
+      <c r="L94" s="5">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9">
+        <v>2</v>
+      </c>
+      <c r="P94" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S94" s="9">
+        <v>1</v>
+      </c>
+      <c r="T94" s="5">
+        <v>2</v>
+      </c>
+      <c r="U94" s="5">
+        <v>1</v>
+      </c>
+      <c r="V94" s="5">
+        <v>1</v>
+      </c>
+      <c r="W94" s="9">
+        <v>1</v>
+      </c>
+      <c r="X94" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB94" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="55"/>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -6688,53 +8155,279 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="9">
+        <v>181004020000116</v>
+      </c>
+      <c r="E95" s="5">
+        <v>869976033779480</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>2</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9">
+        <v>1</v>
+      </c>
+      <c r="L95" s="5">
+        <v>1</v>
+      </c>
+      <c r="M95" s="9">
+        <v>2</v>
+      </c>
+      <c r="P95" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>43460</v>
+      </c>
+      <c r="S95" s="9">
+        <v>1</v>
+      </c>
+      <c r="T95" s="5">
+        <v>2</v>
+      </c>
+      <c r="U95" s="5">
+        <v>1</v>
+      </c>
+      <c r="V95" s="5">
+        <v>1</v>
+      </c>
+      <c r="W95" s="9">
+        <v>1</v>
+      </c>
+      <c r="X95" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB95" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="56"/>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" s="1">
         <v>93</v>
       </c>
       <c r="B96" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="5">
+        <v>181001020000018</v>
+      </c>
+      <c r="E96" s="5">
+        <v>867900040067145</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1</v>
+      </c>
+      <c r="J96" s="5">
+        <v>1</v>
+      </c>
+      <c r="K96" s="9">
+        <v>1</v>
+      </c>
+      <c r="L96" s="5">
+        <v>1</v>
+      </c>
+      <c r="M96" s="9">
+        <v>2</v>
+      </c>
+      <c r="P96" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>94</v>
       </c>
       <c r="B97" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="5">
+        <v>181001020000028</v>
+      </c>
+      <c r="E97" s="5">
+        <v>867900040032636</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9">
+        <v>1</v>
+      </c>
+      <c r="L97" s="5">
+        <v>1</v>
+      </c>
+      <c r="M97" s="9">
+        <v>2</v>
+      </c>
+      <c r="P97" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>95</v>
       </c>
       <c r="B98" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" s="5">
+        <v>181001020000042</v>
+      </c>
+      <c r="E98" s="5">
+        <v>867900040031976</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="5">
+        <v>2</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+      <c r="K98" s="9">
+        <v>1</v>
+      </c>
+      <c r="L98" s="5">
+        <v>1</v>
+      </c>
+      <c r="M98" s="9">
+        <v>2</v>
+      </c>
+      <c r="P98" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>96</v>
       </c>
       <c r="B99" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="5">
+        <v>181001020000044</v>
+      </c>
+      <c r="E99" s="5">
+        <v>867900040032339</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+      <c r="K99" s="9">
+        <v>1</v>
+      </c>
+      <c r="L99" s="5">
+        <v>1</v>
+      </c>
+      <c r="M99" s="9">
+        <v>2</v>
+      </c>
+      <c r="P99" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>97</v>
       </c>
       <c r="B100" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="5">
+        <v>181001020000048</v>
+      </c>
+      <c r="E100" s="5">
+        <v>867900040032875</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="5">
+        <v>2</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1</v>
+      </c>
+      <c r="J100" s="5">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9">
+        <v>1</v>
+      </c>
+      <c r="L100" s="5">
+        <v>1</v>
+      </c>
+      <c r="M100" s="9">
+        <v>2</v>
+      </c>
+      <c r="P100" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -6743,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -6752,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -6761,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -6770,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -6779,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -6788,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -6797,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -6806,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -6815,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -6824,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -6833,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -7248,7 +8941,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="84">
     <mergeCell ref="G71:M71"/>
     <mergeCell ref="G72:M72"/>
     <mergeCell ref="S71:Y71"/>
@@ -7289,9 +8982,6 @@
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="S24:Y24"/>
     <mergeCell ref="G24:M24"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="S18:Y18"/>
     <mergeCell ref="G14:M14"/>
@@ -7304,6 +8994,8 @@
     <mergeCell ref="S12:Y12"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -7315,6 +9007,11 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="AC89:AC95"/>
+    <mergeCell ref="AC80:AC88"/>
     <mergeCell ref="S8:Y8"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="G8:M8"/>
@@ -7329,8 +9026,6 @@
     <mergeCell ref="G34:M34"/>
     <mergeCell ref="G27:M27"/>
     <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
@@ -7352,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7373,17 +9068,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -7632,16 +9327,16 @@
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="79" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="81">
         <v>43283</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="80" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7658,12 +9353,12 @@
       <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="I13" s="74"/>
+      <c r="G13" s="82"/>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -8652,6 +10347,12 @@
       <c r="D60" s="25">
         <v>9041020</v>
       </c>
+      <c r="E60" s="5">
+        <v>181004010000001</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
@@ -8806,6 +10507,9 @@
       <c r="D71" s="25">
         <v>9047490</v>
       </c>
+      <c r="I71" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
@@ -8820,6 +10524,9 @@
       <c r="D72" s="25" t="s">
         <v>185</v>
       </c>
+      <c r="I72" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
@@ -8834,6 +10541,9 @@
       <c r="D73" s="25" t="s">
         <v>186</v>
       </c>
+      <c r="I73" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
@@ -8848,6 +10558,9 @@
       <c r="D74" s="25" t="s">
         <v>188</v>
       </c>
+      <c r="I74" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
@@ -8876,6 +10589,9 @@
       <c r="D76" s="25" t="s">
         <v>187</v>
       </c>
+      <c r="I76" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
@@ -8890,7 +10606,7 @@
       <c r="D77" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="I77" s="77" t="s">
+      <c r="I77" s="51" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8907,7 +10623,7 @@
       <c r="D78" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="I78" s="78"/>
+      <c r="I78" s="52"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
@@ -8922,7 +10638,7 @@
       <c r="D79" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="I79" s="78"/>
+      <c r="I79" s="52"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
@@ -8937,7 +10653,7 @@
       <c r="D80" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="I80" s="78"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
@@ -8952,7 +10668,7 @@
       <c r="D81" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="I81" s="78"/>
+      <c r="I81" s="52"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
@@ -8967,7 +10683,9 @@
       <c r="D82" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="I82" s="78"/>
+      <c r="I82" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
@@ -8982,7 +10700,7 @@
       <c r="D83" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="I83" s="78"/>
+      <c r="I83" s="52"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
@@ -8997,7 +10715,7 @@
       <c r="D84" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I84" s="78"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
@@ -9012,7 +10730,7 @@
       <c r="D85" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I85" s="78"/>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
@@ -9027,15 +10745,14 @@
       <c r="D86" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="I86" s="79"/>
+      <c r="I86" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I77:I86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="60" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="9525" yWindow="-240" windowWidth="19200" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="387">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,6 +1212,342 @@
   </si>
   <si>
     <t>2018/12/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABA0B30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABD61C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A081110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A083600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0B8950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABB3E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABA52C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A08E5F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABBF600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0B0B80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABCE690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABD35D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A06D180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A083650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0708E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A05DC80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A08E970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0AF6F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABDB2D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0A4C80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A084C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABC9B60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABADD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0AE910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A08A420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A05F670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A09DB90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABC69E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABBF990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABCB200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABA6280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A09FEB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0A7F40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A099F70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2AB91540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A092AE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2AB96730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A071230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABAA360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ABD7870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/01/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09071B00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09044C40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09065780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904ED30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904F9B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09096E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09068630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09043B20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09067EB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09051970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09094EB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09041360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905B3F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090403E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09073B70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908DF80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09097080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907BD80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905C0A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907FFC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904CBA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903F160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0905F140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09070160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09044FC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907B660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090571F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907ABA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09096F40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090469E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908D4D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090646E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090959A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09089B50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909A270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0907CBF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906DE80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090970E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09085190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903FCC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球候鸟，改装门锁，带一个后面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/01/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球候鸟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,6 +1636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,14 +1912,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,6 +1922,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1597,10 +1942,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,6 +1963,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,22 +1978,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,13 +2321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N110" sqref="N110"/>
+      <selection pane="bottomRight" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2016,87 +2361,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="69" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="67" t="s">
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="67"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2517,7 @@
       <c r="AB3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="67"/>
+      <c r="AC3" s="69"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -2192,15 +2537,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -2255,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="24">
-        <f t="shared" ref="B5:B68" si="0">P5-AB5</f>
+        <f t="shared" ref="B5:B67" si="0">P5-AB5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2352,15 +2697,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -2372,15 +2717,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
       <c r="Z6" s="31">
         <v>1</v>
       </c>
@@ -2410,15 +2755,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -2430,15 +2775,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
       <c r="Z7" s="31">
         <v>1</v>
       </c>
@@ -2468,15 +2813,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -2488,15 +2833,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="34"/>
-      <c r="S8" s="57" t="s">
+      <c r="S8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
       <c r="Z8" s="31">
         <v>1</v>
       </c>
@@ -2526,15 +2871,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -2546,15 +2891,15 @@
         <v>43368</v>
       </c>
       <c r="R9" s="34"/>
-      <c r="S9" s="57" t="s">
+      <c r="S9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="12">
         <v>1</v>
       </c>
@@ -2586,15 +2931,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="30"/>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="30">
         <v>1</v>
       </c>
@@ -2604,15 +2949,15 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
       <c r="Z10" s="30">
         <v>1</v>
       </c>
@@ -2728,15 +3073,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -2744,15 +3089,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="35"/>
-      <c r="S12" s="60" t="s">
+      <c r="S12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="63"/>
       <c r="AA12" s="1" t="s">
         <v>101</v>
       </c>
@@ -2781,15 +3126,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -2797,15 +3142,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="35"/>
-      <c r="S13" s="60" t="s">
+      <c r="S13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="63"/>
       <c r="AA13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2834,15 +3179,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -2850,15 +3195,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="35"/>
-      <c r="S14" s="60" t="s">
+      <c r="S14" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="63"/>
       <c r="AA14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2887,15 +3232,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -2903,15 +3248,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="35"/>
-      <c r="S15" s="60" t="s">
+      <c r="S15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
       <c r="AA15" s="1" t="s">
         <v>101</v>
       </c>
@@ -2940,15 +3285,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -2956,15 +3301,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="35"/>
-      <c r="S16" s="60" t="s">
+      <c r="S16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="63"/>
       <c r="AA16" s="1" t="s">
         <v>101</v>
       </c>
@@ -2992,30 +3337,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="60" t="s">
+      <c r="S17" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="63"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3044,15 +3389,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="30">
         <v>1</v>
       </c>
@@ -3062,13 +3407,13 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="59"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="57"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="14"/>
@@ -3172,15 +3517,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -3190,15 +3535,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="57" t="s">
+      <c r="S20" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="59"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="57"/>
       <c r="Z20" s="31">
         <v>1</v>
       </c>
@@ -3229,30 +3574,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="60" t="s">
+      <c r="S21" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="63"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -3274,30 +3619,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="60" t="s">
+      <c r="S22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="63"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -3319,30 +3664,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="60" t="s">
+      <c r="S23" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="63"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -3364,30 +3709,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="60" t="s">
+      <c r="S24" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="63"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -3409,30 +3754,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="60" t="s">
+      <c r="S25" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -3454,30 +3799,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="60" t="s">
+      <c r="S26" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="63"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -3500,15 +3845,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="30">
         <v>0</v>
       </c>
@@ -3520,15 +3865,15 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="57" t="s">
+      <c r="S27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="59"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="57"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
@@ -3682,15 +4027,15 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="42"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -3698,15 +4043,15 @@
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="60" t="s">
+      <c r="S30" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="63"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -3728,15 +4073,15 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="42"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -3744,15 +4089,15 @@
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="60" t="s">
+      <c r="S31" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="63"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -3774,15 +4119,15 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="42"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -3790,15 +4135,15 @@
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="60" t="s">
+      <c r="S32" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="63"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -3820,15 +4165,15 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="42"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -3836,15 +4181,15 @@
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="60" t="s">
+      <c r="S33" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="63"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -3866,15 +4211,15 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="42"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -3882,15 +4227,15 @@
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="60" t="s">
+      <c r="S34" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="63"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -4257,15 +4602,15 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G39" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="59"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="57"/>
       <c r="N39" s="30">
         <v>1</v>
       </c>
@@ -4276,15 +4621,15 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="57" t="s">
+      <c r="S39" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="59"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="57"/>
       <c r="Z39" s="30">
         <v>1</v>
       </c>
@@ -4300,7 +4645,7 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="24">
         <f t="shared" si="0"/>
@@ -4310,51 +4655,48 @@
         <v>182</v>
       </c>
       <c r="D40" s="5">
-        <v>180701010000674</v>
+        <v>180701010000225</v>
       </c>
       <c r="E40" s="5">
-        <v>867900040228457</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="30">
-        <v>1</v>
+        <v>867900040177456</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="P40" s="15">
         <v>1</v>
       </c>
-      <c r="Q40" s="8">
-        <v>43396</v>
-      </c>
-      <c r="S40" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q40" s="8"/>
+      <c r="S40" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="63"/>
       <c r="AB40" s="15">
         <v>1</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="24">
         <f t="shared" si="0"/>
@@ -4364,61 +4706,91 @@
         <v>182</v>
       </c>
       <c r="D41" s="5">
-        <v>180701010000225</v>
+        <v>180701010000315</v>
       </c>
       <c r="E41" s="5">
-        <v>867900040177456</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
+        <v>867900040078159</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
       <c r="O41" s="1" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="P41" s="15">
         <v>1</v>
       </c>
-      <c r="Q41" s="8"/>
-      <c r="S41" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="62"/>
+      <c r="Q41" s="8">
+        <v>43381</v>
+      </c>
+      <c r="S41" s="9">
+        <v>1</v>
+      </c>
+      <c r="T41" s="5">
+        <v>2</v>
+      </c>
+      <c r="U41" s="5">
+        <v>1</v>
+      </c>
+      <c r="V41" s="5">
+        <v>1</v>
+      </c>
+      <c r="W41" s="9">
+        <v>1</v>
+      </c>
+      <c r="X41" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>1</v>
+      </c>
       <c r="AB41" s="15">
         <v>1</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="5">
-        <v>180701010000315</v>
+        <v>180701010000288</v>
       </c>
       <c r="E42" s="5">
-        <v>867900040078159</v>
+        <v>867900040070081</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -4441,65 +4813,29 @@
       <c r="M42" s="9">
         <v>2</v>
       </c>
-      <c r="N42" s="5">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="P42" s="15">
         <v>1</v>
       </c>
-      <c r="Q42" s="8">
-        <v>43381</v>
-      </c>
-      <c r="S42" s="9">
-        <v>1</v>
-      </c>
-      <c r="T42" s="5">
-        <v>2</v>
-      </c>
-      <c r="U42" s="5">
-        <v>1</v>
-      </c>
-      <c r="V42" s="5">
-        <v>1</v>
-      </c>
-      <c r="W42" s="9">
-        <v>1</v>
-      </c>
-      <c r="X42" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>1</v>
-      </c>
       <c r="AC42" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D43" s="5">
-        <v>180701010000288</v>
+        <v>180701010000552</v>
       </c>
       <c r="E43" s="5">
-        <v>867900040070081</v>
+        <v>867900040206867</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -4525,13 +4861,41 @@
       <c r="P43" s="15">
         <v>1</v>
       </c>
+      <c r="Q43" s="8">
+        <v>43358</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="9">
+        <v>1</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2</v>
+      </c>
+      <c r="U43" s="5">
+        <v>1</v>
+      </c>
+      <c r="V43" s="5">
+        <v>1</v>
+      </c>
+      <c r="W43" s="9">
+        <v>1</v>
+      </c>
+      <c r="X43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>1</v>
+      </c>
       <c r="AC43" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="24">
         <f t="shared" si="0"/>
@@ -4541,10 +4905,10 @@
         <v>192</v>
       </c>
       <c r="D44" s="5">
-        <v>180701010000552</v>
+        <v>180701010000994</v>
       </c>
       <c r="E44" s="5">
-        <v>867900040206867</v>
+        <v>867900040238944</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -4604,7 +4968,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="24">
         <f t="shared" si="0"/>
@@ -4614,10 +4978,10 @@
         <v>192</v>
       </c>
       <c r="D45" s="5">
-        <v>180701010000994</v>
+        <v>180701010000123</v>
       </c>
       <c r="E45" s="5">
-        <v>867900040238944</v>
+        <v>867900040238555</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -4677,7 +5041,7 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="24">
         <f t="shared" si="0"/>
@@ -4687,10 +5051,10 @@
         <v>192</v>
       </c>
       <c r="D46" s="5">
-        <v>180701010000123</v>
+        <v>180701010001383</v>
       </c>
       <c r="E46" s="5">
-        <v>867900040238555</v>
+        <v>867900040226162</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -4750,20 +5114,20 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D47" s="5">
-        <v>180701010001383</v>
+        <v>180701010001373</v>
       </c>
       <c r="E47" s="5">
-        <v>867900040226162</v>
+        <v>867900040142310</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -4790,9 +5154,8 @@
         <v>1</v>
       </c>
       <c r="Q47" s="8">
-        <v>43358</v>
-      </c>
-      <c r="R47" s="5"/>
+        <v>43364</v>
+      </c>
       <c r="S47" s="9">
         <v>1</v>
       </c>
@@ -4814,124 +5177,133 @@
       <c r="Y47" s="9">
         <v>2</v>
       </c>
+      <c r="AA47" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="AB47" s="15">
         <v>1</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D48" s="5">
-        <v>180701010001373</v>
+        <v>180910020000001</v>
       </c>
       <c r="E48" s="5">
-        <v>867900040142310</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2</v>
-      </c>
-      <c r="I48" s="5">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="9">
-        <v>2</v>
+        <v>865820030036318</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="30">
+        <v>1</v>
       </c>
       <c r="P48" s="15">
         <v>1</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>43364</v>
-      </c>
-      <c r="S48" s="9">
-        <v>1</v>
-      </c>
-      <c r="T48" s="5">
-        <v>2</v>
-      </c>
-      <c r="U48" s="5">
-        <v>1</v>
-      </c>
-      <c r="V48" s="5">
-        <v>1</v>
-      </c>
-      <c r="W48" s="9">
-        <v>1</v>
-      </c>
-      <c r="X48" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB48" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D49" s="5">
-        <v>180910020000001</v>
+        <v>181001020000033</v>
       </c>
       <c r="E49" s="5">
-        <v>865820030036318</v>
-      </c>
-      <c r="G49" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="30">
+        <v>867900040032909</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
+        <v>2</v>
+      </c>
+      <c r="N49" s="5">
         <v>1</v>
       </c>
       <c r="P49" s="15">
         <v>1</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>43388</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="5">
+        <v>2</v>
+      </c>
+      <c r="U49" s="5">
+        <v>1</v>
+      </c>
+      <c r="V49" s="5">
+        <v>1</v>
+      </c>
+      <c r="W49" s="9">
+        <v>1</v>
+      </c>
+      <c r="X49" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB49" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="24">
         <f t="shared" si="0"/>
@@ -4941,10 +5313,10 @@
         <v>222</v>
       </c>
       <c r="D50" s="5">
-        <v>181001020000033</v>
-      </c>
-      <c r="E50" s="5">
-        <v>867900040032909</v>
+        <v>181004020000001</v>
+      </c>
+      <c r="E50" s="54">
+        <v>869976030152715</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -5001,18 +5373,18 @@
         <v>1</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB50" s="15">
         <v>1</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="24">
         <f t="shared" si="0"/>
@@ -5022,10 +5394,10 @@
         <v>222</v>
       </c>
       <c r="D51" s="5">
-        <v>181004020000001</v>
+        <v>181004020000004</v>
       </c>
       <c r="E51" s="5">
-        <v>869976030152715</v>
+        <v>869976030095708</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -5076,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="5">
         <v>1</v>
@@ -5093,20 +5465,20 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D52" s="5">
-        <v>181004020000004</v>
+        <v>181001020000032</v>
       </c>
       <c r="E52" s="5">
-        <v>869976030095708</v>
+        <v>867900040068200</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -5127,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" s="5">
         <v>1</v>
@@ -5136,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="8">
-        <v>43388</v>
+        <v>43396</v>
       </c>
       <c r="S52" s="9">
         <v>1</v>
@@ -5163,31 +5535,31 @@
         <v>1</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AB52" s="15">
         <v>1</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D53" s="5">
-        <v>181001020000032</v>
+        <v>180701010000140</v>
       </c>
       <c r="E53" s="5">
-        <v>867900040068200</v>
+        <v>867900040237326</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -5208,99 +5580,73 @@
         <v>1</v>
       </c>
       <c r="M53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" s="5">
         <v>1</v>
       </c>
       <c r="P53" s="15">
         <v>1</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>43396</v>
-      </c>
-      <c r="S53" s="9">
-        <v>1</v>
-      </c>
-      <c r="T53" s="5">
-        <v>2</v>
-      </c>
-      <c r="U53" s="5">
-        <v>1</v>
-      </c>
-      <c r="V53" s="5">
-        <v>1</v>
-      </c>
-      <c r="W53" s="9">
-        <v>1</v>
-      </c>
-      <c r="X53" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB53" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D54" s="5">
-        <v>180701010000140</v>
+        <v>180701010000288</v>
       </c>
       <c r="E54" s="5">
-        <v>867900040237326</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2</v>
-      </c>
-      <c r="I54" s="5">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5">
-        <v>1</v>
-      </c>
-      <c r="K54" s="9">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1</v>
-      </c>
-      <c r="M54" s="9">
-        <v>2</v>
-      </c>
-      <c r="N54" s="5">
-        <v>1</v>
+        <v>867900040070081</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="P54" s="15">
         <v>1</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>43402</v>
+      </c>
+      <c r="S54" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB54" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="24">
         <f t="shared" si="0"/>
@@ -5310,39 +5656,40 @@
         <v>261</v>
       </c>
       <c r="D55" s="5">
-        <v>180701010000288</v>
+        <v>180701010000120</v>
       </c>
       <c r="E55" s="5">
-        <v>867900040070081</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="62"/>
+        <v>867900040225354</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="63"/>
       <c r="O55" s="1" t="s">
         <v>259</v>
       </c>
       <c r="P55" s="15">
         <v>1</v>
       </c>
-      <c r="Q55" s="8">
-        <v>43402</v>
-      </c>
-      <c r="S55" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="74"/>
+      <c r="Q55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S55" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="63"/>
       <c r="AA55" s="1" t="s">
         <v>259</v>
       </c>
@@ -5350,12 +5697,12 @@
         <v>1</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="24">
         <f t="shared" si="0"/>
@@ -5365,21 +5712,35 @@
         <v>261</v>
       </c>
       <c r="D56" s="5">
-        <v>180701010000120</v>
+        <v>180601010000010</v>
       </c>
       <c r="E56" s="5">
-        <v>867900040225354</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="62"/>
+        <v>868744030870145</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9">
+        <v>2</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
       <c r="O56" s="1" t="s">
         <v>259</v>
       </c>
@@ -5389,16 +5750,30 @@
       <c r="Q56" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="S56" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="62"/>
+      <c r="S56" s="9">
+        <v>1</v>
+      </c>
+      <c r="T56" s="5">
+        <v>2</v>
+      </c>
+      <c r="U56" s="5">
+        <v>1</v>
+      </c>
+      <c r="V56" s="5">
+        <v>1</v>
+      </c>
+      <c r="W56" s="9">
+        <v>1</v>
+      </c>
+      <c r="X56" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>1</v>
+      </c>
       <c r="AA56" s="1" t="s">
         <v>259</v>
       </c>
@@ -5411,45 +5786,31 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" s="5">
-        <v>180601010000010</v>
+        <v>263</v>
+      </c>
+      <c r="D57" s="46">
+        <v>180601010009465</v>
       </c>
       <c r="E57" s="5">
-        <v>868744030870145</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
-      <c r="K57" s="9">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5">
-        <v>1</v>
-      </c>
-      <c r="M57" s="9">
-        <v>2</v>
-      </c>
-      <c r="N57" s="5">
-        <v>1</v>
-      </c>
+        <v>867900040032701</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="60"/>
       <c r="O57" s="1" t="s">
         <v>259</v>
       </c>
@@ -5457,32 +5818,18 @@
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="S57" s="9">
-        <v>1</v>
-      </c>
-      <c r="T57" s="5">
-        <v>2</v>
-      </c>
-      <c r="U57" s="5">
-        <v>1</v>
-      </c>
-      <c r="V57" s="5">
-        <v>1</v>
-      </c>
-      <c r="W57" s="9">
-        <v>1</v>
-      </c>
-      <c r="X57" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="5">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="S57" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="63"/>
       <c r="AA57" s="1" t="s">
         <v>259</v>
       </c>
@@ -5490,36 +5837,50 @@
         <v>1</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="46">
-        <v>180601010009465</v>
+        <v>266</v>
+      </c>
+      <c r="D58" s="5">
+        <v>181001020000014</v>
       </c>
       <c r="E58" s="5">
-        <v>867900040032701</v>
-      </c>
-      <c r="G58" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="77"/>
+        <v>867900040032164</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9">
+        <v>2</v>
+      </c>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
       <c r="O58" s="1" t="s">
         <v>259</v>
       </c>
@@ -5527,18 +5888,32 @@
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="S58" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="62"/>
+        <v>266</v>
+      </c>
+      <c r="S58" s="9">
+        <v>1</v>
+      </c>
+      <c r="T58" s="5">
+        <v>2</v>
+      </c>
+      <c r="U58" s="5">
+        <v>1</v>
+      </c>
+      <c r="V58" s="5">
+        <v>1</v>
+      </c>
+      <c r="W58" s="9">
+        <v>1</v>
+      </c>
+      <c r="X58" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>1</v>
+      </c>
       <c r="AA58" s="1" t="s">
         <v>259</v>
       </c>
@@ -5546,50 +5921,36 @@
         <v>1</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="5">
-        <v>181001020000014</v>
+        <v>269</v>
+      </c>
+      <c r="D59" s="46">
+        <v>180601010008010</v>
       </c>
       <c r="E59" s="5">
-        <v>867900040032164</v>
-      </c>
-      <c r="G59" s="9">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="9">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5">
-        <v>1</v>
-      </c>
-      <c r="M59" s="9">
-        <v>2</v>
-      </c>
-      <c r="N59" s="5">
-        <v>1</v>
-      </c>
+        <v>867900040228010</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="60"/>
       <c r="O59" s="1" t="s">
         <v>259</v>
       </c>
@@ -5597,32 +5958,18 @@
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S59" s="9">
-        <v>1</v>
-      </c>
-      <c r="T59" s="5">
-        <v>2</v>
-      </c>
-      <c r="U59" s="5">
-        <v>1</v>
-      </c>
-      <c r="V59" s="5">
-        <v>1</v>
-      </c>
-      <c r="W59" s="9">
-        <v>1</v>
-      </c>
-      <c r="X59" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="5">
-        <v>1</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="S59" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+      <c r="W59" s="62"/>
+      <c r="X59" s="62"/>
+      <c r="Y59" s="62"/>
+      <c r="Z59" s="63"/>
       <c r="AA59" s="1" t="s">
         <v>259</v>
       </c>
@@ -5630,12 +5977,12 @@
         <v>1</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="24">
         <f t="shared" si="0"/>
@@ -5645,21 +5992,21 @@
         <v>269</v>
       </c>
       <c r="D60" s="46">
-        <v>180601010008010</v>
+        <v>180601010009078</v>
       </c>
       <c r="E60" s="5">
-        <v>867900040228010</v>
-      </c>
-      <c r="G60" s="75" t="s">
+        <v>868744030899078</v>
+      </c>
+      <c r="G60" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="77"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="60"/>
       <c r="O60" s="1" t="s">
         <v>259</v>
       </c>
@@ -5669,16 +6016,16 @@
       <c r="Q60" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S60" s="60" t="s">
+      <c r="S60" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="62"/>
+      <c r="V60" s="62"/>
+      <c r="W60" s="62"/>
+      <c r="X60" s="62"/>
+      <c r="Y60" s="62"/>
+      <c r="Z60" s="63"/>
       <c r="AA60" s="1" t="s">
         <v>259</v>
       </c>
@@ -5691,7 +6038,7 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="24">
         <f t="shared" si="0"/>
@@ -5701,21 +6048,21 @@
         <v>269</v>
       </c>
       <c r="D61" s="46">
-        <v>180601010009078</v>
+        <v>180601010008730</v>
       </c>
       <c r="E61" s="5">
-        <v>868744030899078</v>
-      </c>
-      <c r="G61" s="75" t="s">
+        <v>863703030588730</v>
+      </c>
+      <c r="G61" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="77"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="60"/>
       <c r="O61" s="1" t="s">
         <v>259</v>
       </c>
@@ -5725,16 +6072,16 @@
       <c r="Q61" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S61" s="60" t="s">
+      <c r="S61" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="T61" s="61"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="61"/>
-      <c r="W61" s="61"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="62"/>
+      <c r="Z61" s="63"/>
       <c r="AA61" s="1" t="s">
         <v>259</v>
       </c>
@@ -5747,7 +6094,7 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="24">
         <f t="shared" si="0"/>
@@ -5757,21 +6104,21 @@
         <v>269</v>
       </c>
       <c r="D62" s="46">
-        <v>180601010008730</v>
+        <v>181001020000079</v>
       </c>
       <c r="E62" s="5">
-        <v>863703030588730</v>
-      </c>
-      <c r="G62" s="75" t="s">
+        <v>867900040032800</v>
+      </c>
+      <c r="G62" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="77"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="60"/>
       <c r="O62" s="1" t="s">
         <v>259</v>
       </c>
@@ -5781,16 +6128,16 @@
       <c r="Q62" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S62" s="60" t="s">
+      <c r="S62" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="T62" s="61"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="63"/>
       <c r="AA62" s="1" t="s">
         <v>259</v>
       </c>
@@ -5803,31 +6150,45 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="46">
-        <v>181001020000079</v>
-      </c>
-      <c r="E63" s="5">
-        <v>867900040032800</v>
-      </c>
-      <c r="G63" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="77"/>
+        <v>271</v>
+      </c>
+      <c r="D63" s="5">
+        <v>181004020000001</v>
+      </c>
+      <c r="E63" s="54">
+        <v>869976030152715</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="9">
+        <v>2</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1</v>
+      </c>
       <c r="O63" s="1" t="s">
         <v>259</v>
       </c>
@@ -5835,18 +6196,32 @@
         <v>1</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="S63" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="62"/>
+        <v>271</v>
+      </c>
+      <c r="S63" s="9">
+        <v>1</v>
+      </c>
+      <c r="T63" s="5">
+        <v>2</v>
+      </c>
+      <c r="U63" s="5">
+        <v>1</v>
+      </c>
+      <c r="V63" s="5">
+        <v>1</v>
+      </c>
+      <c r="W63" s="9">
+        <v>1</v>
+      </c>
+      <c r="X63" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>1</v>
+      </c>
       <c r="AA63" s="1" t="s">
         <v>259</v>
       </c>
@@ -5854,12 +6229,12 @@
         <v>1</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="24">
         <f t="shared" si="0"/>
@@ -5869,10 +6244,10 @@
         <v>271</v>
       </c>
       <c r="D64" s="5">
-        <v>181004020000001</v>
+        <v>180701010000674</v>
       </c>
       <c r="E64" s="5">
-        <v>869976030152715</v>
+        <v>867900040228457</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -5938,12 +6313,12 @@
         <v>1</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="24">
         <f t="shared" si="0"/>
@@ -5953,10 +6328,10 @@
         <v>271</v>
       </c>
       <c r="D65" s="5">
-        <v>180701010000674</v>
+        <v>181001020000071</v>
       </c>
       <c r="E65" s="5">
-        <v>867900040228457</v>
+        <v>867900040032354</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -6022,25 +6397,25 @@
         <v>1</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="16.5" customHeight="1">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D66" s="5">
-        <v>181001020000071</v>
+        <v>180701010000186</v>
       </c>
       <c r="E66" s="5">
-        <v>867900040032354</v>
+        <v>867900040201256</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -6073,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="S66" s="9">
         <v>1</v>
@@ -6105,26 +6480,26 @@
       <c r="AB66" s="15">
         <v>1</v>
       </c>
-      <c r="AC66" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="16.5" customHeight="1">
+      <c r="AC66" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D67" s="5">
-        <v>180701010000186</v>
+        <v>181004020000021</v>
       </c>
       <c r="E67" s="5">
-        <v>867900040201256</v>
+        <v>869976030152798</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -6157,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S67" s="9">
         <v>1</v>
@@ -6189,26 +6564,26 @@
       <c r="AB67" s="15">
         <v>1</v>
       </c>
-      <c r="AC67" s="50" t="s">
-        <v>277</v>
+      <c r="AC67" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B68:B131" si="1">P68-AB68</f>
         <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" s="5">
-        <v>181004020000021</v>
+        <v>181001020000100</v>
       </c>
       <c r="E68" s="5">
-        <v>869976030152798</v>
+        <v>867900040031943</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -6241,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S68" s="9">
         <v>1</v>
@@ -6274,25 +6649,25 @@
         <v>1</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="24">
-        <f t="shared" ref="B69:B132" si="1">P69-AB69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D69" s="5">
-        <v>181001020000100</v>
+        <v>180701010001343</v>
       </c>
       <c r="E69" s="5">
-        <v>867900040031943</v>
+        <v>867900040218276</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -6325,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S69" s="9">
         <v>1</v>
@@ -6358,83 +6733,50 @@
         <v>1</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D70" s="5">
-        <v>180701010001343</v>
+        <v>181004020000033</v>
       </c>
       <c r="E70" s="5">
-        <v>867900040218276</v>
-      </c>
-      <c r="G70" s="9">
-        <v>1</v>
-      </c>
-      <c r="H70" s="5">
-        <v>2</v>
-      </c>
-      <c r="I70" s="5">
-        <v>1</v>
-      </c>
-      <c r="J70" s="5">
-        <v>1</v>
-      </c>
-      <c r="K70" s="9">
-        <v>1</v>
-      </c>
-      <c r="L70" s="5">
-        <v>1</v>
-      </c>
-      <c r="M70" s="9">
-        <v>2</v>
-      </c>
-      <c r="N70" s="5">
-        <v>1</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>869976030148580</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="57"/>
       <c r="P70" s="15">
         <v>1</v>
       </c>
-      <c r="Q70" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="S70" s="9">
-        <v>1</v>
-      </c>
-      <c r="T70" s="5">
-        <v>2</v>
-      </c>
-      <c r="U70" s="5">
-        <v>1</v>
-      </c>
-      <c r="V70" s="5">
-        <v>1</v>
-      </c>
-      <c r="W70" s="9">
-        <v>1</v>
-      </c>
-      <c r="X70" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z70" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q70" s="8">
+        <v>43440</v>
+      </c>
+      <c r="S70" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="57"/>
       <c r="AA70" s="1" t="s">
         <v>259</v>
       </c>
@@ -6442,12 +6784,12 @@
         <v>1</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="24">
         <f t="shared" si="1"/>
@@ -6457,35 +6799,35 @@
         <v>287</v>
       </c>
       <c r="D71" s="5">
-        <v>181004020000033</v>
+        <v>181004020000044</v>
       </c>
       <c r="E71" s="5">
-        <v>869976030148580</v>
-      </c>
-      <c r="G71" s="57" t="s">
+        <v>869976030126792</v>
+      </c>
+      <c r="G71" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="59"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="57"/>
       <c r="P71" s="15">
         <v>1</v>
       </c>
       <c r="Q71" s="8">
         <v>43440</v>
       </c>
-      <c r="S71" s="57" t="s">
+      <c r="S71" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T71" s="58"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="58"/>
-      <c r="W71" s="58"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="59"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="57"/>
       <c r="AA71" s="1" t="s">
         <v>259</v>
       </c>
@@ -6498,58 +6840,85 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D72" s="5">
-        <v>181004020000044</v>
+        <v>180701010000386</v>
       </c>
       <c r="E72" s="5">
-        <v>869976030126792</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="59"/>
+        <v>867900040204748</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72" s="9">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1</v>
+      </c>
+      <c r="M72" s="9">
+        <v>2</v>
+      </c>
+      <c r="N72" s="5">
+        <v>1</v>
+      </c>
       <c r="P72" s="15">
         <v>1</v>
       </c>
-      <c r="Q72" s="8">
-        <v>43440</v>
-      </c>
-      <c r="S72" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="T72" s="58"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="58"/>
-      <c r="W72" s="58"/>
-      <c r="X72" s="58"/>
-      <c r="Y72" s="59"/>
-      <c r="AA72" s="1" t="s">
-        <v>259</v>
+      <c r="Q72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S72" s="9">
+        <v>1</v>
+      </c>
+      <c r="T72" s="5">
+        <v>2</v>
+      </c>
+      <c r="U72" s="5">
+        <v>1</v>
+      </c>
+      <c r="V72" s="5">
+        <v>1</v>
+      </c>
+      <c r="W72" s="9">
+        <v>1</v>
+      </c>
+      <c r="X72" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>1</v>
       </c>
       <c r="AB72" s="15">
         <v>1</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="24">
         <f t="shared" si="1"/>
@@ -6559,10 +6928,10 @@
         <v>290</v>
       </c>
       <c r="D73" s="5">
-        <v>180701010000386</v>
+        <v>180701010001070</v>
       </c>
       <c r="E73" s="5">
-        <v>867900040204748</v>
+        <v>867900040226014</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -6627,7 +6996,7 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="24">
         <f t="shared" si="1"/>
@@ -6637,10 +7006,10 @@
         <v>290</v>
       </c>
       <c r="D74" s="5">
-        <v>180701010001070</v>
+        <v>180701010001159</v>
       </c>
       <c r="E74" s="5">
-        <v>867900040226014</v>
+        <v>867900040198460</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -6705,7 +7074,7 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="24">
         <f t="shared" si="1"/>
@@ -6715,10 +7084,10 @@
         <v>290</v>
       </c>
       <c r="D75" s="5">
-        <v>180701010001159</v>
+        <v>180701010001280</v>
       </c>
       <c r="E75" s="5">
-        <v>867900040198460</v>
+        <v>867900040218532</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -6783,20 +7152,20 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D76" s="5">
-        <v>180701010001280</v>
+        <v>181201021000001</v>
       </c>
       <c r="E76" s="5">
-        <v>867900040218532</v>
+        <v>868744030870772</v>
       </c>
       <c r="G76" s="9">
         <v>1</v>
@@ -6856,12 +7225,12 @@
         <v>1</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="24">
         <f t="shared" si="1"/>
@@ -6871,10 +7240,10 @@
         <v>291</v>
       </c>
       <c r="D77" s="5">
-        <v>181201021000001</v>
+        <v>180701010001194</v>
       </c>
       <c r="E77" s="5">
-        <v>868744030870772</v>
+        <v>867900040228077</v>
       </c>
       <c r="G77" s="9">
         <v>1</v>
@@ -6934,31 +7303,31 @@
         <v>1</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D78" s="5">
-        <v>180701010001194</v>
+        <v>181004010000001</v>
       </c>
       <c r="E78" s="5">
-        <v>867900040228077</v>
+        <v>869976030154539</v>
       </c>
       <c r="G78" s="9">
         <v>1</v>
       </c>
       <c r="H78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -6981,14 +7350,14 @@
       <c r="P78" s="15">
         <v>1</v>
       </c>
-      <c r="Q78" s="2" t="s">
-        <v>291</v>
+      <c r="Q78" s="8">
+        <v>43448</v>
       </c>
       <c r="S78" s="9">
         <v>1</v>
       </c>
       <c r="T78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78" s="5">
         <v>1</v>
@@ -7012,31 +7381,31 @@
         <v>1</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D79" s="5">
-        <v>181004010000001</v>
+        <v>299</v>
+      </c>
+      <c r="D79" s="9">
+        <v>181004020000110</v>
       </c>
       <c r="E79" s="5">
-        <v>869976030154539</v>
+        <v>869976033784688</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
       </c>
       <c r="H79" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -7053,20 +7422,17 @@
       <c r="M79" s="9">
         <v>2</v>
       </c>
-      <c r="N79" s="5">
-        <v>1</v>
-      </c>
       <c r="P79" s="15">
         <v>1</v>
       </c>
       <c r="Q79" s="8">
-        <v>43448</v>
+        <v>43460</v>
       </c>
       <c r="S79" s="9">
         <v>1</v>
       </c>
       <c r="T79" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U79" s="5">
         <v>1</v>
@@ -7083,19 +7449,16 @@
       <c r="Y79" s="9">
         <v>2</v>
       </c>
-      <c r="Z79" s="5">
-        <v>1</v>
-      </c>
       <c r="AB79" s="15">
         <v>1</v>
       </c>
-      <c r="AC79" s="1" t="s">
-        <v>298</v>
+      <c r="AC79" s="76" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="24">
         <f t="shared" si="1"/>
@@ -7105,10 +7468,10 @@
         <v>299</v>
       </c>
       <c r="D80" s="9">
-        <v>181004020000110</v>
+        <v>181004020000111</v>
       </c>
       <c r="E80" s="5">
-        <v>869976033784688</v>
+        <v>869976033796856</v>
       </c>
       <c r="G80" s="9">
         <v>1</v>
@@ -7161,13 +7524,11 @@
       <c r="AB80" s="15">
         <v>1</v>
       </c>
-      <c r="AC80" s="54" t="s">
-        <v>301</v>
-      </c>
+      <c r="AC80" s="77"/>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="24">
         <f t="shared" si="1"/>
@@ -7177,10 +7538,10 @@
         <v>299</v>
       </c>
       <c r="D81" s="9">
-        <v>181004020000111</v>
+        <v>181004020000112</v>
       </c>
       <c r="E81" s="5">
-        <v>869976033796856</v>
+        <v>869976033719460</v>
       </c>
       <c r="G81" s="9">
         <v>1</v>
@@ -7233,11 +7594,11 @@
       <c r="AB81" s="15">
         <v>1</v>
       </c>
-      <c r="AC81" s="55"/>
+      <c r="AC81" s="77"/>
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="24">
         <f t="shared" si="1"/>
@@ -7247,10 +7608,10 @@
         <v>299</v>
       </c>
       <c r="D82" s="9">
-        <v>181004020000112</v>
+        <v>181004020000109</v>
       </c>
       <c r="E82" s="5">
-        <v>869976033719460</v>
+        <v>869976033720146</v>
       </c>
       <c r="G82" s="9">
         <v>1</v>
@@ -7303,11 +7664,11 @@
       <c r="AB82" s="15">
         <v>1</v>
       </c>
-      <c r="AC82" s="55"/>
+      <c r="AC82" s="77"/>
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="24">
         <f t="shared" si="1"/>
@@ -7317,10 +7678,10 @@
         <v>299</v>
       </c>
       <c r="D83" s="9">
-        <v>181004020000109</v>
+        <v>181004020000103</v>
       </c>
       <c r="E83" s="5">
-        <v>869976033720146</v>
+        <v>869976033883159</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -7373,11 +7734,11 @@
       <c r="AB83" s="15">
         <v>1</v>
       </c>
-      <c r="AC83" s="55"/>
+      <c r="AC83" s="77"/>
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="24">
         <f t="shared" si="1"/>
@@ -7387,10 +7748,10 @@
         <v>299</v>
       </c>
       <c r="D84" s="9">
-        <v>181004020000103</v>
+        <v>181004020000117</v>
       </c>
       <c r="E84" s="5">
-        <v>869976033883159</v>
+        <v>869976033880668</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -7443,11 +7804,11 @@
       <c r="AB84" s="15">
         <v>1</v>
       </c>
-      <c r="AC84" s="55"/>
+      <c r="AC84" s="77"/>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="24">
         <f t="shared" si="1"/>
@@ -7457,10 +7818,10 @@
         <v>299</v>
       </c>
       <c r="D85" s="9">
-        <v>181004020000117</v>
+        <v>181004020000124</v>
       </c>
       <c r="E85" s="5">
-        <v>869976033880668</v>
+        <v>869976033788325</v>
       </c>
       <c r="G85" s="9">
         <v>1</v>
@@ -7513,11 +7874,11 @@
       <c r="AB85" s="15">
         <v>1</v>
       </c>
-      <c r="AC85" s="55"/>
+      <c r="AC85" s="77"/>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="24">
         <f t="shared" si="1"/>
@@ -7527,10 +7888,10 @@
         <v>299</v>
       </c>
       <c r="D86" s="9">
-        <v>181004020000124</v>
+        <v>181004020000121</v>
       </c>
       <c r="E86" s="5">
-        <v>869976033788325</v>
+        <v>869976033878290</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -7583,11 +7944,11 @@
       <c r="AB86" s="15">
         <v>1</v>
       </c>
-      <c r="AC86" s="55"/>
+      <c r="AC86" s="77"/>
     </row>
     <row r="87" spans="1:29">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="24">
         <f t="shared" si="1"/>
@@ -7597,10 +7958,10 @@
         <v>299</v>
       </c>
       <c r="D87" s="9">
-        <v>181004020000121</v>
+        <v>181004020000119</v>
       </c>
       <c r="E87" s="5">
-        <v>869976033878290</v>
+        <v>869976030852405</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -7653,11 +8014,11 @@
       <c r="AB87" s="15">
         <v>1</v>
       </c>
-      <c r="AC87" s="55"/>
+      <c r="AC87" s="78"/>
     </row>
     <row r="88" spans="1:29">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="24">
         <f t="shared" si="1"/>
@@ -7667,10 +8028,10 @@
         <v>299</v>
       </c>
       <c r="D88" s="9">
-        <v>181004020000119</v>
+        <v>181004020000104</v>
       </c>
       <c r="E88" s="5">
-        <v>869976030852405</v>
+        <v>869976033789711</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -7723,11 +8084,13 @@
       <c r="AB88" s="15">
         <v>1</v>
       </c>
-      <c r="AC88" s="56"/>
+      <c r="AC88" s="76" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="89" spans="1:29">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="24">
         <f t="shared" si="1"/>
@@ -7737,10 +8100,10 @@
         <v>299</v>
       </c>
       <c r="D89" s="9">
-        <v>181004020000104</v>
+        <v>181004020000118</v>
       </c>
       <c r="E89" s="5">
-        <v>869976033789711</v>
+        <v>869976033878191</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -7793,13 +8156,11 @@
       <c r="AB89" s="15">
         <v>1</v>
       </c>
-      <c r="AC89" s="54" t="s">
-        <v>300</v>
-      </c>
+      <c r="AC89" s="77"/>
     </row>
     <row r="90" spans="1:29">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="24">
         <f t="shared" si="1"/>
@@ -7809,10 +8170,10 @@
         <v>299</v>
       </c>
       <c r="D90" s="9">
-        <v>181004020000118</v>
+        <v>181004020000106</v>
       </c>
       <c r="E90" s="5">
-        <v>869976033878191</v>
+        <v>869976032982358</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
@@ -7865,11 +8226,11 @@
       <c r="AB90" s="15">
         <v>1</v>
       </c>
-      <c r="AC90" s="55"/>
+      <c r="AC90" s="77"/>
     </row>
     <row r="91" spans="1:29">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="24">
         <f t="shared" si="1"/>
@@ -7879,10 +8240,10 @@
         <v>299</v>
       </c>
       <c r="D91" s="9">
-        <v>181004020000106</v>
+        <v>181004020000102</v>
       </c>
       <c r="E91" s="5">
-        <v>869976032982358</v>
+        <v>869976032988645</v>
       </c>
       <c r="G91" s="9">
         <v>1</v>
@@ -7935,11 +8296,11 @@
       <c r="AB91" s="15">
         <v>1</v>
       </c>
-      <c r="AC91" s="55"/>
+      <c r="AC91" s="77"/>
     </row>
     <row r="92" spans="1:29">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="24">
         <f t="shared" si="1"/>
@@ -7949,10 +8310,10 @@
         <v>299</v>
       </c>
       <c r="D92" s="9">
-        <v>181004020000102</v>
+        <v>181004020000105</v>
       </c>
       <c r="E92" s="5">
-        <v>869976032988645</v>
+        <v>869976033720104</v>
       </c>
       <c r="G92" s="9">
         <v>1</v>
@@ -8005,11 +8366,11 @@
       <c r="AB92" s="15">
         <v>1</v>
       </c>
-      <c r="AC92" s="55"/>
+      <c r="AC92" s="77"/>
     </row>
     <row r="93" spans="1:29">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="24">
         <f t="shared" si="1"/>
@@ -8019,10 +8380,10 @@
         <v>299</v>
       </c>
       <c r="D93" s="9">
-        <v>181004020000105</v>
+        <v>181004020000115</v>
       </c>
       <c r="E93" s="5">
-        <v>869976033720104</v>
+        <v>869976033801706</v>
       </c>
       <c r="G93" s="9">
         <v>1</v>
@@ -8075,11 +8436,11 @@
       <c r="AB93" s="15">
         <v>1</v>
       </c>
-      <c r="AC93" s="55"/>
+      <c r="AC93" s="77"/>
     </row>
     <row r="94" spans="1:29">
       <c r="A94" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="24">
         <f t="shared" si="1"/>
@@ -8089,10 +8450,10 @@
         <v>299</v>
       </c>
       <c r="D94" s="9">
-        <v>181004020000115</v>
+        <v>181004020000116</v>
       </c>
       <c r="E94" s="5">
-        <v>869976033801706</v>
+        <v>869976033779480</v>
       </c>
       <c r="G94" s="9">
         <v>1</v>
@@ -8145,81 +8506,62 @@
       <c r="AB94" s="15">
         <v>1</v>
       </c>
-      <c r="AC94" s="55"/>
+      <c r="AC94" s="78"/>
     </row>
     <row r="95" spans="1:29">
       <c r="A95" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D95" s="9">
-        <v>181004020000116</v>
+        <v>302</v>
+      </c>
+      <c r="D95" s="5">
+        <v>181001020000018</v>
       </c>
       <c r="E95" s="5">
-        <v>869976033779480</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1</v>
-      </c>
-      <c r="H95" s="5">
-        <v>2</v>
-      </c>
-      <c r="I95" s="5">
-        <v>1</v>
-      </c>
-      <c r="J95" s="5">
-        <v>1</v>
-      </c>
-      <c r="K95" s="9">
-        <v>1</v>
-      </c>
-      <c r="L95" s="5">
-        <v>1</v>
-      </c>
-      <c r="M95" s="9">
+        <v>867900040067145</v>
+      </c>
+      <c r="G95" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="5">
         <v>2</v>
       </c>
       <c r="P95" s="15">
         <v>1</v>
       </c>
       <c r="Q95" s="8">
-        <v>43460</v>
-      </c>
-      <c r="S95" s="9">
-        <v>1</v>
-      </c>
-      <c r="T95" s="5">
-        <v>2</v>
-      </c>
-      <c r="U95" s="5">
-        <v>1</v>
-      </c>
-      <c r="V95" s="5">
-        <v>1</v>
-      </c>
-      <c r="W95" s="9">
-        <v>1</v>
-      </c>
-      <c r="X95" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y95" s="9">
-        <v>2</v>
+        <v>43472</v>
+      </c>
+      <c r="S95" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="56"/>
+      <c r="W95" s="56"/>
+      <c r="X95" s="56"/>
+      <c r="Y95" s="57"/>
+      <c r="AA95" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="AB95" s="15">
         <v>1</v>
       </c>
-      <c r="AC95" s="56"/>
     </row>
     <row r="96" spans="1:29">
       <c r="A96" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="24">
         <f t="shared" si="1"/>
@@ -8229,10 +8571,10 @@
         <v>302</v>
       </c>
       <c r="D96" s="5">
-        <v>181001020000018</v>
+        <v>181001020000028</v>
       </c>
       <c r="E96" s="5">
-        <v>867900040067145</v>
+        <v>867900040032636</v>
       </c>
       <c r="G96" s="9">
         <v>1</v>
@@ -8258,23 +8600,24 @@
       <c r="P96" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96" s="8"/>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D97" s="5">
-        <v>181001020000028</v>
+        <v>181001020000042</v>
       </c>
       <c r="E97" s="5">
-        <v>867900040032636</v>
+        <v>867900040031976</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -8297,26 +8640,38 @@
       <c r="M97" s="9">
         <v>2</v>
       </c>
+      <c r="N97" s="5">
+        <v>2</v>
+      </c>
       <c r="P97" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97" s="8">
+        <v>43472</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB97" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D98" s="5">
-        <v>181001020000042</v>
+        <v>181001020000044</v>
       </c>
       <c r="E98" s="5">
-        <v>867900040031976</v>
+        <v>867900040032339</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
@@ -8339,26 +8694,65 @@
       <c r="M98" s="9">
         <v>2</v>
       </c>
+      <c r="N98" s="5">
+        <v>1</v>
+      </c>
       <c r="P98" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="S98" s="9">
+        <v>1</v>
+      </c>
+      <c r="T98" s="5">
+        <v>2</v>
+      </c>
+      <c r="U98" s="5">
+        <v>1</v>
+      </c>
+      <c r="V98" s="5">
+        <v>1</v>
+      </c>
+      <c r="W98" s="9">
+        <v>1</v>
+      </c>
+      <c r="X98" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z98" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB98" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D99" s="5">
-        <v>181001020000044</v>
+        <v>181001020000048</v>
       </c>
       <c r="E99" s="5">
-        <v>867900040032339</v>
+        <v>867900040032875</v>
       </c>
       <c r="G99" s="9">
         <v>1</v>
@@ -8381,26 +8775,38 @@
       <c r="M99" s="9">
         <v>2</v>
       </c>
+      <c r="N99" s="5">
+        <v>2</v>
+      </c>
       <c r="P99" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99" s="8">
+        <v>43472</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB99" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="D100" s="5">
-        <v>181001020000048</v>
+        <v>181001020000025</v>
       </c>
       <c r="E100" s="5">
-        <v>867900040032875</v>
+        <v>867900040032644</v>
       </c>
       <c r="G100" s="9">
         <v>1</v>
@@ -8426,109 +8832,481 @@
       <c r="P100" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S100" s="9">
+        <v>1</v>
+      </c>
+      <c r="T100" s="5">
+        <v>2</v>
+      </c>
+      <c r="U100" s="5">
+        <v>1</v>
+      </c>
+      <c r="V100" s="5">
+        <v>1</v>
+      </c>
+      <c r="W100" s="9">
+        <v>1</v>
+      </c>
+      <c r="X100" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB100" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="C101" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="5">
+        <v>181001020000022</v>
+      </c>
+      <c r="E101" s="5">
+        <v>867900040032099</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5">
+        <v>2</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1</v>
+      </c>
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9">
+        <v>1</v>
+      </c>
+      <c r="L101" s="5">
+        <v>1</v>
+      </c>
+      <c r="M101" s="9">
+        <v>2</v>
+      </c>
+      <c r="P101" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S101" s="9">
+        <v>1</v>
+      </c>
+      <c r="T101" s="5">
+        <v>2</v>
+      </c>
+      <c r="U101" s="5">
+        <v>1</v>
+      </c>
+      <c r="V101" s="5">
+        <v>1</v>
+      </c>
+      <c r="W101" s="9">
+        <v>1</v>
+      </c>
+      <c r="X101" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="C102" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D102" s="5">
+        <v>181001020000041</v>
+      </c>
+      <c r="E102" s="5">
+        <v>867900040066832</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1</v>
+      </c>
+      <c r="J102" s="5">
+        <v>1</v>
+      </c>
+      <c r="K102" s="9">
+        <v>1</v>
+      </c>
+      <c r="L102" s="5">
+        <v>1</v>
+      </c>
+      <c r="M102" s="9">
+        <v>2</v>
+      </c>
+      <c r="P102" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S102" s="9">
+        <v>1</v>
+      </c>
+      <c r="T102" s="5">
+        <v>2</v>
+      </c>
+      <c r="U102" s="5">
+        <v>1</v>
+      </c>
+      <c r="V102" s="5">
+        <v>1</v>
+      </c>
+      <c r="W102" s="9">
+        <v>1</v>
+      </c>
+      <c r="X102" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="C103" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" s="5">
+        <v>181001020000030</v>
+      </c>
+      <c r="E103" s="5">
+        <v>867900040032610</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5">
+        <v>2</v>
+      </c>
+      <c r="I103" s="5">
+        <v>1</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1</v>
+      </c>
+      <c r="K103" s="9">
+        <v>1</v>
+      </c>
+      <c r="L103" s="5">
+        <v>1</v>
+      </c>
+      <c r="M103" s="9">
+        <v>2</v>
+      </c>
+      <c r="P103" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S103" s="9">
+        <v>1</v>
+      </c>
+      <c r="T103" s="5">
+        <v>2</v>
+      </c>
+      <c r="U103" s="5">
+        <v>1</v>
+      </c>
+      <c r="V103" s="5">
+        <v>1</v>
+      </c>
+      <c r="W103" s="9">
+        <v>1</v>
+      </c>
+      <c r="X103" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="C104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" s="5">
+        <v>181001020000029</v>
+      </c>
+      <c r="E104" s="5">
+        <v>867900040031232</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1</v>
+      </c>
+      <c r="J104" s="5">
+        <v>1</v>
+      </c>
+      <c r="K104" s="9">
+        <v>1</v>
+      </c>
+      <c r="L104" s="5">
+        <v>1</v>
+      </c>
+      <c r="M104" s="9">
+        <v>2</v>
+      </c>
+      <c r="P104" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S104" s="9">
+        <v>1</v>
+      </c>
+      <c r="T104" s="5">
+        <v>2</v>
+      </c>
+      <c r="U104" s="5">
+        <v>1</v>
+      </c>
+      <c r="V104" s="5">
+        <v>1</v>
+      </c>
+      <c r="W104" s="9">
+        <v>1</v>
+      </c>
+      <c r="X104" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="C105" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D105" s="5">
+        <v>181001020000039</v>
+      </c>
+      <c r="E105" s="5">
+        <v>867900040032842</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5">
+        <v>2</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1</v>
+      </c>
+      <c r="J105" s="5">
+        <v>1</v>
+      </c>
+      <c r="K105" s="9">
+        <v>1</v>
+      </c>
+      <c r="L105" s="5">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9">
+        <v>2</v>
+      </c>
+      <c r="P105" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>43472</v>
+      </c>
+      <c r="S105" s="9">
+        <v>1</v>
+      </c>
+      <c r="T105" s="5">
+        <v>2</v>
+      </c>
+      <c r="U105" s="5">
+        <v>1</v>
+      </c>
+      <c r="V105" s="5">
+        <v>1</v>
+      </c>
+      <c r="W105" s="9">
+        <v>1</v>
+      </c>
+      <c r="X105" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="C106" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" s="5">
+        <v>181004020000120</v>
+      </c>
+      <c r="E106" s="5">
+        <v>869976033787830</v>
+      </c>
+      <c r="G106" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="5">
+        <v>1</v>
+      </c>
+      <c r="P106" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>43473</v>
+      </c>
+      <c r="S106" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
+      <c r="W106" s="62"/>
+      <c r="X106" s="62"/>
+      <c r="Y106" s="63"/>
+      <c r="Z106" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:29">
       <c r="A108" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:29">
       <c r="A109" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:29">
       <c r="A110" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:29">
       <c r="A111" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:29">
       <c r="A112" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="24">
         <f t="shared" si="1"/>
@@ -8537,7 +9315,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="24">
         <f t="shared" si="1"/>
@@ -8546,7 +9324,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="24">
         <f t="shared" si="1"/>
@@ -8555,7 +9333,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" s="24">
         <f t="shared" si="1"/>
@@ -8564,7 +9342,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="24">
         <f t="shared" si="1"/>
@@ -8573,7 +9351,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="24">
         <f t="shared" si="1"/>
@@ -8582,7 +9360,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="24">
         <f t="shared" si="1"/>
@@ -8591,7 +9369,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="24">
         <f t="shared" si="1"/>
@@ -8600,7 +9378,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="24">
         <f t="shared" si="1"/>
@@ -8609,7 +9387,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="24">
         <f t="shared" si="1"/>
@@ -8618,7 +9396,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="24">
         <f t="shared" si="1"/>
@@ -8627,7 +9405,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="24">
         <f t="shared" si="1"/>
@@ -8636,7 +9414,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="24">
         <f t="shared" si="1"/>
@@ -8645,7 +9423,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="24">
         <f t="shared" si="1"/>
@@ -8654,7 +9432,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="24">
         <f t="shared" si="1"/>
@@ -8663,7 +9441,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="24">
         <f t="shared" si="1"/>
@@ -8672,7 +9450,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="24">
         <f t="shared" si="1"/>
@@ -8681,7 +9459,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="24">
         <f t="shared" si="1"/>
@@ -8690,7 +9468,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="24">
         <f t="shared" si="1"/>
@@ -8699,7 +9477,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="24">
         <f t="shared" si="1"/>
@@ -8708,25 +9486,25 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B132:B156" si="2">P132-AB132</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="24">
-        <f t="shared" ref="B133:B157" si="2">P133-AB133</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="24">
         <f t="shared" si="2"/>
@@ -8735,7 +9513,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="24">
         <f t="shared" si="2"/>
@@ -8744,7 +9522,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="24">
         <f t="shared" si="2"/>
@@ -8753,7 +9531,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="24">
         <f t="shared" si="2"/>
@@ -8762,7 +9540,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="24">
         <f t="shared" si="2"/>
@@ -8771,7 +9549,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="24">
         <f t="shared" si="2"/>
@@ -8780,7 +9558,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="24">
         <f t="shared" si="2"/>
@@ -8789,7 +9567,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="24">
         <f t="shared" si="2"/>
@@ -8798,7 +9576,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="24">
         <f t="shared" si="2"/>
@@ -8807,7 +9585,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="24">
         <f t="shared" si="2"/>
@@ -8816,7 +9594,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" s="24">
         <f t="shared" si="2"/>
@@ -8825,7 +9603,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" s="24">
         <f t="shared" si="2"/>
@@ -8834,7 +9612,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="24">
         <f t="shared" si="2"/>
@@ -8843,7 +9621,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="24">
         <f t="shared" si="2"/>
@@ -8852,7 +9630,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" s="24">
         <f t="shared" si="2"/>
@@ -8861,7 +9639,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="24">
         <f t="shared" si="2"/>
@@ -8870,7 +9648,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" s="24">
         <f t="shared" si="2"/>
@@ -8879,7 +9657,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="24">
         <f t="shared" si="2"/>
@@ -8888,7 +9666,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="24">
         <f t="shared" si="2"/>
@@ -8897,7 +9675,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" s="24">
         <f t="shared" si="2"/>
@@ -8906,7 +9684,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" s="24">
         <f t="shared" si="2"/>
@@ -8915,7 +9693,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="24">
         <f t="shared" si="2"/>
@@ -8924,53 +9702,57 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>154</v>
-      </c>
-      <c r="B157" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="S71:Y71"/>
-    <mergeCell ref="S72:Y72"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="G62:N62"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="S61:Z61"/>
-    <mergeCell ref="S62:Z62"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="H55:N55"/>
-    <mergeCell ref="S55:Z55"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="S56:Z56"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="S58:Z58"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S33:Y33"/>
+  <mergeCells count="86">
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="S106:Y106"/>
+    <mergeCell ref="AC88:AC94"/>
+    <mergeCell ref="AC79:AC87"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G14:M14"/>
     <mergeCell ref="G25:M25"/>
     <mergeCell ref="S20:Y20"/>
     <mergeCell ref="S21:Y21"/>
@@ -8982,50 +9764,39 @@
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="S24:Y24"/>
     <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="S40:Z40"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S33:Y33"/>
     <mergeCell ref="G30:M30"/>
     <mergeCell ref="G31:M31"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="AC89:AC95"/>
-    <mergeCell ref="AC80:AC88"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="S55:Z55"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G62:N62"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S62:Z62"/>
+    <mergeCell ref="G95:M95"/>
+    <mergeCell ref="S95:Y95"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="S70:Y70"/>
+    <mergeCell ref="S71:Y71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
@@ -9045,10 +9816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9068,17 +9839,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -9327,16 +10098,16 @@
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="80" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="82">
         <v>43283</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="81" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9353,12 +10124,12 @@
       <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="I13" s="80"/>
+      <c r="G13" s="83"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -9970,8 +10741,12 @@
       <c r="D39" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="G39" s="8"/>
+      <c r="E39" s="47">
+        <v>181001020000018</v>
+      </c>
+      <c r="G39" s="8">
+        <v>43472</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -10257,6 +11032,12 @@
       <c r="D54" s="25">
         <v>9098290</v>
       </c>
+      <c r="E54" s="5">
+        <v>181001020000044</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
@@ -10271,9 +11052,7 @@
       <c r="D55" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="9">
-        <v>180701010000288</v>
-      </c>
+      <c r="G55" s="8"/>
       <c r="I55" s="1" t="s">
         <v>267</v>
       </c>
@@ -10291,6 +11070,7 @@
       <c r="D56" s="25">
         <v>9043680</v>
       </c>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
@@ -10305,6 +11085,7 @@
       <c r="D57" s="25" t="s">
         <v>165</v>
       </c>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
@@ -10319,6 +11100,12 @@
       <c r="D58" s="25" t="s">
         <v>166</v>
       </c>
+      <c r="G58" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
@@ -10333,6 +11120,12 @@
       <c r="D59" s="25" t="s">
         <v>167</v>
       </c>
+      <c r="G59" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
@@ -10367,6 +11160,12 @@
       <c r="D61" s="25">
         <v>9050780</v>
       </c>
+      <c r="G61" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
@@ -10381,6 +11180,12 @@
       <c r="D62" s="25" t="s">
         <v>168</v>
       </c>
+      <c r="G62" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
@@ -10395,6 +11200,12 @@
       <c r="D63" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="G63" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
@@ -10409,6 +11220,12 @@
       <c r="D64" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="G64" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
@@ -10423,6 +11240,12 @@
       <c r="D65" s="25" t="s">
         <v>171</v>
       </c>
+      <c r="G65" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
@@ -10437,6 +11260,12 @@
       <c r="D66" s="25" t="s">
         <v>172</v>
       </c>
+      <c r="G66" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
@@ -10451,6 +11280,12 @@
       <c r="D67" s="25">
         <v>9097220</v>
       </c>
+      <c r="G67" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
@@ -10465,6 +11300,12 @@
       <c r="D68" s="25">
         <v>9046550</v>
       </c>
+      <c r="G68" s="8">
+        <v>43467</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
@@ -10479,6 +11320,7 @@
       <c r="D69" s="25" t="s">
         <v>183</v>
       </c>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
@@ -10493,6 +11335,7 @@
       <c r="D70" s="25" t="s">
         <v>184</v>
       </c>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
@@ -10746,6 +11589,1126 @@
         <v>256</v>
       </c>
       <c r="I86" s="53"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C87" s="9">
+        <v>100100041</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C88" s="9">
+        <v>100100042</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C89" s="9">
+        <v>100100043</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C90" s="9">
+        <v>100100044</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C91" s="9">
+        <v>100100045</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C92" s="9">
+        <v>100100046</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C93" s="9">
+        <v>100100047</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C94" s="9">
+        <v>100100048</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C95" s="9">
+        <v>100100049</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C96" s="9">
+        <v>100100050</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C97" s="9">
+        <v>100100051</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C98" s="9">
+        <v>100100052</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C99" s="9">
+        <v>100100053</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C100" s="9">
+        <v>100100054</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C101" s="9">
+        <v>100100055</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C102" s="9">
+        <v>100100056</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C103" s="9">
+        <v>100100057</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C104" s="9">
+        <v>100100058</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C105" s="9">
+        <v>100100059</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C106" s="9">
+        <v>100100060</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C107" s="9">
+        <v>100100061</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C108" s="9">
+        <v>100100062</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C109" s="9">
+        <v>100100063</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C110" s="9">
+        <v>100100064</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C111" s="9">
+        <v>100100065</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C112" s="9">
+        <v>100100066</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C113" s="9">
+        <v>100100067</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C114" s="9">
+        <v>100100068</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C115" s="9">
+        <v>100100069</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C116" s="9">
+        <v>100100070</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C117" s="9">
+        <v>100100071</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C118" s="9">
+        <v>100100072</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C119" s="9">
+        <v>100100073</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C120" s="9">
+        <v>100100074</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C121" s="9">
+        <v>100100075</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C122" s="9">
+        <v>100100076</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C123" s="9">
+        <v>100100077</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C124" s="9">
+        <v>100100078</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C125" s="9">
+        <v>100100079</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="8">
+        <v>43472</v>
+      </c>
+      <c r="C126" s="9">
+        <v>100100080</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C127" s="9">
+        <v>100100081</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C128" s="9">
+        <v>100100082</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C129" s="9">
+        <v>100100083</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C130" s="9">
+        <v>100100084</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C131" s="9">
+        <v>100100085</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C132" s="9">
+        <v>100100086</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C133" s="9">
+        <v>100100087</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C134" s="9">
+        <v>100100088</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C135" s="9">
+        <v>100100089</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C136" s="9">
+        <v>100100090</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C137" s="9">
+        <v>100100091</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C138" s="9">
+        <v>100100092</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C139" s="9">
+        <v>100100093</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C140" s="9">
+        <v>100100094</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C141" s="9">
+        <v>100100095</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C142" s="9">
+        <v>100100096</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C143" s="9">
+        <v>100100097</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C144" s="9">
+        <v>100100098</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C145" s="9">
+        <v>100100099</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C146" s="9">
+        <v>100100100</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C147" s="9">
+        <v>100100101</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C148" s="9">
+        <v>100100102</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C149" s="9">
+        <v>100100103</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C150" s="9">
+        <v>100100104</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C151" s="9">
+        <v>100100105</v>
+      </c>
+      <c r="D151" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C152" s="9">
+        <v>100100106</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C153" s="9">
+        <v>100100107</v>
+      </c>
+      <c r="D153" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C154" s="9">
+        <v>100100108</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C155" s="9">
+        <v>100100109</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C156" s="9">
+        <v>100100110</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C157" s="9">
+        <v>100100111</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C158" s="9">
+        <v>100100112</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C159" s="9">
+        <v>100100113</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C160" s="9">
+        <v>100100114</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C161" s="9">
+        <v>100100115</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C162" s="9">
+        <v>100100116</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C163" s="9">
+        <v>100100117</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C164" s="9">
+        <v>100100118</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C165" s="9">
+        <v>100100119</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C166" s="9">
+        <v>100100120</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="-240" windowWidth="19200" windowHeight="12450"/>
+    <workbookView xWindow="8700" yWindow="90" windowWidth="19200" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="门锁" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="660">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2566,6 +2566,69 @@
   </si>
   <si>
     <t>2A072000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇经科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正指向科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因蓝牙地址为d0待退回，换新外观电信锁181001020000066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示门锁带锁架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄市桥西区君晓家园底商金鱼油漆  楚杨：13315188778。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000186因蓝牙地址为d0待退回，换新外观电信锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03/29</t>
+  </si>
+  <si>
+    <t>周总带去长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面板、电池盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板子带按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市龙华和平里二期紫荆阁906魏木森18665819962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移物联   珠海网博  测试环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2953,24 +3016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,6 +3023,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2989,13 +3043,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3010,12 +3070,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3025,14 +3079,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3374,10 +3437,10 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="N136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X183" sqref="X183"/>
+      <selection pane="bottomRight" activeCell="AC150" sqref="AC150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3412,87 +3475,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="80" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="76" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="76"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
@@ -3568,7 +3631,7 @@
       <c r="AB3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="75"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="13">
@@ -3588,15 +3651,15 @@
         <v>868744030870087</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="12">
         <v>0</v>
       </c>
@@ -3748,15 +3811,15 @@
         <v>863703032301108</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
       <c r="N6" s="12">
         <v>1</v>
       </c>
@@ -3768,15 +3831,15 @@
         <v>43302</v>
       </c>
       <c r="R6" s="34"/>
-      <c r="S6" s="68" t="s">
+      <c r="S6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="70"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="67"/>
       <c r="Z6" s="31">
         <v>1</v>
       </c>
@@ -3806,15 +3869,15 @@
         <v>868744030885796</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="12">
         <v>1</v>
       </c>
@@ -3826,15 +3889,15 @@
         <v>43298</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="68" t="s">
+      <c r="S7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="70"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="67"/>
       <c r="Z7" s="31">
         <v>1</v>
       </c>
@@ -3864,15 +3927,15 @@
         <v>868744030897866</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="12">
         <v>1</v>
       </c>
@@ -3884,15 +3947,15 @@
         <v>43298</v>
       </c>
       <c r="R8" s="34"/>
-      <c r="S8" s="68" t="s">
+      <c r="S8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="70"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="67"/>
       <c r="Z8" s="31">
         <v>1</v>
       </c>
@@ -3922,15 +3985,15 @@
         <v>868744030870145</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -3942,15 +4005,15 @@
         <v>43368</v>
       </c>
       <c r="R9" s="34"/>
-      <c r="S9" s="68" t="s">
+      <c r="S9" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="70"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
       <c r="Z9" s="12">
         <v>1</v>
       </c>
@@ -3982,15 +4045,15 @@
         <v>868744030898922</v>
       </c>
       <c r="F10" s="30"/>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
       <c r="N10" s="30">
         <v>1</v>
       </c>
@@ -4000,15 +4063,15 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="68" t="s">
+      <c r="S10" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="70"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
       <c r="Z10" s="30">
         <v>1</v>
       </c>
@@ -4124,15 +4187,15 @@
         <v>863703032882750</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -4140,15 +4203,15 @@
         <v>43308</v>
       </c>
       <c r="R12" s="35"/>
-      <c r="S12" s="65" t="s">
+      <c r="S12" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
       <c r="AA12" s="1" t="s">
         <v>101</v>
       </c>
@@ -4177,15 +4240,15 @@
         <v>868744030870970</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -4193,15 +4256,15 @@
         <v>43308</v>
       </c>
       <c r="R13" s="35"/>
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="61"/>
       <c r="AA13" s="1" t="s">
         <v>101</v>
       </c>
@@ -4230,15 +4293,15 @@
         <v>863703033726113</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -4246,15 +4309,15 @@
         <v>43308</v>
       </c>
       <c r="R14" s="35"/>
-      <c r="S14" s="65" t="s">
+      <c r="S14" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="61"/>
       <c r="AA14" s="1" t="s">
         <v>101</v>
       </c>
@@ -4283,15 +4346,15 @@
         <v>863703033732442</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -4299,15 +4362,15 @@
         <v>43308</v>
       </c>
       <c r="R15" s="35"/>
-      <c r="S15" s="65" t="s">
+      <c r="S15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61"/>
       <c r="AA15" s="1" t="s">
         <v>101</v>
       </c>
@@ -4336,15 +4399,15 @@
         <v>863703033725131</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -4352,15 +4415,15 @@
         <v>43308</v>
       </c>
       <c r="R16" s="35"/>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="61"/>
       <c r="AA16" s="1" t="s">
         <v>101</v>
       </c>
@@ -4388,30 +4451,30 @@
       <c r="E17" s="5">
         <v>868744030870194</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
       <c r="Q17" s="8">
         <v>43308</v>
       </c>
-      <c r="S17" s="65" t="s">
+      <c r="S17" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="67"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="61"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -4440,15 +4503,15 @@
         <v>868744033103981</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="30">
         <v>1</v>
       </c>
@@ -4458,13 +4521,13 @@
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="70"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="67"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="14"/>
@@ -4568,15 +4631,15 @@
       <c r="E20" s="5">
         <v>863703033732483</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
       <c r="N20" s="12">
         <v>1</v>
       </c>
@@ -4586,15 +4649,15 @@
       <c r="Q20" s="8">
         <v>43325</v>
       </c>
-      <c r="S20" s="68" t="s">
+      <c r="S20" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="70"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="67"/>
       <c r="Z20" s="31">
         <v>1</v>
       </c>
@@ -4625,30 +4688,30 @@
       <c r="E21" s="5">
         <v>868744033209242</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
       <c r="Q21" s="8">
         <v>43325</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="S21" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="67"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -4670,30 +4733,30 @@
       <c r="E22" s="5">
         <v>868744033316013</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
       <c r="Q22" s="8">
         <v>43325</v>
       </c>
-      <c r="S22" s="65" t="s">
+      <c r="S22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="67"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -4715,30 +4778,30 @@
       <c r="E23" s="5">
         <v>868744033316112</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
       <c r="Q23" s="8">
         <v>43325</v>
       </c>
-      <c r="S23" s="65" t="s">
+      <c r="S23" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="67"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="61"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -4760,30 +4823,30 @@
       <c r="E24" s="5">
         <v>868744033210133</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
       <c r="Q24" s="8">
         <v>43325</v>
       </c>
-      <c r="S24" s="65" t="s">
+      <c r="S24" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="67"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="61"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -4805,30 +4868,30 @@
       <c r="E25" s="5">
         <v>868744033101183</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
       <c r="Q25" s="8">
         <v>43325</v>
       </c>
-      <c r="S25" s="65" t="s">
+      <c r="S25" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="67"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="61"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -4850,30 +4913,30 @@
       <c r="E26" s="5">
         <v>868744033316203</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="Q26" s="8">
         <v>43325</v>
       </c>
-      <c r="S26" s="65" t="s">
+      <c r="S26" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="67"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="61"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -4896,15 +4959,15 @@
         <v>868744030870889</v>
       </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="30">
         <v>0</v>
       </c>
@@ -4916,15 +4979,15 @@
         <v>43329</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="70"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="67"/>
       <c r="Z27" s="14">
         <v>0</v>
       </c>
@@ -5078,15 +5141,15 @@
       <c r="E30" s="5">
         <v>867900040032925</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="67"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="42"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -5094,15 +5157,15 @@
       <c r="Q30" s="8">
         <v>43333</v>
       </c>
-      <c r="S30" s="65" t="s">
+      <c r="S30" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="67"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="61"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -5124,15 +5187,15 @@
       <c r="E31" s="5">
         <v>867900040032602</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="42"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -5140,15 +5203,15 @@
       <c r="Q31" s="8">
         <v>43333</v>
       </c>
-      <c r="S31" s="65" t="s">
+      <c r="S31" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="67"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="61"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -5170,15 +5233,15 @@
       <c r="E32" s="5">
         <v>867900040033311</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="67"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="42"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -5186,15 +5249,15 @@
       <c r="Q32" s="8">
         <v>43333</v>
       </c>
-      <c r="S32" s="65" t="s">
+      <c r="S32" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="67"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="61"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -5216,15 +5279,15 @@
       <c r="E33" s="5">
         <v>867900040032552</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="67"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="42"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -5232,15 +5295,15 @@
       <c r="Q33" s="8">
         <v>43333</v>
       </c>
-      <c r="S33" s="65" t="s">
+      <c r="S33" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="67"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="61"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -5262,15 +5325,15 @@
       <c r="E34" s="5">
         <v>867900040032412</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="67"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="42"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -5278,15 +5341,15 @@
       <c r="Q34" s="8">
         <v>43333</v>
       </c>
-      <c r="S34" s="65" t="s">
+      <c r="S34" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="67"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="61"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -5653,15 +5716,15 @@
       <c r="E39" s="5">
         <v>867900040094578</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="70"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="67"/>
       <c r="N39" s="30">
         <v>1</v>
       </c>
@@ -5672,15 +5735,15 @@
         <v>43353</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="68" t="s">
+      <c r="S39" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="70"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="67"/>
       <c r="Z39" s="30">
         <v>1</v>
       </c>
@@ -5711,16 +5774,16 @@
       <c r="E40" s="5">
         <v>867900040177456</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="1" t="s">
         <v>86</v>
       </c>
@@ -5728,16 +5791,16 @@
         <v>1</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="S40" s="65" t="s">
+      <c r="S40" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="67"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="61"/>
       <c r="AB40" s="15">
         <v>1</v>
       </c>
@@ -6255,15 +6318,15 @@
       <c r="E48" s="5">
         <v>865820030036318</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="67"/>
       <c r="N48" s="30">
         <v>1</v>
       </c>
@@ -6657,15 +6720,15 @@
       <c r="E54" s="5">
         <v>867900040070081</v>
       </c>
-      <c r="H54" s="65" t="s">
+      <c r="H54" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="67"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="61"/>
       <c r="O54" s="1" t="s">
         <v>259</v>
       </c>
@@ -6675,16 +6738,16 @@
       <c r="Q54" s="8">
         <v>43402</v>
       </c>
-      <c r="S54" s="71" t="s">
+      <c r="S54" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="73"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="64"/>
       <c r="AA54" s="1" t="s">
         <v>259</v>
       </c>
@@ -6712,16 +6775,16 @@
       <c r="E55" s="5">
         <v>867900040225354</v>
       </c>
-      <c r="G55" s="65" t="s">
+      <c r="G55" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="67"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="61"/>
       <c r="O55" s="1" t="s">
         <v>259</v>
       </c>
@@ -6731,16 +6794,16 @@
       <c r="Q55" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="S55" s="65" t="s">
+      <c r="S55" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="66"/>
-      <c r="Z55" s="67"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="61"/>
       <c r="AA55" s="1" t="s">
         <v>259</v>
       </c>
@@ -6852,16 +6915,16 @@
       <c r="E57" s="5">
         <v>867900040032701</v>
       </c>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="64"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="82"/>
       <c r="O57" s="1" t="s">
         <v>259</v>
       </c>
@@ -6871,16 +6934,16 @@
       <c r="Q57" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S57" s="65" t="s">
+      <c r="S57" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="67"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="61"/>
       <c r="AA57" s="1" t="s">
         <v>259</v>
       </c>
@@ -6992,16 +7055,16 @@
       <c r="E59" s="5">
         <v>867900040228010</v>
       </c>
-      <c r="G59" s="62" t="s">
+      <c r="G59" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="64"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="82"/>
       <c r="O59" s="1" t="s">
         <v>259</v>
       </c>
@@ -7011,16 +7074,16 @@
       <c r="Q59" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S59" s="65" t="s">
+      <c r="S59" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="66"/>
-      <c r="Z59" s="67"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="61"/>
       <c r="AA59" s="1" t="s">
         <v>259</v>
       </c>
@@ -7048,16 +7111,16 @@
       <c r="E60" s="5">
         <v>868744030899078</v>
       </c>
-      <c r="G60" s="62" t="s">
+      <c r="G60" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="82"/>
       <c r="O60" s="1" t="s">
         <v>259</v>
       </c>
@@ -7067,16 +7130,16 @@
       <c r="Q60" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S60" s="65" t="s">
+      <c r="S60" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="67"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="61"/>
       <c r="AA60" s="1" t="s">
         <v>259</v>
       </c>
@@ -7104,16 +7167,16 @@
       <c r="E61" s="5">
         <v>863703030588730</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="64"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="82"/>
       <c r="O61" s="1" t="s">
         <v>259</v>
       </c>
@@ -7123,16 +7186,16 @@
       <c r="Q61" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S61" s="65" t="s">
+      <c r="S61" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="67"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="61"/>
       <c r="AA61" s="1" t="s">
         <v>259</v>
       </c>
@@ -7160,16 +7223,16 @@
       <c r="E62" s="5">
         <v>867900040032800</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="64"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="82"/>
       <c r="O62" s="1" t="s">
         <v>259</v>
       </c>
@@ -7179,16 +7242,16 @@
       <c r="Q62" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="S62" s="65" t="s">
+      <c r="S62" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="66"/>
-      <c r="Z62" s="67"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="61"/>
       <c r="AA62" s="1" t="s">
         <v>259</v>
       </c>
@@ -7367,7 +7430,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7451,7 +7514,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="16.5" customHeight="1">
+    <row r="66" spans="1:30" ht="16.5" customHeight="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7534,8 +7597,11 @@
       <c r="AC66" s="50" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7619,7 +7685,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:30">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7703,7 +7769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:30">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7787,7 +7853,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:30">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7804,30 +7870,30 @@
       <c r="E70" s="5">
         <v>869976030148580</v>
       </c>
-      <c r="G70" s="68" t="s">
+      <c r="G70" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="70"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="67"/>
       <c r="P70" s="15">
         <v>1</v>
       </c>
       <c r="Q70" s="8">
         <v>43440</v>
       </c>
-      <c r="S70" s="68" t="s">
+      <c r="S70" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="69"/>
-      <c r="W70" s="69"/>
-      <c r="X70" s="69"/>
-      <c r="Y70" s="70"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="66"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="66"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="67"/>
       <c r="AA70" s="1" t="s">
         <v>259</v>
       </c>
@@ -7838,7 +7904,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:30">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7855,30 +7921,30 @@
       <c r="E71" s="5">
         <v>869976030126792</v>
       </c>
-      <c r="G71" s="68" t="s">
+      <c r="G71" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="70"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="67"/>
       <c r="P71" s="15">
         <v>1</v>
       </c>
       <c r="Q71" s="8">
         <v>43440</v>
       </c>
-      <c r="S71" s="68" t="s">
+      <c r="S71" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69"/>
-      <c r="Y71" s="70"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="67"/>
       <c r="AA71" s="1" t="s">
         <v>259</v>
       </c>
@@ -7889,7 +7955,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:30">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7967,7 +8033,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:30">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8045,7 +8111,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:30">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8123,7 +8189,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:30">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8201,7 +8267,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:30">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8279,7 +8345,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:30">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8336,7 +8402,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:30">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8414,7 +8480,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:30">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8482,11 +8548,11 @@
       <c r="AB79" s="15">
         <v>1</v>
       </c>
-      <c r="AC79" s="59" t="s">
+      <c r="AC79" s="83" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:30">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8554,7 +8620,7 @@
       <c r="AB80" s="15">
         <v>1</v>
       </c>
-      <c r="AC80" s="60"/>
+      <c r="AC80" s="84"/>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="1">
@@ -8624,7 +8690,7 @@
       <c r="AB81" s="15">
         <v>1</v>
       </c>
-      <c r="AC81" s="60"/>
+      <c r="AC81" s="84"/>
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="1">
@@ -8694,7 +8760,7 @@
       <c r="AB82" s="15">
         <v>1</v>
       </c>
-      <c r="AC82" s="60"/>
+      <c r="AC82" s="84"/>
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="1">
@@ -8764,7 +8830,7 @@
       <c r="AB83" s="15">
         <v>1</v>
       </c>
-      <c r="AC83" s="60"/>
+      <c r="AC83" s="84"/>
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="1">
@@ -8834,7 +8900,7 @@
       <c r="AB84" s="15">
         <v>1</v>
       </c>
-      <c r="AC84" s="60"/>
+      <c r="AC84" s="84"/>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="1">
@@ -8904,7 +8970,7 @@
       <c r="AB85" s="15">
         <v>1</v>
       </c>
-      <c r="AC85" s="60"/>
+      <c r="AC85" s="84"/>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="1">
@@ -8974,7 +9040,7 @@
       <c r="AB86" s="15">
         <v>1</v>
       </c>
-      <c r="AC86" s="60"/>
+      <c r="AC86" s="84"/>
     </row>
     <row r="87" spans="1:29">
       <c r="A87" s="1">
@@ -9044,7 +9110,7 @@
       <c r="AB87" s="15">
         <v>1</v>
       </c>
-      <c r="AC87" s="61"/>
+      <c r="AC87" s="85"/>
     </row>
     <row r="88" spans="1:29">
       <c r="A88" s="1">
@@ -9258,7 +9324,7 @@
       <c r="AB90" s="15">
         <v>1</v>
       </c>
-      <c r="AC90" s="59" t="s">
+      <c r="AC90" s="83" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9330,7 +9396,7 @@
       <c r="AB91" s="15">
         <v>1</v>
       </c>
-      <c r="AC91" s="60"/>
+      <c r="AC91" s="84"/>
     </row>
     <row r="92" spans="1:29">
       <c r="A92" s="1">
@@ -9400,7 +9466,7 @@
       <c r="AB92" s="15">
         <v>1</v>
       </c>
-      <c r="AC92" s="60"/>
+      <c r="AC92" s="84"/>
     </row>
     <row r="93" spans="1:29">
       <c r="A93" s="1">
@@ -9470,7 +9536,7 @@
       <c r="AB93" s="15">
         <v>1</v>
       </c>
-      <c r="AC93" s="60"/>
+      <c r="AC93" s="84"/>
     </row>
     <row r="94" spans="1:29">
       <c r="A94" s="1">
@@ -9540,7 +9606,7 @@
       <c r="AB94" s="15">
         <v>1</v>
       </c>
-      <c r="AC94" s="61"/>
+      <c r="AC94" s="85"/>
     </row>
     <row r="95" spans="1:29">
       <c r="A95" s="1">
@@ -9559,15 +9625,15 @@
       <c r="E95" s="5">
         <v>867900040067145</v>
       </c>
-      <c r="G95" s="68" t="s">
+      <c r="G95" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H95" s="69"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="70"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="67"/>
       <c r="N95" s="5">
         <v>2</v>
       </c>
@@ -9577,15 +9643,15 @@
       <c r="Q95" s="8">
         <v>43472</v>
       </c>
-      <c r="S95" s="68" t="s">
+      <c r="S95" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T95" s="69"/>
-      <c r="U95" s="69"/>
-      <c r="V95" s="69"/>
-      <c r="W95" s="69"/>
-      <c r="X95" s="69"/>
-      <c r="Y95" s="70"/>
+      <c r="T95" s="66"/>
+      <c r="U95" s="66"/>
+      <c r="V95" s="66"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="66"/>
+      <c r="Y95" s="67"/>
       <c r="AA95" s="1" t="s">
         <v>82</v>
       </c>
@@ -9610,30 +9676,30 @@
       <c r="E96" s="5">
         <v>867900040032636</v>
       </c>
-      <c r="G96" s="68" t="s">
+      <c r="G96" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="70"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
+      <c r="M96" s="67"/>
       <c r="P96" s="15">
         <v>1</v>
       </c>
       <c r="Q96" s="8">
         <v>43480</v>
       </c>
-      <c r="S96" s="68" t="s">
+      <c r="S96" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T96" s="69"/>
-      <c r="U96" s="69"/>
-      <c r="V96" s="69"/>
-      <c r="W96" s="69"/>
-      <c r="X96" s="69"/>
-      <c r="Y96" s="70"/>
+      <c r="T96" s="66"/>
+      <c r="U96" s="66"/>
+      <c r="V96" s="66"/>
+      <c r="W96" s="66"/>
+      <c r="X96" s="66"/>
+      <c r="Y96" s="67"/>
       <c r="AB96" s="15">
         <v>1</v>
       </c>
@@ -9898,7 +9964,7 @@
       <c r="AB100" s="15">
         <v>1</v>
       </c>
-      <c r="AC100" s="59" t="s">
+      <c r="AC100" s="83" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9970,7 +10036,7 @@
       <c r="AB101" s="15">
         <v>1</v>
       </c>
-      <c r="AC101" s="60"/>
+      <c r="AC101" s="84"/>
     </row>
     <row r="102" spans="1:29">
       <c r="A102" s="1">
@@ -10040,7 +10106,7 @@
       <c r="AB102" s="15">
         <v>1</v>
       </c>
-      <c r="AC102" s="60"/>
+      <c r="AC102" s="84"/>
     </row>
     <row r="103" spans="1:29">
       <c r="A103" s="1">
@@ -10110,7 +10176,7 @@
       <c r="AB103" s="15">
         <v>1</v>
       </c>
-      <c r="AC103" s="60"/>
+      <c r="AC103" s="84"/>
     </row>
     <row r="104" spans="1:29">
       <c r="A104" s="1">
@@ -10180,7 +10246,7 @@
       <c r="AB104" s="15">
         <v>1</v>
       </c>
-      <c r="AC104" s="60"/>
+      <c r="AC104" s="84"/>
     </row>
     <row r="105" spans="1:29">
       <c r="A105" s="1">
@@ -10250,7 +10316,7 @@
       <c r="AB105" s="15">
         <v>1</v>
       </c>
-      <c r="AC105" s="61"/>
+      <c r="AC105" s="85"/>
     </row>
     <row r="106" spans="1:29">
       <c r="A106" s="1">
@@ -10269,15 +10335,15 @@
       <c r="E106" s="5">
         <v>869976033787830</v>
       </c>
-      <c r="G106" s="65" t="s">
+      <c r="G106" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
-      <c r="L106" s="66"/>
-      <c r="M106" s="67"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="5">
         <v>1</v>
       </c>
@@ -10287,15 +10353,15 @@
       <c r="Q106" s="8">
         <v>43473</v>
       </c>
-      <c r="S106" s="65" t="s">
+      <c r="S106" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="T106" s="66"/>
-      <c r="U106" s="66"/>
-      <c r="V106" s="66"/>
-      <c r="W106" s="66"/>
-      <c r="X106" s="66"/>
-      <c r="Y106" s="67"/>
+      <c r="T106" s="60"/>
+      <c r="U106" s="60"/>
+      <c r="V106" s="60"/>
+      <c r="W106" s="60"/>
+      <c r="X106" s="60"/>
+      <c r="Y106" s="61"/>
       <c r="Z106" s="5">
         <v>1</v>
       </c>
@@ -10323,15 +10389,15 @@
       <c r="F107" s="5">
         <v>1</v>
       </c>
-      <c r="G107" s="68" t="s">
+      <c r="G107" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H107" s="69"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="70"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="67"/>
       <c r="P107" s="15">
         <v>1</v>
       </c>
@@ -10341,15 +10407,15 @@
       <c r="R107" s="15">
         <v>1</v>
       </c>
-      <c r="S107" s="68" t="s">
+      <c r="S107" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T107" s="69"/>
-      <c r="U107" s="69"/>
-      <c r="V107" s="69"/>
-      <c r="W107" s="69"/>
-      <c r="X107" s="69"/>
-      <c r="Y107" s="70"/>
+      <c r="T107" s="66"/>
+      <c r="U107" s="66"/>
+      <c r="V107" s="66"/>
+      <c r="W107" s="66"/>
+      <c r="X107" s="66"/>
+      <c r="Y107" s="67"/>
       <c r="AB107" s="15">
         <v>1</v>
       </c>
@@ -10374,15 +10440,15 @@
       <c r="F108" s="5">
         <v>1</v>
       </c>
-      <c r="G108" s="68" t="s">
+      <c r="G108" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H108" s="69"/>
-      <c r="I108" s="69"/>
-      <c r="J108" s="69"/>
-      <c r="K108" s="69"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="70"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="67"/>
       <c r="P108" s="15">
         <v>1</v>
       </c>
@@ -10392,15 +10458,15 @@
       <c r="R108" s="15">
         <v>1</v>
       </c>
-      <c r="S108" s="68" t="s">
+      <c r="S108" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T108" s="69"/>
-      <c r="U108" s="69"/>
-      <c r="V108" s="69"/>
-      <c r="W108" s="69"/>
-      <c r="X108" s="69"/>
-      <c r="Y108" s="70"/>
+      <c r="T108" s="66"/>
+      <c r="U108" s="66"/>
+      <c r="V108" s="66"/>
+      <c r="W108" s="66"/>
+      <c r="X108" s="66"/>
+      <c r="Y108" s="67"/>
       <c r="AB108" s="15">
         <v>1</v>
       </c>
@@ -10425,15 +10491,15 @@
       <c r="F109" s="5">
         <v>1</v>
       </c>
-      <c r="G109" s="68" t="s">
+      <c r="G109" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="70"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="66"/>
+      <c r="L109" s="66"/>
+      <c r="M109" s="67"/>
       <c r="P109" s="15">
         <v>1</v>
       </c>
@@ -10443,15 +10509,15 @@
       <c r="R109" s="15">
         <v>1</v>
       </c>
-      <c r="S109" s="68" t="s">
+      <c r="S109" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T109" s="69"/>
-      <c r="U109" s="69"/>
-      <c r="V109" s="69"/>
-      <c r="W109" s="69"/>
-      <c r="X109" s="69"/>
-      <c r="Y109" s="70"/>
+      <c r="T109" s="66"/>
+      <c r="U109" s="66"/>
+      <c r="V109" s="66"/>
+      <c r="W109" s="66"/>
+      <c r="X109" s="66"/>
+      <c r="Y109" s="67"/>
       <c r="AB109" s="15">
         <v>1</v>
       </c>
@@ -10476,15 +10542,15 @@
       <c r="F110" s="5">
         <v>1</v>
       </c>
-      <c r="G110" s="68" t="s">
+      <c r="G110" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H110" s="69"/>
-      <c r="I110" s="69"/>
-      <c r="J110" s="69"/>
-      <c r="K110" s="69"/>
-      <c r="L110" s="69"/>
-      <c r="M110" s="70"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="66"/>
+      <c r="M110" s="67"/>
       <c r="P110" s="15">
         <v>1</v>
       </c>
@@ -10494,15 +10560,15 @@
       <c r="R110" s="15">
         <v>1</v>
       </c>
-      <c r="S110" s="68" t="s">
+      <c r="S110" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T110" s="69"/>
-      <c r="U110" s="69"/>
-      <c r="V110" s="69"/>
-      <c r="W110" s="69"/>
-      <c r="X110" s="69"/>
-      <c r="Y110" s="70"/>
+      <c r="T110" s="66"/>
+      <c r="U110" s="66"/>
+      <c r="V110" s="66"/>
+      <c r="W110" s="66"/>
+      <c r="X110" s="66"/>
+      <c r="Y110" s="67"/>
       <c r="AB110" s="15">
         <v>1</v>
       </c>
@@ -10527,15 +10593,15 @@
       <c r="F111" s="5">
         <v>1</v>
       </c>
-      <c r="G111" s="68" t="s">
+      <c r="G111" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="70"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
+      <c r="M111" s="67"/>
       <c r="P111" s="15">
         <v>1</v>
       </c>
@@ -10545,15 +10611,15 @@
       <c r="R111" s="15">
         <v>1</v>
       </c>
-      <c r="S111" s="68" t="s">
+      <c r="S111" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T111" s="69"/>
-      <c r="U111" s="69"/>
-      <c r="V111" s="69"/>
-      <c r="W111" s="69"/>
-      <c r="X111" s="69"/>
-      <c r="Y111" s="70"/>
+      <c r="T111" s="66"/>
+      <c r="U111" s="66"/>
+      <c r="V111" s="66"/>
+      <c r="W111" s="66"/>
+      <c r="X111" s="66"/>
+      <c r="Y111" s="67"/>
       <c r="AB111" s="15">
         <v>1</v>
       </c>
@@ -10578,15 +10644,15 @@
       <c r="F112" s="5">
         <v>1</v>
       </c>
-      <c r="G112" s="68" t="s">
+      <c r="G112" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="69"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="70"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="66"/>
+      <c r="M112" s="67"/>
       <c r="P112" s="15">
         <v>1</v>
       </c>
@@ -10596,15 +10662,15 @@
       <c r="R112" s="15">
         <v>1</v>
       </c>
-      <c r="S112" s="68" t="s">
+      <c r="S112" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T112" s="69"/>
-      <c r="U112" s="69"/>
-      <c r="V112" s="69"/>
-      <c r="W112" s="69"/>
-      <c r="X112" s="69"/>
-      <c r="Y112" s="70"/>
+      <c r="T112" s="66"/>
+      <c r="U112" s="66"/>
+      <c r="V112" s="66"/>
+      <c r="W112" s="66"/>
+      <c r="X112" s="66"/>
+      <c r="Y112" s="67"/>
       <c r="AB112" s="15">
         <v>1</v>
       </c>
@@ -10629,15 +10695,15 @@
       <c r="F113" s="5">
         <v>1</v>
       </c>
-      <c r="G113" s="68" t="s">
+      <c r="G113" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="69"/>
-      <c r="M113" s="70"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="67"/>
       <c r="P113" s="15">
         <v>1</v>
       </c>
@@ -10647,15 +10713,15 @@
       <c r="R113" s="15">
         <v>1</v>
       </c>
-      <c r="S113" s="68" t="s">
+      <c r="S113" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T113" s="69"/>
-      <c r="U113" s="69"/>
-      <c r="V113" s="69"/>
-      <c r="W113" s="69"/>
-      <c r="X113" s="69"/>
-      <c r="Y113" s="70"/>
+      <c r="T113" s="66"/>
+      <c r="U113" s="66"/>
+      <c r="V113" s="66"/>
+      <c r="W113" s="66"/>
+      <c r="X113" s="66"/>
+      <c r="Y113" s="67"/>
       <c r="AB113" s="15">
         <v>1</v>
       </c>
@@ -10680,15 +10746,15 @@
       <c r="F114" s="5">
         <v>1</v>
       </c>
-      <c r="G114" s="68" t="s">
+      <c r="G114" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="69"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="70"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
+      <c r="M114" s="67"/>
       <c r="P114" s="15">
         <v>1</v>
       </c>
@@ -10698,15 +10764,15 @@
       <c r="R114" s="15">
         <v>1</v>
       </c>
-      <c r="S114" s="68" t="s">
+      <c r="S114" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T114" s="69"/>
-      <c r="U114" s="69"/>
-      <c r="V114" s="69"/>
-      <c r="W114" s="69"/>
-      <c r="X114" s="69"/>
-      <c r="Y114" s="70"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="66"/>
+      <c r="V114" s="66"/>
+      <c r="W114" s="66"/>
+      <c r="X114" s="66"/>
+      <c r="Y114" s="67"/>
       <c r="AB114" s="15">
         <v>1</v>
       </c>
@@ -10731,15 +10797,15 @@
       <c r="F115" s="5">
         <v>1</v>
       </c>
-      <c r="G115" s="68" t="s">
+      <c r="G115" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="70"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="66"/>
+      <c r="M115" s="67"/>
       <c r="P115" s="15">
         <v>1</v>
       </c>
@@ -10749,15 +10815,15 @@
       <c r="R115" s="15">
         <v>1</v>
       </c>
-      <c r="S115" s="68" t="s">
+      <c r="S115" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T115" s="69"/>
-      <c r="U115" s="69"/>
-      <c r="V115" s="69"/>
-      <c r="W115" s="69"/>
-      <c r="X115" s="69"/>
-      <c r="Y115" s="70"/>
+      <c r="T115" s="66"/>
+      <c r="U115" s="66"/>
+      <c r="V115" s="66"/>
+      <c r="W115" s="66"/>
+      <c r="X115" s="66"/>
+      <c r="Y115" s="67"/>
       <c r="AB115" s="15">
         <v>1</v>
       </c>
@@ -10782,15 +10848,15 @@
       <c r="F116" s="5">
         <v>1</v>
       </c>
-      <c r="G116" s="68" t="s">
+      <c r="G116" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="69"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="69"/>
-      <c r="M116" s="70"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="M116" s="67"/>
       <c r="P116" s="15">
         <v>1</v>
       </c>
@@ -10800,15 +10866,15 @@
       <c r="R116" s="15">
         <v>1</v>
       </c>
-      <c r="S116" s="68" t="s">
+      <c r="S116" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T116" s="69"/>
-      <c r="U116" s="69"/>
-      <c r="V116" s="69"/>
-      <c r="W116" s="69"/>
-      <c r="X116" s="69"/>
-      <c r="Y116" s="70"/>
+      <c r="T116" s="66"/>
+      <c r="U116" s="66"/>
+      <c r="V116" s="66"/>
+      <c r="W116" s="66"/>
+      <c r="X116" s="66"/>
+      <c r="Y116" s="67"/>
       <c r="AB116" s="15">
         <v>1</v>
       </c>
@@ -10833,15 +10899,15 @@
       <c r="F117" s="5">
         <v>1</v>
       </c>
-      <c r="G117" s="68" t="s">
+      <c r="G117" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="70"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
+      <c r="M117" s="67"/>
       <c r="P117" s="15">
         <v>1</v>
       </c>
@@ -10851,15 +10917,15 @@
       <c r="R117" s="15">
         <v>1</v>
       </c>
-      <c r="S117" s="68" t="s">
+      <c r="S117" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T117" s="69"/>
-      <c r="U117" s="69"/>
-      <c r="V117" s="69"/>
-      <c r="W117" s="69"/>
-      <c r="X117" s="69"/>
-      <c r="Y117" s="70"/>
+      <c r="T117" s="66"/>
+      <c r="U117" s="66"/>
+      <c r="V117" s="66"/>
+      <c r="W117" s="66"/>
+      <c r="X117" s="66"/>
+      <c r="Y117" s="67"/>
       <c r="AB117" s="15">
         <v>1</v>
       </c>
@@ -10884,15 +10950,15 @@
       <c r="F118" s="5">
         <v>1</v>
       </c>
-      <c r="G118" s="68" t="s">
+      <c r="G118" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="70"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="66"/>
+      <c r="M118" s="67"/>
       <c r="P118" s="15">
         <v>1</v>
       </c>
@@ -10902,15 +10968,15 @@
       <c r="R118" s="15">
         <v>1</v>
       </c>
-      <c r="S118" s="68" t="s">
+      <c r="S118" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T118" s="69"/>
-      <c r="U118" s="69"/>
-      <c r="V118" s="69"/>
-      <c r="W118" s="69"/>
-      <c r="X118" s="69"/>
-      <c r="Y118" s="70"/>
+      <c r="T118" s="66"/>
+      <c r="U118" s="66"/>
+      <c r="V118" s="66"/>
+      <c r="W118" s="66"/>
+      <c r="X118" s="66"/>
+      <c r="Y118" s="67"/>
       <c r="AB118" s="15">
         <v>1</v>
       </c>
@@ -10935,15 +11001,15 @@
       <c r="F119" s="5">
         <v>1</v>
       </c>
-      <c r="G119" s="68" t="s">
+      <c r="G119" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H119" s="69"/>
-      <c r="I119" s="69"/>
-      <c r="J119" s="69"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="69"/>
-      <c r="M119" s="70"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="66"/>
+      <c r="M119" s="67"/>
       <c r="P119" s="15">
         <v>1</v>
       </c>
@@ -10953,15 +11019,15 @@
       <c r="R119" s="15">
         <v>1</v>
       </c>
-      <c r="S119" s="68" t="s">
+      <c r="S119" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T119" s="69"/>
-      <c r="U119" s="69"/>
-      <c r="V119" s="69"/>
-      <c r="W119" s="69"/>
-      <c r="X119" s="69"/>
-      <c r="Y119" s="70"/>
+      <c r="T119" s="66"/>
+      <c r="U119" s="66"/>
+      <c r="V119" s="66"/>
+      <c r="W119" s="66"/>
+      <c r="X119" s="66"/>
+      <c r="Y119" s="67"/>
       <c r="AB119" s="15">
         <v>1</v>
       </c>
@@ -10986,15 +11052,15 @@
       <c r="F120" s="5">
         <v>1</v>
       </c>
-      <c r="G120" s="68" t="s">
+      <c r="G120" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="69"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="69"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="70"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="66"/>
+      <c r="J120" s="66"/>
+      <c r="K120" s="66"/>
+      <c r="L120" s="66"/>
+      <c r="M120" s="67"/>
       <c r="P120" s="15">
         <v>1</v>
       </c>
@@ -11004,15 +11070,15 @@
       <c r="R120" s="15">
         <v>1</v>
       </c>
-      <c r="S120" s="68" t="s">
+      <c r="S120" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T120" s="69"/>
-      <c r="U120" s="69"/>
-      <c r="V120" s="69"/>
-      <c r="W120" s="69"/>
-      <c r="X120" s="69"/>
-      <c r="Y120" s="70"/>
+      <c r="T120" s="66"/>
+      <c r="U120" s="66"/>
+      <c r="V120" s="66"/>
+      <c r="W120" s="66"/>
+      <c r="X120" s="66"/>
+      <c r="Y120" s="67"/>
       <c r="AB120" s="15">
         <v>1</v>
       </c>
@@ -11037,15 +11103,15 @@
       <c r="F121" s="5">
         <v>1</v>
       </c>
-      <c r="G121" s="68" t="s">
+      <c r="G121" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
-      <c r="J121" s="69"/>
-      <c r="K121" s="69"/>
-      <c r="L121" s="69"/>
-      <c r="M121" s="70"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="66"/>
+      <c r="L121" s="66"/>
+      <c r="M121" s="67"/>
       <c r="P121" s="15">
         <v>1</v>
       </c>
@@ -11055,15 +11121,15 @@
       <c r="R121" s="15">
         <v>1</v>
       </c>
-      <c r="S121" s="68" t="s">
+      <c r="S121" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T121" s="69"/>
-      <c r="U121" s="69"/>
-      <c r="V121" s="69"/>
-      <c r="W121" s="69"/>
-      <c r="X121" s="69"/>
-      <c r="Y121" s="70"/>
+      <c r="T121" s="66"/>
+      <c r="U121" s="66"/>
+      <c r="V121" s="66"/>
+      <c r="W121" s="66"/>
+      <c r="X121" s="66"/>
+      <c r="Y121" s="67"/>
       <c r="AB121" s="15">
         <v>1</v>
       </c>
@@ -11088,15 +11154,15 @@
       <c r="F122" s="5">
         <v>1</v>
       </c>
-      <c r="G122" s="68" t="s">
+      <c r="G122" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H122" s="69"/>
-      <c r="I122" s="69"/>
-      <c r="J122" s="69"/>
-      <c r="K122" s="69"/>
-      <c r="L122" s="69"/>
-      <c r="M122" s="70"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="66"/>
+      <c r="L122" s="66"/>
+      <c r="M122" s="67"/>
       <c r="P122" s="15">
         <v>1</v>
       </c>
@@ -11106,15 +11172,15 @@
       <c r="R122" s="15">
         <v>1</v>
       </c>
-      <c r="S122" s="68" t="s">
+      <c r="S122" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T122" s="69"/>
-      <c r="U122" s="69"/>
-      <c r="V122" s="69"/>
-      <c r="W122" s="69"/>
-      <c r="X122" s="69"/>
-      <c r="Y122" s="70"/>
+      <c r="T122" s="66"/>
+      <c r="U122" s="66"/>
+      <c r="V122" s="66"/>
+      <c r="W122" s="66"/>
+      <c r="X122" s="66"/>
+      <c r="Y122" s="67"/>
       <c r="AB122" s="15">
         <v>1</v>
       </c>
@@ -11139,15 +11205,15 @@
       <c r="F123" s="5">
         <v>1</v>
       </c>
-      <c r="G123" s="68" t="s">
+      <c r="G123" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H123" s="69"/>
-      <c r="I123" s="69"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="69"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="70"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+      <c r="M123" s="67"/>
       <c r="P123" s="15">
         <v>1</v>
       </c>
@@ -11157,15 +11223,15 @@
       <c r="R123" s="15">
         <v>1</v>
       </c>
-      <c r="S123" s="68" t="s">
+      <c r="S123" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T123" s="69"/>
-      <c r="U123" s="69"/>
-      <c r="V123" s="69"/>
-      <c r="W123" s="69"/>
-      <c r="X123" s="69"/>
-      <c r="Y123" s="70"/>
+      <c r="T123" s="66"/>
+      <c r="U123" s="66"/>
+      <c r="V123" s="66"/>
+      <c r="W123" s="66"/>
+      <c r="X123" s="66"/>
+      <c r="Y123" s="67"/>
       <c r="AB123" s="15">
         <v>1</v>
       </c>
@@ -11190,15 +11256,15 @@
       <c r="F124" s="5">
         <v>1</v>
       </c>
-      <c r="G124" s="68" t="s">
+      <c r="G124" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="69"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="70"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="66"/>
+      <c r="M124" s="67"/>
       <c r="P124" s="15">
         <v>1</v>
       </c>
@@ -11208,15 +11274,15 @@
       <c r="R124" s="15">
         <v>1</v>
       </c>
-      <c r="S124" s="68" t="s">
+      <c r="S124" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T124" s="69"/>
-      <c r="U124" s="69"/>
-      <c r="V124" s="69"/>
-      <c r="W124" s="69"/>
-      <c r="X124" s="69"/>
-      <c r="Y124" s="70"/>
+      <c r="T124" s="66"/>
+      <c r="U124" s="66"/>
+      <c r="V124" s="66"/>
+      <c r="W124" s="66"/>
+      <c r="X124" s="66"/>
+      <c r="Y124" s="67"/>
       <c r="AB124" s="15">
         <v>1</v>
       </c>
@@ -11241,15 +11307,15 @@
       <c r="F125" s="5">
         <v>1</v>
       </c>
-      <c r="G125" s="68" t="s">
+      <c r="G125" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H125" s="69"/>
-      <c r="I125" s="69"/>
-      <c r="J125" s="69"/>
-      <c r="K125" s="69"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="70"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
+      <c r="K125" s="66"/>
+      <c r="L125" s="66"/>
+      <c r="M125" s="67"/>
       <c r="P125" s="15">
         <v>1</v>
       </c>
@@ -11259,15 +11325,15 @@
       <c r="R125" s="15">
         <v>1</v>
       </c>
-      <c r="S125" s="68" t="s">
+      <c r="S125" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T125" s="69"/>
-      <c r="U125" s="69"/>
-      <c r="V125" s="69"/>
-      <c r="W125" s="69"/>
-      <c r="X125" s="69"/>
-      <c r="Y125" s="70"/>
+      <c r="T125" s="66"/>
+      <c r="U125" s="66"/>
+      <c r="V125" s="66"/>
+      <c r="W125" s="66"/>
+      <c r="X125" s="66"/>
+      <c r="Y125" s="67"/>
       <c r="AB125" s="15">
         <v>1</v>
       </c>
@@ -11292,15 +11358,15 @@
       <c r="F126" s="5">
         <v>1</v>
       </c>
-      <c r="G126" s="68" t="s">
+      <c r="G126" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="70"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
+      <c r="K126" s="66"/>
+      <c r="L126" s="66"/>
+      <c r="M126" s="67"/>
       <c r="P126" s="15">
         <v>1</v>
       </c>
@@ -11310,15 +11376,15 @@
       <c r="R126" s="15">
         <v>1</v>
       </c>
-      <c r="S126" s="68" t="s">
+      <c r="S126" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T126" s="69"/>
-      <c r="U126" s="69"/>
-      <c r="V126" s="69"/>
-      <c r="W126" s="69"/>
-      <c r="X126" s="69"/>
-      <c r="Y126" s="70"/>
+      <c r="T126" s="66"/>
+      <c r="U126" s="66"/>
+      <c r="V126" s="66"/>
+      <c r="W126" s="66"/>
+      <c r="X126" s="66"/>
+      <c r="Y126" s="67"/>
       <c r="AB126" s="15">
         <v>1</v>
       </c>
@@ -11343,15 +11409,15 @@
       <c r="F127" s="5">
         <v>1</v>
       </c>
-      <c r="G127" s="68" t="s">
+      <c r="G127" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H127" s="69"/>
-      <c r="I127" s="69"/>
-      <c r="J127" s="69"/>
-      <c r="K127" s="69"/>
-      <c r="L127" s="69"/>
-      <c r="M127" s="70"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+      <c r="J127" s="66"/>
+      <c r="K127" s="66"/>
+      <c r="L127" s="66"/>
+      <c r="M127" s="67"/>
       <c r="P127" s="15">
         <v>1</v>
       </c>
@@ -11361,15 +11427,15 @@
       <c r="R127" s="15">
         <v>1</v>
       </c>
-      <c r="S127" s="68" t="s">
+      <c r="S127" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T127" s="69"/>
-      <c r="U127" s="69"/>
-      <c r="V127" s="69"/>
-      <c r="W127" s="69"/>
-      <c r="X127" s="69"/>
-      <c r="Y127" s="70"/>
+      <c r="T127" s="66"/>
+      <c r="U127" s="66"/>
+      <c r="V127" s="66"/>
+      <c r="W127" s="66"/>
+      <c r="X127" s="66"/>
+      <c r="Y127" s="67"/>
       <c r="AB127" s="15">
         <v>1</v>
       </c>
@@ -11394,15 +11460,15 @@
       <c r="F128" s="5">
         <v>1</v>
       </c>
-      <c r="G128" s="68" t="s">
+      <c r="G128" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="69"/>
-      <c r="I128" s="69"/>
-      <c r="J128" s="69"/>
-      <c r="K128" s="69"/>
-      <c r="L128" s="69"/>
-      <c r="M128" s="70"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="66"/>
+      <c r="L128" s="66"/>
+      <c r="M128" s="67"/>
       <c r="P128" s="15">
         <v>1</v>
       </c>
@@ -11412,15 +11478,15 @@
       <c r="R128" s="15">
         <v>1</v>
       </c>
-      <c r="S128" s="68" t="s">
+      <c r="S128" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T128" s="69"/>
-      <c r="U128" s="69"/>
-      <c r="V128" s="69"/>
-      <c r="W128" s="69"/>
-      <c r="X128" s="69"/>
-      <c r="Y128" s="70"/>
+      <c r="T128" s="66"/>
+      <c r="U128" s="66"/>
+      <c r="V128" s="66"/>
+      <c r="W128" s="66"/>
+      <c r="X128" s="66"/>
+      <c r="Y128" s="67"/>
       <c r="AB128" s="15">
         <v>1</v>
       </c>
@@ -11445,15 +11511,15 @@
       <c r="F129" s="5">
         <v>1</v>
       </c>
-      <c r="G129" s="68" t="s">
+      <c r="G129" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="70"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="66"/>
+      <c r="K129" s="66"/>
+      <c r="L129" s="66"/>
+      <c r="M129" s="67"/>
       <c r="P129" s="15">
         <v>1</v>
       </c>
@@ -11463,15 +11529,15 @@
       <c r="R129" s="15">
         <v>1</v>
       </c>
-      <c r="S129" s="68" t="s">
+      <c r="S129" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T129" s="69"/>
-      <c r="U129" s="69"/>
-      <c r="V129" s="69"/>
-      <c r="W129" s="69"/>
-      <c r="X129" s="69"/>
-      <c r="Y129" s="70"/>
+      <c r="T129" s="66"/>
+      <c r="U129" s="66"/>
+      <c r="V129" s="66"/>
+      <c r="W129" s="66"/>
+      <c r="X129" s="66"/>
+      <c r="Y129" s="67"/>
       <c r="AB129" s="15">
         <v>1</v>
       </c>
@@ -11496,15 +11562,15 @@
       <c r="F130" s="5">
         <v>1</v>
       </c>
-      <c r="G130" s="68" t="s">
+      <c r="G130" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H130" s="69"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="69"/>
-      <c r="K130" s="69"/>
-      <c r="L130" s="69"/>
-      <c r="M130" s="70"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="67"/>
       <c r="P130" s="15">
         <v>1</v>
       </c>
@@ -11514,15 +11580,15 @@
       <c r="R130" s="15">
         <v>1</v>
       </c>
-      <c r="S130" s="68" t="s">
+      <c r="S130" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T130" s="69"/>
-      <c r="U130" s="69"/>
-      <c r="V130" s="69"/>
-      <c r="W130" s="69"/>
-      <c r="X130" s="69"/>
-      <c r="Y130" s="70"/>
+      <c r="T130" s="66"/>
+      <c r="U130" s="66"/>
+      <c r="V130" s="66"/>
+      <c r="W130" s="66"/>
+      <c r="X130" s="66"/>
+      <c r="Y130" s="67"/>
       <c r="AB130" s="15">
         <v>1</v>
       </c>
@@ -11547,15 +11613,15 @@
       <c r="F131" s="5">
         <v>1</v>
       </c>
-      <c r="G131" s="68" t="s">
+      <c r="G131" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="70"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
+      <c r="J131" s="66"/>
+      <c r="K131" s="66"/>
+      <c r="L131" s="66"/>
+      <c r="M131" s="67"/>
       <c r="P131" s="15">
         <v>1</v>
       </c>
@@ -11565,15 +11631,15 @@
       <c r="R131" s="15">
         <v>1</v>
       </c>
-      <c r="S131" s="68" t="s">
+      <c r="S131" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T131" s="69"/>
-      <c r="U131" s="69"/>
-      <c r="V131" s="69"/>
-      <c r="W131" s="69"/>
-      <c r="X131" s="69"/>
-      <c r="Y131" s="70"/>
+      <c r="T131" s="66"/>
+      <c r="U131" s="66"/>
+      <c r="V131" s="66"/>
+      <c r="W131" s="66"/>
+      <c r="X131" s="66"/>
+      <c r="Y131" s="67"/>
       <c r="AB131" s="15">
         <v>1</v>
       </c>
@@ -11598,15 +11664,15 @@
       <c r="F132" s="5">
         <v>1</v>
       </c>
-      <c r="G132" s="68" t="s">
+      <c r="G132" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H132" s="69"/>
-      <c r="I132" s="69"/>
-      <c r="J132" s="69"/>
-      <c r="K132" s="69"/>
-      <c r="L132" s="69"/>
-      <c r="M132" s="70"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="66"/>
+      <c r="L132" s="66"/>
+      <c r="M132" s="67"/>
       <c r="P132" s="15">
         <v>1</v>
       </c>
@@ -11616,15 +11682,15 @@
       <c r="R132" s="15">
         <v>1</v>
       </c>
-      <c r="S132" s="68" t="s">
+      <c r="S132" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T132" s="69"/>
-      <c r="U132" s="69"/>
-      <c r="V132" s="69"/>
-      <c r="W132" s="69"/>
-      <c r="X132" s="69"/>
-      <c r="Y132" s="70"/>
+      <c r="T132" s="66"/>
+      <c r="U132" s="66"/>
+      <c r="V132" s="66"/>
+      <c r="W132" s="66"/>
+      <c r="X132" s="66"/>
+      <c r="Y132" s="67"/>
       <c r="AB132" s="15">
         <v>1</v>
       </c>
@@ -12549,15 +12615,15 @@
       <c r="F145" s="5">
         <v>1</v>
       </c>
-      <c r="G145" s="68" t="s">
+      <c r="G145" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H145" s="69"/>
-      <c r="I145" s="69"/>
-      <c r="J145" s="69"/>
-      <c r="K145" s="69"/>
-      <c r="L145" s="69"/>
-      <c r="M145" s="70"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
+      <c r="J145" s="66"/>
+      <c r="K145" s="66"/>
+      <c r="L145" s="66"/>
+      <c r="M145" s="67"/>
       <c r="P145" s="15">
         <v>1</v>
       </c>
@@ -12567,15 +12633,15 @@
       <c r="R145" s="15">
         <v>1</v>
       </c>
-      <c r="S145" s="68" t="s">
+      <c r="S145" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T145" s="69"/>
-      <c r="U145" s="69"/>
-      <c r="V145" s="69"/>
-      <c r="W145" s="69"/>
-      <c r="X145" s="69"/>
-      <c r="Y145" s="70"/>
+      <c r="T145" s="66"/>
+      <c r="U145" s="66"/>
+      <c r="V145" s="66"/>
+      <c r="W145" s="66"/>
+      <c r="X145" s="66"/>
+      <c r="Y145" s="67"/>
       <c r="AB145" s="15">
         <v>1</v>
       </c>
@@ -12600,15 +12666,15 @@
       <c r="F146" s="5">
         <v>1</v>
       </c>
-      <c r="G146" s="68" t="s">
+      <c r="G146" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H146" s="69"/>
-      <c r="I146" s="69"/>
-      <c r="J146" s="69"/>
-      <c r="K146" s="69"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="70"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
+      <c r="J146" s="66"/>
+      <c r="K146" s="66"/>
+      <c r="L146" s="66"/>
+      <c r="M146" s="67"/>
       <c r="P146" s="15">
         <v>1</v>
       </c>
@@ -12618,15 +12684,15 @@
       <c r="R146" s="15">
         <v>1</v>
       </c>
-      <c r="S146" s="68" t="s">
+      <c r="S146" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T146" s="69"/>
-      <c r="U146" s="69"/>
-      <c r="V146" s="69"/>
-      <c r="W146" s="69"/>
-      <c r="X146" s="69"/>
-      <c r="Y146" s="70"/>
+      <c r="T146" s="66"/>
+      <c r="U146" s="66"/>
+      <c r="V146" s="66"/>
+      <c r="W146" s="66"/>
+      <c r="X146" s="66"/>
+      <c r="Y146" s="67"/>
       <c r="AB146" s="15">
         <v>1</v>
       </c>
@@ -12651,15 +12717,15 @@
       <c r="F147" s="5">
         <v>1</v>
       </c>
-      <c r="G147" s="68" t="s">
+      <c r="G147" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H147" s="69"/>
-      <c r="I147" s="69"/>
-      <c r="J147" s="69"/>
-      <c r="K147" s="69"/>
-      <c r="L147" s="69"/>
-      <c r="M147" s="70"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="66"/>
+      <c r="J147" s="66"/>
+      <c r="K147" s="66"/>
+      <c r="L147" s="66"/>
+      <c r="M147" s="67"/>
       <c r="P147" s="15">
         <v>1</v>
       </c>
@@ -12669,15 +12735,15 @@
       <c r="R147" s="15">
         <v>1</v>
       </c>
-      <c r="S147" s="68" t="s">
+      <c r="S147" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T147" s="69"/>
-      <c r="U147" s="69"/>
-      <c r="V147" s="69"/>
-      <c r="W147" s="69"/>
-      <c r="X147" s="69"/>
-      <c r="Y147" s="70"/>
+      <c r="T147" s="66"/>
+      <c r="U147" s="66"/>
+      <c r="V147" s="66"/>
+      <c r="W147" s="66"/>
+      <c r="X147" s="66"/>
+      <c r="Y147" s="67"/>
       <c r="AB147" s="15">
         <v>1</v>
       </c>
@@ -12702,15 +12768,15 @@
       <c r="F148" s="5">
         <v>1</v>
       </c>
-      <c r="G148" s="68" t="s">
+      <c r="G148" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H148" s="69"/>
-      <c r="I148" s="69"/>
-      <c r="J148" s="69"/>
-      <c r="K148" s="69"/>
-      <c r="L148" s="69"/>
-      <c r="M148" s="70"/>
+      <c r="H148" s="66"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
+      <c r="L148" s="66"/>
+      <c r="M148" s="67"/>
       <c r="P148" s="15">
         <v>1</v>
       </c>
@@ -12720,15 +12786,15 @@
       <c r="R148" s="15">
         <v>1</v>
       </c>
-      <c r="S148" s="68" t="s">
+      <c r="S148" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="T148" s="69"/>
-      <c r="U148" s="69"/>
-      <c r="V148" s="69"/>
-      <c r="W148" s="69"/>
-      <c r="X148" s="69"/>
-      <c r="Y148" s="70"/>
+      <c r="T148" s="66"/>
+      <c r="U148" s="66"/>
+      <c r="V148" s="66"/>
+      <c r="W148" s="66"/>
+      <c r="X148" s="66"/>
+      <c r="Y148" s="67"/>
       <c r="AB148" s="15">
         <v>1</v>
       </c>
@@ -13258,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>227</v>
+        <v>659</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -13783,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>227</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -14082,7 +14148,7 @@
       <c r="AB166" s="15">
         <v>1</v>
       </c>
-      <c r="AC166" s="83" t="s">
+      <c r="AC166" s="68" t="s">
         <v>411</v>
       </c>
     </row>
@@ -14157,7 +14223,7 @@
       <c r="AB167" s="15">
         <v>1</v>
       </c>
-      <c r="AC167" s="84"/>
+      <c r="AC167" s="69"/>
     </row>
     <row r="168" spans="1:30">
       <c r="A168" s="1">
@@ -14230,7 +14296,7 @@
       <c r="AB168" s="15">
         <v>1</v>
       </c>
-      <c r="AC168" s="84"/>
+      <c r="AC168" s="69"/>
     </row>
     <row r="169" spans="1:30">
       <c r="A169" s="1">
@@ -14303,7 +14369,7 @@
       <c r="AB169" s="15">
         <v>1</v>
       </c>
-      <c r="AC169" s="85"/>
+      <c r="AC169" s="70"/>
     </row>
     <row r="170" spans="1:30">
       <c r="A170" s="1">
@@ -14325,7 +14391,7 @@
       <c r="P170" s="15">
         <v>1</v>
       </c>
-      <c r="AC170" s="59" t="s">
+      <c r="AC170" s="83" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14349,7 +14415,7 @@
       <c r="P171" s="15">
         <v>1</v>
       </c>
-      <c r="AC171" s="60"/>
+      <c r="AC171" s="84"/>
     </row>
     <row r="172" spans="1:30">
       <c r="A172" s="1">
@@ -14368,16 +14434,16 @@
       <c r="E172" s="5">
         <v>867725036011611</v>
       </c>
-      <c r="F172" s="65" t="s">
+      <c r="F172" s="59" t="s">
         <v>615</v>
       </c>
-      <c r="G172" s="66"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="66"/>
-      <c r="J172" s="66"/>
-      <c r="K172" s="66"/>
-      <c r="L172" s="66"/>
-      <c r="M172" s="67"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="60"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
+      <c r="L172" s="60"/>
+      <c r="M172" s="61"/>
       <c r="N172" s="5">
         <v>1</v>
       </c>
@@ -14387,23 +14453,23 @@
       <c r="Q172" s="56">
         <v>43490</v>
       </c>
-      <c r="R172" s="71" t="s">
+      <c r="R172" s="62" t="s">
         <v>615</v>
       </c>
-      <c r="S172" s="72"/>
-      <c r="T172" s="72"/>
-      <c r="U172" s="72"/>
-      <c r="V172" s="72"/>
-      <c r="W172" s="72"/>
-      <c r="X172" s="72"/>
-      <c r="Y172" s="73"/>
+      <c r="S172" s="63"/>
+      <c r="T172" s="63"/>
+      <c r="U172" s="63"/>
+      <c r="V172" s="63"/>
+      <c r="W172" s="63"/>
+      <c r="X172" s="63"/>
+      <c r="Y172" s="64"/>
       <c r="Z172" s="15">
         <v>1</v>
       </c>
       <c r="AB172" s="15">
         <v>0</v>
       </c>
-      <c r="AC172" s="60"/>
+      <c r="AC172" s="84"/>
       <c r="AD172" t="s">
         <v>617</v>
       </c>
@@ -14428,7 +14494,7 @@
       <c r="P173" s="15">
         <v>1</v>
       </c>
-      <c r="AC173" s="60"/>
+      <c r="AC173" s="84"/>
     </row>
     <row r="174" spans="1:30">
       <c r="A174" s="1">
@@ -14447,16 +14513,16 @@
       <c r="E174" s="5">
         <v>867725035988389</v>
       </c>
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="66"/>
-      <c r="K174" s="66"/>
-      <c r="L174" s="66"/>
-      <c r="M174" s="67"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="60"/>
+      <c r="I174" s="60"/>
+      <c r="J174" s="60"/>
+      <c r="K174" s="60"/>
+      <c r="L174" s="60"/>
+      <c r="M174" s="61"/>
       <c r="N174" s="5">
         <v>1</v>
       </c>
@@ -14466,23 +14532,23 @@
       <c r="Q174" s="56">
         <v>43490</v>
       </c>
-      <c r="R174" s="65" t="s">
+      <c r="R174" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="S174" s="66"/>
-      <c r="T174" s="66"/>
-      <c r="U174" s="66"/>
-      <c r="V174" s="66"/>
-      <c r="W174" s="66"/>
-      <c r="X174" s="66"/>
-      <c r="Y174" s="67"/>
+      <c r="S174" s="60"/>
+      <c r="T174" s="60"/>
+      <c r="U174" s="60"/>
+      <c r="V174" s="60"/>
+      <c r="W174" s="60"/>
+      <c r="X174" s="60"/>
+      <c r="Y174" s="61"/>
       <c r="Z174" s="15">
         <v>1</v>
       </c>
       <c r="AB174" s="15">
         <v>0</v>
       </c>
-      <c r="AC174" s="61"/>
+      <c r="AC174" s="85"/>
       <c r="AD174" t="s">
         <v>617</v>
       </c>
@@ -14649,7 +14715,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="177" spans="1:29">
+    <row r="177" spans="1:30">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14733,7 +14799,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="178" spans="1:29">
+    <row r="178" spans="1:30">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -14741,8 +14807,49 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:29">
+      <c r="C178" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D178" s="5">
+        <v>190101130000006</v>
+      </c>
+      <c r="E178" s="5">
+        <v>860765048035916</v>
+      </c>
+      <c r="F178" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="G178" s="60"/>
+      <c r="H178" s="60"/>
+      <c r="I178" s="60"/>
+      <c r="J178" s="60"/>
+      <c r="K178" s="60"/>
+      <c r="L178" s="60"/>
+      <c r="M178" s="61"/>
+      <c r="P178" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="56">
+        <v>43532</v>
+      </c>
+      <c r="R178" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="S178" s="63"/>
+      <c r="T178" s="63"/>
+      <c r="U178" s="63"/>
+      <c r="V178" s="63"/>
+      <c r="W178" s="63"/>
+      <c r="X178" s="63"/>
+      <c r="Y178" s="64"/>
+      <c r="AB178" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -14750,8 +14857,80 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:29">
+      <c r="C179" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D179" s="5">
+        <v>181004020000215</v>
+      </c>
+      <c r="F179" s="5">
+        <v>1</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1</v>
+      </c>
+      <c r="H179" s="5">
+        <v>2</v>
+      </c>
+      <c r="I179" s="5">
+        <v>1</v>
+      </c>
+      <c r="J179" s="5">
+        <v>1</v>
+      </c>
+      <c r="K179" s="9">
+        <v>1</v>
+      </c>
+      <c r="L179" s="5">
+        <v>1</v>
+      </c>
+      <c r="M179" s="9">
+        <v>2</v>
+      </c>
+      <c r="N179" s="5">
+        <v>1</v>
+      </c>
+      <c r="P179" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="56">
+        <v>43543</v>
+      </c>
+      <c r="R179" s="5">
+        <v>1</v>
+      </c>
+      <c r="S179" s="9">
+        <v>1</v>
+      </c>
+      <c r="T179" s="5">
+        <v>2</v>
+      </c>
+      <c r="U179" s="5">
+        <v>1</v>
+      </c>
+      <c r="V179" s="5">
+        <v>1</v>
+      </c>
+      <c r="W179" s="9">
+        <v>1</v>
+      </c>
+      <c r="X179" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y179" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z179" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB179" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -14759,8 +14938,80 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:29">
+      <c r="C180" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D180" s="5">
+        <v>181004020000221</v>
+      </c>
+      <c r="F180" s="5">
+        <v>1</v>
+      </c>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
+      <c r="H180" s="5">
+        <v>2</v>
+      </c>
+      <c r="I180" s="5">
+        <v>1</v>
+      </c>
+      <c r="J180" s="5">
+        <v>1</v>
+      </c>
+      <c r="K180" s="9">
+        <v>1</v>
+      </c>
+      <c r="L180" s="5">
+        <v>1</v>
+      </c>
+      <c r="M180" s="9">
+        <v>2</v>
+      </c>
+      <c r="N180" s="5">
+        <v>1</v>
+      </c>
+      <c r="P180" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="56">
+        <v>43543</v>
+      </c>
+      <c r="R180" s="5">
+        <v>1</v>
+      </c>
+      <c r="S180" s="9">
+        <v>1</v>
+      </c>
+      <c r="T180" s="5">
+        <v>2</v>
+      </c>
+      <c r="U180" s="5">
+        <v>1</v>
+      </c>
+      <c r="V180" s="5">
+        <v>1</v>
+      </c>
+      <c r="W180" s="9">
+        <v>1</v>
+      </c>
+      <c r="X180" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y180" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z180" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB180" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -14768,62 +15019,424 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:29">
+      <c r="C181" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D181" s="5">
+        <v>181001020000066</v>
+      </c>
+      <c r="F181" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="G181" s="60"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="60"/>
+      <c r="M181" s="60"/>
+      <c r="N181" s="61"/>
+      <c r="P181" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="56">
+        <v>43552</v>
+      </c>
+      <c r="R181" s="62" t="s">
+        <v>650</v>
+      </c>
+      <c r="S181" s="63"/>
+      <c r="T181" s="63"/>
+      <c r="U181" s="63"/>
+      <c r="V181" s="63"/>
+      <c r="W181" s="63"/>
+      <c r="X181" s="63"/>
+      <c r="Y181" s="63"/>
+      <c r="Z181" s="64"/>
+      <c r="AB181" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D182" s="5">
+        <v>181004020000219</v>
+      </c>
+      <c r="F182" s="59" t="s">
+        <v>655</v>
+      </c>
+      <c r="G182" s="60"/>
+      <c r="H182" s="60"/>
+      <c r="I182" s="60"/>
+      <c r="J182" s="60"/>
+      <c r="K182" s="60"/>
+      <c r="L182" s="60"/>
+      <c r="M182" s="60"/>
+      <c r="N182" s="61"/>
+      <c r="P182" s="15">
+        <v>1</v>
+      </c>
+      <c r="R182" s="62" t="s">
+        <v>655</v>
+      </c>
+      <c r="S182" s="63"/>
+      <c r="T182" s="63"/>
+      <c r="U182" s="63"/>
+      <c r="V182" s="63"/>
+      <c r="W182" s="63"/>
+      <c r="X182" s="63"/>
+      <c r="Y182" s="63"/>
+      <c r="Z182" s="64"/>
+      <c r="AC182" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D183" s="5">
+        <v>181004020000236</v>
+      </c>
+      <c r="F183" s="5">
+        <v>1</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1</v>
+      </c>
+      <c r="H183" s="5">
+        <v>2</v>
+      </c>
+      <c r="I183" s="5">
+        <v>1</v>
+      </c>
+      <c r="J183" s="5">
+        <v>1</v>
+      </c>
+      <c r="K183" s="9">
+        <v>1</v>
+      </c>
+      <c r="L183" s="5">
+        <v>1</v>
+      </c>
+      <c r="M183" s="9">
+        <v>2</v>
+      </c>
+      <c r="P183" s="15">
+        <v>1</v>
+      </c>
+      <c r="R183" s="5">
+        <v>1</v>
+      </c>
+      <c r="S183" s="9">
+        <v>1</v>
+      </c>
+      <c r="T183" s="5">
+        <v>2</v>
+      </c>
+      <c r="U183" s="5">
+        <v>1</v>
+      </c>
+      <c r="V183" s="5">
+        <v>1</v>
+      </c>
+      <c r="W183" s="9">
+        <v>1</v>
+      </c>
+      <c r="X183" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y183" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D184" s="5">
+        <v>181004020000225</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+      <c r="G184" s="9">
+        <v>1</v>
+      </c>
+      <c r="H184" s="5">
+        <v>2</v>
+      </c>
+      <c r="I184" s="5">
+        <v>1</v>
+      </c>
+      <c r="J184" s="5">
+        <v>1</v>
+      </c>
+      <c r="K184" s="9">
+        <v>1</v>
+      </c>
+      <c r="L184" s="5">
+        <v>1</v>
+      </c>
+      <c r="M184" s="9">
+        <v>2</v>
+      </c>
+      <c r="P184" s="15">
+        <v>1</v>
+      </c>
+      <c r="R184" s="5">
+        <v>1</v>
+      </c>
+      <c r="S184" s="9">
+        <v>1</v>
+      </c>
+      <c r="T184" s="5">
+        <v>2</v>
+      </c>
+      <c r="U184" s="5">
+        <v>1</v>
+      </c>
+      <c r="V184" s="5">
+        <v>1</v>
+      </c>
+      <c r="W184" s="9">
+        <v>1</v>
+      </c>
+      <c r="X184" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y184" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D185" s="5">
+        <v>181004020000205</v>
+      </c>
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+      <c r="G185" s="9">
+        <v>1</v>
+      </c>
+      <c r="H185" s="5">
+        <v>2</v>
+      </c>
+      <c r="I185" s="5">
+        <v>1</v>
+      </c>
+      <c r="J185" s="5">
+        <v>1</v>
+      </c>
+      <c r="K185" s="9">
+        <v>1</v>
+      </c>
+      <c r="L185" s="5">
+        <v>1</v>
+      </c>
+      <c r="M185" s="9">
+        <v>2</v>
+      </c>
+      <c r="P185" s="15">
+        <v>1</v>
+      </c>
+      <c r="R185" s="5">
+        <v>1</v>
+      </c>
+      <c r="S185" s="9">
+        <v>1</v>
+      </c>
+      <c r="T185" s="5">
+        <v>2</v>
+      </c>
+      <c r="U185" s="5">
+        <v>1</v>
+      </c>
+      <c r="V185" s="5">
+        <v>1</v>
+      </c>
+      <c r="W185" s="9">
+        <v>1</v>
+      </c>
+      <c r="X185" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y185" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D186" s="5">
+        <v>181004020000239</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1</v>
+      </c>
+      <c r="G186" s="9">
+        <v>1</v>
+      </c>
+      <c r="H186" s="5">
+        <v>2</v>
+      </c>
+      <c r="I186" s="5">
+        <v>1</v>
+      </c>
+      <c r="J186" s="5">
+        <v>1</v>
+      </c>
+      <c r="K186" s="9">
+        <v>1</v>
+      </c>
+      <c r="L186" s="5">
+        <v>1</v>
+      </c>
+      <c r="M186" s="9">
+        <v>2</v>
+      </c>
+      <c r="P186" s="15">
+        <v>1</v>
+      </c>
+      <c r="R186" s="5">
+        <v>1</v>
+      </c>
+      <c r="S186" s="9">
+        <v>1</v>
+      </c>
+      <c r="T186" s="5">
+        <v>2</v>
+      </c>
+      <c r="U186" s="5">
+        <v>1</v>
+      </c>
+      <c r="V186" s="5">
+        <v>1</v>
+      </c>
+      <c r="W186" s="9">
+        <v>1</v>
+      </c>
+      <c r="X186" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y186" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D187" s="5">
+        <v>181004020000259</v>
+      </c>
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1</v>
+      </c>
+      <c r="H187" s="5">
+        <v>2</v>
+      </c>
+      <c r="I187" s="5">
+        <v>1</v>
+      </c>
+      <c r="J187" s="5">
+        <v>1</v>
+      </c>
+      <c r="K187" s="9">
+        <v>1</v>
+      </c>
+      <c r="L187" s="5">
+        <v>1</v>
+      </c>
+      <c r="M187" s="9">
+        <v>2</v>
+      </c>
+      <c r="P187" s="15">
+        <v>1</v>
+      </c>
+      <c r="R187" s="5">
+        <v>1</v>
+      </c>
+      <c r="S187" s="9">
+        <v>1</v>
+      </c>
+      <c r="T187" s="5">
+        <v>2</v>
+      </c>
+      <c r="U187" s="5">
+        <v>1</v>
+      </c>
+      <c r="V187" s="5">
+        <v>1</v>
+      </c>
+      <c r="W187" s="9">
+        <v>1</v>
+      </c>
+      <c r="X187" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y187" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -14831,8 +15444,43 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:29">
+      <c r="C188" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D188" s="5">
+        <v>180701010000135</v>
+      </c>
+      <c r="F188" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="G188" s="60"/>
+      <c r="H188" s="60"/>
+      <c r="I188" s="60"/>
+      <c r="J188" s="60"/>
+      <c r="K188" s="60"/>
+      <c r="L188" s="60"/>
+      <c r="M188" s="61"/>
+      <c r="P188" s="15">
+        <v>1</v>
+      </c>
+      <c r="R188" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="S188" s="60"/>
+      <c r="T188" s="60"/>
+      <c r="U188" s="60"/>
+      <c r="V188" s="60"/>
+      <c r="W188" s="60"/>
+      <c r="X188" s="60"/>
+      <c r="Y188" s="61"/>
+      <c r="AB188" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC188" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -14840,8 +15488,43 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:29">
+      <c r="C189" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D189" s="5">
+        <v>180701010000660</v>
+      </c>
+      <c r="F189" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="G189" s="60"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="60"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="60"/>
+      <c r="L189" s="60"/>
+      <c r="M189" s="61"/>
+      <c r="P189" s="15">
+        <v>1</v>
+      </c>
+      <c r="R189" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="S189" s="60"/>
+      <c r="T189" s="60"/>
+      <c r="U189" s="60"/>
+      <c r="V189" s="60"/>
+      <c r="W189" s="60"/>
+      <c r="X189" s="60"/>
+      <c r="Y189" s="61"/>
+      <c r="AB189" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -14850,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:29">
+    <row r="191" spans="1:30">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14859,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:29">
+    <row r="192" spans="1:30">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14950,31 +15633,114 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="F172:M172"/>
-    <mergeCell ref="R172:Y172"/>
-    <mergeCell ref="F174:M174"/>
-    <mergeCell ref="R174:Y174"/>
-    <mergeCell ref="G145:M145"/>
-    <mergeCell ref="S145:Y145"/>
-    <mergeCell ref="G146:M146"/>
-    <mergeCell ref="S146:Y146"/>
-    <mergeCell ref="G147:M147"/>
-    <mergeCell ref="S147:Y147"/>
-    <mergeCell ref="G148:M148"/>
-    <mergeCell ref="S148:Y148"/>
-    <mergeCell ref="AC166:AC169"/>
-    <mergeCell ref="S132:Y132"/>
-    <mergeCell ref="S127:Y127"/>
-    <mergeCell ref="S128:Y128"/>
-    <mergeCell ref="S129:Y129"/>
-    <mergeCell ref="S130:Y130"/>
-    <mergeCell ref="S131:Y131"/>
-    <mergeCell ref="S122:Y122"/>
-    <mergeCell ref="S123:Y123"/>
-    <mergeCell ref="S124:Y124"/>
-    <mergeCell ref="S125:Y125"/>
-    <mergeCell ref="S126:Y126"/>
+  <mergeCells count="165">
+    <mergeCell ref="AC170:AC174"/>
+    <mergeCell ref="G62:N62"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S62:Z62"/>
+    <mergeCell ref="AC100:AC105"/>
+    <mergeCell ref="G95:M95"/>
+    <mergeCell ref="S95:Y95"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="S70:Y70"/>
+    <mergeCell ref="S71:Y71"/>
+    <mergeCell ref="G96:M96"/>
+    <mergeCell ref="S96:Y96"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="S107:Y107"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="G109:M109"/>
+    <mergeCell ref="G110:M110"/>
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="S106:Y106"/>
+    <mergeCell ref="AC79:AC87"/>
+    <mergeCell ref="AC90:AC94"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="S55:Z55"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="S40:Z40"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="S34:Y34"/>
+    <mergeCell ref="S30:Y30"/>
+    <mergeCell ref="S31:Y31"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="S27:Y27"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="G116:M116"/>
+    <mergeCell ref="G117:M117"/>
+    <mergeCell ref="G118:M118"/>
+    <mergeCell ref="G119:M119"/>
+    <mergeCell ref="G120:M120"/>
+    <mergeCell ref="G111:M111"/>
+    <mergeCell ref="G112:M112"/>
+    <mergeCell ref="G113:M113"/>
+    <mergeCell ref="G114:M114"/>
+    <mergeCell ref="G115:M115"/>
     <mergeCell ref="G131:M131"/>
     <mergeCell ref="G132:M132"/>
     <mergeCell ref="S108:Y108"/>
@@ -14999,113 +15765,40 @@
     <mergeCell ref="G121:M121"/>
     <mergeCell ref="G122:M122"/>
     <mergeCell ref="G123:M123"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="G116:M116"/>
-    <mergeCell ref="G117:M117"/>
-    <mergeCell ref="G118:M118"/>
-    <mergeCell ref="G119:M119"/>
-    <mergeCell ref="G120:M120"/>
-    <mergeCell ref="G111:M111"/>
-    <mergeCell ref="G112:M112"/>
-    <mergeCell ref="G113:M113"/>
-    <mergeCell ref="G114:M114"/>
-    <mergeCell ref="G115:M115"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="S27:Y27"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="S40:Z40"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S34:Y34"/>
-    <mergeCell ref="S30:Y30"/>
-    <mergeCell ref="S31:Y31"/>
-    <mergeCell ref="S33:Y33"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="S55:Z55"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="S57:Z57"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="AC170:AC174"/>
-    <mergeCell ref="G62:N62"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="S61:Z61"/>
-    <mergeCell ref="S62:Z62"/>
-    <mergeCell ref="AC100:AC105"/>
-    <mergeCell ref="G95:M95"/>
-    <mergeCell ref="S95:Y95"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="S70:Y70"/>
-    <mergeCell ref="S71:Y71"/>
-    <mergeCell ref="G96:M96"/>
-    <mergeCell ref="S96:Y96"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="S107:Y107"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="G109:M109"/>
-    <mergeCell ref="G110:M110"/>
-    <mergeCell ref="G106:M106"/>
-    <mergeCell ref="S106:Y106"/>
-    <mergeCell ref="AC79:AC87"/>
-    <mergeCell ref="AC90:AC94"/>
+    <mergeCell ref="AC166:AC169"/>
+    <mergeCell ref="S132:Y132"/>
+    <mergeCell ref="S127:Y127"/>
+    <mergeCell ref="S128:Y128"/>
+    <mergeCell ref="S129:Y129"/>
+    <mergeCell ref="S130:Y130"/>
+    <mergeCell ref="S131:Y131"/>
+    <mergeCell ref="S122:Y122"/>
+    <mergeCell ref="S123:Y123"/>
+    <mergeCell ref="S124:Y124"/>
+    <mergeCell ref="S125:Y125"/>
+    <mergeCell ref="S126:Y126"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="S145:Y145"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="S146:Y146"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="S147:Y147"/>
+    <mergeCell ref="G148:M148"/>
+    <mergeCell ref="S148:Y148"/>
+    <mergeCell ref="F181:N181"/>
+    <mergeCell ref="R181:Z181"/>
+    <mergeCell ref="F178:M178"/>
+    <mergeCell ref="R178:Y178"/>
+    <mergeCell ref="F188:M188"/>
+    <mergeCell ref="F189:M189"/>
+    <mergeCell ref="R188:Y188"/>
+    <mergeCell ref="R189:Y189"/>
+    <mergeCell ref="F182:N182"/>
+    <mergeCell ref="R182:Z182"/>
+    <mergeCell ref="F172:M172"/>
+    <mergeCell ref="R172:Y172"/>
+    <mergeCell ref="F174:M174"/>
+    <mergeCell ref="R174:Y174"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 P4:P1048576 AB4:AB1048576">
@@ -16927,7 +17620,7 @@
       <c r="H87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I87" s="59"/>
+      <c r="I87" s="83"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
@@ -16948,7 +17641,7 @@
       <c r="H88" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I88" s="60"/>
+      <c r="I88" s="84"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
@@ -16969,7 +17662,7 @@
       <c r="H89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I89" s="60"/>
+      <c r="I89" s="84"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
@@ -16990,7 +17683,7 @@
       <c r="H90" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I90" s="60"/>
+      <c r="I90" s="84"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
@@ -17011,7 +17704,7 @@
       <c r="H91" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I91" s="60"/>
+      <c r="I91" s="84"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
@@ -17032,7 +17725,7 @@
       <c r="H92" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I92" s="60"/>
+      <c r="I92" s="84"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
@@ -17053,7 +17746,7 @@
       <c r="H93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I93" s="60"/>
+      <c r="I93" s="84"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
@@ -17074,7 +17767,7 @@
       <c r="H94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I94" s="60"/>
+      <c r="I94" s="84"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
@@ -17095,7 +17788,7 @@
       <c r="H95" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I95" s="60"/>
+      <c r="I95" s="84"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
@@ -17116,7 +17809,7 @@
       <c r="H96" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I96" s="60"/>
+      <c r="I96" s="84"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
@@ -17137,7 +17830,7 @@
       <c r="H97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I97" s="60"/>
+      <c r="I97" s="84"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
@@ -17158,7 +17851,7 @@
       <c r="H98" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I98" s="60"/>
+      <c r="I98" s="84"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
@@ -17179,7 +17872,7 @@
       <c r="H99" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I99" s="60"/>
+      <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
@@ -17200,7 +17893,7 @@
       <c r="H100" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I100" s="60"/>
+      <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
@@ -17221,7 +17914,7 @@
       <c r="H101" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I101" s="60"/>
+      <c r="I101" s="84"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
@@ -17242,7 +17935,7 @@
       <c r="H102" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I102" s="60"/>
+      <c r="I102" s="84"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
@@ -17263,7 +17956,7 @@
       <c r="H103" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I103" s="60"/>
+      <c r="I103" s="84"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
@@ -17284,7 +17977,7 @@
       <c r="H104" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I104" s="60"/>
+      <c r="I104" s="84"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
@@ -17305,7 +17998,7 @@
       <c r="H105" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I105" s="60"/>
+      <c r="I105" s="84"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
@@ -17326,7 +18019,7 @@
       <c r="H106" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I106" s="60"/>
+      <c r="I106" s="84"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
@@ -17347,7 +18040,7 @@
       <c r="H107" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I107" s="60"/>
+      <c r="I107" s="84"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
@@ -17368,7 +18061,7 @@
       <c r="H108" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I108" s="60"/>
+      <c r="I108" s="84"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
@@ -17389,7 +18082,7 @@
       <c r="H109" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I109" s="60"/>
+      <c r="I109" s="84"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
@@ -17410,7 +18103,7 @@
       <c r="H110" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I110" s="60"/>
+      <c r="I110" s="84"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
@@ -17431,7 +18124,7 @@
       <c r="H111" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I111" s="60"/>
+      <c r="I111" s="84"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
@@ -17452,7 +18145,7 @@
       <c r="H112" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I112" s="60"/>
+      <c r="I112" s="84"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
@@ -17473,7 +18166,7 @@
       <c r="H113" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I113" s="60"/>
+      <c r="I113" s="84"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
@@ -17494,7 +18187,7 @@
       <c r="H114" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I114" s="60"/>
+      <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
@@ -17515,7 +18208,7 @@
       <c r="H115" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I115" s="60"/>
+      <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
@@ -17536,7 +18229,7 @@
       <c r="H116" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I116" s="60"/>
+      <c r="I116" s="84"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
@@ -17557,7 +18250,7 @@
       <c r="H117" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I117" s="60"/>
+      <c r="I117" s="84"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
@@ -17578,7 +18271,7 @@
       <c r="H118" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I118" s="60"/>
+      <c r="I118" s="84"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
@@ -17599,7 +18292,7 @@
       <c r="H119" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I119" s="60"/>
+      <c r="I119" s="84"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
@@ -17620,7 +18313,7 @@
       <c r="H120" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I120" s="60"/>
+      <c r="I120" s="84"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
@@ -17641,7 +18334,7 @@
       <c r="H121" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I121" s="60"/>
+      <c r="I121" s="84"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
@@ -17662,7 +18355,7 @@
       <c r="H122" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I122" s="60"/>
+      <c r="I122" s="84"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
@@ -17683,7 +18376,7 @@
       <c r="H123" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I123" s="60"/>
+      <c r="I123" s="84"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
@@ -17704,7 +18397,7 @@
       <c r="H124" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I124" s="60"/>
+      <c r="I124" s="84"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
@@ -17725,7 +18418,7 @@
       <c r="H125" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I125" s="60"/>
+      <c r="I125" s="84"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
@@ -17746,7 +18439,7 @@
       <c r="H126" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I126" s="60"/>
+      <c r="I126" s="84"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
@@ -17767,7 +18460,7 @@
       <c r="H127" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I127" s="60"/>
+      <c r="I127" s="84"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
@@ -17788,7 +18481,7 @@
       <c r="H128" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I128" s="60"/>
+      <c r="I128" s="84"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
@@ -17809,7 +18502,7 @@
       <c r="H129" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I129" s="60"/>
+      <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
@@ -17830,7 +18523,7 @@
       <c r="H130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I130" s="60"/>
+      <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
@@ -17851,7 +18544,7 @@
       <c r="H131" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I131" s="60"/>
+      <c r="I131" s="84"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
@@ -17872,7 +18565,7 @@
       <c r="H132" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I132" s="60"/>
+      <c r="I132" s="84"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
@@ -17893,7 +18586,7 @@
       <c r="H133" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I133" s="60"/>
+      <c r="I133" s="84"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
@@ -17914,7 +18607,7 @@
       <c r="H134" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I134" s="60"/>
+      <c r="I134" s="84"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
@@ -17935,7 +18628,7 @@
       <c r="H135" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I135" s="60"/>
+      <c r="I135" s="84"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
@@ -17956,7 +18649,7 @@
       <c r="H136" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I136" s="60"/>
+      <c r="I136" s="84"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
@@ -17977,7 +18670,7 @@
       <c r="H137" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I137" s="60"/>
+      <c r="I137" s="84"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
@@ -17998,7 +18691,7 @@
       <c r="H138" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I138" s="60"/>
+      <c r="I138" s="84"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
@@ -18019,7 +18712,7 @@
       <c r="H139" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I139" s="60"/>
+      <c r="I139" s="84"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
@@ -18040,7 +18733,7 @@
       <c r="H140" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I140" s="60"/>
+      <c r="I140" s="84"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
@@ -18061,7 +18754,7 @@
       <c r="H141" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I141" s="60"/>
+      <c r="I141" s="84"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
@@ -18082,7 +18775,7 @@
       <c r="H142" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I142" s="60"/>
+      <c r="I142" s="84"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
@@ -18103,7 +18796,7 @@
       <c r="H143" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I143" s="60"/>
+      <c r="I143" s="84"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
@@ -18124,7 +18817,7 @@
       <c r="H144" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I144" s="60"/>
+      <c r="I144" s="84"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
@@ -18145,7 +18838,7 @@
       <c r="H145" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I145" s="60"/>
+      <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
@@ -18166,7 +18859,7 @@
       <c r="H146" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I146" s="60"/>
+      <c r="I146" s="84"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
@@ -18187,7 +18880,7 @@
       <c r="H147" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I147" s="60"/>
+      <c r="I147" s="84"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
@@ -18208,7 +18901,7 @@
       <c r="H148" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I148" s="60"/>
+      <c r="I148" s="84"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
@@ -18229,7 +18922,7 @@
       <c r="H149" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I149" s="60"/>
+      <c r="I149" s="84"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
@@ -18250,7 +18943,7 @@
       <c r="H150" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I150" s="60"/>
+      <c r="I150" s="84"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
@@ -18271,7 +18964,7 @@
       <c r="H151" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I151" s="60"/>
+      <c r="I151" s="84"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
@@ -18292,7 +18985,7 @@
       <c r="H152" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I152" s="60"/>
+      <c r="I152" s="84"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
@@ -18313,7 +19006,7 @@
       <c r="H153" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I153" s="60"/>
+      <c r="I153" s="84"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
@@ -18334,7 +19027,7 @@
       <c r="H154" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I154" s="60"/>
+      <c r="I154" s="84"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
@@ -18355,7 +19048,7 @@
       <c r="H155" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I155" s="60"/>
+      <c r="I155" s="84"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
@@ -18376,7 +19069,7 @@
       <c r="H156" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I156" s="60"/>
+      <c r="I156" s="84"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
@@ -18397,7 +19090,7 @@
       <c r="H157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I157" s="60"/>
+      <c r="I157" s="84"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
@@ -18418,7 +19111,7 @@
       <c r="H158" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I158" s="60"/>
+      <c r="I158" s="84"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
@@ -18439,7 +19132,7 @@
       <c r="H159" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I159" s="60"/>
+      <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
@@ -18460,7 +19153,7 @@
       <c r="H160" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
@@ -18481,7 +19174,7 @@
       <c r="H161" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I161" s="60"/>
+      <c r="I161" s="84"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
@@ -18502,7 +19195,7 @@
       <c r="H162" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I162" s="60"/>
+      <c r="I162" s="84"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
@@ -18523,7 +19216,7 @@
       <c r="H163" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I163" s="60"/>
+      <c r="I163" s="84"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
@@ -18544,7 +19237,7 @@
       <c r="H164" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I164" s="60"/>
+      <c r="I164" s="84"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
@@ -18565,7 +19258,7 @@
       <c r="H165" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I165" s="60"/>
+      <c r="I165" s="84"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
@@ -18586,7 +19279,7 @@
       <c r="H166" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I166" s="60"/>
+      <c r="I166" s="84"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
@@ -18607,7 +19300,7 @@
       <c r="H167" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I167" s="60"/>
+      <c r="I167" s="84"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
@@ -18628,7 +19321,7 @@
       <c r="H168" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I168" s="60"/>
+      <c r="I168" s="84"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
@@ -18649,7 +19342,7 @@
       <c r="H169" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I169" s="60"/>
+      <c r="I169" s="84"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
@@ -18670,7 +19363,7 @@
       <c r="H170" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I170" s="60"/>
+      <c r="I170" s="84"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
@@ -18691,7 +19384,7 @@
       <c r="H171" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I171" s="60"/>
+      <c r="I171" s="84"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
@@ -18712,7 +19405,7 @@
       <c r="H172" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I172" s="60"/>
+      <c r="I172" s="84"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
@@ -18733,7 +19426,7 @@
       <c r="H173" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I173" s="60"/>
+      <c r="I173" s="84"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
@@ -18754,7 +19447,7 @@
       <c r="H174" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I174" s="60"/>
+      <c r="I174" s="84"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
@@ -18775,7 +19468,7 @@
       <c r="H175" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I175" s="60"/>
+      <c r="I175" s="84"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
@@ -18796,7 +19489,7 @@
       <c r="H176" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I176" s="60"/>
+      <c r="I176" s="84"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
@@ -18817,7 +19510,7 @@
       <c r="H177" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I177" s="60"/>
+      <c r="I177" s="84"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
@@ -18838,7 +19531,7 @@
       <c r="H178" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I178" s="60"/>
+      <c r="I178" s="84"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
@@ -18859,7 +19552,7 @@
       <c r="H179" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I179" s="60"/>
+      <c r="I179" s="84"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
@@ -18880,7 +19573,7 @@
       <c r="H180" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I180" s="60"/>
+      <c r="I180" s="84"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
@@ -18901,7 +19594,7 @@
       <c r="H181" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I181" s="60"/>
+      <c r="I181" s="84"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
@@ -18922,7 +19615,7 @@
       <c r="H182" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I182" s="60"/>
+      <c r="I182" s="84"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
@@ -18943,7 +19636,7 @@
       <c r="H183" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I183" s="60"/>
+      <c r="I183" s="84"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
@@ -18964,7 +19657,7 @@
       <c r="H184" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I184" s="60"/>
+      <c r="I184" s="84"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
@@ -18985,7 +19678,7 @@
       <c r="H185" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I185" s="60"/>
+      <c r="I185" s="84"/>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
@@ -19006,7 +19699,7 @@
       <c r="H186" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I186" s="61"/>
+      <c r="I186" s="85"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">

--- a/门锁出入库登记表.xlsx
+++ b/门锁出入库登记表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="732">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2740,10 +2740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NB模块装到正指向那批锁，带到广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019/5/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2877,6 +2873,46 @@
   </si>
   <si>
     <t>深圳市南山区南山街道科慧路1号沛鸿产业园A2栋501 李经理 13530403960   账号：peihong 密码：Ph123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装门锁(指纹锁 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘劲调天线,已还，戴涛在测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘劲调天线,已还，陈侃在测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒便利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒便利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为符平平借走6月6日,电话15019494141。6月19日还回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>940010112192200003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把手指纹锁，带测试架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3280,10 +3316,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3725,10 +3761,10 @@
   <dimension ref="A1:AD325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F286" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC309" sqref="AC309"/>
+      <selection pane="bottomRight" activeCell="A309" sqref="A309:XFD309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3736,7 +3772,7 @@
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="9" customWidth="1"/>
@@ -4478,12 +4514,12 @@
       <c r="G12" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
       <c r="P12" s="15">
         <v>1</v>
       </c>
@@ -4494,12 +4530,12 @@
       <c r="S12" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="65"/>
       <c r="AA12" s="1" t="s">
         <v>101</v>
       </c>
@@ -4531,12 +4567,12 @@
       <c r="G13" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
       <c r="P13" s="15">
         <v>1</v>
       </c>
@@ -4547,12 +4583,12 @@
       <c r="S13" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
       <c r="AA13" s="1" t="s">
         <v>101</v>
       </c>
@@ -4584,12 +4620,12 @@
       <c r="G14" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="P14" s="15">
         <v>1</v>
       </c>
@@ -4600,12 +4636,12 @@
       <c r="S14" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="65"/>
       <c r="AA14" s="1" t="s">
         <v>101</v>
       </c>
@@ -4637,12 +4673,12 @@
       <c r="G15" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
       <c r="P15" s="15">
         <v>1</v>
       </c>
@@ -4653,12 +4689,12 @@
       <c r="S15" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="65"/>
       <c r="AA15" s="1" t="s">
         <v>101</v>
       </c>
@@ -4690,12 +4726,12 @@
       <c r="G16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
       <c r="P16" s="15">
         <v>1</v>
       </c>
@@ -4706,12 +4742,12 @@
       <c r="S16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="65"/>
       <c r="AA16" s="1" t="s">
         <v>101</v>
       </c>
@@ -4742,12 +4778,12 @@
       <c r="G17" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="P17" s="15">
         <v>1</v>
       </c>
@@ -4757,12 +4793,12 @@
       <c r="S17" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="65"/>
       <c r="AA17" s="1" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +4815,7 @@
       </c>
       <c r="B18" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>130</v>
@@ -4826,11 +4862,9 @@
       <c r="AA18" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="AB18" s="14">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="14"/>
       <c r="AC18" s="13" t="s">
-        <v>687</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -4991,12 +5025,12 @@
       <c r="G21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
       <c r="P21" s="15">
         <v>1</v>
       </c>
@@ -5006,12 +5040,12 @@
       <c r="S21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="65"/>
       <c r="AB21" s="15">
         <v>1</v>
       </c>
@@ -5036,12 +5070,12 @@
       <c r="G22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
       <c r="P22" s="15">
         <v>1</v>
       </c>
@@ -5051,12 +5085,12 @@
       <c r="S22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="65"/>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
@@ -5081,12 +5115,12 @@
       <c r="G23" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
       <c r="P23" s="15">
         <v>1</v>
       </c>
@@ -5096,12 +5130,12 @@
       <c r="S23" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="65"/>
       <c r="AB23" s="15">
         <v>1</v>
       </c>
@@ -5126,12 +5160,12 @@
       <c r="G24" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
       <c r="P24" s="15">
         <v>1</v>
       </c>
@@ -5141,12 +5175,12 @@
       <c r="S24" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="65"/>
       <c r="AB24" s="15">
         <v>1</v>
       </c>
@@ -5171,12 +5205,12 @@
       <c r="G25" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
       <c r="P25" s="15">
         <v>1</v>
       </c>
@@ -5186,12 +5220,12 @@
       <c r="S25" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="65"/>
       <c r="AB25" s="15">
         <v>1</v>
       </c>
@@ -5216,12 +5250,12 @@
       <c r="G26" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
       <c r="P26" s="15">
         <v>1</v>
       </c>
@@ -5231,12 +5265,12 @@
       <c r="S26" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="65"/>
       <c r="AB26" s="15">
         <v>1</v>
       </c>
@@ -5444,12 +5478,12 @@
       <c r="G30" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="65"/>
       <c r="N30" s="42"/>
       <c r="P30" s="15">
         <v>1</v>
@@ -5460,12 +5494,12 @@
       <c r="S30" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="65"/>
       <c r="AB30" s="15">
         <v>1</v>
       </c>
@@ -5490,12 +5524,12 @@
       <c r="G31" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="65"/>
       <c r="N31" s="42"/>
       <c r="P31" s="15">
         <v>1</v>
@@ -5506,12 +5540,12 @@
       <c r="S31" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="65"/>
       <c r="AB31" s="15">
         <v>1</v>
       </c>
@@ -5536,12 +5570,12 @@
       <c r="G32" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="65"/>
       <c r="N32" s="42"/>
       <c r="P32" s="15">
         <v>1</v>
@@ -5552,12 +5586,12 @@
       <c r="S32" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="65"/>
       <c r="AB32" s="15">
         <v>1</v>
       </c>
@@ -5582,12 +5616,12 @@
       <c r="G33" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="65"/>
       <c r="N33" s="42"/>
       <c r="P33" s="15">
         <v>1</v>
@@ -5598,12 +5632,12 @@
       <c r="S33" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="65"/>
       <c r="AB33" s="15">
         <v>1</v>
       </c>
@@ -5628,12 +5662,12 @@
       <c r="G34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="65"/>
       <c r="N34" s="42"/>
       <c r="P34" s="15">
         <v>1</v>
@@ -5644,12 +5678,12 @@
       <c r="S34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="65"/>
       <c r="AB34" s="15">
         <v>1</v>
       </c>
@@ -6077,13 +6111,13 @@
       <c r="G40" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="65"/>
       <c r="O40" s="1" t="s">
         <v>86</v>
       </c>
@@ -6094,13 +6128,13 @@
       <c r="S40" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="65"/>
       <c r="AB40" s="15">
         <v>1</v>
       </c>
@@ -7023,12 +7057,12 @@
       <c r="H54" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="65"/>
       <c r="O54" s="1" t="s">
         <v>259</v>
       </c>
@@ -7078,13 +7112,13 @@
       <c r="G55" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="65"/>
       <c r="O55" s="1" t="s">
         <v>259</v>
       </c>
@@ -7097,13 +7131,13 @@
       <c r="S55" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="65"/>
       <c r="AA55" s="1" t="s">
         <v>259</v>
       </c>
@@ -7237,13 +7271,13 @@
       <c r="S57" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="T57" s="65"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+      <c r="Z57" s="65"/>
       <c r="AA57" s="1" t="s">
         <v>259</v>
       </c>
@@ -7377,13 +7411,13 @@
       <c r="S59" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
       <c r="AA59" s="1" t="s">
         <v>259</v>
       </c>
@@ -7433,13 +7467,13 @@
       <c r="S60" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+      <c r="Z60" s="65"/>
       <c r="AA60" s="1" t="s">
         <v>259</v>
       </c>
@@ -7489,13 +7523,13 @@
       <c r="S61" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+      <c r="Z61" s="65"/>
       <c r="AA61" s="1" t="s">
         <v>259</v>
       </c>
@@ -7545,13 +7579,13 @@
       <c r="S62" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="T62" s="65"/>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
-      <c r="W62" s="65"/>
-      <c r="X62" s="65"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="65"/>
       <c r="AA62" s="1" t="s">
         <v>259</v>
       </c>
@@ -9959,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -10064,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -10202,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10647,12 +10681,12 @@
       <c r="G106" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="H106" s="65"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="65"/>
-      <c r="M106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="65"/>
       <c r="N106" s="5">
         <v>1</v>
       </c>
@@ -10665,12 +10699,12 @@
       <c r="S106" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="T106" s="65"/>
-      <c r="U106" s="65"/>
-      <c r="V106" s="65"/>
-      <c r="W106" s="65"/>
-      <c r="X106" s="65"/>
-      <c r="Y106" s="64"/>
+      <c r="T106" s="64"/>
+      <c r="U106" s="64"/>
+      <c r="V106" s="64"/>
+      <c r="W106" s="64"/>
+      <c r="X106" s="64"/>
+      <c r="Y106" s="65"/>
       <c r="Z106" s="5">
         <v>1</v>
       </c>
@@ -14686,7 +14720,7 @@
       </c>
       <c r="B170" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>613</v>
@@ -14698,6 +14732,9 @@
         <v>867725036010498</v>
       </c>
       <c r="P170" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB170" s="15">
         <v>1</v>
       </c>
       <c r="AC170" s="84" t="s">
@@ -14710,7 +14747,7 @@
       </c>
       <c r="B171" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>613</v>
@@ -14722,6 +14759,9 @@
         <v>867725036010597</v>
       </c>
       <c r="P171" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB171" s="15">
         <v>1</v>
       </c>
       <c r="AC171" s="85"/>
@@ -14732,7 +14772,7 @@
       </c>
       <c r="B172" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>613</v>
@@ -14746,13 +14786,13 @@
       <c r="F172" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="G172" s="65"/>
-      <c r="H172" s="65"/>
-      <c r="I172" s="65"/>
-      <c r="J172" s="65"/>
-      <c r="K172" s="65"/>
-      <c r="L172" s="65"/>
-      <c r="M172" s="64"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="64"/>
+      <c r="J172" s="64"/>
+      <c r="K172" s="64"/>
+      <c r="L172" s="64"/>
+      <c r="M172" s="65"/>
       <c r="N172" s="5">
         <v>1</v>
       </c>
@@ -14776,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="AB172" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC172" s="85"/>
       <c r="AD172" t="s">
@@ -14789,7 +14829,7 @@
       </c>
       <c r="B173" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>613</v>
@@ -14801,6 +14841,9 @@
         <v>867725036011470</v>
       </c>
       <c r="P173" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB173" s="15">
         <v>1</v>
       </c>
       <c r="AC173" s="85"/>
@@ -14811,7 +14854,7 @@
       </c>
       <c r="B174" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>613</v>
@@ -14825,13 +14868,13 @@
       <c r="F174" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="G174" s="65"/>
-      <c r="H174" s="65"/>
-      <c r="I174" s="65"/>
-      <c r="J174" s="65"/>
-      <c r="K174" s="65"/>
-      <c r="L174" s="65"/>
-      <c r="M174" s="64"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
+      <c r="I174" s="64"/>
+      <c r="J174" s="64"/>
+      <c r="K174" s="64"/>
+      <c r="L174" s="64"/>
+      <c r="M174" s="65"/>
       <c r="N174" s="5">
         <v>1</v>
       </c>
@@ -14844,18 +14887,18 @@
       <c r="R174" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="S174" s="65"/>
-      <c r="T174" s="65"/>
-      <c r="U174" s="65"/>
-      <c r="V174" s="65"/>
-      <c r="W174" s="65"/>
-      <c r="X174" s="65"/>
-      <c r="Y174" s="64"/>
+      <c r="S174" s="64"/>
+      <c r="T174" s="64"/>
+      <c r="U174" s="64"/>
+      <c r="V174" s="64"/>
+      <c r="W174" s="64"/>
+      <c r="X174" s="64"/>
+      <c r="Y174" s="65"/>
       <c r="Z174" s="15">
         <v>1</v>
       </c>
       <c r="AB174" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC174" s="86"/>
       <c r="AD174" t="s">
@@ -15128,13 +15171,13 @@
       <c r="F178" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="G178" s="65"/>
-      <c r="H178" s="65"/>
-      <c r="I178" s="65"/>
-      <c r="J178" s="65"/>
-      <c r="K178" s="65"/>
-      <c r="L178" s="65"/>
-      <c r="M178" s="64"/>
+      <c r="G178" s="64"/>
+      <c r="H178" s="64"/>
+      <c r="I178" s="64"/>
+      <c r="J178" s="64"/>
+      <c r="K178" s="64"/>
+      <c r="L178" s="64"/>
+      <c r="M178" s="65"/>
       <c r="P178" s="15">
         <v>1</v>
       </c>
@@ -15337,14 +15380,14 @@
       <c r="F181" s="63" t="s">
         <v>649</v>
       </c>
-      <c r="G181" s="65"/>
-      <c r="H181" s="65"/>
-      <c r="I181" s="65"/>
-      <c r="J181" s="65"/>
-      <c r="K181" s="65"/>
-      <c r="L181" s="65"/>
-      <c r="M181" s="65"/>
-      <c r="N181" s="64"/>
+      <c r="G181" s="64"/>
+      <c r="H181" s="64"/>
+      <c r="I181" s="64"/>
+      <c r="J181" s="64"/>
+      <c r="K181" s="64"/>
+      <c r="L181" s="64"/>
+      <c r="M181" s="64"/>
+      <c r="N181" s="65"/>
       <c r="P181" s="15">
         <v>1</v>
       </c>
@@ -15389,14 +15432,14 @@
       <c r="F182" s="63" t="s">
         <v>652</v>
       </c>
-      <c r="G182" s="65"/>
-      <c r="H182" s="65"/>
-      <c r="I182" s="65"/>
-      <c r="J182" s="65"/>
-      <c r="K182" s="65"/>
-      <c r="L182" s="65"/>
-      <c r="M182" s="65"/>
-      <c r="N182" s="64"/>
+      <c r="G182" s="64"/>
+      <c r="H182" s="64"/>
+      <c r="I182" s="64"/>
+      <c r="J182" s="64"/>
+      <c r="K182" s="64"/>
+      <c r="L182" s="64"/>
+      <c r="M182" s="64"/>
+      <c r="N182" s="65"/>
       <c r="P182" s="15">
         <v>1</v>
       </c>
@@ -15789,26 +15832,26 @@
       <c r="F188" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="G188" s="65"/>
-      <c r="H188" s="65"/>
-      <c r="I188" s="65"/>
-      <c r="J188" s="65"/>
-      <c r="K188" s="65"/>
-      <c r="L188" s="65"/>
-      <c r="M188" s="64"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="64"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="64"/>
+      <c r="K188" s="64"/>
+      <c r="L188" s="64"/>
+      <c r="M188" s="65"/>
       <c r="P188" s="15">
         <v>1</v>
       </c>
       <c r="R188" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="S188" s="65"/>
-      <c r="T188" s="65"/>
-      <c r="U188" s="65"/>
-      <c r="V188" s="65"/>
-      <c r="W188" s="65"/>
-      <c r="X188" s="65"/>
-      <c r="Y188" s="64"/>
+      <c r="S188" s="64"/>
+      <c r="T188" s="64"/>
+      <c r="U188" s="64"/>
+      <c r="V188" s="64"/>
+      <c r="W188" s="64"/>
+      <c r="X188" s="64"/>
+      <c r="Y188" s="65"/>
       <c r="AB188" s="15">
         <v>1</v>
       </c>
@@ -15833,26 +15876,26 @@
       <c r="F189" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="G189" s="65"/>
-      <c r="H189" s="65"/>
-      <c r="I189" s="65"/>
-      <c r="J189" s="65"/>
-      <c r="K189" s="65"/>
-      <c r="L189" s="65"/>
-      <c r="M189" s="64"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="64"/>
+      <c r="I189" s="64"/>
+      <c r="J189" s="64"/>
+      <c r="K189" s="64"/>
+      <c r="L189" s="64"/>
+      <c r="M189" s="65"/>
       <c r="P189" s="15">
         <v>1</v>
       </c>
       <c r="R189" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="S189" s="65"/>
-      <c r="T189" s="65"/>
-      <c r="U189" s="65"/>
-      <c r="V189" s="65"/>
-      <c r="W189" s="65"/>
-      <c r="X189" s="65"/>
-      <c r="Y189" s="64"/>
+      <c r="S189" s="64"/>
+      <c r="T189" s="64"/>
+      <c r="U189" s="64"/>
+      <c r="V189" s="64"/>
+      <c r="W189" s="64"/>
+      <c r="X189" s="64"/>
+      <c r="Y189" s="65"/>
       <c r="AB189" s="15">
         <v>1</v>
       </c>
@@ -15874,17 +15917,17 @@
       <c r="D190" s="63" t="s">
         <v>659</v>
       </c>
-      <c r="E190" s="64"/>
+      <c r="E190" s="65"/>
       <c r="F190" s="63" t="s">
         <v>661</v>
       </c>
-      <c r="G190" s="65"/>
-      <c r="H190" s="65"/>
-      <c r="I190" s="65"/>
-      <c r="J190" s="65"/>
-      <c r="K190" s="65"/>
-      <c r="L190" s="65"/>
-      <c r="M190" s="65"/>
+      <c r="G190" s="64"/>
+      <c r="H190" s="64"/>
+      <c r="I190" s="64"/>
+      <c r="J190" s="64"/>
+      <c r="K190" s="64"/>
+      <c r="L190" s="64"/>
+      <c r="M190" s="64"/>
       <c r="N190" s="42">
         <v>1</v>
       </c>
@@ -15931,26 +15974,26 @@
       <c r="F191" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G191" s="65"/>
-      <c r="H191" s="65"/>
-      <c r="I191" s="65"/>
-      <c r="J191" s="65"/>
-      <c r="K191" s="65"/>
-      <c r="L191" s="65"/>
-      <c r="M191" s="64"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="64"/>
+      <c r="K191" s="64"/>
+      <c r="L191" s="64"/>
+      <c r="M191" s="65"/>
       <c r="P191" s="15">
         <v>1</v>
       </c>
       <c r="R191" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S191" s="65"/>
-      <c r="T191" s="65"/>
-      <c r="U191" s="65"/>
-      <c r="V191" s="65"/>
-      <c r="W191" s="65"/>
-      <c r="X191" s="65"/>
-      <c r="Y191" s="64"/>
+      <c r="S191" s="64"/>
+      <c r="T191" s="64"/>
+      <c r="U191" s="64"/>
+      <c r="V191" s="64"/>
+      <c r="W191" s="64"/>
+      <c r="X191" s="64"/>
+      <c r="Y191" s="65"/>
       <c r="AB191" s="15">
         <v>1</v>
       </c>
@@ -15978,26 +16021,26 @@
       <c r="F192" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G192" s="65"/>
-      <c r="H192" s="65"/>
-      <c r="I192" s="65"/>
-      <c r="J192" s="65"/>
-      <c r="K192" s="65"/>
-      <c r="L192" s="65"/>
-      <c r="M192" s="64"/>
+      <c r="G192" s="64"/>
+      <c r="H192" s="64"/>
+      <c r="I192" s="64"/>
+      <c r="J192" s="64"/>
+      <c r="K192" s="64"/>
+      <c r="L192" s="64"/>
+      <c r="M192" s="65"/>
       <c r="P192" s="15">
         <v>1</v>
       </c>
       <c r="R192" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S192" s="65"/>
-      <c r="T192" s="65"/>
-      <c r="U192" s="65"/>
-      <c r="V192" s="65"/>
-      <c r="W192" s="65"/>
-      <c r="X192" s="65"/>
-      <c r="Y192" s="64"/>
+      <c r="S192" s="64"/>
+      <c r="T192" s="64"/>
+      <c r="U192" s="64"/>
+      <c r="V192" s="64"/>
+      <c r="W192" s="64"/>
+      <c r="X192" s="64"/>
+      <c r="Y192" s="65"/>
       <c r="AB192" s="15">
         <v>1</v>
       </c>
@@ -16005,7 +16048,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="193" spans="1:29">
+    <row r="193" spans="1:30">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -16025,26 +16068,26 @@
       <c r="F193" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G193" s="65"/>
-      <c r="H193" s="65"/>
-      <c r="I193" s="65"/>
-      <c r="J193" s="65"/>
-      <c r="K193" s="65"/>
-      <c r="L193" s="65"/>
-      <c r="M193" s="64"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="64"/>
+      <c r="I193" s="64"/>
+      <c r="J193" s="64"/>
+      <c r="K193" s="64"/>
+      <c r="L193" s="64"/>
+      <c r="M193" s="65"/>
       <c r="P193" s="15">
         <v>1</v>
       </c>
       <c r="R193" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S193" s="65"/>
-      <c r="T193" s="65"/>
-      <c r="U193" s="65"/>
-      <c r="V193" s="65"/>
-      <c r="W193" s="65"/>
-      <c r="X193" s="65"/>
-      <c r="Y193" s="64"/>
+      <c r="S193" s="64"/>
+      <c r="T193" s="64"/>
+      <c r="U193" s="64"/>
+      <c r="V193" s="64"/>
+      <c r="W193" s="64"/>
+      <c r="X193" s="64"/>
+      <c r="Y193" s="65"/>
       <c r="AB193" s="15">
         <v>1</v>
       </c>
@@ -16052,7 +16095,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="194" spans="1:29">
+    <row r="194" spans="1:30">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -16072,26 +16115,26 @@
       <c r="F194" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G194" s="65"/>
-      <c r="H194" s="65"/>
-      <c r="I194" s="65"/>
-      <c r="J194" s="65"/>
-      <c r="K194" s="65"/>
-      <c r="L194" s="65"/>
-      <c r="M194" s="64"/>
+      <c r="G194" s="64"/>
+      <c r="H194" s="64"/>
+      <c r="I194" s="64"/>
+      <c r="J194" s="64"/>
+      <c r="K194" s="64"/>
+      <c r="L194" s="64"/>
+      <c r="M194" s="65"/>
       <c r="P194" s="15">
         <v>1</v>
       </c>
       <c r="R194" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S194" s="65"/>
-      <c r="T194" s="65"/>
-      <c r="U194" s="65"/>
-      <c r="V194" s="65"/>
-      <c r="W194" s="65"/>
-      <c r="X194" s="65"/>
-      <c r="Y194" s="64"/>
+      <c r="S194" s="64"/>
+      <c r="T194" s="64"/>
+      <c r="U194" s="64"/>
+      <c r="V194" s="64"/>
+      <c r="W194" s="64"/>
+      <c r="X194" s="64"/>
+      <c r="Y194" s="65"/>
       <c r="AB194" s="15">
         <v>1</v>
       </c>
@@ -16099,7 +16142,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="195" spans="1:29">
+    <row r="195" spans="1:30">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -16119,26 +16162,26 @@
       <c r="F195" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G195" s="65"/>
-      <c r="H195" s="65"/>
-      <c r="I195" s="65"/>
-      <c r="J195" s="65"/>
-      <c r="K195" s="65"/>
-      <c r="L195" s="65"/>
-      <c r="M195" s="64"/>
+      <c r="G195" s="64"/>
+      <c r="H195" s="64"/>
+      <c r="I195" s="64"/>
+      <c r="J195" s="64"/>
+      <c r="K195" s="64"/>
+      <c r="L195" s="64"/>
+      <c r="M195" s="65"/>
       <c r="P195" s="15">
         <v>1</v>
       </c>
       <c r="R195" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S195" s="65"/>
-      <c r="T195" s="65"/>
-      <c r="U195" s="65"/>
-      <c r="V195" s="65"/>
-      <c r="W195" s="65"/>
-      <c r="X195" s="65"/>
-      <c r="Y195" s="64"/>
+      <c r="S195" s="64"/>
+      <c r="T195" s="64"/>
+      <c r="U195" s="64"/>
+      <c r="V195" s="64"/>
+      <c r="W195" s="64"/>
+      <c r="X195" s="64"/>
+      <c r="Y195" s="65"/>
       <c r="AB195" s="15">
         <v>1</v>
       </c>
@@ -16146,7 +16189,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" spans="1:30">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -16166,26 +16209,26 @@
       <c r="F196" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G196" s="65"/>
-      <c r="H196" s="65"/>
-      <c r="I196" s="65"/>
-      <c r="J196" s="65"/>
-      <c r="K196" s="65"/>
-      <c r="L196" s="65"/>
-      <c r="M196" s="64"/>
+      <c r="G196" s="64"/>
+      <c r="H196" s="64"/>
+      <c r="I196" s="64"/>
+      <c r="J196" s="64"/>
+      <c r="K196" s="64"/>
+      <c r="L196" s="64"/>
+      <c r="M196" s="65"/>
       <c r="P196" s="15">
         <v>1</v>
       </c>
       <c r="R196" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S196" s="65"/>
-      <c r="T196" s="65"/>
-      <c r="U196" s="65"/>
-      <c r="V196" s="65"/>
-      <c r="W196" s="65"/>
-      <c r="X196" s="65"/>
-      <c r="Y196" s="64"/>
+      <c r="S196" s="64"/>
+      <c r="T196" s="64"/>
+      <c r="U196" s="64"/>
+      <c r="V196" s="64"/>
+      <c r="W196" s="64"/>
+      <c r="X196" s="64"/>
+      <c r="Y196" s="65"/>
       <c r="AB196" s="15">
         <v>1</v>
       </c>
@@ -16193,7 +16236,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="197" spans="1:29">
+    <row r="197" spans="1:30">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -16213,26 +16256,26 @@
       <c r="F197" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G197" s="65"/>
-      <c r="H197" s="65"/>
-      <c r="I197" s="65"/>
-      <c r="J197" s="65"/>
-      <c r="K197" s="65"/>
-      <c r="L197" s="65"/>
-      <c r="M197" s="64"/>
+      <c r="G197" s="64"/>
+      <c r="H197" s="64"/>
+      <c r="I197" s="64"/>
+      <c r="J197" s="64"/>
+      <c r="K197" s="64"/>
+      <c r="L197" s="64"/>
+      <c r="M197" s="65"/>
       <c r="P197" s="15">
         <v>1</v>
       </c>
       <c r="R197" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S197" s="65"/>
-      <c r="T197" s="65"/>
-      <c r="U197" s="65"/>
-      <c r="V197" s="65"/>
-      <c r="W197" s="65"/>
-      <c r="X197" s="65"/>
-      <c r="Y197" s="64"/>
+      <c r="S197" s="64"/>
+      <c r="T197" s="64"/>
+      <c r="U197" s="64"/>
+      <c r="V197" s="64"/>
+      <c r="W197" s="64"/>
+      <c r="X197" s="64"/>
+      <c r="Y197" s="65"/>
       <c r="AB197" s="15">
         <v>1</v>
       </c>
@@ -16240,7 +16283,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="198" spans="1:29">
+    <row r="198" spans="1:30">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -16260,26 +16303,26 @@
       <c r="F198" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G198" s="65"/>
-      <c r="H198" s="65"/>
-      <c r="I198" s="65"/>
-      <c r="J198" s="65"/>
-      <c r="K198" s="65"/>
-      <c r="L198" s="65"/>
-      <c r="M198" s="64"/>
+      <c r="G198" s="64"/>
+      <c r="H198" s="64"/>
+      <c r="I198" s="64"/>
+      <c r="J198" s="64"/>
+      <c r="K198" s="64"/>
+      <c r="L198" s="64"/>
+      <c r="M198" s="65"/>
       <c r="P198" s="15">
         <v>1</v>
       </c>
       <c r="R198" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S198" s="65"/>
-      <c r="T198" s="65"/>
-      <c r="U198" s="65"/>
-      <c r="V198" s="65"/>
-      <c r="W198" s="65"/>
-      <c r="X198" s="65"/>
-      <c r="Y198" s="64"/>
+      <c r="S198" s="64"/>
+      <c r="T198" s="64"/>
+      <c r="U198" s="64"/>
+      <c r="V198" s="64"/>
+      <c r="W198" s="64"/>
+      <c r="X198" s="64"/>
+      <c r="Y198" s="65"/>
       <c r="AB198" s="15">
         <v>1</v>
       </c>
@@ -16287,7 +16330,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:30">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -16307,26 +16350,26 @@
       <c r="F199" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G199" s="65"/>
-      <c r="H199" s="65"/>
-      <c r="I199" s="65"/>
-      <c r="J199" s="65"/>
-      <c r="K199" s="65"/>
-      <c r="L199" s="65"/>
-      <c r="M199" s="64"/>
+      <c r="G199" s="64"/>
+      <c r="H199" s="64"/>
+      <c r="I199" s="64"/>
+      <c r="J199" s="64"/>
+      <c r="K199" s="64"/>
+      <c r="L199" s="64"/>
+      <c r="M199" s="65"/>
       <c r="P199" s="15">
         <v>1</v>
       </c>
       <c r="R199" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S199" s="65"/>
-      <c r="T199" s="65"/>
-      <c r="U199" s="65"/>
-      <c r="V199" s="65"/>
-      <c r="W199" s="65"/>
-      <c r="X199" s="65"/>
-      <c r="Y199" s="64"/>
+      <c r="S199" s="64"/>
+      <c r="T199" s="64"/>
+      <c r="U199" s="64"/>
+      <c r="V199" s="64"/>
+      <c r="W199" s="64"/>
+      <c r="X199" s="64"/>
+      <c r="Y199" s="65"/>
       <c r="AB199" s="15">
         <v>1</v>
       </c>
@@ -16334,7 +16377,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="200" spans="1:29">
+    <row r="200" spans="1:30">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -16354,26 +16397,26 @@
       <c r="F200" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G200" s="65"/>
-      <c r="H200" s="65"/>
-      <c r="I200" s="65"/>
-      <c r="J200" s="65"/>
-      <c r="K200" s="65"/>
-      <c r="L200" s="65"/>
-      <c r="M200" s="64"/>
+      <c r="G200" s="64"/>
+      <c r="H200" s="64"/>
+      <c r="I200" s="64"/>
+      <c r="J200" s="64"/>
+      <c r="K200" s="64"/>
+      <c r="L200" s="64"/>
+      <c r="M200" s="65"/>
       <c r="P200" s="15">
         <v>1</v>
       </c>
       <c r="R200" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S200" s="65"/>
-      <c r="T200" s="65"/>
-      <c r="U200" s="65"/>
-      <c r="V200" s="65"/>
-      <c r="W200" s="65"/>
-      <c r="X200" s="65"/>
-      <c r="Y200" s="64"/>
+      <c r="S200" s="64"/>
+      <c r="T200" s="64"/>
+      <c r="U200" s="64"/>
+      <c r="V200" s="64"/>
+      <c r="W200" s="64"/>
+      <c r="X200" s="64"/>
+      <c r="Y200" s="65"/>
       <c r="AB200" s="15">
         <v>1</v>
       </c>
@@ -16381,7 +16424,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="201" spans="1:29">
+    <row r="201" spans="1:30">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -16401,26 +16444,26 @@
       <c r="F201" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G201" s="65"/>
-      <c r="H201" s="65"/>
-      <c r="I201" s="65"/>
-      <c r="J201" s="65"/>
-      <c r="K201" s="65"/>
-      <c r="L201" s="65"/>
-      <c r="M201" s="64"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="64"/>
+      <c r="I201" s="64"/>
+      <c r="J201" s="64"/>
+      <c r="K201" s="64"/>
+      <c r="L201" s="64"/>
+      <c r="M201" s="65"/>
       <c r="P201" s="15">
         <v>1</v>
       </c>
       <c r="R201" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S201" s="65"/>
-      <c r="T201" s="65"/>
-      <c r="U201" s="65"/>
-      <c r="V201" s="65"/>
-      <c r="W201" s="65"/>
-      <c r="X201" s="65"/>
-      <c r="Y201" s="64"/>
+      <c r="S201" s="64"/>
+      <c r="T201" s="64"/>
+      <c r="U201" s="64"/>
+      <c r="V201" s="64"/>
+      <c r="W201" s="64"/>
+      <c r="X201" s="64"/>
+      <c r="Y201" s="65"/>
       <c r="AB201" s="15">
         <v>1</v>
       </c>
@@ -16428,7 +16471,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="202" spans="1:29">
+    <row r="202" spans="1:30">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -16448,26 +16491,26 @@
       <c r="F202" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G202" s="65"/>
-      <c r="H202" s="65"/>
-      <c r="I202" s="65"/>
-      <c r="J202" s="65"/>
-      <c r="K202" s="65"/>
-      <c r="L202" s="65"/>
-      <c r="M202" s="64"/>
+      <c r="G202" s="64"/>
+      <c r="H202" s="64"/>
+      <c r="I202" s="64"/>
+      <c r="J202" s="64"/>
+      <c r="K202" s="64"/>
+      <c r="L202" s="64"/>
+      <c r="M202" s="65"/>
       <c r="P202" s="15">
         <v>1</v>
       </c>
       <c r="R202" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S202" s="65"/>
-      <c r="T202" s="65"/>
-      <c r="U202" s="65"/>
-      <c r="V202" s="65"/>
-      <c r="W202" s="65"/>
-      <c r="X202" s="65"/>
-      <c r="Y202" s="64"/>
+      <c r="S202" s="64"/>
+      <c r="T202" s="64"/>
+      <c r="U202" s="64"/>
+      <c r="V202" s="64"/>
+      <c r="W202" s="64"/>
+      <c r="X202" s="64"/>
+      <c r="Y202" s="65"/>
       <c r="AB202" s="15">
         <v>1</v>
       </c>
@@ -16475,7 +16518,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" spans="1:30">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -16495,34 +16538,37 @@
       <c r="F203" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G203" s="65"/>
-      <c r="H203" s="65"/>
-      <c r="I203" s="65"/>
-      <c r="J203" s="65"/>
-      <c r="K203" s="65"/>
-      <c r="L203" s="65"/>
-      <c r="M203" s="64"/>
+      <c r="G203" s="64"/>
+      <c r="H203" s="64"/>
+      <c r="I203" s="64"/>
+      <c r="J203" s="64"/>
+      <c r="K203" s="64"/>
+      <c r="L203" s="64"/>
+      <c r="M203" s="65"/>
       <c r="P203" s="15">
         <v>1</v>
       </c>
       <c r="R203" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S203" s="65"/>
-      <c r="T203" s="65"/>
-      <c r="U203" s="65"/>
-      <c r="V203" s="65"/>
-      <c r="W203" s="65"/>
-      <c r="X203" s="65"/>
-      <c r="Y203" s="64"/>
+      <c r="S203" s="64"/>
+      <c r="T203" s="64"/>
+      <c r="U203" s="64"/>
+      <c r="V203" s="64"/>
+      <c r="W203" s="64"/>
+      <c r="X203" s="64"/>
+      <c r="Y203" s="65"/>
       <c r="AB203" s="15">
         <v>1</v>
       </c>
       <c r="AC203" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="204" spans="1:29">
+      <c r="AD203" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -16542,34 +16588,37 @@
       <c r="F204" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G204" s="65"/>
-      <c r="H204" s="65"/>
-      <c r="I204" s="65"/>
-      <c r="J204" s="65"/>
-      <c r="K204" s="65"/>
-      <c r="L204" s="65"/>
-      <c r="M204" s="64"/>
+      <c r="G204" s="64"/>
+      <c r="H204" s="64"/>
+      <c r="I204" s="64"/>
+      <c r="J204" s="64"/>
+      <c r="K204" s="64"/>
+      <c r="L204" s="64"/>
+      <c r="M204" s="65"/>
       <c r="P204" s="15">
         <v>1</v>
       </c>
       <c r="R204" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S204" s="65"/>
-      <c r="T204" s="65"/>
-      <c r="U204" s="65"/>
-      <c r="V204" s="65"/>
-      <c r="W204" s="65"/>
-      <c r="X204" s="65"/>
-      <c r="Y204" s="64"/>
+      <c r="S204" s="64"/>
+      <c r="T204" s="64"/>
+      <c r="U204" s="64"/>
+      <c r="V204" s="64"/>
+      <c r="W204" s="64"/>
+      <c r="X204" s="64"/>
+      <c r="Y204" s="65"/>
       <c r="AB204" s="15">
         <v>1</v>
       </c>
       <c r="AC204" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="205" spans="1:29">
+      <c r="AD204" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -16589,26 +16638,26 @@
       <c r="F205" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G205" s="65"/>
-      <c r="H205" s="65"/>
-      <c r="I205" s="65"/>
-      <c r="J205" s="65"/>
-      <c r="K205" s="65"/>
-      <c r="L205" s="65"/>
-      <c r="M205" s="64"/>
+      <c r="G205" s="64"/>
+      <c r="H205" s="64"/>
+      <c r="I205" s="64"/>
+      <c r="J205" s="64"/>
+      <c r="K205" s="64"/>
+      <c r="L205" s="64"/>
+      <c r="M205" s="65"/>
       <c r="P205" s="15">
         <v>1</v>
       </c>
       <c r="R205" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S205" s="65"/>
-      <c r="T205" s="65"/>
-      <c r="U205" s="65"/>
-      <c r="V205" s="65"/>
-      <c r="W205" s="65"/>
-      <c r="X205" s="65"/>
-      <c r="Y205" s="64"/>
+      <c r="S205" s="64"/>
+      <c r="T205" s="64"/>
+      <c r="U205" s="64"/>
+      <c r="V205" s="64"/>
+      <c r="W205" s="64"/>
+      <c r="X205" s="64"/>
+      <c r="Y205" s="65"/>
       <c r="AB205" s="15">
         <v>1</v>
       </c>
@@ -16616,7 +16665,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="206" spans="1:29">
+    <row r="206" spans="1:30">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -16636,26 +16685,26 @@
       <c r="F206" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G206" s="65"/>
-      <c r="H206" s="65"/>
-      <c r="I206" s="65"/>
-      <c r="J206" s="65"/>
-      <c r="K206" s="65"/>
-      <c r="L206" s="65"/>
-      <c r="M206" s="64"/>
+      <c r="G206" s="64"/>
+      <c r="H206" s="64"/>
+      <c r="I206" s="64"/>
+      <c r="J206" s="64"/>
+      <c r="K206" s="64"/>
+      <c r="L206" s="64"/>
+      <c r="M206" s="65"/>
       <c r="P206" s="15">
         <v>1</v>
       </c>
       <c r="R206" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S206" s="65"/>
-      <c r="T206" s="65"/>
-      <c r="U206" s="65"/>
-      <c r="V206" s="65"/>
-      <c r="W206" s="65"/>
-      <c r="X206" s="65"/>
-      <c r="Y206" s="64"/>
+      <c r="S206" s="64"/>
+      <c r="T206" s="64"/>
+      <c r="U206" s="64"/>
+      <c r="V206" s="64"/>
+      <c r="W206" s="64"/>
+      <c r="X206" s="64"/>
+      <c r="Y206" s="65"/>
       <c r="AB206" s="15">
         <v>1</v>
       </c>
@@ -16663,7 +16712,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="207" spans="1:29">
+    <row r="207" spans="1:30">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -16683,34 +16732,37 @@
       <c r="F207" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="64"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="64"/>
+      <c r="I207" s="64"/>
+      <c r="J207" s="64"/>
+      <c r="K207" s="64"/>
+      <c r="L207" s="64"/>
+      <c r="M207" s="65"/>
       <c r="P207" s="15">
         <v>1</v>
       </c>
       <c r="R207" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S207" s="65"/>
-      <c r="T207" s="65"/>
-      <c r="U207" s="65"/>
-      <c r="V207" s="65"/>
-      <c r="W207" s="65"/>
-      <c r="X207" s="65"/>
-      <c r="Y207" s="64"/>
+      <c r="S207" s="64"/>
+      <c r="T207" s="64"/>
+      <c r="U207" s="64"/>
+      <c r="V207" s="64"/>
+      <c r="W207" s="64"/>
+      <c r="X207" s="64"/>
+      <c r="Y207" s="65"/>
       <c r="AB207" s="15">
         <v>1</v>
       </c>
       <c r="AC207" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="208" spans="1:29">
+      <c r="AD207" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -16730,26 +16782,26 @@
       <c r="F208" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G208" s="65"/>
-      <c r="H208" s="65"/>
-      <c r="I208" s="65"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
-      <c r="L208" s="65"/>
-      <c r="M208" s="64"/>
+      <c r="G208" s="64"/>
+      <c r="H208" s="64"/>
+      <c r="I208" s="64"/>
+      <c r="J208" s="64"/>
+      <c r="K208" s="64"/>
+      <c r="L208" s="64"/>
+      <c r="M208" s="65"/>
       <c r="P208" s="15">
         <v>1</v>
       </c>
       <c r="R208" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S208" s="65"/>
-      <c r="T208" s="65"/>
-      <c r="U208" s="65"/>
-      <c r="V208" s="65"/>
-      <c r="W208" s="65"/>
-      <c r="X208" s="65"/>
-      <c r="Y208" s="64"/>
+      <c r="S208" s="64"/>
+      <c r="T208" s="64"/>
+      <c r="U208" s="64"/>
+      <c r="V208" s="64"/>
+      <c r="W208" s="64"/>
+      <c r="X208" s="64"/>
+      <c r="Y208" s="65"/>
       <c r="AB208" s="15">
         <v>1</v>
       </c>
@@ -16757,7 +16809,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="209" spans="1:29">
+    <row r="209" spans="1:30">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -16777,26 +16829,26 @@
       <c r="F209" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
-      <c r="L209" s="65"/>
-      <c r="M209" s="64"/>
+      <c r="G209" s="64"/>
+      <c r="H209" s="64"/>
+      <c r="I209" s="64"/>
+      <c r="J209" s="64"/>
+      <c r="K209" s="64"/>
+      <c r="L209" s="64"/>
+      <c r="M209" s="65"/>
       <c r="P209" s="15">
         <v>1</v>
       </c>
       <c r="R209" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S209" s="65"/>
-      <c r="T209" s="65"/>
-      <c r="U209" s="65"/>
-      <c r="V209" s="65"/>
-      <c r="W209" s="65"/>
-      <c r="X209" s="65"/>
-      <c r="Y209" s="64"/>
+      <c r="S209" s="64"/>
+      <c r="T209" s="64"/>
+      <c r="U209" s="64"/>
+      <c r="V209" s="64"/>
+      <c r="W209" s="64"/>
+      <c r="X209" s="64"/>
+      <c r="Y209" s="65"/>
       <c r="AB209" s="15">
         <v>1</v>
       </c>
@@ -16804,7 +16856,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="210" spans="1:29">
+    <row r="210" spans="1:30">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -16824,26 +16876,26 @@
       <c r="F210" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G210" s="65"/>
-      <c r="H210" s="65"/>
-      <c r="I210" s="65"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
-      <c r="L210" s="65"/>
-      <c r="M210" s="64"/>
+      <c r="G210" s="64"/>
+      <c r="H210" s="64"/>
+      <c r="I210" s="64"/>
+      <c r="J210" s="64"/>
+      <c r="K210" s="64"/>
+      <c r="L210" s="64"/>
+      <c r="M210" s="65"/>
       <c r="P210" s="15">
         <v>1</v>
       </c>
       <c r="R210" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S210" s="65"/>
-      <c r="T210" s="65"/>
-      <c r="U210" s="65"/>
-      <c r="V210" s="65"/>
-      <c r="W210" s="65"/>
-      <c r="X210" s="65"/>
-      <c r="Y210" s="64"/>
+      <c r="S210" s="64"/>
+      <c r="T210" s="64"/>
+      <c r="U210" s="64"/>
+      <c r="V210" s="64"/>
+      <c r="W210" s="64"/>
+      <c r="X210" s="64"/>
+      <c r="Y210" s="65"/>
       <c r="AB210" s="15">
         <v>1</v>
       </c>
@@ -16851,7 +16903,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="211" spans="1:29">
+    <row r="211" spans="1:30">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -16871,26 +16923,26 @@
       <c r="F211" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="64"/>
+      <c r="G211" s="64"/>
+      <c r="H211" s="64"/>
+      <c r="I211" s="64"/>
+      <c r="J211" s="64"/>
+      <c r="K211" s="64"/>
+      <c r="L211" s="64"/>
+      <c r="M211" s="65"/>
       <c r="P211" s="15">
         <v>1</v>
       </c>
       <c r="R211" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S211" s="65"/>
-      <c r="T211" s="65"/>
-      <c r="U211" s="65"/>
-      <c r="V211" s="65"/>
-      <c r="W211" s="65"/>
-      <c r="X211" s="65"/>
-      <c r="Y211" s="64"/>
+      <c r="S211" s="64"/>
+      <c r="T211" s="64"/>
+      <c r="U211" s="64"/>
+      <c r="V211" s="64"/>
+      <c r="W211" s="64"/>
+      <c r="X211" s="64"/>
+      <c r="Y211" s="65"/>
       <c r="AB211" s="15">
         <v>1</v>
       </c>
@@ -16898,7 +16950,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="212" spans="1:29">
+    <row r="212" spans="1:30">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -16918,26 +16970,26 @@
       <c r="F212" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
-      <c r="L212" s="65"/>
-      <c r="M212" s="64"/>
+      <c r="G212" s="64"/>
+      <c r="H212" s="64"/>
+      <c r="I212" s="64"/>
+      <c r="J212" s="64"/>
+      <c r="K212" s="64"/>
+      <c r="L212" s="64"/>
+      <c r="M212" s="65"/>
       <c r="P212" s="15">
         <v>1</v>
       </c>
       <c r="R212" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S212" s="65"/>
-      <c r="T212" s="65"/>
-      <c r="U212" s="65"/>
-      <c r="V212" s="65"/>
-      <c r="W212" s="65"/>
-      <c r="X212" s="65"/>
-      <c r="Y212" s="64"/>
+      <c r="S212" s="64"/>
+      <c r="T212" s="64"/>
+      <c r="U212" s="64"/>
+      <c r="V212" s="64"/>
+      <c r="W212" s="64"/>
+      <c r="X212" s="64"/>
+      <c r="Y212" s="65"/>
       <c r="AB212" s="15">
         <v>1</v>
       </c>
@@ -16945,7 +16997,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="213" spans="1:29">
+    <row r="213" spans="1:30">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -16965,34 +17017,37 @@
       <c r="F213" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
-      <c r="L213" s="65"/>
-      <c r="M213" s="64"/>
+      <c r="G213" s="64"/>
+      <c r="H213" s="64"/>
+      <c r="I213" s="64"/>
+      <c r="J213" s="64"/>
+      <c r="K213" s="64"/>
+      <c r="L213" s="64"/>
+      <c r="M213" s="65"/>
       <c r="P213" s="15">
         <v>1</v>
       </c>
       <c r="R213" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S213" s="65"/>
-      <c r="T213" s="65"/>
-      <c r="U213" s="65"/>
-      <c r="V213" s="65"/>
-      <c r="W213" s="65"/>
-      <c r="X213" s="65"/>
-      <c r="Y213" s="64"/>
+      <c r="S213" s="64"/>
+      <c r="T213" s="64"/>
+      <c r="U213" s="64"/>
+      <c r="V213" s="64"/>
+      <c r="W213" s="64"/>
+      <c r="X213" s="64"/>
+      <c r="Y213" s="65"/>
       <c r="AB213" s="15">
         <v>1</v>
       </c>
       <c r="AC213" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="214" spans="1:29">
+      <c r="AD213" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -17012,26 +17067,26 @@
       <c r="F214" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
-      <c r="L214" s="65"/>
-      <c r="M214" s="64"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="64"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="64"/>
+      <c r="K214" s="64"/>
+      <c r="L214" s="64"/>
+      <c r="M214" s="65"/>
       <c r="P214" s="15">
         <v>1</v>
       </c>
       <c r="R214" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S214" s="65"/>
-      <c r="T214" s="65"/>
-      <c r="U214" s="65"/>
-      <c r="V214" s="65"/>
-      <c r="W214" s="65"/>
-      <c r="X214" s="65"/>
-      <c r="Y214" s="64"/>
+      <c r="S214" s="64"/>
+      <c r="T214" s="64"/>
+      <c r="U214" s="64"/>
+      <c r="V214" s="64"/>
+      <c r="W214" s="64"/>
+      <c r="X214" s="64"/>
+      <c r="Y214" s="65"/>
       <c r="AB214" s="15">
         <v>1</v>
       </c>
@@ -17039,7 +17094,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="215" spans="1:29">
+    <row r="215" spans="1:30">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -17059,26 +17114,26 @@
       <c r="F215" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
-      <c r="L215" s="65"/>
-      <c r="M215" s="64"/>
+      <c r="G215" s="64"/>
+      <c r="H215" s="64"/>
+      <c r="I215" s="64"/>
+      <c r="J215" s="64"/>
+      <c r="K215" s="64"/>
+      <c r="L215" s="64"/>
+      <c r="M215" s="65"/>
       <c r="P215" s="15">
         <v>1</v>
       </c>
       <c r="R215" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S215" s="65"/>
-      <c r="T215" s="65"/>
-      <c r="U215" s="65"/>
-      <c r="V215" s="65"/>
-      <c r="W215" s="65"/>
-      <c r="X215" s="65"/>
-      <c r="Y215" s="64"/>
+      <c r="S215" s="64"/>
+      <c r="T215" s="64"/>
+      <c r="U215" s="64"/>
+      <c r="V215" s="64"/>
+      <c r="W215" s="64"/>
+      <c r="X215" s="64"/>
+      <c r="Y215" s="65"/>
       <c r="AB215" s="15">
         <v>1</v>
       </c>
@@ -17086,7 +17141,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="216" spans="1:29">
+    <row r="216" spans="1:30">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -17106,26 +17161,26 @@
       <c r="F216" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G216" s="65"/>
-      <c r="H216" s="65"/>
-      <c r="I216" s="65"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
-      <c r="L216" s="65"/>
-      <c r="M216" s="64"/>
+      <c r="G216" s="64"/>
+      <c r="H216" s="64"/>
+      <c r="I216" s="64"/>
+      <c r="J216" s="64"/>
+      <c r="K216" s="64"/>
+      <c r="L216" s="64"/>
+      <c r="M216" s="65"/>
       <c r="P216" s="15">
         <v>1</v>
       </c>
       <c r="R216" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S216" s="65"/>
-      <c r="T216" s="65"/>
-      <c r="U216" s="65"/>
-      <c r="V216" s="65"/>
-      <c r="W216" s="65"/>
-      <c r="X216" s="65"/>
-      <c r="Y216" s="64"/>
+      <c r="S216" s="64"/>
+      <c r="T216" s="64"/>
+      <c r="U216" s="64"/>
+      <c r="V216" s="64"/>
+      <c r="W216" s="64"/>
+      <c r="X216" s="64"/>
+      <c r="Y216" s="65"/>
       <c r="AB216" s="15">
         <v>1</v>
       </c>
@@ -17133,7 +17188,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:29">
+    <row r="217" spans="1:30">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -17153,26 +17208,26 @@
       <c r="F217" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G217" s="65"/>
-      <c r="H217" s="65"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="65"/>
-      <c r="K217" s="65"/>
-      <c r="L217" s="65"/>
-      <c r="M217" s="64"/>
+      <c r="G217" s="64"/>
+      <c r="H217" s="64"/>
+      <c r="I217" s="64"/>
+      <c r="J217" s="64"/>
+      <c r="K217" s="64"/>
+      <c r="L217" s="64"/>
+      <c r="M217" s="65"/>
       <c r="P217" s="15">
         <v>1</v>
       </c>
       <c r="R217" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S217" s="65"/>
-      <c r="T217" s="65"/>
-      <c r="U217" s="65"/>
-      <c r="V217" s="65"/>
-      <c r="W217" s="65"/>
-      <c r="X217" s="65"/>
-      <c r="Y217" s="64"/>
+      <c r="S217" s="64"/>
+      <c r="T217" s="64"/>
+      <c r="U217" s="64"/>
+      <c r="V217" s="64"/>
+      <c r="W217" s="64"/>
+      <c r="X217" s="64"/>
+      <c r="Y217" s="65"/>
       <c r="AB217" s="15">
         <v>1</v>
       </c>
@@ -17180,7 +17235,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="218" spans="1:29">
+    <row r="218" spans="1:30">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -17200,26 +17255,26 @@
       <c r="F218" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G218" s="65"/>
-      <c r="H218" s="65"/>
-      <c r="I218" s="65"/>
-      <c r="J218" s="65"/>
-      <c r="K218" s="65"/>
-      <c r="L218" s="65"/>
-      <c r="M218" s="64"/>
+      <c r="G218" s="64"/>
+      <c r="H218" s="64"/>
+      <c r="I218" s="64"/>
+      <c r="J218" s="64"/>
+      <c r="K218" s="64"/>
+      <c r="L218" s="64"/>
+      <c r="M218" s="65"/>
       <c r="P218" s="15">
         <v>1</v>
       </c>
       <c r="R218" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S218" s="65"/>
-      <c r="T218" s="65"/>
-      <c r="U218" s="65"/>
-      <c r="V218" s="65"/>
-      <c r="W218" s="65"/>
-      <c r="X218" s="65"/>
-      <c r="Y218" s="64"/>
+      <c r="S218" s="64"/>
+      <c r="T218" s="64"/>
+      <c r="U218" s="64"/>
+      <c r="V218" s="64"/>
+      <c r="W218" s="64"/>
+      <c r="X218" s="64"/>
+      <c r="Y218" s="65"/>
       <c r="AB218" s="15">
         <v>1</v>
       </c>
@@ -17227,7 +17282,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="219" spans="1:29">
+    <row r="219" spans="1:30">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -17247,26 +17302,26 @@
       <c r="F219" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G219" s="65"/>
-      <c r="H219" s="65"/>
-      <c r="I219" s="65"/>
-      <c r="J219" s="65"/>
-      <c r="K219" s="65"/>
-      <c r="L219" s="65"/>
-      <c r="M219" s="64"/>
+      <c r="G219" s="64"/>
+      <c r="H219" s="64"/>
+      <c r="I219" s="64"/>
+      <c r="J219" s="64"/>
+      <c r="K219" s="64"/>
+      <c r="L219" s="64"/>
+      <c r="M219" s="65"/>
       <c r="P219" s="15">
         <v>1</v>
       </c>
       <c r="R219" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S219" s="65"/>
-      <c r="T219" s="65"/>
-      <c r="U219" s="65"/>
-      <c r="V219" s="65"/>
-      <c r="W219" s="65"/>
-      <c r="X219" s="65"/>
-      <c r="Y219" s="64"/>
+      <c r="S219" s="64"/>
+      <c r="T219" s="64"/>
+      <c r="U219" s="64"/>
+      <c r="V219" s="64"/>
+      <c r="W219" s="64"/>
+      <c r="X219" s="64"/>
+      <c r="Y219" s="65"/>
       <c r="AB219" s="15">
         <v>1</v>
       </c>
@@ -17274,7 +17329,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="220" spans="1:29">
+    <row r="220" spans="1:30">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -17294,26 +17349,26 @@
       <c r="F220" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G220" s="65"/>
-      <c r="H220" s="65"/>
-      <c r="I220" s="65"/>
-      <c r="J220" s="65"/>
-      <c r="K220" s="65"/>
-      <c r="L220" s="65"/>
-      <c r="M220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="64"/>
+      <c r="J220" s="64"/>
+      <c r="K220" s="64"/>
+      <c r="L220" s="64"/>
+      <c r="M220" s="65"/>
       <c r="P220" s="15">
         <v>1</v>
       </c>
       <c r="R220" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S220" s="65"/>
-      <c r="T220" s="65"/>
-      <c r="U220" s="65"/>
-      <c r="V220" s="65"/>
-      <c r="W220" s="65"/>
-      <c r="X220" s="65"/>
-      <c r="Y220" s="64"/>
+      <c r="S220" s="64"/>
+      <c r="T220" s="64"/>
+      <c r="U220" s="64"/>
+      <c r="V220" s="64"/>
+      <c r="W220" s="64"/>
+      <c r="X220" s="64"/>
+      <c r="Y220" s="65"/>
       <c r="AB220" s="15">
         <v>1</v>
       </c>
@@ -17321,7 +17376,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="221" spans="1:29">
+    <row r="221" spans="1:30">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -17341,26 +17396,26 @@
       <c r="F221" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G221" s="65"/>
-      <c r="H221" s="65"/>
-      <c r="I221" s="65"/>
-      <c r="J221" s="65"/>
-      <c r="K221" s="65"/>
-      <c r="L221" s="65"/>
-      <c r="M221" s="64"/>
+      <c r="G221" s="64"/>
+      <c r="H221" s="64"/>
+      <c r="I221" s="64"/>
+      <c r="J221" s="64"/>
+      <c r="K221" s="64"/>
+      <c r="L221" s="64"/>
+      <c r="M221" s="65"/>
       <c r="P221" s="15">
         <v>1</v>
       </c>
       <c r="R221" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S221" s="65"/>
-      <c r="T221" s="65"/>
-      <c r="U221" s="65"/>
-      <c r="V221" s="65"/>
-      <c r="W221" s="65"/>
-      <c r="X221" s="65"/>
-      <c r="Y221" s="64"/>
+      <c r="S221" s="64"/>
+      <c r="T221" s="64"/>
+      <c r="U221" s="64"/>
+      <c r="V221" s="64"/>
+      <c r="W221" s="64"/>
+      <c r="X221" s="64"/>
+      <c r="Y221" s="65"/>
       <c r="AB221" s="15">
         <v>1</v>
       </c>
@@ -17368,7 +17423,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="222" spans="1:29">
+    <row r="222" spans="1:30">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -17388,26 +17443,26 @@
       <c r="F222" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G222" s="65"/>
-      <c r="H222" s="65"/>
-      <c r="I222" s="65"/>
-      <c r="J222" s="65"/>
-      <c r="K222" s="65"/>
-      <c r="L222" s="65"/>
-      <c r="M222" s="64"/>
+      <c r="G222" s="64"/>
+      <c r="H222" s="64"/>
+      <c r="I222" s="64"/>
+      <c r="J222" s="64"/>
+      <c r="K222" s="64"/>
+      <c r="L222" s="64"/>
+      <c r="M222" s="65"/>
       <c r="P222" s="15">
         <v>1</v>
       </c>
       <c r="R222" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S222" s="65"/>
-      <c r="T222" s="65"/>
-      <c r="U222" s="65"/>
-      <c r="V222" s="65"/>
-      <c r="W222" s="65"/>
-      <c r="X222" s="65"/>
-      <c r="Y222" s="64"/>
+      <c r="S222" s="64"/>
+      <c r="T222" s="64"/>
+      <c r="U222" s="64"/>
+      <c r="V222" s="64"/>
+      <c r="W222" s="64"/>
+      <c r="X222" s="64"/>
+      <c r="Y222" s="65"/>
       <c r="AB222" s="15">
         <v>1</v>
       </c>
@@ -17415,7 +17470,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="223" spans="1:29">
+    <row r="223" spans="1:30">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -17435,26 +17490,26 @@
       <c r="F223" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G223" s="65"/>
-      <c r="H223" s="65"/>
-      <c r="I223" s="65"/>
-      <c r="J223" s="65"/>
-      <c r="K223" s="65"/>
-      <c r="L223" s="65"/>
-      <c r="M223" s="64"/>
+      <c r="G223" s="64"/>
+      <c r="H223" s="64"/>
+      <c r="I223" s="64"/>
+      <c r="J223" s="64"/>
+      <c r="K223" s="64"/>
+      <c r="L223" s="64"/>
+      <c r="M223" s="65"/>
       <c r="P223" s="15">
         <v>1</v>
       </c>
       <c r="R223" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S223" s="65"/>
-      <c r="T223" s="65"/>
-      <c r="U223" s="65"/>
-      <c r="V223" s="65"/>
-      <c r="W223" s="65"/>
-      <c r="X223" s="65"/>
-      <c r="Y223" s="64"/>
+      <c r="S223" s="64"/>
+      <c r="T223" s="64"/>
+      <c r="U223" s="64"/>
+      <c r="V223" s="64"/>
+      <c r="W223" s="64"/>
+      <c r="X223" s="64"/>
+      <c r="Y223" s="65"/>
       <c r="AB223" s="15">
         <v>1</v>
       </c>
@@ -17462,7 +17517,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="224" spans="1:29">
+    <row r="224" spans="1:30">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -17482,26 +17537,26 @@
       <c r="F224" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="65"/>
-      <c r="K224" s="65"/>
-      <c r="L224" s="65"/>
-      <c r="M224" s="64"/>
+      <c r="G224" s="64"/>
+      <c r="H224" s="64"/>
+      <c r="I224" s="64"/>
+      <c r="J224" s="64"/>
+      <c r="K224" s="64"/>
+      <c r="L224" s="64"/>
+      <c r="M224" s="65"/>
       <c r="P224" s="15">
         <v>1</v>
       </c>
       <c r="R224" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S224" s="65"/>
-      <c r="T224" s="65"/>
-      <c r="U224" s="65"/>
-      <c r="V224" s="65"/>
-      <c r="W224" s="65"/>
-      <c r="X224" s="65"/>
-      <c r="Y224" s="64"/>
+      <c r="S224" s="64"/>
+      <c r="T224" s="64"/>
+      <c r="U224" s="64"/>
+      <c r="V224" s="64"/>
+      <c r="W224" s="64"/>
+      <c r="X224" s="64"/>
+      <c r="Y224" s="65"/>
       <c r="AB224" s="15">
         <v>1</v>
       </c>
@@ -17509,7 +17564,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="225" spans="1:29">
+    <row r="225" spans="1:30">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -17529,26 +17584,26 @@
       <c r="F225" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
-      <c r="I225" s="65"/>
-      <c r="J225" s="65"/>
-      <c r="K225" s="65"/>
-      <c r="L225" s="65"/>
-      <c r="M225" s="64"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="64"/>
+      <c r="I225" s="64"/>
+      <c r="J225" s="64"/>
+      <c r="K225" s="64"/>
+      <c r="L225" s="64"/>
+      <c r="M225" s="65"/>
       <c r="P225" s="15">
         <v>1</v>
       </c>
       <c r="R225" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S225" s="65"/>
-      <c r="T225" s="65"/>
-      <c r="U225" s="65"/>
-      <c r="V225" s="65"/>
-      <c r="W225" s="65"/>
-      <c r="X225" s="65"/>
-      <c r="Y225" s="64"/>
+      <c r="S225" s="64"/>
+      <c r="T225" s="64"/>
+      <c r="U225" s="64"/>
+      <c r="V225" s="64"/>
+      <c r="W225" s="64"/>
+      <c r="X225" s="64"/>
+      <c r="Y225" s="65"/>
       <c r="AB225" s="15">
         <v>1</v>
       </c>
@@ -17556,7 +17611,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="226" spans="1:29">
+    <row r="226" spans="1:30">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -17576,26 +17631,26 @@
       <c r="F226" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G226" s="65"/>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
-      <c r="J226" s="65"/>
-      <c r="K226" s="65"/>
-      <c r="L226" s="65"/>
-      <c r="M226" s="64"/>
+      <c r="G226" s="64"/>
+      <c r="H226" s="64"/>
+      <c r="I226" s="64"/>
+      <c r="J226" s="64"/>
+      <c r="K226" s="64"/>
+      <c r="L226" s="64"/>
+      <c r="M226" s="65"/>
       <c r="P226" s="15">
         <v>1</v>
       </c>
       <c r="R226" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S226" s="65"/>
-      <c r="T226" s="65"/>
-      <c r="U226" s="65"/>
-      <c r="V226" s="65"/>
-      <c r="W226" s="65"/>
-      <c r="X226" s="65"/>
-      <c r="Y226" s="64"/>
+      <c r="S226" s="64"/>
+      <c r="T226" s="64"/>
+      <c r="U226" s="64"/>
+      <c r="V226" s="64"/>
+      <c r="W226" s="64"/>
+      <c r="X226" s="64"/>
+      <c r="Y226" s="65"/>
       <c r="AB226" s="15">
         <v>1</v>
       </c>
@@ -17603,7 +17658,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="227" spans="1:29">
+    <row r="227" spans="1:30">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -17623,34 +17678,37 @@
       <c r="F227" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
-      <c r="L227" s="65"/>
-      <c r="M227" s="64"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="64"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="64"/>
+      <c r="K227" s="64"/>
+      <c r="L227" s="64"/>
+      <c r="M227" s="65"/>
       <c r="P227" s="15">
         <v>1</v>
       </c>
       <c r="R227" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S227" s="65"/>
-      <c r="T227" s="65"/>
-      <c r="U227" s="65"/>
-      <c r="V227" s="65"/>
-      <c r="W227" s="65"/>
-      <c r="X227" s="65"/>
-      <c r="Y227" s="64"/>
+      <c r="S227" s="64"/>
+      <c r="T227" s="64"/>
+      <c r="U227" s="64"/>
+      <c r="V227" s="64"/>
+      <c r="W227" s="64"/>
+      <c r="X227" s="64"/>
+      <c r="Y227" s="65"/>
       <c r="AB227" s="15">
         <v>1</v>
       </c>
       <c r="AC227" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="228" spans="1:29">
+      <c r="AD227" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -17670,26 +17728,26 @@
       <c r="F228" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G228" s="65"/>
-      <c r="H228" s="65"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="65"/>
-      <c r="K228" s="65"/>
-      <c r="L228" s="65"/>
-      <c r="M228" s="64"/>
+      <c r="G228" s="64"/>
+      <c r="H228" s="64"/>
+      <c r="I228" s="64"/>
+      <c r="J228" s="64"/>
+      <c r="K228" s="64"/>
+      <c r="L228" s="64"/>
+      <c r="M228" s="65"/>
       <c r="P228" s="15">
         <v>1</v>
       </c>
       <c r="R228" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S228" s="65"/>
-      <c r="T228" s="65"/>
-      <c r="U228" s="65"/>
-      <c r="V228" s="65"/>
-      <c r="W228" s="65"/>
-      <c r="X228" s="65"/>
-      <c r="Y228" s="64"/>
+      <c r="S228" s="64"/>
+      <c r="T228" s="64"/>
+      <c r="U228" s="64"/>
+      <c r="V228" s="64"/>
+      <c r="W228" s="64"/>
+      <c r="X228" s="64"/>
+      <c r="Y228" s="65"/>
       <c r="AB228" s="15">
         <v>1</v>
       </c>
@@ -17697,7 +17755,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="229" spans="1:29">
+    <row r="229" spans="1:30">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -17717,26 +17775,26 @@
       <c r="F229" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G229" s="65"/>
-      <c r="H229" s="65"/>
-      <c r="I229" s="65"/>
-      <c r="J229" s="65"/>
-      <c r="K229" s="65"/>
-      <c r="L229" s="65"/>
-      <c r="M229" s="64"/>
+      <c r="G229" s="64"/>
+      <c r="H229" s="64"/>
+      <c r="I229" s="64"/>
+      <c r="J229" s="64"/>
+      <c r="K229" s="64"/>
+      <c r="L229" s="64"/>
+      <c r="M229" s="65"/>
       <c r="P229" s="15">
         <v>1</v>
       </c>
       <c r="R229" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S229" s="65"/>
-      <c r="T229" s="65"/>
-      <c r="U229" s="65"/>
-      <c r="V229" s="65"/>
-      <c r="W229" s="65"/>
-      <c r="X229" s="65"/>
-      <c r="Y229" s="64"/>
+      <c r="S229" s="64"/>
+      <c r="T229" s="64"/>
+      <c r="U229" s="64"/>
+      <c r="V229" s="64"/>
+      <c r="W229" s="64"/>
+      <c r="X229" s="64"/>
+      <c r="Y229" s="65"/>
       <c r="AB229" s="15">
         <v>1</v>
       </c>
@@ -17744,7 +17802,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="230" spans="1:29">
+    <row r="230" spans="1:30">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -17764,26 +17822,26 @@
       <c r="F230" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G230" s="65"/>
-      <c r="H230" s="65"/>
-      <c r="I230" s="65"/>
-      <c r="J230" s="65"/>
-      <c r="K230" s="65"/>
-      <c r="L230" s="65"/>
-      <c r="M230" s="64"/>
+      <c r="G230" s="64"/>
+      <c r="H230" s="64"/>
+      <c r="I230" s="64"/>
+      <c r="J230" s="64"/>
+      <c r="K230" s="64"/>
+      <c r="L230" s="64"/>
+      <c r="M230" s="65"/>
       <c r="P230" s="15">
         <v>1</v>
       </c>
       <c r="R230" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S230" s="65"/>
-      <c r="T230" s="65"/>
-      <c r="U230" s="65"/>
-      <c r="V230" s="65"/>
-      <c r="W230" s="65"/>
-      <c r="X230" s="65"/>
-      <c r="Y230" s="64"/>
+      <c r="S230" s="64"/>
+      <c r="T230" s="64"/>
+      <c r="U230" s="64"/>
+      <c r="V230" s="64"/>
+      <c r="W230" s="64"/>
+      <c r="X230" s="64"/>
+      <c r="Y230" s="65"/>
       <c r="AB230" s="15">
         <v>1</v>
       </c>
@@ -17791,7 +17849,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" spans="1:30">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -17811,26 +17869,26 @@
       <c r="F231" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G231" s="65"/>
-      <c r="H231" s="65"/>
-      <c r="I231" s="65"/>
-      <c r="J231" s="65"/>
-      <c r="K231" s="65"/>
-      <c r="L231" s="65"/>
-      <c r="M231" s="64"/>
+      <c r="G231" s="64"/>
+      <c r="H231" s="64"/>
+      <c r="I231" s="64"/>
+      <c r="J231" s="64"/>
+      <c r="K231" s="64"/>
+      <c r="L231" s="64"/>
+      <c r="M231" s="65"/>
       <c r="P231" s="15">
         <v>1</v>
       </c>
       <c r="R231" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S231" s="65"/>
-      <c r="T231" s="65"/>
-      <c r="U231" s="65"/>
-      <c r="V231" s="65"/>
-      <c r="W231" s="65"/>
-      <c r="X231" s="65"/>
-      <c r="Y231" s="64"/>
+      <c r="S231" s="64"/>
+      <c r="T231" s="64"/>
+      <c r="U231" s="64"/>
+      <c r="V231" s="64"/>
+      <c r="W231" s="64"/>
+      <c r="X231" s="64"/>
+      <c r="Y231" s="65"/>
       <c r="AB231" s="15">
         <v>1</v>
       </c>
@@ -17838,7 +17896,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="232" spans="1:29">
+    <row r="232" spans="1:30">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -17858,26 +17916,26 @@
       <c r="F232" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G232" s="65"/>
-      <c r="H232" s="65"/>
-      <c r="I232" s="65"/>
-      <c r="J232" s="65"/>
-      <c r="K232" s="65"/>
-      <c r="L232" s="65"/>
-      <c r="M232" s="64"/>
+      <c r="G232" s="64"/>
+      <c r="H232" s="64"/>
+      <c r="I232" s="64"/>
+      <c r="J232" s="64"/>
+      <c r="K232" s="64"/>
+      <c r="L232" s="64"/>
+      <c r="M232" s="65"/>
       <c r="P232" s="15">
         <v>1</v>
       </c>
       <c r="R232" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S232" s="65"/>
-      <c r="T232" s="65"/>
-      <c r="U232" s="65"/>
-      <c r="V232" s="65"/>
-      <c r="W232" s="65"/>
-      <c r="X232" s="65"/>
-      <c r="Y232" s="64"/>
+      <c r="S232" s="64"/>
+      <c r="T232" s="64"/>
+      <c r="U232" s="64"/>
+      <c r="V232" s="64"/>
+      <c r="W232" s="64"/>
+      <c r="X232" s="64"/>
+      <c r="Y232" s="65"/>
       <c r="AB232" s="15">
         <v>1</v>
       </c>
@@ -17885,7 +17943,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="233" spans="1:29">
+    <row r="233" spans="1:30">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -17905,26 +17963,26 @@
       <c r="F233" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G233" s="65"/>
-      <c r="H233" s="65"/>
-      <c r="I233" s="65"/>
-      <c r="J233" s="65"/>
-      <c r="K233" s="65"/>
-      <c r="L233" s="65"/>
-      <c r="M233" s="64"/>
+      <c r="G233" s="64"/>
+      <c r="H233" s="64"/>
+      <c r="I233" s="64"/>
+      <c r="J233" s="64"/>
+      <c r="K233" s="64"/>
+      <c r="L233" s="64"/>
+      <c r="M233" s="65"/>
       <c r="P233" s="15">
         <v>1</v>
       </c>
       <c r="R233" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S233" s="65"/>
-      <c r="T233" s="65"/>
-      <c r="U233" s="65"/>
-      <c r="V233" s="65"/>
-      <c r="W233" s="65"/>
-      <c r="X233" s="65"/>
-      <c r="Y233" s="64"/>
+      <c r="S233" s="64"/>
+      <c r="T233" s="64"/>
+      <c r="U233" s="64"/>
+      <c r="V233" s="64"/>
+      <c r="W233" s="64"/>
+      <c r="X233" s="64"/>
+      <c r="Y233" s="65"/>
       <c r="AB233" s="15">
         <v>1</v>
       </c>
@@ -17932,7 +17990,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="234" spans="1:29">
+    <row r="234" spans="1:30">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -17952,26 +18010,26 @@
       <c r="F234" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G234" s="65"/>
-      <c r="H234" s="65"/>
-      <c r="I234" s="65"/>
-      <c r="J234" s="65"/>
-      <c r="K234" s="65"/>
-      <c r="L234" s="65"/>
-      <c r="M234" s="64"/>
+      <c r="G234" s="64"/>
+      <c r="H234" s="64"/>
+      <c r="I234" s="64"/>
+      <c r="J234" s="64"/>
+      <c r="K234" s="64"/>
+      <c r="L234" s="64"/>
+      <c r="M234" s="65"/>
       <c r="P234" s="15">
         <v>1</v>
       </c>
       <c r="R234" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S234" s="65"/>
-      <c r="T234" s="65"/>
-      <c r="U234" s="65"/>
-      <c r="V234" s="65"/>
-      <c r="W234" s="65"/>
-      <c r="X234" s="65"/>
-      <c r="Y234" s="64"/>
+      <c r="S234" s="64"/>
+      <c r="T234" s="64"/>
+      <c r="U234" s="64"/>
+      <c r="V234" s="64"/>
+      <c r="W234" s="64"/>
+      <c r="X234" s="64"/>
+      <c r="Y234" s="65"/>
       <c r="AB234" s="15">
         <v>1</v>
       </c>
@@ -17979,7 +18037,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="235" spans="1:29">
+    <row r="235" spans="1:30">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -17999,26 +18057,26 @@
       <c r="F235" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G235" s="65"/>
-      <c r="H235" s="65"/>
-      <c r="I235" s="65"/>
-      <c r="J235" s="65"/>
-      <c r="K235" s="65"/>
-      <c r="L235" s="65"/>
-      <c r="M235" s="64"/>
+      <c r="G235" s="64"/>
+      <c r="H235" s="64"/>
+      <c r="I235" s="64"/>
+      <c r="J235" s="64"/>
+      <c r="K235" s="64"/>
+      <c r="L235" s="64"/>
+      <c r="M235" s="65"/>
       <c r="P235" s="15">
         <v>1</v>
       </c>
       <c r="R235" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S235" s="65"/>
-      <c r="T235" s="65"/>
-      <c r="U235" s="65"/>
-      <c r="V235" s="65"/>
-      <c r="W235" s="65"/>
-      <c r="X235" s="65"/>
-      <c r="Y235" s="64"/>
+      <c r="S235" s="64"/>
+      <c r="T235" s="64"/>
+      <c r="U235" s="64"/>
+      <c r="V235" s="64"/>
+      <c r="W235" s="64"/>
+      <c r="X235" s="64"/>
+      <c r="Y235" s="65"/>
       <c r="AB235" s="15">
         <v>1</v>
       </c>
@@ -18026,7 +18084,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="236" spans="1:29">
+    <row r="236" spans="1:30">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -18046,26 +18104,26 @@
       <c r="F236" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G236" s="65"/>
-      <c r="H236" s="65"/>
-      <c r="I236" s="65"/>
-      <c r="J236" s="65"/>
-      <c r="K236" s="65"/>
-      <c r="L236" s="65"/>
-      <c r="M236" s="64"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="64"/>
+      <c r="I236" s="64"/>
+      <c r="J236" s="64"/>
+      <c r="K236" s="64"/>
+      <c r="L236" s="64"/>
+      <c r="M236" s="65"/>
       <c r="P236" s="15">
         <v>1</v>
       </c>
       <c r="R236" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S236" s="65"/>
-      <c r="T236" s="65"/>
-      <c r="U236" s="65"/>
-      <c r="V236" s="65"/>
-      <c r="W236" s="65"/>
-      <c r="X236" s="65"/>
-      <c r="Y236" s="64"/>
+      <c r="S236" s="64"/>
+      <c r="T236" s="64"/>
+      <c r="U236" s="64"/>
+      <c r="V236" s="64"/>
+      <c r="W236" s="64"/>
+      <c r="X236" s="64"/>
+      <c r="Y236" s="65"/>
       <c r="AB236" s="15">
         <v>1</v>
       </c>
@@ -18073,7 +18131,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:29">
+    <row r="237" spans="1:30">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -18093,26 +18151,26 @@
       <c r="F237" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G237" s="65"/>
-      <c r="H237" s="65"/>
-      <c r="I237" s="65"/>
-      <c r="J237" s="65"/>
-      <c r="K237" s="65"/>
-      <c r="L237" s="65"/>
-      <c r="M237" s="64"/>
+      <c r="G237" s="64"/>
+      <c r="H237" s="64"/>
+      <c r="I237" s="64"/>
+      <c r="J237" s="64"/>
+      <c r="K237" s="64"/>
+      <c r="L237" s="64"/>
+      <c r="M237" s="65"/>
       <c r="P237" s="15">
         <v>1</v>
       </c>
       <c r="R237" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S237" s="65"/>
-      <c r="T237" s="65"/>
-      <c r="U237" s="65"/>
-      <c r="V237" s="65"/>
-      <c r="W237" s="65"/>
-      <c r="X237" s="65"/>
-      <c r="Y237" s="64"/>
+      <c r="S237" s="64"/>
+      <c r="T237" s="64"/>
+      <c r="U237" s="64"/>
+      <c r="V237" s="64"/>
+      <c r="W237" s="64"/>
+      <c r="X237" s="64"/>
+      <c r="Y237" s="65"/>
       <c r="AB237" s="15">
         <v>1</v>
       </c>
@@ -18120,7 +18178,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="238" spans="1:29">
+    <row r="238" spans="1:30">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -18140,26 +18198,26 @@
       <c r="F238" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G238" s="65"/>
-      <c r="H238" s="65"/>
-      <c r="I238" s="65"/>
-      <c r="J238" s="65"/>
-      <c r="K238" s="65"/>
-      <c r="L238" s="65"/>
-      <c r="M238" s="64"/>
+      <c r="G238" s="64"/>
+      <c r="H238" s="64"/>
+      <c r="I238" s="64"/>
+      <c r="J238" s="64"/>
+      <c r="K238" s="64"/>
+      <c r="L238" s="64"/>
+      <c r="M238" s="65"/>
       <c r="P238" s="15">
         <v>1</v>
       </c>
       <c r="R238" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S238" s="65"/>
-      <c r="T238" s="65"/>
-      <c r="U238" s="65"/>
-      <c r="V238" s="65"/>
-      <c r="W238" s="65"/>
-      <c r="X238" s="65"/>
-      <c r="Y238" s="64"/>
+      <c r="S238" s="64"/>
+      <c r="T238" s="64"/>
+      <c r="U238" s="64"/>
+      <c r="V238" s="64"/>
+      <c r="W238" s="64"/>
+      <c r="X238" s="64"/>
+      <c r="Y238" s="65"/>
       <c r="AB238" s="15">
         <v>1</v>
       </c>
@@ -18167,7 +18225,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="239" spans="1:29">
+    <row r="239" spans="1:30">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -18187,26 +18245,26 @@
       <c r="F239" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G239" s="65"/>
-      <c r="H239" s="65"/>
-      <c r="I239" s="65"/>
-      <c r="J239" s="65"/>
-      <c r="K239" s="65"/>
-      <c r="L239" s="65"/>
-      <c r="M239" s="64"/>
+      <c r="G239" s="64"/>
+      <c r="H239" s="64"/>
+      <c r="I239" s="64"/>
+      <c r="J239" s="64"/>
+      <c r="K239" s="64"/>
+      <c r="L239" s="64"/>
+      <c r="M239" s="65"/>
       <c r="P239" s="15">
         <v>1</v>
       </c>
       <c r="R239" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S239" s="65"/>
-      <c r="T239" s="65"/>
-      <c r="U239" s="65"/>
-      <c r="V239" s="65"/>
-      <c r="W239" s="65"/>
-      <c r="X239" s="65"/>
-      <c r="Y239" s="64"/>
+      <c r="S239" s="64"/>
+      <c r="T239" s="64"/>
+      <c r="U239" s="64"/>
+      <c r="V239" s="64"/>
+      <c r="W239" s="64"/>
+      <c r="X239" s="64"/>
+      <c r="Y239" s="65"/>
       <c r="AB239" s="15">
         <v>1</v>
       </c>
@@ -18214,7 +18272,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="240" spans="1:29">
+    <row r="240" spans="1:30">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -18234,26 +18292,26 @@
       <c r="F240" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G240" s="65"/>
-      <c r="H240" s="65"/>
-      <c r="I240" s="65"/>
-      <c r="J240" s="65"/>
-      <c r="K240" s="65"/>
-      <c r="L240" s="65"/>
-      <c r="M240" s="64"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="64"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="64"/>
+      <c r="K240" s="64"/>
+      <c r="L240" s="64"/>
+      <c r="M240" s="65"/>
       <c r="P240" s="15">
         <v>1</v>
       </c>
       <c r="R240" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S240" s="65"/>
-      <c r="T240" s="65"/>
-      <c r="U240" s="65"/>
-      <c r="V240" s="65"/>
-      <c r="W240" s="65"/>
-      <c r="X240" s="65"/>
-      <c r="Y240" s="64"/>
+      <c r="S240" s="64"/>
+      <c r="T240" s="64"/>
+      <c r="U240" s="64"/>
+      <c r="V240" s="64"/>
+      <c r="W240" s="64"/>
+      <c r="X240" s="64"/>
+      <c r="Y240" s="65"/>
       <c r="AB240" s="15">
         <v>1</v>
       </c>
@@ -18261,7 +18319,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="241" spans="1:29">
+    <row r="241" spans="1:30">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -18281,34 +18339,37 @@
       <c r="F241" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G241" s="65"/>
-      <c r="H241" s="65"/>
-      <c r="I241" s="65"/>
-      <c r="J241" s="65"/>
-      <c r="K241" s="65"/>
-      <c r="L241" s="65"/>
-      <c r="M241" s="64"/>
+      <c r="G241" s="64"/>
+      <c r="H241" s="64"/>
+      <c r="I241" s="64"/>
+      <c r="J241" s="64"/>
+      <c r="K241" s="64"/>
+      <c r="L241" s="64"/>
+      <c r="M241" s="65"/>
       <c r="P241" s="15">
         <v>1</v>
       </c>
       <c r="R241" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S241" s="65"/>
-      <c r="T241" s="65"/>
-      <c r="U241" s="65"/>
-      <c r="V241" s="65"/>
-      <c r="W241" s="65"/>
-      <c r="X241" s="65"/>
-      <c r="Y241" s="64"/>
+      <c r="S241" s="64"/>
+      <c r="T241" s="64"/>
+      <c r="U241" s="64"/>
+      <c r="V241" s="64"/>
+      <c r="W241" s="64"/>
+      <c r="X241" s="64"/>
+      <c r="Y241" s="65"/>
       <c r="AB241" s="15">
         <v>1</v>
       </c>
       <c r="AC241" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="242" spans="1:29">
+      <c r="AD241" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -18328,26 +18389,26 @@
       <c r="F242" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G242" s="65"/>
-      <c r="H242" s="65"/>
-      <c r="I242" s="65"/>
-      <c r="J242" s="65"/>
-      <c r="K242" s="65"/>
-      <c r="L242" s="65"/>
-      <c r="M242" s="64"/>
+      <c r="G242" s="64"/>
+      <c r="H242" s="64"/>
+      <c r="I242" s="64"/>
+      <c r="J242" s="64"/>
+      <c r="K242" s="64"/>
+      <c r="L242" s="64"/>
+      <c r="M242" s="65"/>
       <c r="P242" s="15">
         <v>1</v>
       </c>
       <c r="R242" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S242" s="65"/>
-      <c r="T242" s="65"/>
-      <c r="U242" s="65"/>
-      <c r="V242" s="65"/>
-      <c r="W242" s="65"/>
-      <c r="X242" s="65"/>
-      <c r="Y242" s="64"/>
+      <c r="S242" s="64"/>
+      <c r="T242" s="64"/>
+      <c r="U242" s="64"/>
+      <c r="V242" s="64"/>
+      <c r="W242" s="64"/>
+      <c r="X242" s="64"/>
+      <c r="Y242" s="65"/>
       <c r="AB242" s="15">
         <v>1</v>
       </c>
@@ -18355,7 +18416,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="243" spans="1:29">
+    <row r="243" spans="1:30">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -18375,26 +18436,26 @@
       <c r="F243" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G243" s="65"/>
-      <c r="H243" s="65"/>
-      <c r="I243" s="65"/>
-      <c r="J243" s="65"/>
-      <c r="K243" s="65"/>
-      <c r="L243" s="65"/>
-      <c r="M243" s="64"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="64"/>
+      <c r="I243" s="64"/>
+      <c r="J243" s="64"/>
+      <c r="K243" s="64"/>
+      <c r="L243" s="64"/>
+      <c r="M243" s="65"/>
       <c r="P243" s="15">
         <v>1</v>
       </c>
       <c r="R243" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S243" s="65"/>
-      <c r="T243" s="65"/>
-      <c r="U243" s="65"/>
-      <c r="V243" s="65"/>
-      <c r="W243" s="65"/>
-      <c r="X243" s="65"/>
-      <c r="Y243" s="64"/>
+      <c r="S243" s="64"/>
+      <c r="T243" s="64"/>
+      <c r="U243" s="64"/>
+      <c r="V243" s="64"/>
+      <c r="W243" s="64"/>
+      <c r="X243" s="64"/>
+      <c r="Y243" s="65"/>
       <c r="AB243" s="15">
         <v>1</v>
       </c>
@@ -18402,7 +18463,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="244" spans="1:29">
+    <row r="244" spans="1:30">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -18422,26 +18483,26 @@
       <c r="F244" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G244" s="65"/>
-      <c r="H244" s="65"/>
-      <c r="I244" s="65"/>
-      <c r="J244" s="65"/>
-      <c r="K244" s="65"/>
-      <c r="L244" s="65"/>
-      <c r="M244" s="64"/>
+      <c r="G244" s="64"/>
+      <c r="H244" s="64"/>
+      <c r="I244" s="64"/>
+      <c r="J244" s="64"/>
+      <c r="K244" s="64"/>
+      <c r="L244" s="64"/>
+      <c r="M244" s="65"/>
       <c r="P244" s="15">
         <v>1</v>
       </c>
       <c r="R244" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S244" s="65"/>
-      <c r="T244" s="65"/>
-      <c r="U244" s="65"/>
-      <c r="V244" s="65"/>
-      <c r="W244" s="65"/>
-      <c r="X244" s="65"/>
-      <c r="Y244" s="64"/>
+      <c r="S244" s="64"/>
+      <c r="T244" s="64"/>
+      <c r="U244" s="64"/>
+      <c r="V244" s="64"/>
+      <c r="W244" s="64"/>
+      <c r="X244" s="64"/>
+      <c r="Y244" s="65"/>
       <c r="AB244" s="15">
         <v>1</v>
       </c>
@@ -18449,7 +18510,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="245" spans="1:29">
+    <row r="245" spans="1:30">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -18469,26 +18530,26 @@
       <c r="F245" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G245" s="65"/>
-      <c r="H245" s="65"/>
-      <c r="I245" s="65"/>
-      <c r="J245" s="65"/>
-      <c r="K245" s="65"/>
-      <c r="L245" s="65"/>
-      <c r="M245" s="64"/>
+      <c r="G245" s="64"/>
+      <c r="H245" s="64"/>
+      <c r="I245" s="64"/>
+      <c r="J245" s="64"/>
+      <c r="K245" s="64"/>
+      <c r="L245" s="64"/>
+      <c r="M245" s="65"/>
       <c r="P245" s="15">
         <v>1</v>
       </c>
       <c r="R245" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S245" s="65"/>
-      <c r="T245" s="65"/>
-      <c r="U245" s="65"/>
-      <c r="V245" s="65"/>
-      <c r="W245" s="65"/>
-      <c r="X245" s="65"/>
-      <c r="Y245" s="64"/>
+      <c r="S245" s="64"/>
+      <c r="T245" s="64"/>
+      <c r="U245" s="64"/>
+      <c r="V245" s="64"/>
+      <c r="W245" s="64"/>
+      <c r="X245" s="64"/>
+      <c r="Y245" s="65"/>
       <c r="AB245" s="15">
         <v>1</v>
       </c>
@@ -18496,7 +18557,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="246" spans="1:29">
+    <row r="246" spans="1:30">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -18516,26 +18577,26 @@
       <c r="F246" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G246" s="65"/>
-      <c r="H246" s="65"/>
-      <c r="I246" s="65"/>
-      <c r="J246" s="65"/>
-      <c r="K246" s="65"/>
-      <c r="L246" s="65"/>
-      <c r="M246" s="64"/>
+      <c r="G246" s="64"/>
+      <c r="H246" s="64"/>
+      <c r="I246" s="64"/>
+      <c r="J246" s="64"/>
+      <c r="K246" s="64"/>
+      <c r="L246" s="64"/>
+      <c r="M246" s="65"/>
       <c r="P246" s="15">
         <v>1</v>
       </c>
       <c r="R246" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S246" s="65"/>
-      <c r="T246" s="65"/>
-      <c r="U246" s="65"/>
-      <c r="V246" s="65"/>
-      <c r="W246" s="65"/>
-      <c r="X246" s="65"/>
-      <c r="Y246" s="64"/>
+      <c r="S246" s="64"/>
+      <c r="T246" s="64"/>
+      <c r="U246" s="64"/>
+      <c r="V246" s="64"/>
+      <c r="W246" s="64"/>
+      <c r="X246" s="64"/>
+      <c r="Y246" s="65"/>
       <c r="AB246" s="15">
         <v>1</v>
       </c>
@@ -18543,7 +18604,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="247" spans="1:29">
+    <row r="247" spans="1:30">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -18563,26 +18624,26 @@
       <c r="F247" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G247" s="65"/>
-      <c r="H247" s="65"/>
-      <c r="I247" s="65"/>
-      <c r="J247" s="65"/>
-      <c r="K247" s="65"/>
-      <c r="L247" s="65"/>
-      <c r="M247" s="64"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
+      <c r="I247" s="64"/>
+      <c r="J247" s="64"/>
+      <c r="K247" s="64"/>
+      <c r="L247" s="64"/>
+      <c r="M247" s="65"/>
       <c r="P247" s="15">
         <v>1</v>
       </c>
       <c r="R247" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S247" s="65"/>
-      <c r="T247" s="65"/>
-      <c r="U247" s="65"/>
-      <c r="V247" s="65"/>
-      <c r="W247" s="65"/>
-      <c r="X247" s="65"/>
-      <c r="Y247" s="64"/>
+      <c r="S247" s="64"/>
+      <c r="T247" s="64"/>
+      <c r="U247" s="64"/>
+      <c r="V247" s="64"/>
+      <c r="W247" s="64"/>
+      <c r="X247" s="64"/>
+      <c r="Y247" s="65"/>
       <c r="AB247" s="15">
         <v>1</v>
       </c>
@@ -18590,7 +18651,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="248" spans="1:29">
+    <row r="248" spans="1:30">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -18610,26 +18671,26 @@
       <c r="F248" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G248" s="65"/>
-      <c r="H248" s="65"/>
-      <c r="I248" s="65"/>
-      <c r="J248" s="65"/>
-      <c r="K248" s="65"/>
-      <c r="L248" s="65"/>
-      <c r="M248" s="64"/>
+      <c r="G248" s="64"/>
+      <c r="H248" s="64"/>
+      <c r="I248" s="64"/>
+      <c r="J248" s="64"/>
+      <c r="K248" s="64"/>
+      <c r="L248" s="64"/>
+      <c r="M248" s="65"/>
       <c r="P248" s="15">
         <v>1</v>
       </c>
       <c r="R248" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S248" s="65"/>
-      <c r="T248" s="65"/>
-      <c r="U248" s="65"/>
-      <c r="V248" s="65"/>
-      <c r="W248" s="65"/>
-      <c r="X248" s="65"/>
-      <c r="Y248" s="64"/>
+      <c r="S248" s="64"/>
+      <c r="T248" s="64"/>
+      <c r="U248" s="64"/>
+      <c r="V248" s="64"/>
+      <c r="W248" s="64"/>
+      <c r="X248" s="64"/>
+      <c r="Y248" s="65"/>
       <c r="AB248" s="15">
         <v>1</v>
       </c>
@@ -18637,7 +18698,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="249" spans="1:29">
+    <row r="249" spans="1:30">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -18657,26 +18718,26 @@
       <c r="F249" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G249" s="65"/>
-      <c r="H249" s="65"/>
-      <c r="I249" s="65"/>
-      <c r="J249" s="65"/>
-      <c r="K249" s="65"/>
-      <c r="L249" s="65"/>
-      <c r="M249" s="64"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="64"/>
+      <c r="I249" s="64"/>
+      <c r="J249" s="64"/>
+      <c r="K249" s="64"/>
+      <c r="L249" s="64"/>
+      <c r="M249" s="65"/>
       <c r="P249" s="15">
         <v>1</v>
       </c>
       <c r="R249" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S249" s="65"/>
-      <c r="T249" s="65"/>
-      <c r="U249" s="65"/>
-      <c r="V249" s="65"/>
-      <c r="W249" s="65"/>
-      <c r="X249" s="65"/>
-      <c r="Y249" s="64"/>
+      <c r="S249" s="64"/>
+      <c r="T249" s="64"/>
+      <c r="U249" s="64"/>
+      <c r="V249" s="64"/>
+      <c r="W249" s="64"/>
+      <c r="X249" s="64"/>
+      <c r="Y249" s="65"/>
       <c r="AB249" s="15">
         <v>1</v>
       </c>
@@ -18684,7 +18745,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="250" spans="1:29">
+    <row r="250" spans="1:30">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -18704,26 +18765,26 @@
       <c r="F250" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G250" s="65"/>
-      <c r="H250" s="65"/>
-      <c r="I250" s="65"/>
-      <c r="J250" s="65"/>
-      <c r="K250" s="65"/>
-      <c r="L250" s="65"/>
-      <c r="M250" s="64"/>
+      <c r="G250" s="64"/>
+      <c r="H250" s="64"/>
+      <c r="I250" s="64"/>
+      <c r="J250" s="64"/>
+      <c r="K250" s="64"/>
+      <c r="L250" s="64"/>
+      <c r="M250" s="65"/>
       <c r="P250" s="15">
         <v>1</v>
       </c>
       <c r="R250" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S250" s="65"/>
-      <c r="T250" s="65"/>
-      <c r="U250" s="65"/>
-      <c r="V250" s="65"/>
-      <c r="W250" s="65"/>
-      <c r="X250" s="65"/>
-      <c r="Y250" s="64"/>
+      <c r="S250" s="64"/>
+      <c r="T250" s="64"/>
+      <c r="U250" s="64"/>
+      <c r="V250" s="64"/>
+      <c r="W250" s="64"/>
+      <c r="X250" s="64"/>
+      <c r="Y250" s="65"/>
       <c r="AB250" s="15">
         <v>1</v>
       </c>
@@ -18731,7 +18792,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="251" spans="1:29">
+    <row r="251" spans="1:30">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -18751,26 +18812,26 @@
       <c r="F251" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G251" s="65"/>
-      <c r="H251" s="65"/>
-      <c r="I251" s="65"/>
-      <c r="J251" s="65"/>
-      <c r="K251" s="65"/>
-      <c r="L251" s="65"/>
-      <c r="M251" s="64"/>
+      <c r="G251" s="64"/>
+      <c r="H251" s="64"/>
+      <c r="I251" s="64"/>
+      <c r="J251" s="64"/>
+      <c r="K251" s="64"/>
+      <c r="L251" s="64"/>
+      <c r="M251" s="65"/>
       <c r="P251" s="15">
         <v>1</v>
       </c>
       <c r="R251" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S251" s="65"/>
-      <c r="T251" s="65"/>
-      <c r="U251" s="65"/>
-      <c r="V251" s="65"/>
-      <c r="W251" s="65"/>
-      <c r="X251" s="65"/>
-      <c r="Y251" s="64"/>
+      <c r="S251" s="64"/>
+      <c r="T251" s="64"/>
+      <c r="U251" s="64"/>
+      <c r="V251" s="64"/>
+      <c r="W251" s="64"/>
+      <c r="X251" s="64"/>
+      <c r="Y251" s="65"/>
       <c r="AB251" s="15">
         <v>1</v>
       </c>
@@ -18778,7 +18839,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="252" spans="1:29">
+    <row r="252" spans="1:30">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -18798,26 +18859,26 @@
       <c r="F252" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G252" s="65"/>
-      <c r="H252" s="65"/>
-      <c r="I252" s="65"/>
-      <c r="J252" s="65"/>
-      <c r="K252" s="65"/>
-      <c r="L252" s="65"/>
-      <c r="M252" s="64"/>
+      <c r="G252" s="64"/>
+      <c r="H252" s="64"/>
+      <c r="I252" s="64"/>
+      <c r="J252" s="64"/>
+      <c r="K252" s="64"/>
+      <c r="L252" s="64"/>
+      <c r="M252" s="65"/>
       <c r="P252" s="15">
         <v>1</v>
       </c>
       <c r="R252" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S252" s="65"/>
-      <c r="T252" s="65"/>
-      <c r="U252" s="65"/>
-      <c r="V252" s="65"/>
-      <c r="W252" s="65"/>
-      <c r="X252" s="65"/>
-      <c r="Y252" s="64"/>
+      <c r="S252" s="64"/>
+      <c r="T252" s="64"/>
+      <c r="U252" s="64"/>
+      <c r="V252" s="64"/>
+      <c r="W252" s="64"/>
+      <c r="X252" s="64"/>
+      <c r="Y252" s="65"/>
       <c r="AB252" s="15">
         <v>1</v>
       </c>
@@ -18825,7 +18886,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="253" spans="1:29">
+    <row r="253" spans="1:30">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -18845,26 +18906,26 @@
       <c r="F253" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G253" s="65"/>
-      <c r="H253" s="65"/>
-      <c r="I253" s="65"/>
-      <c r="J253" s="65"/>
-      <c r="K253" s="65"/>
-      <c r="L253" s="65"/>
-      <c r="M253" s="64"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="64"/>
+      <c r="I253" s="64"/>
+      <c r="J253" s="64"/>
+      <c r="K253" s="64"/>
+      <c r="L253" s="64"/>
+      <c r="M253" s="65"/>
       <c r="P253" s="15">
         <v>1</v>
       </c>
       <c r="R253" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S253" s="65"/>
-      <c r="T253" s="65"/>
-      <c r="U253" s="65"/>
-      <c r="V253" s="65"/>
-      <c r="W253" s="65"/>
-      <c r="X253" s="65"/>
-      <c r="Y253" s="64"/>
+      <c r="S253" s="64"/>
+      <c r="T253" s="64"/>
+      <c r="U253" s="64"/>
+      <c r="V253" s="64"/>
+      <c r="W253" s="64"/>
+      <c r="X253" s="64"/>
+      <c r="Y253" s="65"/>
       <c r="AB253" s="15">
         <v>1</v>
       </c>
@@ -18872,7 +18933,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="254" spans="1:29">
+    <row r="254" spans="1:30">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -18892,26 +18953,26 @@
       <c r="F254" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G254" s="65"/>
-      <c r="H254" s="65"/>
-      <c r="I254" s="65"/>
-      <c r="J254" s="65"/>
-      <c r="K254" s="65"/>
-      <c r="L254" s="65"/>
-      <c r="M254" s="64"/>
+      <c r="G254" s="64"/>
+      <c r="H254" s="64"/>
+      <c r="I254" s="64"/>
+      <c r="J254" s="64"/>
+      <c r="K254" s="64"/>
+      <c r="L254" s="64"/>
+      <c r="M254" s="65"/>
       <c r="P254" s="15">
         <v>1</v>
       </c>
       <c r="R254" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S254" s="65"/>
-      <c r="T254" s="65"/>
-      <c r="U254" s="65"/>
-      <c r="V254" s="65"/>
-      <c r="W254" s="65"/>
-      <c r="X254" s="65"/>
-      <c r="Y254" s="64"/>
+      <c r="S254" s="64"/>
+      <c r="T254" s="64"/>
+      <c r="U254" s="64"/>
+      <c r="V254" s="64"/>
+      <c r="W254" s="64"/>
+      <c r="X254" s="64"/>
+      <c r="Y254" s="65"/>
       <c r="AB254" s="15">
         <v>1</v>
       </c>
@@ -18919,7 +18980,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="255" spans="1:29">
+    <row r="255" spans="1:30">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -18939,26 +19000,26 @@
       <c r="F255" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G255" s="65"/>
-      <c r="H255" s="65"/>
-      <c r="I255" s="65"/>
-      <c r="J255" s="65"/>
-      <c r="K255" s="65"/>
-      <c r="L255" s="65"/>
-      <c r="M255" s="64"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
+      <c r="I255" s="64"/>
+      <c r="J255" s="64"/>
+      <c r="K255" s="64"/>
+      <c r="L255" s="64"/>
+      <c r="M255" s="65"/>
       <c r="P255" s="15">
         <v>1</v>
       </c>
       <c r="R255" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S255" s="65"/>
-      <c r="T255" s="65"/>
-      <c r="U255" s="65"/>
-      <c r="V255" s="65"/>
-      <c r="W255" s="65"/>
-      <c r="X255" s="65"/>
-      <c r="Y255" s="64"/>
+      <c r="S255" s="64"/>
+      <c r="T255" s="64"/>
+      <c r="U255" s="64"/>
+      <c r="V255" s="64"/>
+      <c r="W255" s="64"/>
+      <c r="X255" s="64"/>
+      <c r="Y255" s="65"/>
       <c r="AB255" s="15">
         <v>1</v>
       </c>
@@ -18966,7 +19027,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="256" spans="1:29">
+    <row r="256" spans="1:30">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -18986,26 +19047,26 @@
       <c r="F256" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G256" s="65"/>
-      <c r="H256" s="65"/>
-      <c r="I256" s="65"/>
-      <c r="J256" s="65"/>
-      <c r="K256" s="65"/>
-      <c r="L256" s="65"/>
-      <c r="M256" s="64"/>
+      <c r="G256" s="64"/>
+      <c r="H256" s="64"/>
+      <c r="I256" s="64"/>
+      <c r="J256" s="64"/>
+      <c r="K256" s="64"/>
+      <c r="L256" s="64"/>
+      <c r="M256" s="65"/>
       <c r="P256" s="15">
         <v>1</v>
       </c>
       <c r="R256" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S256" s="65"/>
-      <c r="T256" s="65"/>
-      <c r="U256" s="65"/>
-      <c r="V256" s="65"/>
-      <c r="W256" s="65"/>
-      <c r="X256" s="65"/>
-      <c r="Y256" s="64"/>
+      <c r="S256" s="64"/>
+      <c r="T256" s="64"/>
+      <c r="U256" s="64"/>
+      <c r="V256" s="64"/>
+      <c r="W256" s="64"/>
+      <c r="X256" s="64"/>
+      <c r="Y256" s="65"/>
       <c r="AB256" s="15">
         <v>1</v>
       </c>
@@ -19033,26 +19094,26 @@
       <c r="F257" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G257" s="65"/>
-      <c r="H257" s="65"/>
-      <c r="I257" s="65"/>
-      <c r="J257" s="65"/>
-      <c r="K257" s="65"/>
-      <c r="L257" s="65"/>
-      <c r="M257" s="64"/>
+      <c r="G257" s="64"/>
+      <c r="H257" s="64"/>
+      <c r="I257" s="64"/>
+      <c r="J257" s="64"/>
+      <c r="K257" s="64"/>
+      <c r="L257" s="64"/>
+      <c r="M257" s="65"/>
       <c r="P257" s="15">
         <v>1</v>
       </c>
       <c r="R257" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S257" s="65"/>
-      <c r="T257" s="65"/>
-      <c r="U257" s="65"/>
-      <c r="V257" s="65"/>
-      <c r="W257" s="65"/>
-      <c r="X257" s="65"/>
-      <c r="Y257" s="64"/>
+      <c r="S257" s="64"/>
+      <c r="T257" s="64"/>
+      <c r="U257" s="64"/>
+      <c r="V257" s="64"/>
+      <c r="W257" s="64"/>
+      <c r="X257" s="64"/>
+      <c r="Y257" s="65"/>
       <c r="AB257" s="15">
         <v>1</v>
       </c>
@@ -19080,26 +19141,26 @@
       <c r="F258" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G258" s="65"/>
-      <c r="H258" s="65"/>
-      <c r="I258" s="65"/>
-      <c r="J258" s="65"/>
-      <c r="K258" s="65"/>
-      <c r="L258" s="65"/>
-      <c r="M258" s="64"/>
+      <c r="G258" s="64"/>
+      <c r="H258" s="64"/>
+      <c r="I258" s="64"/>
+      <c r="J258" s="64"/>
+      <c r="K258" s="64"/>
+      <c r="L258" s="64"/>
+      <c r="M258" s="65"/>
       <c r="P258" s="15">
         <v>1</v>
       </c>
       <c r="R258" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S258" s="65"/>
-      <c r="T258" s="65"/>
-      <c r="U258" s="65"/>
-      <c r="V258" s="65"/>
-      <c r="W258" s="65"/>
-      <c r="X258" s="65"/>
-      <c r="Y258" s="64"/>
+      <c r="S258" s="64"/>
+      <c r="T258" s="64"/>
+      <c r="U258" s="64"/>
+      <c r="V258" s="64"/>
+      <c r="W258" s="64"/>
+      <c r="X258" s="64"/>
+      <c r="Y258" s="65"/>
       <c r="AB258" s="15">
         <v>1</v>
       </c>
@@ -19127,26 +19188,26 @@
       <c r="F259" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G259" s="65"/>
-      <c r="H259" s="65"/>
-      <c r="I259" s="65"/>
-      <c r="J259" s="65"/>
-      <c r="K259" s="65"/>
-      <c r="L259" s="65"/>
-      <c r="M259" s="64"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="64"/>
+      <c r="I259" s="64"/>
+      <c r="J259" s="64"/>
+      <c r="K259" s="64"/>
+      <c r="L259" s="64"/>
+      <c r="M259" s="65"/>
       <c r="P259" s="15">
         <v>1</v>
       </c>
       <c r="R259" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S259" s="65"/>
-      <c r="T259" s="65"/>
-      <c r="U259" s="65"/>
-      <c r="V259" s="65"/>
-      <c r="W259" s="65"/>
-      <c r="X259" s="65"/>
-      <c r="Y259" s="64"/>
+      <c r="S259" s="64"/>
+      <c r="T259" s="64"/>
+      <c r="U259" s="64"/>
+      <c r="V259" s="64"/>
+      <c r="W259" s="64"/>
+      <c r="X259" s="64"/>
+      <c r="Y259" s="65"/>
       <c r="AB259" s="15">
         <v>1</v>
       </c>
@@ -19174,26 +19235,26 @@
       <c r="F260" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="65"/>
-      <c r="J260" s="65"/>
-      <c r="K260" s="65"/>
-      <c r="L260" s="65"/>
-      <c r="M260" s="64"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="64"/>
+      <c r="I260" s="64"/>
+      <c r="J260" s="64"/>
+      <c r="K260" s="64"/>
+      <c r="L260" s="64"/>
+      <c r="M260" s="65"/>
       <c r="P260" s="15">
         <v>1</v>
       </c>
       <c r="R260" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S260" s="65"/>
-      <c r="T260" s="65"/>
-      <c r="U260" s="65"/>
-      <c r="V260" s="65"/>
-      <c r="W260" s="65"/>
-      <c r="X260" s="65"/>
-      <c r="Y260" s="64"/>
+      <c r="S260" s="64"/>
+      <c r="T260" s="64"/>
+      <c r="U260" s="64"/>
+      <c r="V260" s="64"/>
+      <c r="W260" s="64"/>
+      <c r="X260" s="64"/>
+      <c r="Y260" s="65"/>
       <c r="AB260" s="15">
         <v>1</v>
       </c>
@@ -19221,26 +19282,26 @@
       <c r="F261" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G261" s="65"/>
-      <c r="H261" s="65"/>
-      <c r="I261" s="65"/>
-      <c r="J261" s="65"/>
-      <c r="K261" s="65"/>
-      <c r="L261" s="65"/>
-      <c r="M261" s="64"/>
+      <c r="G261" s="64"/>
+      <c r="H261" s="64"/>
+      <c r="I261" s="64"/>
+      <c r="J261" s="64"/>
+      <c r="K261" s="64"/>
+      <c r="L261" s="64"/>
+      <c r="M261" s="65"/>
       <c r="P261" s="15">
         <v>1</v>
       </c>
       <c r="R261" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S261" s="65"/>
-      <c r="T261" s="65"/>
-      <c r="U261" s="65"/>
-      <c r="V261" s="65"/>
-      <c r="W261" s="65"/>
-      <c r="X261" s="65"/>
-      <c r="Y261" s="64"/>
+      <c r="S261" s="64"/>
+      <c r="T261" s="64"/>
+      <c r="U261" s="64"/>
+      <c r="V261" s="64"/>
+      <c r="W261" s="64"/>
+      <c r="X261" s="64"/>
+      <c r="Y261" s="65"/>
       <c r="AB261" s="15">
         <v>1</v>
       </c>
@@ -19268,26 +19329,26 @@
       <c r="F262" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G262" s="65"/>
-      <c r="H262" s="65"/>
-      <c r="I262" s="65"/>
-      <c r="J262" s="65"/>
-      <c r="K262" s="65"/>
-      <c r="L262" s="65"/>
-      <c r="M262" s="64"/>
+      <c r="G262" s="64"/>
+      <c r="H262" s="64"/>
+      <c r="I262" s="64"/>
+      <c r="J262" s="64"/>
+      <c r="K262" s="64"/>
+      <c r="L262" s="64"/>
+      <c r="M262" s="65"/>
       <c r="P262" s="15">
         <v>1</v>
       </c>
       <c r="R262" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S262" s="65"/>
-      <c r="T262" s="65"/>
-      <c r="U262" s="65"/>
-      <c r="V262" s="65"/>
-      <c r="W262" s="65"/>
-      <c r="X262" s="65"/>
-      <c r="Y262" s="64"/>
+      <c r="S262" s="64"/>
+      <c r="T262" s="64"/>
+      <c r="U262" s="64"/>
+      <c r="V262" s="64"/>
+      <c r="W262" s="64"/>
+      <c r="X262" s="64"/>
+      <c r="Y262" s="65"/>
       <c r="AB262" s="15">
         <v>1</v>
       </c>
@@ -19315,26 +19376,26 @@
       <c r="F263" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G263" s="65"/>
-      <c r="H263" s="65"/>
-      <c r="I263" s="65"/>
-      <c r="J263" s="65"/>
-      <c r="K263" s="65"/>
-      <c r="L263" s="65"/>
-      <c r="M263" s="64"/>
+      <c r="G263" s="64"/>
+      <c r="H263" s="64"/>
+      <c r="I263" s="64"/>
+      <c r="J263" s="64"/>
+      <c r="K263" s="64"/>
+      <c r="L263" s="64"/>
+      <c r="M263" s="65"/>
       <c r="P263" s="15">
         <v>1</v>
       </c>
       <c r="R263" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S263" s="65"/>
-      <c r="T263" s="65"/>
-      <c r="U263" s="65"/>
-      <c r="V263" s="65"/>
-      <c r="W263" s="65"/>
-      <c r="X263" s="65"/>
-      <c r="Y263" s="64"/>
+      <c r="S263" s="64"/>
+      <c r="T263" s="64"/>
+      <c r="U263" s="64"/>
+      <c r="V263" s="64"/>
+      <c r="W263" s="64"/>
+      <c r="X263" s="64"/>
+      <c r="Y263" s="65"/>
       <c r="AB263" s="15">
         <v>1</v>
       </c>
@@ -19362,26 +19423,26 @@
       <c r="F264" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G264" s="65"/>
-      <c r="H264" s="65"/>
-      <c r="I264" s="65"/>
-      <c r="J264" s="65"/>
-      <c r="K264" s="65"/>
-      <c r="L264" s="65"/>
-      <c r="M264" s="64"/>
+      <c r="G264" s="64"/>
+      <c r="H264" s="64"/>
+      <c r="I264" s="64"/>
+      <c r="J264" s="64"/>
+      <c r="K264" s="64"/>
+      <c r="L264" s="64"/>
+      <c r="M264" s="65"/>
       <c r="P264" s="15">
         <v>1</v>
       </c>
       <c r="R264" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S264" s="65"/>
-      <c r="T264" s="65"/>
-      <c r="U264" s="65"/>
-      <c r="V264" s="65"/>
-      <c r="W264" s="65"/>
-      <c r="X264" s="65"/>
-      <c r="Y264" s="64"/>
+      <c r="S264" s="64"/>
+      <c r="T264" s="64"/>
+      <c r="U264" s="64"/>
+      <c r="V264" s="64"/>
+      <c r="W264" s="64"/>
+      <c r="X264" s="64"/>
+      <c r="Y264" s="65"/>
       <c r="AB264" s="15">
         <v>1</v>
       </c>
@@ -19409,26 +19470,26 @@
       <c r="F265" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G265" s="65"/>
-      <c r="H265" s="65"/>
-      <c r="I265" s="65"/>
-      <c r="J265" s="65"/>
-      <c r="K265" s="65"/>
-      <c r="L265" s="65"/>
-      <c r="M265" s="64"/>
+      <c r="G265" s="64"/>
+      <c r="H265" s="64"/>
+      <c r="I265" s="64"/>
+      <c r="J265" s="64"/>
+      <c r="K265" s="64"/>
+      <c r="L265" s="64"/>
+      <c r="M265" s="65"/>
       <c r="P265" s="15">
         <v>1</v>
       </c>
       <c r="R265" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S265" s="65"/>
-      <c r="T265" s="65"/>
-      <c r="U265" s="65"/>
-      <c r="V265" s="65"/>
-      <c r="W265" s="65"/>
-      <c r="X265" s="65"/>
-      <c r="Y265" s="64"/>
+      <c r="S265" s="64"/>
+      <c r="T265" s="64"/>
+      <c r="U265" s="64"/>
+      <c r="V265" s="64"/>
+      <c r="W265" s="64"/>
+      <c r="X265" s="64"/>
+      <c r="Y265" s="65"/>
       <c r="AB265" s="15">
         <v>1</v>
       </c>
@@ -19456,26 +19517,26 @@
       <c r="F266" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G266" s="65"/>
-      <c r="H266" s="65"/>
-      <c r="I266" s="65"/>
-      <c r="J266" s="65"/>
-      <c r="K266" s="65"/>
-      <c r="L266" s="65"/>
-      <c r="M266" s="64"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="64"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="64"/>
+      <c r="K266" s="64"/>
+      <c r="L266" s="64"/>
+      <c r="M266" s="65"/>
       <c r="P266" s="15">
         <v>1</v>
       </c>
       <c r="R266" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S266" s="65"/>
-      <c r="T266" s="65"/>
-      <c r="U266" s="65"/>
-      <c r="V266" s="65"/>
-      <c r="W266" s="65"/>
-      <c r="X266" s="65"/>
-      <c r="Y266" s="64"/>
+      <c r="S266" s="64"/>
+      <c r="T266" s="64"/>
+      <c r="U266" s="64"/>
+      <c r="V266" s="64"/>
+      <c r="W266" s="64"/>
+      <c r="X266" s="64"/>
+      <c r="Y266" s="65"/>
       <c r="AB266" s="15">
         <v>1</v>
       </c>
@@ -19503,26 +19564,26 @@
       <c r="F267" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G267" s="65"/>
-      <c r="H267" s="65"/>
-      <c r="I267" s="65"/>
-      <c r="J267" s="65"/>
-      <c r="K267" s="65"/>
-      <c r="L267" s="65"/>
-      <c r="M267" s="64"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="64"/>
+      <c r="I267" s="64"/>
+      <c r="J267" s="64"/>
+      <c r="K267" s="64"/>
+      <c r="L267" s="64"/>
+      <c r="M267" s="65"/>
       <c r="P267" s="15">
         <v>1</v>
       </c>
       <c r="R267" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S267" s="65"/>
-      <c r="T267" s="65"/>
-      <c r="U267" s="65"/>
-      <c r="V267" s="65"/>
-      <c r="W267" s="65"/>
-      <c r="X267" s="65"/>
-      <c r="Y267" s="64"/>
+      <c r="S267" s="64"/>
+      <c r="T267" s="64"/>
+      <c r="U267" s="64"/>
+      <c r="V267" s="64"/>
+      <c r="W267" s="64"/>
+      <c r="X267" s="64"/>
+      <c r="Y267" s="65"/>
       <c r="AB267" s="15">
         <v>1</v>
       </c>
@@ -19550,26 +19611,26 @@
       <c r="F268" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G268" s="65"/>
-      <c r="H268" s="65"/>
-      <c r="I268" s="65"/>
-      <c r="J268" s="65"/>
-      <c r="K268" s="65"/>
-      <c r="L268" s="65"/>
-      <c r="M268" s="64"/>
+      <c r="G268" s="64"/>
+      <c r="H268" s="64"/>
+      <c r="I268" s="64"/>
+      <c r="J268" s="64"/>
+      <c r="K268" s="64"/>
+      <c r="L268" s="64"/>
+      <c r="M268" s="65"/>
       <c r="P268" s="15">
         <v>1</v>
       </c>
       <c r="R268" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S268" s="65"/>
-      <c r="T268" s="65"/>
-      <c r="U268" s="65"/>
-      <c r="V268" s="65"/>
-      <c r="W268" s="65"/>
-      <c r="X268" s="65"/>
-      <c r="Y268" s="64"/>
+      <c r="S268" s="64"/>
+      <c r="T268" s="64"/>
+      <c r="U268" s="64"/>
+      <c r="V268" s="64"/>
+      <c r="W268" s="64"/>
+      <c r="X268" s="64"/>
+      <c r="Y268" s="65"/>
       <c r="AB268" s="15">
         <v>1</v>
       </c>
@@ -19597,26 +19658,26 @@
       <c r="F269" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G269" s="65"/>
-      <c r="H269" s="65"/>
-      <c r="I269" s="65"/>
-      <c r="J269" s="65"/>
-      <c r="K269" s="65"/>
-      <c r="L269" s="65"/>
-      <c r="M269" s="64"/>
+      <c r="G269" s="64"/>
+      <c r="H269" s="64"/>
+      <c r="I269" s="64"/>
+      <c r="J269" s="64"/>
+      <c r="K269" s="64"/>
+      <c r="L269" s="64"/>
+      <c r="M269" s="65"/>
       <c r="P269" s="15">
         <v>1</v>
       </c>
       <c r="R269" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S269" s="65"/>
-      <c r="T269" s="65"/>
-      <c r="U269" s="65"/>
-      <c r="V269" s="65"/>
-      <c r="W269" s="65"/>
-      <c r="X269" s="65"/>
-      <c r="Y269" s="64"/>
+      <c r="S269" s="64"/>
+      <c r="T269" s="64"/>
+      <c r="U269" s="64"/>
+      <c r="V269" s="64"/>
+      <c r="W269" s="64"/>
+      <c r="X269" s="64"/>
+      <c r="Y269" s="65"/>
       <c r="AB269" s="15">
         <v>1</v>
       </c>
@@ -19644,26 +19705,26 @@
       <c r="F270" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G270" s="65"/>
-      <c r="H270" s="65"/>
-      <c r="I270" s="65"/>
-      <c r="J270" s="65"/>
-      <c r="K270" s="65"/>
-      <c r="L270" s="65"/>
-      <c r="M270" s="64"/>
+      <c r="G270" s="64"/>
+      <c r="H270" s="64"/>
+      <c r="I270" s="64"/>
+      <c r="J270" s="64"/>
+      <c r="K270" s="64"/>
+      <c r="L270" s="64"/>
+      <c r="M270" s="65"/>
       <c r="P270" s="15">
         <v>1</v>
       </c>
       <c r="R270" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S270" s="65"/>
-      <c r="T270" s="65"/>
-      <c r="U270" s="65"/>
-      <c r="V270" s="65"/>
-      <c r="W270" s="65"/>
-      <c r="X270" s="65"/>
-      <c r="Y270" s="64"/>
+      <c r="S270" s="64"/>
+      <c r="T270" s="64"/>
+      <c r="U270" s="64"/>
+      <c r="V270" s="64"/>
+      <c r="W270" s="64"/>
+      <c r="X270" s="64"/>
+      <c r="Y270" s="65"/>
       <c r="AB270" s="15">
         <v>1</v>
       </c>
@@ -19691,26 +19752,26 @@
       <c r="F271" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G271" s="65"/>
-      <c r="H271" s="65"/>
-      <c r="I271" s="65"/>
-      <c r="J271" s="65"/>
-      <c r="K271" s="65"/>
-      <c r="L271" s="65"/>
-      <c r="M271" s="64"/>
+      <c r="G271" s="64"/>
+      <c r="H271" s="64"/>
+      <c r="I271" s="64"/>
+      <c r="J271" s="64"/>
+      <c r="K271" s="64"/>
+      <c r="L271" s="64"/>
+      <c r="M271" s="65"/>
       <c r="P271" s="15">
         <v>1</v>
       </c>
       <c r="R271" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S271" s="65"/>
-      <c r="T271" s="65"/>
-      <c r="U271" s="65"/>
-      <c r="V271" s="65"/>
-      <c r="W271" s="65"/>
-      <c r="X271" s="65"/>
-      <c r="Y271" s="64"/>
+      <c r="S271" s="64"/>
+      <c r="T271" s="64"/>
+      <c r="U271" s="64"/>
+      <c r="V271" s="64"/>
+      <c r="W271" s="64"/>
+      <c r="X271" s="64"/>
+      <c r="Y271" s="65"/>
       <c r="AB271" s="15">
         <v>1</v>
       </c>
@@ -19738,26 +19799,26 @@
       <c r="F272" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G272" s="65"/>
-      <c r="H272" s="65"/>
-      <c r="I272" s="65"/>
-      <c r="J272" s="65"/>
-      <c r="K272" s="65"/>
-      <c r="L272" s="65"/>
-      <c r="M272" s="64"/>
+      <c r="G272" s="64"/>
+      <c r="H272" s="64"/>
+      <c r="I272" s="64"/>
+      <c r="J272" s="64"/>
+      <c r="K272" s="64"/>
+      <c r="L272" s="64"/>
+      <c r="M272" s="65"/>
       <c r="P272" s="15">
         <v>1</v>
       </c>
       <c r="R272" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S272" s="65"/>
-      <c r="T272" s="65"/>
-      <c r="U272" s="65"/>
-      <c r="V272" s="65"/>
-      <c r="W272" s="65"/>
-      <c r="X272" s="65"/>
-      <c r="Y272" s="64"/>
+      <c r="S272" s="64"/>
+      <c r="T272" s="64"/>
+      <c r="U272" s="64"/>
+      <c r="V272" s="64"/>
+      <c r="W272" s="64"/>
+      <c r="X272" s="64"/>
+      <c r="Y272" s="65"/>
       <c r="AB272" s="15">
         <v>1</v>
       </c>
@@ -19765,7 +19826,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:29">
+    <row r="273" spans="1:30">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -19785,26 +19846,26 @@
       <c r="F273" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G273" s="65"/>
-      <c r="H273" s="65"/>
-      <c r="I273" s="65"/>
-      <c r="J273" s="65"/>
-      <c r="K273" s="65"/>
-      <c r="L273" s="65"/>
-      <c r="M273" s="64"/>
+      <c r="G273" s="64"/>
+      <c r="H273" s="64"/>
+      <c r="I273" s="64"/>
+      <c r="J273" s="64"/>
+      <c r="K273" s="64"/>
+      <c r="L273" s="64"/>
+      <c r="M273" s="65"/>
       <c r="P273" s="15">
         <v>1</v>
       </c>
       <c r="R273" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S273" s="65"/>
-      <c r="T273" s="65"/>
-      <c r="U273" s="65"/>
-      <c r="V273" s="65"/>
-      <c r="W273" s="65"/>
-      <c r="X273" s="65"/>
-      <c r="Y273" s="64"/>
+      <c r="S273" s="64"/>
+      <c r="T273" s="64"/>
+      <c r="U273" s="64"/>
+      <c r="V273" s="64"/>
+      <c r="W273" s="64"/>
+      <c r="X273" s="64"/>
+      <c r="Y273" s="65"/>
       <c r="AB273" s="15">
         <v>1</v>
       </c>
@@ -19812,7 +19873,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="274" spans="1:29">
+    <row r="274" spans="1:30">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -19832,26 +19893,26 @@
       <c r="F274" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G274" s="65"/>
-      <c r="H274" s="65"/>
-      <c r="I274" s="65"/>
-      <c r="J274" s="65"/>
-      <c r="K274" s="65"/>
-      <c r="L274" s="65"/>
-      <c r="M274" s="64"/>
+      <c r="G274" s="64"/>
+      <c r="H274" s="64"/>
+      <c r="I274" s="64"/>
+      <c r="J274" s="64"/>
+      <c r="K274" s="64"/>
+      <c r="L274" s="64"/>
+      <c r="M274" s="65"/>
       <c r="P274" s="15">
         <v>1</v>
       </c>
       <c r="R274" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S274" s="65"/>
-      <c r="T274" s="65"/>
-      <c r="U274" s="65"/>
-      <c r="V274" s="65"/>
-      <c r="W274" s="65"/>
-      <c r="X274" s="65"/>
-      <c r="Y274" s="64"/>
+      <c r="S274" s="64"/>
+      <c r="T274" s="64"/>
+      <c r="U274" s="64"/>
+      <c r="V274" s="64"/>
+      <c r="W274" s="64"/>
+      <c r="X274" s="64"/>
+      <c r="Y274" s="65"/>
       <c r="AB274" s="15">
         <v>1</v>
       </c>
@@ -19859,7 +19920,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="275" spans="1:29">
+    <row r="275" spans="1:30">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -19879,26 +19940,26 @@
       <c r="F275" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G275" s="65"/>
-      <c r="H275" s="65"/>
-      <c r="I275" s="65"/>
-      <c r="J275" s="65"/>
-      <c r="K275" s="65"/>
-      <c r="L275" s="65"/>
-      <c r="M275" s="64"/>
+      <c r="G275" s="64"/>
+      <c r="H275" s="64"/>
+      <c r="I275" s="64"/>
+      <c r="J275" s="64"/>
+      <c r="K275" s="64"/>
+      <c r="L275" s="64"/>
+      <c r="M275" s="65"/>
       <c r="P275" s="15">
         <v>1</v>
       </c>
       <c r="R275" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S275" s="65"/>
-      <c r="T275" s="65"/>
-      <c r="U275" s="65"/>
-      <c r="V275" s="65"/>
-      <c r="W275" s="65"/>
-      <c r="X275" s="65"/>
-      <c r="Y275" s="64"/>
+      <c r="S275" s="64"/>
+      <c r="T275" s="64"/>
+      <c r="U275" s="64"/>
+      <c r="V275" s="64"/>
+      <c r="W275" s="64"/>
+      <c r="X275" s="64"/>
+      <c r="Y275" s="65"/>
       <c r="AB275" s="15">
         <v>1</v>
       </c>
@@ -19906,7 +19967,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="276" spans="1:29">
+    <row r="276" spans="1:30">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -19926,26 +19987,26 @@
       <c r="F276" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G276" s="65"/>
-      <c r="H276" s="65"/>
-      <c r="I276" s="65"/>
-      <c r="J276" s="65"/>
-      <c r="K276" s="65"/>
-      <c r="L276" s="65"/>
-      <c r="M276" s="64"/>
+      <c r="G276" s="64"/>
+      <c r="H276" s="64"/>
+      <c r="I276" s="64"/>
+      <c r="J276" s="64"/>
+      <c r="K276" s="64"/>
+      <c r="L276" s="64"/>
+      <c r="M276" s="65"/>
       <c r="P276" s="15">
         <v>1</v>
       </c>
       <c r="R276" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S276" s="65"/>
-      <c r="T276" s="65"/>
-      <c r="U276" s="65"/>
-      <c r="V276" s="65"/>
-      <c r="W276" s="65"/>
-      <c r="X276" s="65"/>
-      <c r="Y276" s="64"/>
+      <c r="S276" s="64"/>
+      <c r="T276" s="64"/>
+      <c r="U276" s="64"/>
+      <c r="V276" s="64"/>
+      <c r="W276" s="64"/>
+      <c r="X276" s="64"/>
+      <c r="Y276" s="65"/>
       <c r="AB276" s="15">
         <v>1</v>
       </c>
@@ -19953,7 +20014,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="277" spans="1:29">
+    <row r="277" spans="1:30">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -19973,34 +20034,37 @@
       <c r="F277" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G277" s="65"/>
-      <c r="H277" s="65"/>
-      <c r="I277" s="65"/>
-      <c r="J277" s="65"/>
-      <c r="K277" s="65"/>
-      <c r="L277" s="65"/>
-      <c r="M277" s="64"/>
+      <c r="G277" s="64"/>
+      <c r="H277" s="64"/>
+      <c r="I277" s="64"/>
+      <c r="J277" s="64"/>
+      <c r="K277" s="64"/>
+      <c r="L277" s="64"/>
+      <c r="M277" s="65"/>
       <c r="P277" s="15">
         <v>1</v>
       </c>
       <c r="R277" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S277" s="65"/>
-      <c r="T277" s="65"/>
-      <c r="U277" s="65"/>
-      <c r="V277" s="65"/>
-      <c r="W277" s="65"/>
-      <c r="X277" s="65"/>
-      <c r="Y277" s="64"/>
+      <c r="S277" s="64"/>
+      <c r="T277" s="64"/>
+      <c r="U277" s="64"/>
+      <c r="V277" s="64"/>
+      <c r="W277" s="64"/>
+      <c r="X277" s="64"/>
+      <c r="Y277" s="65"/>
       <c r="AB277" s="15">
         <v>1</v>
       </c>
       <c r="AC277" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="278" spans="1:29">
+      <c r="AD277" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -20020,26 +20084,26 @@
       <c r="F278" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G278" s="65"/>
-      <c r="H278" s="65"/>
-      <c r="I278" s="65"/>
-      <c r="J278" s="65"/>
-      <c r="K278" s="65"/>
-      <c r="L278" s="65"/>
-      <c r="M278" s="64"/>
+      <c r="G278" s="64"/>
+      <c r="H278" s="64"/>
+      <c r="I278" s="64"/>
+      <c r="J278" s="64"/>
+      <c r="K278" s="64"/>
+      <c r="L278" s="64"/>
+      <c r="M278" s="65"/>
       <c r="P278" s="15">
         <v>1</v>
       </c>
       <c r="R278" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S278" s="65"/>
-      <c r="T278" s="65"/>
-      <c r="U278" s="65"/>
-      <c r="V278" s="65"/>
-      <c r="W278" s="65"/>
-      <c r="X278" s="65"/>
-      <c r="Y278" s="64"/>
+      <c r="S278" s="64"/>
+      <c r="T278" s="64"/>
+      <c r="U278" s="64"/>
+      <c r="V278" s="64"/>
+      <c r="W278" s="64"/>
+      <c r="X278" s="64"/>
+      <c r="Y278" s="65"/>
       <c r="AB278" s="15">
         <v>1</v>
       </c>
@@ -20047,7 +20111,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="279" spans="1:29">
+    <row r="279" spans="1:30">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -20067,26 +20131,26 @@
       <c r="F279" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G279" s="65"/>
-      <c r="H279" s="65"/>
-      <c r="I279" s="65"/>
-      <c r="J279" s="65"/>
-      <c r="K279" s="65"/>
-      <c r="L279" s="65"/>
-      <c r="M279" s="64"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="64"/>
+      <c r="I279" s="64"/>
+      <c r="J279" s="64"/>
+      <c r="K279" s="64"/>
+      <c r="L279" s="64"/>
+      <c r="M279" s="65"/>
       <c r="P279" s="15">
         <v>1</v>
       </c>
       <c r="R279" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S279" s="65"/>
-      <c r="T279" s="65"/>
-      <c r="U279" s="65"/>
-      <c r="V279" s="65"/>
-      <c r="W279" s="65"/>
-      <c r="X279" s="65"/>
-      <c r="Y279" s="64"/>
+      <c r="S279" s="64"/>
+      <c r="T279" s="64"/>
+      <c r="U279" s="64"/>
+      <c r="V279" s="64"/>
+      <c r="W279" s="64"/>
+      <c r="X279" s="64"/>
+      <c r="Y279" s="65"/>
       <c r="AB279" s="15">
         <v>1</v>
       </c>
@@ -20094,7 +20158,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="280" spans="1:29">
+    <row r="280" spans="1:30">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -20114,26 +20178,26 @@
       <c r="F280" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G280" s="65"/>
-      <c r="H280" s="65"/>
-      <c r="I280" s="65"/>
-      <c r="J280" s="65"/>
-      <c r="K280" s="65"/>
-      <c r="L280" s="65"/>
-      <c r="M280" s="64"/>
+      <c r="G280" s="64"/>
+      <c r="H280" s="64"/>
+      <c r="I280" s="64"/>
+      <c r="J280" s="64"/>
+      <c r="K280" s="64"/>
+      <c r="L280" s="64"/>
+      <c r="M280" s="65"/>
       <c r="P280" s="15">
         <v>1</v>
       </c>
       <c r="R280" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S280" s="65"/>
-      <c r="T280" s="65"/>
-      <c r="U280" s="65"/>
-      <c r="V280" s="65"/>
-      <c r="W280" s="65"/>
-      <c r="X280" s="65"/>
-      <c r="Y280" s="64"/>
+      <c r="S280" s="64"/>
+      <c r="T280" s="64"/>
+      <c r="U280" s="64"/>
+      <c r="V280" s="64"/>
+      <c r="W280" s="64"/>
+      <c r="X280" s="64"/>
+      <c r="Y280" s="65"/>
       <c r="AB280" s="15">
         <v>1</v>
       </c>
@@ -20141,7 +20205,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="281" spans="1:29">
+    <row r="281" spans="1:30">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -20161,26 +20225,26 @@
       <c r="F281" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G281" s="65"/>
-      <c r="H281" s="65"/>
-      <c r="I281" s="65"/>
-      <c r="J281" s="65"/>
-      <c r="K281" s="65"/>
-      <c r="L281" s="65"/>
-      <c r="M281" s="64"/>
+      <c r="G281" s="64"/>
+      <c r="H281" s="64"/>
+      <c r="I281" s="64"/>
+      <c r="J281" s="64"/>
+      <c r="K281" s="64"/>
+      <c r="L281" s="64"/>
+      <c r="M281" s="65"/>
       <c r="P281" s="15">
         <v>1</v>
       </c>
       <c r="R281" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S281" s="65"/>
-      <c r="T281" s="65"/>
-      <c r="U281" s="65"/>
-      <c r="V281" s="65"/>
-      <c r="W281" s="65"/>
-      <c r="X281" s="65"/>
-      <c r="Y281" s="64"/>
+      <c r="S281" s="64"/>
+      <c r="T281" s="64"/>
+      <c r="U281" s="64"/>
+      <c r="V281" s="64"/>
+      <c r="W281" s="64"/>
+      <c r="X281" s="64"/>
+      <c r="Y281" s="65"/>
       <c r="AB281" s="15">
         <v>1</v>
       </c>
@@ -20188,7 +20252,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="282" spans="1:29">
+    <row r="282" spans="1:30">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -20208,26 +20272,26 @@
       <c r="F282" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G282" s="65"/>
-      <c r="H282" s="65"/>
-      <c r="I282" s="65"/>
-      <c r="J282" s="65"/>
-      <c r="K282" s="65"/>
-      <c r="L282" s="65"/>
-      <c r="M282" s="64"/>
+      <c r="G282" s="64"/>
+      <c r="H282" s="64"/>
+      <c r="I282" s="64"/>
+      <c r="J282" s="64"/>
+      <c r="K282" s="64"/>
+      <c r="L282" s="64"/>
+      <c r="M282" s="65"/>
       <c r="P282" s="15">
         <v>1</v>
       </c>
       <c r="R282" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S282" s="65"/>
-      <c r="T282" s="65"/>
-      <c r="U282" s="65"/>
-      <c r="V282" s="65"/>
-      <c r="W282" s="65"/>
-      <c r="X282" s="65"/>
-      <c r="Y282" s="64"/>
+      <c r="S282" s="64"/>
+      <c r="T282" s="64"/>
+      <c r="U282" s="64"/>
+      <c r="V282" s="64"/>
+      <c r="W282" s="64"/>
+      <c r="X282" s="64"/>
+      <c r="Y282" s="65"/>
       <c r="AB282" s="15">
         <v>1</v>
       </c>
@@ -20235,7 +20299,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="283" spans="1:29">
+    <row r="283" spans="1:30">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -20255,26 +20319,26 @@
       <c r="F283" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G283" s="65"/>
-      <c r="H283" s="65"/>
-      <c r="I283" s="65"/>
-      <c r="J283" s="65"/>
-      <c r="K283" s="65"/>
-      <c r="L283" s="65"/>
-      <c r="M283" s="64"/>
+      <c r="G283" s="64"/>
+      <c r="H283" s="64"/>
+      <c r="I283" s="64"/>
+      <c r="J283" s="64"/>
+      <c r="K283" s="64"/>
+      <c r="L283" s="64"/>
+      <c r="M283" s="65"/>
       <c r="P283" s="15">
         <v>1</v>
       </c>
       <c r="R283" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S283" s="65"/>
-      <c r="T283" s="65"/>
-      <c r="U283" s="65"/>
-      <c r="V283" s="65"/>
-      <c r="W283" s="65"/>
-      <c r="X283" s="65"/>
-      <c r="Y283" s="64"/>
+      <c r="S283" s="64"/>
+      <c r="T283" s="64"/>
+      <c r="U283" s="64"/>
+      <c r="V283" s="64"/>
+      <c r="W283" s="64"/>
+      <c r="X283" s="64"/>
+      <c r="Y283" s="65"/>
       <c r="AB283" s="15">
         <v>1</v>
       </c>
@@ -20282,7 +20346,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="284" spans="1:29">
+    <row r="284" spans="1:30">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -20302,26 +20366,26 @@
       <c r="F284" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G284" s="65"/>
-      <c r="H284" s="65"/>
-      <c r="I284" s="65"/>
-      <c r="J284" s="65"/>
-      <c r="K284" s="65"/>
-      <c r="L284" s="65"/>
-      <c r="M284" s="64"/>
+      <c r="G284" s="64"/>
+      <c r="H284" s="64"/>
+      <c r="I284" s="64"/>
+      <c r="J284" s="64"/>
+      <c r="K284" s="64"/>
+      <c r="L284" s="64"/>
+      <c r="M284" s="65"/>
       <c r="P284" s="15">
         <v>1</v>
       </c>
       <c r="R284" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S284" s="65"/>
-      <c r="T284" s="65"/>
-      <c r="U284" s="65"/>
-      <c r="V284" s="65"/>
-      <c r="W284" s="65"/>
-      <c r="X284" s="65"/>
-      <c r="Y284" s="64"/>
+      <c r="S284" s="64"/>
+      <c r="T284" s="64"/>
+      <c r="U284" s="64"/>
+      <c r="V284" s="64"/>
+      <c r="W284" s="64"/>
+      <c r="X284" s="64"/>
+      <c r="Y284" s="65"/>
       <c r="AB284" s="15">
         <v>1</v>
       </c>
@@ -20329,7 +20393,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="285" spans="1:29">
+    <row r="285" spans="1:30">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -20349,26 +20413,26 @@
       <c r="F285" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G285" s="65"/>
-      <c r="H285" s="65"/>
-      <c r="I285" s="65"/>
-      <c r="J285" s="65"/>
-      <c r="K285" s="65"/>
-      <c r="L285" s="65"/>
-      <c r="M285" s="64"/>
+      <c r="G285" s="64"/>
+      <c r="H285" s="64"/>
+      <c r="I285" s="64"/>
+      <c r="J285" s="64"/>
+      <c r="K285" s="64"/>
+      <c r="L285" s="64"/>
+      <c r="M285" s="65"/>
       <c r="P285" s="15">
         <v>1</v>
       </c>
       <c r="R285" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S285" s="65"/>
-      <c r="T285" s="65"/>
-      <c r="U285" s="65"/>
-      <c r="V285" s="65"/>
-      <c r="W285" s="65"/>
-      <c r="X285" s="65"/>
-      <c r="Y285" s="64"/>
+      <c r="S285" s="64"/>
+      <c r="T285" s="64"/>
+      <c r="U285" s="64"/>
+      <c r="V285" s="64"/>
+      <c r="W285" s="64"/>
+      <c r="X285" s="64"/>
+      <c r="Y285" s="65"/>
       <c r="AB285" s="15">
         <v>1</v>
       </c>
@@ -20376,7 +20440,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="286" spans="1:29">
+    <row r="286" spans="1:30">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -20396,26 +20460,26 @@
       <c r="F286" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G286" s="65"/>
-      <c r="H286" s="65"/>
-      <c r="I286" s="65"/>
-      <c r="J286" s="65"/>
-      <c r="K286" s="65"/>
-      <c r="L286" s="65"/>
-      <c r="M286" s="64"/>
+      <c r="G286" s="64"/>
+      <c r="H286" s="64"/>
+      <c r="I286" s="64"/>
+      <c r="J286" s="64"/>
+      <c r="K286" s="64"/>
+      <c r="L286" s="64"/>
+      <c r="M286" s="65"/>
       <c r="P286" s="15">
         <v>1</v>
       </c>
       <c r="R286" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S286" s="65"/>
-      <c r="T286" s="65"/>
-      <c r="U286" s="65"/>
-      <c r="V286" s="65"/>
-      <c r="W286" s="65"/>
-      <c r="X286" s="65"/>
-      <c r="Y286" s="64"/>
+      <c r="S286" s="64"/>
+      <c r="T286" s="64"/>
+      <c r="U286" s="64"/>
+      <c r="V286" s="64"/>
+      <c r="W286" s="64"/>
+      <c r="X286" s="64"/>
+      <c r="Y286" s="65"/>
       <c r="AB286" s="15">
         <v>1</v>
       </c>
@@ -20423,7 +20487,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="287" spans="1:29">
+    <row r="287" spans="1:30">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -20443,26 +20507,26 @@
       <c r="F287" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G287" s="65"/>
-      <c r="H287" s="65"/>
-      <c r="I287" s="65"/>
-      <c r="J287" s="65"/>
-      <c r="K287" s="65"/>
-      <c r="L287" s="65"/>
-      <c r="M287" s="64"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="64"/>
+      <c r="I287" s="64"/>
+      <c r="J287" s="64"/>
+      <c r="K287" s="64"/>
+      <c r="L287" s="64"/>
+      <c r="M287" s="65"/>
       <c r="P287" s="15">
         <v>1</v>
       </c>
       <c r="R287" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S287" s="65"/>
-      <c r="T287" s="65"/>
-      <c r="U287" s="65"/>
-      <c r="V287" s="65"/>
-      <c r="W287" s="65"/>
-      <c r="X287" s="65"/>
-      <c r="Y287" s="64"/>
+      <c r="S287" s="64"/>
+      <c r="T287" s="64"/>
+      <c r="U287" s="64"/>
+      <c r="V287" s="64"/>
+      <c r="W287" s="64"/>
+      <c r="X287" s="64"/>
+      <c r="Y287" s="65"/>
       <c r="AB287" s="15">
         <v>1</v>
       </c>
@@ -20470,7 +20534,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="288" spans="1:29">
+    <row r="288" spans="1:30">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -20490,26 +20554,26 @@
       <c r="F288" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G288" s="65"/>
-      <c r="H288" s="65"/>
-      <c r="I288" s="65"/>
-      <c r="J288" s="65"/>
-      <c r="K288" s="65"/>
-      <c r="L288" s="65"/>
-      <c r="M288" s="64"/>
+      <c r="G288" s="64"/>
+      <c r="H288" s="64"/>
+      <c r="I288" s="64"/>
+      <c r="J288" s="64"/>
+      <c r="K288" s="64"/>
+      <c r="L288" s="64"/>
+      <c r="M288" s="65"/>
       <c r="P288" s="15">
         <v>1</v>
       </c>
       <c r="R288" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S288" s="65"/>
-      <c r="T288" s="65"/>
-      <c r="U288" s="65"/>
-      <c r="V288" s="65"/>
-      <c r="W288" s="65"/>
-      <c r="X288" s="65"/>
-      <c r="Y288" s="64"/>
+      <c r="S288" s="64"/>
+      <c r="T288" s="64"/>
+      <c r="U288" s="64"/>
+      <c r="V288" s="64"/>
+      <c r="W288" s="64"/>
+      <c r="X288" s="64"/>
+      <c r="Y288" s="65"/>
       <c r="AB288" s="15">
         <v>1</v>
       </c>
@@ -20537,26 +20601,26 @@
       <c r="F289" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G289" s="65"/>
-      <c r="H289" s="65"/>
-      <c r="I289" s="65"/>
-      <c r="J289" s="65"/>
-      <c r="K289" s="65"/>
-      <c r="L289" s="65"/>
-      <c r="M289" s="64"/>
+      <c r="G289" s="64"/>
+      <c r="H289" s="64"/>
+      <c r="I289" s="64"/>
+      <c r="J289" s="64"/>
+      <c r="K289" s="64"/>
+      <c r="L289" s="64"/>
+      <c r="M289" s="65"/>
       <c r="P289" s="15">
         <v>1</v>
       </c>
       <c r="R289" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S289" s="65"/>
-      <c r="T289" s="65"/>
-      <c r="U289" s="65"/>
-      <c r="V289" s="65"/>
-      <c r="W289" s="65"/>
-      <c r="X289" s="65"/>
-      <c r="Y289" s="64"/>
+      <c r="S289" s="64"/>
+      <c r="T289" s="64"/>
+      <c r="U289" s="64"/>
+      <c r="V289" s="64"/>
+      <c r="W289" s="64"/>
+      <c r="X289" s="64"/>
+      <c r="Y289" s="65"/>
       <c r="AB289" s="15">
         <v>1</v>
       </c>
@@ -20584,26 +20648,26 @@
       <c r="F290" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G290" s="65"/>
-      <c r="H290" s="65"/>
-      <c r="I290" s="65"/>
-      <c r="J290" s="65"/>
-      <c r="K290" s="65"/>
-      <c r="L290" s="65"/>
-      <c r="M290" s="64"/>
+      <c r="G290" s="64"/>
+      <c r="H290" s="64"/>
+      <c r="I290" s="64"/>
+      <c r="J290" s="64"/>
+      <c r="K290" s="64"/>
+      <c r="L290" s="64"/>
+      <c r="M290" s="65"/>
       <c r="P290" s="15">
         <v>1</v>
       </c>
       <c r="R290" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S290" s="65"/>
-      <c r="T290" s="65"/>
-      <c r="U290" s="65"/>
-      <c r="V290" s="65"/>
-      <c r="W290" s="65"/>
-      <c r="X290" s="65"/>
-      <c r="Y290" s="64"/>
+      <c r="S290" s="64"/>
+      <c r="T290" s="64"/>
+      <c r="U290" s="64"/>
+      <c r="V290" s="64"/>
+      <c r="W290" s="64"/>
+      <c r="X290" s="64"/>
+      <c r="Y290" s="65"/>
       <c r="AB290" s="15">
         <v>1</v>
       </c>
@@ -20629,26 +20693,26 @@
         <v>867900040032776</v>
       </c>
       <c r="F291" s="63" t="s">
-        <v>667</v>
-      </c>
-      <c r="G291" s="65"/>
-      <c r="H291" s="65"/>
-      <c r="I291" s="65"/>
-      <c r="J291" s="65"/>
-      <c r="K291" s="65"/>
-      <c r="L291" s="65"/>
-      <c r="M291" s="64"/>
+        <v>722</v>
+      </c>
+      <c r="G291" s="64"/>
+      <c r="H291" s="64"/>
+      <c r="I291" s="64"/>
+      <c r="J291" s="64"/>
+      <c r="K291" s="64"/>
+      <c r="L291" s="64"/>
+      <c r="M291" s="65"/>
       <c r="P291" s="15">
         <v>1</v>
       </c>
       <c r="R291" s="63"/>
-      <c r="S291" s="65"/>
-      <c r="T291" s="65"/>
-      <c r="U291" s="65"/>
-      <c r="V291" s="65"/>
-      <c r="W291" s="65"/>
-      <c r="X291" s="65"/>
-      <c r="Y291" s="64"/>
+      <c r="S291" s="64"/>
+      <c r="T291" s="64"/>
+      <c r="U291" s="64"/>
+      <c r="V291" s="64"/>
+      <c r="W291" s="64"/>
+      <c r="X291" s="64"/>
+      <c r="Y291" s="65"/>
       <c r="AB291" s="15">
         <v>0</v>
       </c>
@@ -20673,26 +20737,26 @@
       <c r="F292" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="G292" s="65"/>
-      <c r="H292" s="65"/>
-      <c r="I292" s="65"/>
-      <c r="J292" s="65"/>
-      <c r="K292" s="65"/>
-      <c r="L292" s="65"/>
-      <c r="M292" s="64"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="64"/>
+      <c r="I292" s="64"/>
+      <c r="J292" s="64"/>
+      <c r="K292" s="64"/>
+      <c r="L292" s="64"/>
+      <c r="M292" s="65"/>
       <c r="P292" s="15">
         <v>1</v>
       </c>
       <c r="R292" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="S292" s="65"/>
-      <c r="T292" s="65"/>
-      <c r="U292" s="65"/>
-      <c r="V292" s="65"/>
-      <c r="W292" s="65"/>
-      <c r="X292" s="65"/>
-      <c r="Y292" s="64"/>
+      <c r="S292" s="64"/>
+      <c r="T292" s="64"/>
+      <c r="U292" s="64"/>
+      <c r="V292" s="64"/>
+      <c r="W292" s="64"/>
+      <c r="X292" s="64"/>
+      <c r="Y292" s="65"/>
       <c r="AB292" s="15">
         <v>1</v>
       </c>
@@ -20717,26 +20781,26 @@
       <c r="F293" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="65"/>
-      <c r="K293" s="65"/>
-      <c r="L293" s="65"/>
-      <c r="M293" s="64"/>
+      <c r="G293" s="64"/>
+      <c r="H293" s="64"/>
+      <c r="I293" s="64"/>
+      <c r="J293" s="64"/>
+      <c r="K293" s="64"/>
+      <c r="L293" s="64"/>
+      <c r="M293" s="65"/>
       <c r="P293" s="15">
         <v>1</v>
       </c>
       <c r="R293" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="S293" s="65"/>
-      <c r="T293" s="65"/>
-      <c r="U293" s="65"/>
-      <c r="V293" s="65"/>
-      <c r="W293" s="65"/>
-      <c r="X293" s="65"/>
-      <c r="Y293" s="64"/>
+      <c r="S293" s="64"/>
+      <c r="T293" s="64"/>
+      <c r="U293" s="64"/>
+      <c r="V293" s="64"/>
+      <c r="W293" s="64"/>
+      <c r="X293" s="64"/>
+      <c r="Y293" s="65"/>
       <c r="AB293" s="15">
         <v>1</v>
       </c>
@@ -20761,26 +20825,26 @@
       <c r="F294" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="G294" s="65"/>
-      <c r="H294" s="65"/>
-      <c r="I294" s="65"/>
-      <c r="J294" s="65"/>
-      <c r="K294" s="65"/>
-      <c r="L294" s="65"/>
-      <c r="M294" s="64"/>
+      <c r="G294" s="64"/>
+      <c r="H294" s="64"/>
+      <c r="I294" s="64"/>
+      <c r="J294" s="64"/>
+      <c r="K294" s="64"/>
+      <c r="L294" s="64"/>
+      <c r="M294" s="65"/>
       <c r="P294" s="15">
         <v>1</v>
       </c>
       <c r="R294" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="S294" s="65"/>
-      <c r="T294" s="65"/>
-      <c r="U294" s="65"/>
-      <c r="V294" s="65"/>
-      <c r="W294" s="65"/>
-      <c r="X294" s="65"/>
-      <c r="Y294" s="64"/>
+      <c r="S294" s="64"/>
+      <c r="T294" s="64"/>
+      <c r="U294" s="64"/>
+      <c r="V294" s="64"/>
+      <c r="W294" s="64"/>
+      <c r="X294" s="64"/>
+      <c r="Y294" s="65"/>
       <c r="AB294" s="15">
         <v>1</v>
       </c>
@@ -20805,26 +20869,26 @@
       <c r="F295" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G295" s="65"/>
-      <c r="H295" s="65"/>
-      <c r="I295" s="65"/>
-      <c r="J295" s="65"/>
-      <c r="K295" s="65"/>
-      <c r="L295" s="65"/>
-      <c r="M295" s="64"/>
+      <c r="G295" s="64"/>
+      <c r="H295" s="64"/>
+      <c r="I295" s="64"/>
+      <c r="J295" s="64"/>
+      <c r="K295" s="64"/>
+      <c r="L295" s="64"/>
+      <c r="M295" s="65"/>
       <c r="P295" s="15">
         <v>1</v>
       </c>
       <c r="R295" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S295" s="65"/>
-      <c r="T295" s="65"/>
-      <c r="U295" s="65"/>
-      <c r="V295" s="65"/>
-      <c r="W295" s="65"/>
-      <c r="X295" s="65"/>
-      <c r="Y295" s="64"/>
+      <c r="S295" s="64"/>
+      <c r="T295" s="64"/>
+      <c r="U295" s="64"/>
+      <c r="V295" s="64"/>
+      <c r="W295" s="64"/>
+      <c r="X295" s="64"/>
+      <c r="Y295" s="65"/>
       <c r="AB295" s="15">
         <v>1</v>
       </c>
@@ -20849,26 +20913,26 @@
       <c r="F296" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G296" s="65"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="65"/>
-      <c r="L296" s="65"/>
-      <c r="M296" s="64"/>
+      <c r="G296" s="64"/>
+      <c r="H296" s="64"/>
+      <c r="I296" s="64"/>
+      <c r="J296" s="64"/>
+      <c r="K296" s="64"/>
+      <c r="L296" s="64"/>
+      <c r="M296" s="65"/>
       <c r="P296" s="15">
         <v>1</v>
       </c>
       <c r="R296" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S296" s="65"/>
-      <c r="T296" s="65"/>
-      <c r="U296" s="65"/>
-      <c r="V296" s="65"/>
-      <c r="W296" s="65"/>
-      <c r="X296" s="65"/>
-      <c r="Y296" s="64"/>
+      <c r="S296" s="64"/>
+      <c r="T296" s="64"/>
+      <c r="U296" s="64"/>
+      <c r="V296" s="64"/>
+      <c r="W296" s="64"/>
+      <c r="X296" s="64"/>
+      <c r="Y296" s="65"/>
       <c r="AB296" s="15">
         <v>1</v>
       </c>
@@ -20893,26 +20957,26 @@
       <c r="F297" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G297" s="65"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="65"/>
-      <c r="L297" s="65"/>
-      <c r="M297" s="64"/>
+      <c r="G297" s="64"/>
+      <c r="H297" s="64"/>
+      <c r="I297" s="64"/>
+      <c r="J297" s="64"/>
+      <c r="K297" s="64"/>
+      <c r="L297" s="64"/>
+      <c r="M297" s="65"/>
       <c r="P297" s="15">
         <v>1</v>
       </c>
       <c r="R297" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S297" s="65"/>
-      <c r="T297" s="65"/>
-      <c r="U297" s="65"/>
-      <c r="V297" s="65"/>
-      <c r="W297" s="65"/>
-      <c r="X297" s="65"/>
-      <c r="Y297" s="64"/>
+      <c r="S297" s="64"/>
+      <c r="T297" s="64"/>
+      <c r="U297" s="64"/>
+      <c r="V297" s="64"/>
+      <c r="W297" s="64"/>
+      <c r="X297" s="64"/>
+      <c r="Y297" s="65"/>
       <c r="AB297" s="15">
         <v>1</v>
       </c>
@@ -20940,26 +21004,26 @@
       <c r="F298" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="G298" s="65"/>
-      <c r="H298" s="65"/>
-      <c r="I298" s="65"/>
-      <c r="J298" s="65"/>
-      <c r="K298" s="65"/>
-      <c r="L298" s="65"/>
-      <c r="M298" s="64"/>
+      <c r="G298" s="64"/>
+      <c r="H298" s="64"/>
+      <c r="I298" s="64"/>
+      <c r="J298" s="64"/>
+      <c r="K298" s="64"/>
+      <c r="L298" s="64"/>
+      <c r="M298" s="65"/>
       <c r="P298" s="15">
         <v>1</v>
       </c>
       <c r="R298" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="S298" s="65"/>
-      <c r="T298" s="65"/>
-      <c r="U298" s="65"/>
-      <c r="V298" s="65"/>
-      <c r="W298" s="65"/>
-      <c r="X298" s="65"/>
-      <c r="Y298" s="64"/>
+      <c r="S298" s="64"/>
+      <c r="T298" s="64"/>
+      <c r="U298" s="64"/>
+      <c r="V298" s="64"/>
+      <c r="W298" s="64"/>
+      <c r="X298" s="64"/>
+      <c r="Y298" s="65"/>
       <c r="AB298" s="15">
         <v>1</v>
       </c>
@@ -20976,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D299" s="5">
         <v>181004020000233</v>
@@ -20984,26 +21048,26 @@
       <c r="F299" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
-      <c r="L299" s="65"/>
-      <c r="M299" s="64"/>
+      <c r="G299" s="64"/>
+      <c r="H299" s="64"/>
+      <c r="I299" s="64"/>
+      <c r="J299" s="64"/>
+      <c r="K299" s="64"/>
+      <c r="L299" s="64"/>
+      <c r="M299" s="65"/>
       <c r="P299" s="15">
         <v>1</v>
       </c>
       <c r="R299" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S299" s="65"/>
-      <c r="T299" s="65"/>
-      <c r="U299" s="65"/>
-      <c r="V299" s="65"/>
-      <c r="W299" s="65"/>
-      <c r="X299" s="65"/>
-      <c r="Y299" s="64"/>
+      <c r="S299" s="64"/>
+      <c r="T299" s="64"/>
+      <c r="U299" s="64"/>
+      <c r="V299" s="64"/>
+      <c r="W299" s="64"/>
+      <c r="X299" s="64"/>
+      <c r="Y299" s="65"/>
       <c r="Z299" s="15">
         <v>1</v>
       </c>
@@ -21011,7 +21075,7 @@
         <v>1</v>
       </c>
       <c r="AC299" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -21023,21 +21087,21 @@
         <v>0</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D300" s="5">
         <v>181004020000220</v>
       </c>
       <c r="F300" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
-      <c r="L300" s="65"/>
-      <c r="M300" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G300" s="64"/>
+      <c r="H300" s="64"/>
+      <c r="I300" s="64"/>
+      <c r="J300" s="64"/>
+      <c r="K300" s="64"/>
+      <c r="L300" s="64"/>
+      <c r="M300" s="65"/>
       <c r="P300" s="15">
         <v>1</v>
       </c>
@@ -21045,20 +21109,20 @@
         <v>43593</v>
       </c>
       <c r="R300" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="S300" s="64"/>
+      <c r="T300" s="64"/>
+      <c r="U300" s="64"/>
+      <c r="V300" s="64"/>
+      <c r="W300" s="64"/>
+      <c r="X300" s="64"/>
+      <c r="Y300" s="65"/>
+      <c r="AB300" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC300" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="S300" s="65"/>
-      <c r="T300" s="65"/>
-      <c r="U300" s="65"/>
-      <c r="V300" s="65"/>
-      <c r="W300" s="65"/>
-      <c r="X300" s="65"/>
-      <c r="Y300" s="64"/>
-      <c r="AB300" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC300" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -21070,21 +21134,21 @@
         <v>0</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D301" s="5">
         <v>181004020000</v>
       </c>
       <c r="F301" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
-      <c r="L301" s="65"/>
-      <c r="M301" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G301" s="64"/>
+      <c r="H301" s="64"/>
+      <c r="I301" s="64"/>
+      <c r="J301" s="64"/>
+      <c r="K301" s="64"/>
+      <c r="L301" s="64"/>
+      <c r="M301" s="65"/>
       <c r="P301" s="15">
         <v>1</v>
       </c>
@@ -21092,20 +21156,20 @@
         <v>43593</v>
       </c>
       <c r="R301" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="S301" s="64"/>
+      <c r="T301" s="64"/>
+      <c r="U301" s="64"/>
+      <c r="V301" s="64"/>
+      <c r="W301" s="64"/>
+      <c r="X301" s="64"/>
+      <c r="Y301" s="65"/>
+      <c r="AB301" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC301" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="S301" s="65"/>
-      <c r="T301" s="65"/>
-      <c r="U301" s="65"/>
-      <c r="V301" s="65"/>
-      <c r="W301" s="65"/>
-      <c r="X301" s="65"/>
-      <c r="Y301" s="64"/>
-      <c r="AB301" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC301" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -21117,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D302" s="5">
         <v>181004020000058</v>
@@ -21128,13 +21192,13 @@
       <c r="F302" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G302" s="65"/>
-      <c r="H302" s="65"/>
-      <c r="I302" s="65"/>
-      <c r="J302" s="65"/>
-      <c r="K302" s="65"/>
-      <c r="L302" s="65"/>
-      <c r="M302" s="64"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="64"/>
+      <c r="I302" s="64"/>
+      <c r="J302" s="64"/>
+      <c r="K302" s="64"/>
+      <c r="L302" s="64"/>
+      <c r="M302" s="65"/>
       <c r="P302" s="15">
         <v>1</v>
       </c>
@@ -21144,18 +21208,18 @@
       <c r="R302" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S302" s="65"/>
-      <c r="T302" s="65"/>
-      <c r="U302" s="65"/>
-      <c r="V302" s="65"/>
-      <c r="W302" s="65"/>
-      <c r="X302" s="65"/>
-      <c r="Y302" s="64"/>
+      <c r="S302" s="64"/>
+      <c r="T302" s="64"/>
+      <c r="U302" s="64"/>
+      <c r="V302" s="64"/>
+      <c r="W302" s="64"/>
+      <c r="X302" s="64"/>
+      <c r="Y302" s="65"/>
       <c r="AB302" s="15">
         <v>1</v>
       </c>
       <c r="AC302" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -21182,7 +21246,7 @@
         <v>1</v>
       </c>
       <c r="AC303" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -21206,7 +21270,7 @@
         <v>1</v>
       </c>
       <c r="AC304" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -21218,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D305" s="5">
         <v>181004020000138</v>
@@ -21233,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="AC305" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -21242,10 +21306,10 @@
       </c>
       <c r="B306" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D306" s="5">
         <v>181004020000052</v>
@@ -21257,10 +21321,10 @@
         <v>43599</v>
       </c>
       <c r="AB306" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC306" s="1" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -21269,10 +21333,10 @@
       </c>
       <c r="B307" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D307" s="5">
         <v>181004020000199</v>
@@ -21284,10 +21348,10 @@
         <v>43599</v>
       </c>
       <c r="AB307" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC307" s="1" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -21299,7 +21363,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D308" s="5">
         <v>181201020000157</v>
@@ -21317,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D309" s="5">
         <v>181201020000173</v>
@@ -21325,13 +21389,13 @@
       <c r="F309" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G309" s="65"/>
-      <c r="H309" s="65"/>
-      <c r="I309" s="65"/>
-      <c r="J309" s="65"/>
-      <c r="K309" s="65"/>
-      <c r="L309" s="65"/>
-      <c r="M309" s="64"/>
+      <c r="G309" s="64"/>
+      <c r="H309" s="64"/>
+      <c r="I309" s="64"/>
+      <c r="J309" s="64"/>
+      <c r="K309" s="64"/>
+      <c r="L309" s="64"/>
+      <c r="M309" s="65"/>
       <c r="P309" s="15">
         <v>1</v>
       </c>
@@ -21341,18 +21405,18 @@
       <c r="R309" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S309" s="65"/>
-      <c r="T309" s="65"/>
-      <c r="U309" s="65"/>
-      <c r="V309" s="65"/>
-      <c r="W309" s="65"/>
-      <c r="X309" s="65"/>
-      <c r="Y309" s="64"/>
+      <c r="S309" s="64"/>
+      <c r="T309" s="64"/>
+      <c r="U309" s="64"/>
+      <c r="V309" s="64"/>
+      <c r="W309" s="64"/>
+      <c r="X309" s="64"/>
+      <c r="Y309" s="65"/>
       <c r="AB309" s="15">
         <v>1</v>
       </c>
       <c r="AC309" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -21364,21 +21428,21 @@
         <v>0</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D310" s="5">
         <v>181201020000118</v>
       </c>
       <c r="F310" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G310" s="65"/>
-      <c r="H310" s="65"/>
-      <c r="I310" s="65"/>
-      <c r="J310" s="65"/>
-      <c r="K310" s="65"/>
-      <c r="L310" s="65"/>
-      <c r="M310" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G310" s="64"/>
+      <c r="H310" s="64"/>
+      <c r="I310" s="64"/>
+      <c r="J310" s="64"/>
+      <c r="K310" s="64"/>
+      <c r="L310" s="64"/>
+      <c r="M310" s="65"/>
       <c r="P310" s="15">
         <v>1</v>
       </c>
@@ -21386,20 +21450,20 @@
         <v>43600</v>
       </c>
       <c r="R310" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="S310" s="65"/>
-      <c r="T310" s="65"/>
-      <c r="U310" s="65"/>
-      <c r="V310" s="65"/>
-      <c r="W310" s="65"/>
-      <c r="X310" s="65"/>
-      <c r="Y310" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="S310" s="64"/>
+      <c r="T310" s="64"/>
+      <c r="U310" s="64"/>
+      <c r="V310" s="64"/>
+      <c r="W310" s="64"/>
+      <c r="X310" s="64"/>
+      <c r="Y310" s="65"/>
       <c r="AB310" s="15">
         <v>1</v>
       </c>
       <c r="AC310" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -21411,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D311" s="5">
         <v>181201020000115</v>
@@ -21419,13 +21483,13 @@
       <c r="F311" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G311" s="65"/>
-      <c r="H311" s="65"/>
-      <c r="I311" s="65"/>
-      <c r="J311" s="65"/>
-      <c r="K311" s="65"/>
-      <c r="L311" s="65"/>
-      <c r="M311" s="64"/>
+      <c r="G311" s="64"/>
+      <c r="H311" s="64"/>
+      <c r="I311" s="64"/>
+      <c r="J311" s="64"/>
+      <c r="K311" s="64"/>
+      <c r="L311" s="64"/>
+      <c r="M311" s="65"/>
       <c r="P311" s="15">
         <v>1</v>
       </c>
@@ -21435,18 +21499,18 @@
       <c r="R311" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S311" s="65"/>
-      <c r="T311" s="65"/>
-      <c r="U311" s="65"/>
-      <c r="V311" s="65"/>
-      <c r="W311" s="65"/>
-      <c r="X311" s="65"/>
-      <c r="Y311" s="64"/>
+      <c r="S311" s="64"/>
+      <c r="T311" s="64"/>
+      <c r="U311" s="64"/>
+      <c r="V311" s="64"/>
+      <c r="W311" s="64"/>
+      <c r="X311" s="64"/>
+      <c r="Y311" s="65"/>
       <c r="AB311" s="15">
         <v>1</v>
       </c>
       <c r="AC311" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -21458,7 +21522,7 @@
         <v>0</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D312" s="5">
         <v>181201020000116</v>
@@ -21466,13 +21530,13 @@
       <c r="F312" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G312" s="65"/>
-      <c r="H312" s="65"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="65"/>
-      <c r="K312" s="65"/>
-      <c r="L312" s="65"/>
-      <c r="M312" s="64"/>
+      <c r="G312" s="64"/>
+      <c r="H312" s="64"/>
+      <c r="I312" s="64"/>
+      <c r="J312" s="64"/>
+      <c r="K312" s="64"/>
+      <c r="L312" s="64"/>
+      <c r="M312" s="65"/>
       <c r="P312" s="15">
         <v>1</v>
       </c>
@@ -21482,18 +21546,18 @@
       <c r="R312" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S312" s="65"/>
-      <c r="T312" s="65"/>
-      <c r="U312" s="65"/>
-      <c r="V312" s="65"/>
-      <c r="W312" s="65"/>
-      <c r="X312" s="65"/>
-      <c r="Y312" s="64"/>
+      <c r="S312" s="64"/>
+      <c r="T312" s="64"/>
+      <c r="U312" s="64"/>
+      <c r="V312" s="64"/>
+      <c r="W312" s="64"/>
+      <c r="X312" s="64"/>
+      <c r="Y312" s="65"/>
       <c r="AB312" s="15">
         <v>1</v>
       </c>
       <c r="AC312" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -21505,21 +21569,21 @@
         <v>0</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D313" s="5">
         <v>181004020000209</v>
       </c>
       <c r="F313" s="63" t="s">
-        <v>712</v>
-      </c>
-      <c r="G313" s="65"/>
-      <c r="H313" s="65"/>
-      <c r="I313" s="65"/>
-      <c r="J313" s="65"/>
-      <c r="K313" s="65"/>
-      <c r="L313" s="65"/>
-      <c r="M313" s="64"/>
+        <v>711</v>
+      </c>
+      <c r="G313" s="64"/>
+      <c r="H313" s="64"/>
+      <c r="I313" s="64"/>
+      <c r="J313" s="64"/>
+      <c r="K313" s="64"/>
+      <c r="L313" s="64"/>
+      <c r="M313" s="65"/>
       <c r="P313" s="15">
         <v>1</v>
       </c>
@@ -21527,20 +21591,20 @@
         <v>43600</v>
       </c>
       <c r="R313" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="S313" s="64"/>
+      <c r="T313" s="64"/>
+      <c r="U313" s="64"/>
+      <c r="V313" s="64"/>
+      <c r="W313" s="64"/>
+      <c r="X313" s="64"/>
+      <c r="Y313" s="65"/>
+      <c r="AB313" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC313" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="S313" s="65"/>
-      <c r="T313" s="65"/>
-      <c r="U313" s="65"/>
-      <c r="V313" s="65"/>
-      <c r="W313" s="65"/>
-      <c r="X313" s="65"/>
-      <c r="Y313" s="64"/>
-      <c r="AB313" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC313" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -21552,7 +21616,7 @@
         <v>0</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D314" s="5">
         <v>181201020000102</v>
@@ -21560,13 +21624,13 @@
       <c r="F314" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G314" s="65"/>
-      <c r="H314" s="65"/>
-      <c r="I314" s="65"/>
-      <c r="J314" s="65"/>
-      <c r="K314" s="65"/>
-      <c r="L314" s="65"/>
-      <c r="M314" s="64"/>
+      <c r="G314" s="64"/>
+      <c r="H314" s="64"/>
+      <c r="I314" s="64"/>
+      <c r="J314" s="64"/>
+      <c r="K314" s="64"/>
+      <c r="L314" s="64"/>
+      <c r="M314" s="65"/>
       <c r="P314" s="15">
         <v>1</v>
       </c>
@@ -21576,18 +21640,18 @@
       <c r="R314" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S314" s="65"/>
-      <c r="T314" s="65"/>
-      <c r="U314" s="65"/>
-      <c r="V314" s="65"/>
-      <c r="W314" s="65"/>
-      <c r="X314" s="65"/>
-      <c r="Y314" s="64"/>
+      <c r="S314" s="64"/>
+      <c r="T314" s="64"/>
+      <c r="U314" s="64"/>
+      <c r="V314" s="64"/>
+      <c r="W314" s="64"/>
+      <c r="X314" s="64"/>
+      <c r="Y314" s="65"/>
       <c r="AB314" s="15">
         <v>1</v>
       </c>
       <c r="AC314" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -21599,7 +21663,7 @@
         <v>0</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D315" s="5">
         <v>181201020000137</v>
@@ -21607,13 +21671,13 @@
       <c r="F315" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="G315" s="65"/>
-      <c r="H315" s="65"/>
-      <c r="I315" s="65"/>
-      <c r="J315" s="65"/>
-      <c r="K315" s="65"/>
-      <c r="L315" s="65"/>
-      <c r="M315" s="64"/>
+      <c r="G315" s="64"/>
+      <c r="H315" s="64"/>
+      <c r="I315" s="64"/>
+      <c r="J315" s="64"/>
+      <c r="K315" s="64"/>
+      <c r="L315" s="64"/>
+      <c r="M315" s="65"/>
       <c r="P315" s="15">
         <v>1</v>
       </c>
@@ -21623,18 +21687,18 @@
       <c r="R315" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="S315" s="65"/>
-      <c r="T315" s="65"/>
-      <c r="U315" s="65"/>
-      <c r="V315" s="65"/>
-      <c r="W315" s="65"/>
-      <c r="X315" s="65"/>
-      <c r="Y315" s="64"/>
+      <c r="S315" s="64"/>
+      <c r="T315" s="64"/>
+      <c r="U315" s="64"/>
+      <c r="V315" s="64"/>
+      <c r="W315" s="64"/>
+      <c r="X315" s="64"/>
+      <c r="Y315" s="65"/>
       <c r="AB315" s="15">
         <v>1</v>
       </c>
       <c r="AC315" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -21646,21 +21710,21 @@
         <v>0</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D316" s="5">
         <v>181004020000034</v>
       </c>
       <c r="F316" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G316" s="65"/>
-      <c r="H316" s="65"/>
-      <c r="I316" s="65"/>
-      <c r="J316" s="65"/>
-      <c r="K316" s="65"/>
-      <c r="L316" s="65"/>
-      <c r="M316" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G316" s="64"/>
+      <c r="H316" s="64"/>
+      <c r="I316" s="64"/>
+      <c r="J316" s="64"/>
+      <c r="K316" s="64"/>
+      <c r="L316" s="64"/>
+      <c r="M316" s="65"/>
       <c r="P316" s="15">
         <v>1</v>
       </c>
@@ -21668,20 +21732,20 @@
         <v>43602</v>
       </c>
       <c r="R316" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="S316" s="64"/>
+      <c r="T316" s="64"/>
+      <c r="U316" s="64"/>
+      <c r="V316" s="64"/>
+      <c r="W316" s="64"/>
+      <c r="X316" s="64"/>
+      <c r="Y316" s="65"/>
+      <c r="AB316" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC316" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="S316" s="65"/>
-      <c r="T316" s="65"/>
-      <c r="U316" s="65"/>
-      <c r="V316" s="65"/>
-      <c r="W316" s="65"/>
-      <c r="X316" s="65"/>
-      <c r="Y316" s="64"/>
-      <c r="AB316" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC316" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -21693,21 +21757,21 @@
         <v>0</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D317" s="5">
         <v>181004020000053</v>
       </c>
       <c r="F317" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G317" s="65"/>
-      <c r="H317" s="65"/>
-      <c r="I317" s="65"/>
-      <c r="J317" s="65"/>
-      <c r="K317" s="65"/>
-      <c r="L317" s="65"/>
-      <c r="M317" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G317" s="64"/>
+      <c r="H317" s="64"/>
+      <c r="I317" s="64"/>
+      <c r="J317" s="64"/>
+      <c r="K317" s="64"/>
+      <c r="L317" s="64"/>
+      <c r="M317" s="65"/>
       <c r="P317" s="15">
         <v>1</v>
       </c>
@@ -21715,20 +21779,20 @@
         <v>43602</v>
       </c>
       <c r="R317" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="S317" s="64"/>
+      <c r="T317" s="64"/>
+      <c r="U317" s="64"/>
+      <c r="V317" s="64"/>
+      <c r="W317" s="64"/>
+      <c r="X317" s="64"/>
+      <c r="Y317" s="65"/>
+      <c r="AB317" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC317" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="S317" s="65"/>
-      <c r="T317" s="65"/>
-      <c r="U317" s="65"/>
-      <c r="V317" s="65"/>
-      <c r="W317" s="65"/>
-      <c r="X317" s="65"/>
-      <c r="Y317" s="64"/>
-      <c r="AB317" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC317" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -21740,21 +21804,21 @@
         <v>0</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D318" s="5">
         <v>181004020000054</v>
       </c>
       <c r="F318" s="63" t="s">
-        <v>689</v>
-      </c>
-      <c r="G318" s="65"/>
-      <c r="H318" s="65"/>
-      <c r="I318" s="65"/>
-      <c r="J318" s="65"/>
-      <c r="K318" s="65"/>
-      <c r="L318" s="65"/>
-      <c r="M318" s="64"/>
+        <v>688</v>
+      </c>
+      <c r="G318" s="64"/>
+      <c r="H318" s="64"/>
+      <c r="I318" s="64"/>
+      <c r="J318" s="64"/>
+      <c r="K318" s="64"/>
+      <c r="L318" s="64"/>
+      <c r="M318" s="65"/>
       <c r="P318" s="15">
         <v>1</v>
       </c>
@@ -21762,20 +21826,20 @@
         <v>43602</v>
       </c>
       <c r="R318" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="S318" s="64"/>
+      <c r="T318" s="64"/>
+      <c r="U318" s="64"/>
+      <c r="V318" s="64"/>
+      <c r="W318" s="64"/>
+      <c r="X318" s="64"/>
+      <c r="Y318" s="65"/>
+      <c r="AB318" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC318" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="S318" s="65"/>
-      <c r="T318" s="65"/>
-      <c r="U318" s="65"/>
-      <c r="V318" s="65"/>
-      <c r="W318" s="65"/>
-      <c r="X318" s="65"/>
-      <c r="Y318" s="64"/>
-      <c r="AB318" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC318" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -21787,7 +21851,7 @@
         <v>1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D319" s="5">
         <v>181201020000165</v>
@@ -21796,7 +21860,7 @@
         <v>1</v>
       </c>
       <c r="AC319" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -21808,22 +21872,22 @@
         <v>0</v>
       </c>
       <c r="C320" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D320" s="63" t="s">
+        <v>719</v>
+      </c>
+      <c r="E320" s="65"/>
+      <c r="F320" s="63" t="s">
         <v>718</v>
       </c>
-      <c r="D320" s="63" t="s">
-        <v>720</v>
-      </c>
-      <c r="E320" s="64"/>
-      <c r="F320" s="63" t="s">
-        <v>719</v>
-      </c>
-      <c r="G320" s="65"/>
-      <c r="H320" s="65"/>
-      <c r="I320" s="65"/>
-      <c r="J320" s="65"/>
-      <c r="K320" s="65"/>
-      <c r="L320" s="65"/>
-      <c r="M320" s="64"/>
+      <c r="G320" s="64"/>
+      <c r="H320" s="64"/>
+      <c r="I320" s="64"/>
+      <c r="J320" s="64"/>
+      <c r="K320" s="64"/>
+      <c r="L320" s="64"/>
+      <c r="M320" s="65"/>
       <c r="P320" s="15">
         <v>1</v>
       </c>
@@ -21831,32 +21895,64 @@
         <v>43605</v>
       </c>
       <c r="R320" s="63" t="s">
-        <v>719</v>
-      </c>
-      <c r="S320" s="65"/>
-      <c r="T320" s="65"/>
-      <c r="U320" s="65"/>
-      <c r="V320" s="65"/>
-      <c r="W320" s="65"/>
-      <c r="X320" s="65"/>
-      <c r="Y320" s="64"/>
+        <v>718</v>
+      </c>
+      <c r="S320" s="64"/>
+      <c r="T320" s="64"/>
+      <c r="U320" s="64"/>
+      <c r="V320" s="64"/>
+      <c r="W320" s="64"/>
+      <c r="X320" s="64"/>
+      <c r="Y320" s="65"/>
       <c r="AB320" s="15">
         <v>1</v>
       </c>
       <c r="AC320" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D321" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="E321" s="5">
+        <v>860765048141797</v>
+      </c>
+      <c r="F321" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="G321" s="64"/>
+      <c r="H321" s="64"/>
+      <c r="I321" s="64"/>
+      <c r="J321" s="64"/>
+      <c r="K321" s="64"/>
+      <c r="L321" s="64"/>
+      <c r="M321" s="65"/>
+      <c r="P321" s="15">
+        <v>1</v>
+      </c>
+      <c r="R321" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="S321" s="64"/>
+      <c r="T321" s="64"/>
+      <c r="U321" s="64"/>
+      <c r="V321" s="64"/>
+      <c r="W321" s="64"/>
+      <c r="X321" s="64"/>
+      <c r="Y321" s="65"/>
+    </row>
+    <row r="322" spans="1:25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -21865,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -21874,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -21883,14 +21979,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:25">
       <c r="B325" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="415">
+  <mergeCells count="417">
     <mergeCell ref="F220:M220"/>
     <mergeCell ref="F221:M221"/>
     <mergeCell ref="F222:M222"/>
@@ -22263,6 +22359,10 @@
     <mergeCell ref="F292:M292"/>
     <mergeCell ref="F293:M293"/>
     <mergeCell ref="F291:M291"/>
+    <mergeCell ref="R311:Y311"/>
+    <mergeCell ref="R312:Y312"/>
+    <mergeCell ref="R314:Y314"/>
+    <mergeCell ref="R315:Y315"/>
     <mergeCell ref="F294:M294"/>
     <mergeCell ref="F302:M302"/>
     <mergeCell ref="R292:Y292"/>
@@ -22278,18 +22378,10 @@
     <mergeCell ref="F299:M299"/>
     <mergeCell ref="F298:M298"/>
     <mergeCell ref="R298:Y298"/>
-    <mergeCell ref="F313:M313"/>
-    <mergeCell ref="R313:Y313"/>
-    <mergeCell ref="F311:M311"/>
-    <mergeCell ref="F312:M312"/>
-    <mergeCell ref="F314:M314"/>
-    <mergeCell ref="F315:M315"/>
-    <mergeCell ref="R311:Y311"/>
-    <mergeCell ref="R312:Y312"/>
-    <mergeCell ref="R314:Y314"/>
-    <mergeCell ref="R315:Y315"/>
     <mergeCell ref="F309:M309"/>
     <mergeCell ref="R309:Y309"/>
+    <mergeCell ref="F321:M321"/>
+    <mergeCell ref="R321:Y321"/>
     <mergeCell ref="D320:E320"/>
     <mergeCell ref="F320:M320"/>
     <mergeCell ref="R320:Y320"/>
@@ -22306,6 +22398,12 @@
     <mergeCell ref="F316:M316"/>
     <mergeCell ref="F317:M317"/>
     <mergeCell ref="F318:M318"/>
+    <mergeCell ref="F313:M313"/>
+    <mergeCell ref="R313:Y313"/>
+    <mergeCell ref="F311:M311"/>
+    <mergeCell ref="F312:M312"/>
+    <mergeCell ref="F314:M314"/>
+    <mergeCell ref="F315:M315"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:P2 AB1:AB2 AB4:AB1048576 P4:P1048576">
@@ -28558,7 +28656,7 @@
         <v>181004020000233</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -28606,7 +28704,7 @@
         <v>181001020000020</v>
       </c>
       <c r="I353" s="50" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -28657,7 +28755,7 @@
         <v>181201020000173</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -28674,7 +28772,7 @@
         <v>638</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -29001,7 +29099,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -29009,7 +29107,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29017,7 +29115,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -29025,7 +29123,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -29033,7 +29131,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -29041,7 +29139,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -29057,7 +29155,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -29065,7 +29163,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -29073,12 +29171,12 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="95" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B14" s="95"/>
     </row>
@@ -29087,7 +29185,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -29095,7 +29193,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
